--- a/TESOURO DIRETO_0619 - Compra.xlsx
+++ b/TESOURO DIRETO_0619 - Compra.xlsx
@@ -9,24 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="030619" sheetId="9" r:id="rId1"/>
     <sheet name="040619" sheetId="10" r:id="rId2"/>
     <sheet name="050619" sheetId="11" r:id="rId3"/>
-    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId4"/>
-    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId5"/>
-    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId6"/>
-    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId7"/>
-    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId8"/>
+    <sheet name="060619" sheetId="12" r:id="rId4"/>
+    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId5"/>
+    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId6"/>
+    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId7"/>
+    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId8"/>
+    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="25">
   <si>
     <t>Vencimento</t>
   </si>
@@ -503,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -707,6 +708,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,17 +720,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,6 +964,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1041,6 +1039,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,6 +1182,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1253,6 +1257,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,6 +1400,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1465,6 +1475,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1605,6 +1618,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1676,6 +1692,9 @@
                   <c:v>3.65</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
                   <c:v>3.67</c:v>
                 </c:pt>
               </c:numCache>
@@ -1817,6 +1836,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1889,6 +1911,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,6 +2054,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2102,6 +2130,9 @@
                 <c:pt idx="2" formatCode="General">
                   <c:v>4.01</c:v>
                 </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4.05</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2117,11 +2148,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-65029152"/>
-        <c:axId val="-65028608"/>
+        <c:axId val="11693456"/>
+        <c:axId val="11702160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-65029152"/>
+        <c:axId val="11693456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2194,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65028608"/>
+        <c:crossAx val="11702160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2171,7 +2202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-65028608"/>
+        <c:axId val="11702160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,7 +2252,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65029152"/>
+        <c:crossAx val="11693456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2472,6 +2503,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2544,6 +2578,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,8 +2618,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-102204624"/>
-        <c:axId val="-102202992"/>
+        <c:axId val="11694544"/>
+        <c:axId val="11697264"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2715,6 +2752,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -2789,6 +2829,9 @@
                       </c:pt>
                       <c:pt idx="2" formatCode="General">
                         <c:v>3.93</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>3.94</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2926,6 +2969,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3001,6 +3047,9 @@
                       <c:pt idx="2" formatCode="General">
                         <c:v>3.93</c:v>
                       </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>3.94</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3011,7 +3060,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-102204624"/>
+        <c:axId val="11694544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +3094,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-102202992"/>
+        <c:crossAx val="11697264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3053,7 +3102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-102202992"/>
+        <c:axId val="11697264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,7 +3112,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-102204624"/>
+        <c:crossAx val="11694544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3155,6 +3204,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3259,6 +3309,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3298,6 +3349,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3370,6 +3424,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3407,8 +3464,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-102199728"/>
-        <c:axId val="-102199184"/>
+        <c:axId val="11699984"/>
+        <c:axId val="1980280688"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3541,6 +3598,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3615,6 +3675,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>53.68</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>53.72</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3752,6 +3815,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3827,6 +3893,9 @@
                       <c:pt idx="2">
                         <c:v>35.01</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>34.97</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3837,7 +3906,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-102199728"/>
+        <c:axId val="11699984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3871,7 +3940,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-102199184"/>
+        <c:crossAx val="1980280688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3879,7 +3948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-102199184"/>
+        <c:axId val="1980280688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3889,7 +3958,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-102199728"/>
+        <c:crossAx val="11699984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3903,6 +3972,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4184,6 +4254,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4256,6 +4329,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,6 +4456,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4452,6 +4531,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4576,6 +4658,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4649,6 +4734,9 @@
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.93</c:v>
                 </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.94</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4665,11 +4753,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-102212240"/>
-        <c:axId val="-203205472"/>
+        <c:axId val="1980282864"/>
+        <c:axId val="1980274704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-102212240"/>
+        <c:axId val="1980282864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4712,7 +4800,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-203205472"/>
+        <c:crossAx val="1980274704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4720,7 +4808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-203205472"/>
+        <c:axId val="1980274704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4730,7 +4818,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-102212240"/>
+        <c:crossAx val="1980282864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4968,6 +5056,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5040,6 +5131,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3751.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3752.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5077,11 +5171,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-203210912"/>
-        <c:axId val="-1963716048"/>
+        <c:axId val="1960845216"/>
+        <c:axId val="122819936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-203210912"/>
+        <c:axId val="1960845216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5115,7 +5209,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963716048"/>
+        <c:crossAx val="122819936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5123,7 +5217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963716048"/>
+        <c:axId val="122819936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5133,7 +5227,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-203210912"/>
+        <c:crossAx val="1960845216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5367,6 +5461,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5439,6 +5536,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4046.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4043.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5476,8 +5576,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963713872"/>
-        <c:axId val="-1963711696"/>
+        <c:axId val="122815584"/>
+        <c:axId val="122817760"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -5610,6 +5710,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -5684,6 +5787,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>3751.51</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3752.34</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5821,6 +5927,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -5896,6 +6005,9 @@
                       <c:pt idx="2">
                         <c:v>4413.34</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4386.4799999999996</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5906,7 +6018,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963713872"/>
+        <c:axId val="122815584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5940,7 +6052,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963711696"/>
+        <c:crossAx val="122817760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5948,7 +6060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963711696"/>
+        <c:axId val="122817760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5958,7 +6070,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963713872"/>
+        <c:crossAx val="122815584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6192,6 +6304,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -6264,6 +6379,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4413.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4386.4799999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6301,8 +6419,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963713328"/>
-        <c:axId val="-1963718768"/>
+        <c:axId val="122821568"/>
+        <c:axId val="122819392"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6435,6 +6553,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6509,6 +6630,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>3751.51</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3752.34</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6646,6 +6770,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6721,6 +6848,9 @@
                       <c:pt idx="2">
                         <c:v>4046.61</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4043.21</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6731,7 +6861,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963713328"/>
+        <c:axId val="122821568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6765,7 +6895,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963718768"/>
+        <c:crossAx val="122819392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6773,7 +6903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963718768"/>
+        <c:axId val="122819392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6783,7 +6913,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963713328"/>
+        <c:crossAx val="122821568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6874,6 +7004,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6978,6 +7109,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7017,6 +7149,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -7089,6 +7224,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>44.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7126,8 +7264,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963720944"/>
-        <c:axId val="-1963710608"/>
+        <c:axId val="122817216"/>
+        <c:axId val="122822112"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7260,6 +7398,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7334,6 +7475,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>37.51</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>37.520000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7471,6 +7615,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7546,6 +7693,9 @@
                       <c:pt idx="2">
                         <c:v>40.46</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40.43</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -7556,7 +7706,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963720944"/>
+        <c:axId val="122817216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7590,7 +7740,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963710608"/>
+        <c:crossAx val="122822112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7598,7 +7748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963710608"/>
+        <c:axId val="122822112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7608,7 +7758,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963720944"/>
+        <c:crossAx val="122817216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7622,6 +7772,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7844,6 +7995,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -7916,6 +8070,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>40.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7953,8 +8110,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963717136"/>
-        <c:axId val="-1963707888"/>
+        <c:axId val="122816128"/>
+        <c:axId val="122822656"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -8087,6 +8244,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8161,6 +8321,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>37.51</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>37.520000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8298,6 +8461,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8373,6 +8539,9 @@
                       <c:pt idx="2">
                         <c:v>44.13</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43.86</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8383,7 +8552,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963717136"/>
+        <c:axId val="122816128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8417,7 +8586,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963707888"/>
+        <c:crossAx val="122822656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8425,7 +8594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963707888"/>
+        <c:axId val="122822656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8435,7 +8604,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963717136"/>
+        <c:crossAx val="122816128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8672,6 +8841,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -8744,6 +8916,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>37.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.520000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8781,11 +8956,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963708976"/>
-        <c:axId val="-1963711152"/>
+        <c:axId val="122823744"/>
+        <c:axId val="122814496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963708976"/>
+        <c:axId val="122823744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8819,7 +8994,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963711152"/>
+        <c:crossAx val="122814496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8827,7 +9002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963711152"/>
+        <c:axId val="122814496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8837,7 +9012,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963708976"/>
+        <c:crossAx val="122823744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9074,6 +9249,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9145,6 +9323,9 @@
                   <c:v>3.65</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
                   <c:v>3.67</c:v>
                 </c:pt>
               </c:numCache>
@@ -9183,8 +9364,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963709520"/>
-        <c:axId val="-1963715504"/>
+        <c:axId val="122823200"/>
+        <c:axId val="122824288"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9317,6 +9498,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9391,6 +9575,9 @@
                       </c:pt>
                       <c:pt idx="2" formatCode="General">
                         <c:v>3.86</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>3.87</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9528,6 +9715,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9603,6 +9793,9 @@
                       <c:pt idx="2" formatCode="General">
                         <c:v>4.01</c:v>
                       </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>4.05</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -9613,7 +9806,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963709520"/>
+        <c:axId val="122823200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9647,7 +9840,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963715504"/>
+        <c:crossAx val="122824288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9655,7 +9848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963715504"/>
+        <c:axId val="122824288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9665,7 +9858,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963709520"/>
+        <c:crossAx val="122823200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9873,6 +10066,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9945,6 +10141,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>6.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10007,6 +10206,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10079,6 +10281,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>7.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10141,6 +10346,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10214,6 +10422,9 @@
                 <c:pt idx="2" formatCode="General">
                   <c:v>8.1199999999999992</c:v>
                 </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>8.23</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10228,11 +10439,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="-65024256"/>
-        <c:axId val="-65026976"/>
+        <c:axId val="11700528"/>
+        <c:axId val="11691824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-65024256"/>
+        <c:axId val="11700528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10293,7 +10504,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65026976"/>
+        <c:crossAx val="11691824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10301,7 +10512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-65026976"/>
+        <c:axId val="11691824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10362,7 +10573,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65024256"/>
+        <c:crossAx val="11700528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10604,6 +10815,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10676,6 +10890,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10713,8 +10930,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963710064"/>
-        <c:axId val="-1963716592"/>
+        <c:axId val="122811232"/>
+        <c:axId val="122816672"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -10847,6 +11064,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -10920,6 +11140,9 @@
                         <c:v>3.65</c:v>
                       </c:pt>
                       <c:pt idx="2" formatCode="General">
+                        <c:v>3.67</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
                         <c:v>3.67</c:v>
                       </c:pt>
                     </c:numCache>
@@ -11058,6 +11281,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11133,6 +11359,9 @@
                       <c:pt idx="2" formatCode="General">
                         <c:v>4.01</c:v>
                       </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>4.05</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -11143,7 +11372,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963710064"/>
+        <c:axId val="122811232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11177,7 +11406,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963716592"/>
+        <c:crossAx val="122816672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11185,7 +11414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963716592"/>
+        <c:axId val="122816672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11195,7 +11424,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963710064"/>
+        <c:crossAx val="122811232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11287,6 +11516,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11391,6 +11621,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11430,6 +11661,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11502,6 +11736,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11539,8 +11776,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963707344"/>
-        <c:axId val="-1963708432"/>
+        <c:axId val="122824832"/>
+        <c:axId val="122825920"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -11673,6 +11910,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11746,6 +11986,9 @@
                         <c:v>3.65</c:v>
                       </c:pt>
                       <c:pt idx="2" formatCode="General">
+                        <c:v>3.67</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
                         <c:v>3.67</c:v>
                       </c:pt>
                     </c:numCache>
@@ -11884,6 +12127,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11959,6 +12205,9 @@
                       <c:pt idx="2" formatCode="General">
                         <c:v>3.86</c:v>
                       </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>3.87</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -11969,7 +12218,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963707344"/>
+        <c:axId val="122824832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12003,7 +12252,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963708432"/>
+        <c:crossAx val="122825920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12011,7 +12260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963708432"/>
+        <c:axId val="122825920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12021,7 +12270,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963707344"/>
+        <c:crossAx val="122824832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12035,6 +12284,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12257,6 +12507,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12329,6 +12582,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>6.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12366,8 +12622,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963720400"/>
-        <c:axId val="-1963719312"/>
+        <c:axId val="122818304"/>
+        <c:axId val="122811776"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12500,6 +12756,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -12574,6 +12833,9 @@
                       </c:pt>
                       <c:pt idx="2" formatCode="General">
                         <c:v>7.8</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>7.9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12711,6 +12973,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -12786,6 +13051,9 @@
                       <c:pt idx="2" formatCode="General">
                         <c:v>8.1199999999999992</c:v>
                       </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>8.23</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -12796,7 +13064,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963720400"/>
+        <c:axId val="122818304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12830,7 +13098,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963719312"/>
+        <c:crossAx val="122811776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12838,7 +13106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963719312"/>
+        <c:axId val="122811776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12848,7 +13116,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963720400"/>
+        <c:crossAx val="122818304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12940,6 +13208,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13044,6 +13313,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13083,6 +13353,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -13155,6 +13428,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>7.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13192,8 +13468,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963714960"/>
-        <c:axId val="-1963706800"/>
+        <c:axId val="122812320"/>
+        <c:axId val="122812864"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13326,6 +13602,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13400,6 +13679,9 @@
                       </c:pt>
                       <c:pt idx="2" formatCode="General">
                         <c:v>6.86</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>6.93</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13537,6 +13819,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13612,6 +13897,9 @@
                       <c:pt idx="2" formatCode="General">
                         <c:v>8.1199999999999992</c:v>
                       </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>8.23</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -13622,7 +13910,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963714960"/>
+        <c:axId val="122812320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13656,7 +13944,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963706800"/>
+        <c:crossAx val="122812864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13664,7 +13952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963706800"/>
+        <c:axId val="122812864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13674,7 +13962,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963714960"/>
+        <c:crossAx val="122812320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13688,6 +13976,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13908,6 +14197,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -13980,6 +14272,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>8.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14017,8 +14312,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963712240"/>
-        <c:axId val="-1963714416"/>
+        <c:axId val="122813408"/>
+        <c:axId val="122813952"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -14151,6 +14446,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14225,6 +14523,9 @@
                       </c:pt>
                       <c:pt idx="2" formatCode="General">
                         <c:v>6.86</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>6.93</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14362,6 +14663,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14437,6 +14741,9 @@
                       <c:pt idx="2" formatCode="General">
                         <c:v>7.8</c:v>
                       </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>7.9</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -14447,7 +14754,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963712240"/>
+        <c:axId val="122813408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14481,7 +14788,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963714416"/>
+        <c:crossAx val="122813952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14489,7 +14796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963714416"/>
+        <c:axId val="122813952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14499,7 +14806,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963712240"/>
+        <c:crossAx val="122813408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14735,6 +15042,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -14807,6 +15117,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>33.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14844,8 +15157,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963706256"/>
-        <c:axId val="-1963712784"/>
+        <c:axId val="122825376"/>
+        <c:axId val="122826464"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -14978,6 +15291,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15052,6 +15368,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>32.92</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>32.76</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15189,6 +15508,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15264,6 +15586,9 @@
                       <c:pt idx="2">
                         <c:v>34.86</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>34.65</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -15274,7 +15599,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963706256"/>
+        <c:axId val="122825376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15308,7 +15633,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963712784"/>
+        <c:crossAx val="122826464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15316,7 +15641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963712784"/>
+        <c:axId val="122826464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15326,7 +15651,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963706256"/>
+        <c:crossAx val="122825376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15418,6 +15743,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15522,6 +15848,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15561,6 +15888,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -15633,6 +15963,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>32.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15670,8 +16003,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963721488"/>
-        <c:axId val="-1963719856"/>
+        <c:axId val="122818848"/>
+        <c:axId val="122815040"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -15804,6 +16137,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15878,6 +16214,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>33.72</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33.67</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16015,6 +16354,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16090,6 +16432,9 @@
                       <c:pt idx="2">
                         <c:v>34.86</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>34.65</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -16100,7 +16445,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963721488"/>
+        <c:axId val="122818848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16134,7 +16479,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963719856"/>
+        <c:crossAx val="122815040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16142,7 +16487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963719856"/>
+        <c:axId val="122815040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16152,7 +16497,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963721488"/>
+        <c:crossAx val="122818848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16166,6 +16511,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16386,6 +16732,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -16458,6 +16807,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>34.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16495,8 +16847,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1963718224"/>
-        <c:axId val="-1963717680"/>
+        <c:axId val="122820480"/>
+        <c:axId val="122821024"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -16629,6 +16981,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16703,6 +17058,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>33.72</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33.67</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16840,6 +17198,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16915,6 +17276,9 @@
                       <c:pt idx="2">
                         <c:v>32.92</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>32.76</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -16925,7 +17289,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1963718224"/>
+        <c:axId val="122820480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16959,7 +17323,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1963717680"/>
+        <c:crossAx val="122821024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16967,7 +17331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1963717680"/>
+        <c:axId val="122821024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16977,7 +17341,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1963718224"/>
+        <c:crossAx val="122820480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17211,6 +17575,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -17283,6 +17650,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1162.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1155.1500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17320,8 +17690,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1960971056"/>
-        <c:axId val="-1960959632"/>
+        <c:axId val="124322144"/>
+        <c:axId val="124327584"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -17454,6 +17824,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17528,6 +17901,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>843.14</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>841.95</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17665,6 +18041,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17740,6 +18119,9 @@
                       <c:pt idx="2">
                         <c:v>658.45</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>655.26</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -17750,7 +18132,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1960971056"/>
+        <c:axId val="124322144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17784,7 +18166,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1960959632"/>
+        <c:crossAx val="124327584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17792,7 +18174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1960959632"/>
+        <c:axId val="124327584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17802,7 +18184,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1960971056"/>
+        <c:crossAx val="124322144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18036,6 +18418,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -18108,6 +18493,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>658.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>655.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18145,8 +18533,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1960966160"/>
-        <c:axId val="-1960963440"/>
+        <c:axId val="124323232"/>
+        <c:axId val="124324320"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -18279,6 +18667,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18353,6 +18744,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>843.14</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>841.95</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18490,6 +18884,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18565,6 +18962,9 @@
                       <c:pt idx="2">
                         <c:v>1162.28</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1155.1500000000001</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -18575,7 +18975,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1960966160"/>
+        <c:axId val="124323232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18609,7 +19009,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1960963440"/>
+        <c:crossAx val="124324320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18617,7 +19017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1960963440"/>
+        <c:axId val="124324320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18627,7 +19027,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1960966160"/>
+        <c:crossAx val="124323232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18863,6 +19263,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -18935,6 +19338,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>53.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18972,11 +19378,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-65019360"/>
-        <c:axId val="-65029696"/>
+        <c:axId val="11702704"/>
+        <c:axId val="11697808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-65019360"/>
+        <c:axId val="11702704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19010,7 +19416,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65029696"/>
+        <c:crossAx val="11697808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19018,7 +19424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-65029696"/>
+        <c:axId val="11697808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19028,7 +19434,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-65019360"/>
+        <c:crossAx val="11702704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19263,6 +19669,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -19335,6 +19744,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>843.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>841.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19372,8 +19784,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1960968880"/>
-        <c:axId val="-1960960176"/>
+        <c:axId val="124336288"/>
+        <c:axId val="124324864"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -19506,6 +19918,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19580,6 +19995,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>658.45</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>655.26</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19717,6 +20135,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19792,6 +20213,9 @@
                       <c:pt idx="2">
                         <c:v>1162.28</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1155.1500000000001</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -19802,7 +20226,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1960968880"/>
+        <c:axId val="124336288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19836,7 +20260,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1960960176"/>
+        <c:crossAx val="124324864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19844,7 +20268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1960960176"/>
+        <c:axId val="124324864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19854,7 +20278,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1960968880"/>
+        <c:crossAx val="124336288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20100,6 +20524,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -20171,6 +20598,9 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
                   <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
@@ -20210,11 +20640,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1960971600"/>
-        <c:axId val="-1960970512"/>
+        <c:axId val="124329760"/>
+        <c:axId val="124331936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1960971600"/>
+        <c:axId val="124329760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20248,7 +20678,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1960970512"/>
+        <c:crossAx val="124331936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20256,7 +20686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1960970512"/>
+        <c:axId val="124331936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20266,7 +20696,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1960971600"/>
+        <c:crossAx val="124329760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20474,6 +20904,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -20546,6 +20979,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>101.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20583,11 +21019,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1960969968"/>
-        <c:axId val="-1960968336"/>
+        <c:axId val="124329216"/>
+        <c:axId val="124322688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1960969968"/>
+        <c:axId val="124329216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20621,7 +21057,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1960968336"/>
+        <c:crossAx val="124322688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20629,7 +21065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1960968336"/>
+        <c:axId val="124322688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20639,7 +21075,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1960969968"/>
+        <c:crossAx val="124329216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20845,6 +21281,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -20917,6 +21356,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10135.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10137.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20954,11 +21396,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1960958000"/>
-        <c:axId val="-1960964528"/>
+        <c:axId val="124334112"/>
+        <c:axId val="124325408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1960958000"/>
+        <c:axId val="124334112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20992,7 +21434,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1960964528"/>
+        <c:crossAx val="124325408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21000,7 +21442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1960964528"/>
+        <c:axId val="124325408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21010,7 +21452,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1960958000"/>
+        <c:crossAx val="124334112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21218,6 +21660,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -21290,6 +21735,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21327,11 +21775,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-65028064"/>
-        <c:axId val="-65030240"/>
+        <c:axId val="11690192"/>
+        <c:axId val="11703248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-65028064"/>
+        <c:axId val="11690192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21365,7 +21813,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65030240"/>
+        <c:crossAx val="11703248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21373,7 +21821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-65030240"/>
+        <c:axId val="11703248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21383,7 +21831,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-65028064"/>
+        <c:crossAx val="11690192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21618,6 +22066,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -21690,6 +22141,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1750.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1748.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21727,11 +22181,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-65025888"/>
-        <c:axId val="-65022624"/>
+        <c:axId val="11692368"/>
+        <c:axId val="11695632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-65025888"/>
+        <c:axId val="11692368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21765,7 +22219,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65022624"/>
+        <c:crossAx val="11695632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21773,7 +22227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-65022624"/>
+        <c:axId val="11695632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21783,7 +22237,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-65025888"/>
+        <c:crossAx val="11692368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22017,6 +22471,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22089,6 +22546,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1192.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1189.4100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22126,11 +22586,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-65032416"/>
-        <c:axId val="-65022080"/>
+        <c:axId val="11703792"/>
+        <c:axId val="11692912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-65032416"/>
+        <c:axId val="11703792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22164,7 +22624,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65022080"/>
+        <c:crossAx val="11692912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22172,7 +22632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-65022080"/>
+        <c:axId val="11692912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22182,7 +22642,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-65032416"/>
+        <c:crossAx val="11703792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22416,6 +22876,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22488,6 +22951,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2684.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2686.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22525,8 +22991,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-65031872"/>
-        <c:axId val="-65021536"/>
+        <c:axId val="11704336"/>
+        <c:axId val="11704880"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -22659,6 +23125,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -22733,6 +23202,9 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>1750.89</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1748.62</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -22870,6 +23342,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -22945,6 +23420,9 @@
                       <c:pt idx="2">
                         <c:v>1192.0999999999999</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1189.4100000000001</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -22955,7 +23433,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-65031872"/>
+        <c:axId val="11704336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22989,7 +23467,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65021536"/>
+        <c:crossAx val="11704880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22997,7 +23475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-65021536"/>
+        <c:axId val="11704880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23007,7 +23485,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-65031872"/>
+        <c:crossAx val="11704336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23098,6 +23576,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23202,6 +23681,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -23241,6 +23721,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23313,6 +23796,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23350,8 +23836,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-65019904"/>
-        <c:axId val="-65030784"/>
+        <c:axId val="11698896"/>
+        <c:axId val="11694000"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -23484,6 +23970,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -23558,6 +24047,9 @@
                       </c:pt>
                       <c:pt idx="2" formatCode="General">
                         <c:v>3.64</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>3.63</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -23695,6 +24187,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -23770,6 +24265,9 @@
                       <c:pt idx="2" formatCode="General">
                         <c:v>3.93</c:v>
                       </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>3.94</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -23780,7 +24278,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-65019904"/>
+        <c:axId val="11698896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23814,7 +24312,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65030784"/>
+        <c:crossAx val="11694000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23822,7 +24320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-65030784"/>
+        <c:axId val="11694000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23832,7 +24330,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-65019904"/>
+        <c:crossAx val="11698896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23846,6 +24344,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24068,6 +24567,9 @@
                   <c:pt idx="2">
                     <c:v>05/06</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>06/06</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -24140,6 +24642,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24177,8 +24682,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-65020992"/>
-        <c:axId val="-102198640"/>
+        <c:axId val="11695088"/>
+        <c:axId val="11696720"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -24311,6 +24816,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -24385,6 +24893,9 @@
                       </c:pt>
                       <c:pt idx="2" formatCode="General">
                         <c:v>3.64</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>3.63</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -24522,6 +25033,9 @@
                         <c:pt idx="2">
                           <c:v>05/06</c:v>
                         </c:pt>
+                        <c:pt idx="3">
+                          <c:v>06/06</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -24597,6 +25111,9 @@
                       <c:pt idx="2" formatCode="General">
                         <c:v>3.93</c:v>
                       </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>3.94</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -24607,7 +25124,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-65020992"/>
+        <c:axId val="11695088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24641,7 +25158,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-102198640"/>
+        <c:crossAx val="11696720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24649,7 +25166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-102198640"/>
+        <c:axId val="11696720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24659,7 +25176,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-65020992"/>
+        <c:crossAx val="11695088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44312,10 +44829,10 @@
       <c r="A2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -44423,10 +44940,10 @@
       <c r="A9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -44483,10 +45000,10 @@
       <c r="A13" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -44555,10 +45072,10 @@
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -44666,10 +45183,10 @@
       <c r="A9" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -44726,10 +45243,10 @@
       <c r="A13" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -44798,10 +45315,10 @@
       <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -44909,10 +45426,10 @@
       <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -44969,10 +45486,10 @@
       <c r="A13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -45003,13 +45520,256 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="60">
+        <v>45519</v>
+      </c>
+      <c r="C3" s="61">
+        <v>3.63</v>
+      </c>
+      <c r="D3" s="40">
+        <v>53.72</v>
+      </c>
+      <c r="E3" s="40">
+        <v>2686.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="60">
+        <v>49444</v>
+      </c>
+      <c r="C4" s="61">
+        <v>3.94</v>
+      </c>
+      <c r="D4" s="40">
+        <v>34.97</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1748.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="60">
+        <v>53097</v>
+      </c>
+      <c r="C5" s="61">
+        <v>3.94</v>
+      </c>
+      <c r="D5" s="40">
+        <v>35.68</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1189.4100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="60">
+        <v>46249</v>
+      </c>
+      <c r="C6" s="61">
+        <v>3.67</v>
+      </c>
+      <c r="D6" s="40">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="E6" s="40">
+        <v>3752.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="60">
+        <v>49444</v>
+      </c>
+      <c r="C7" s="61">
+        <v>3.87</v>
+      </c>
+      <c r="D7" s="40">
+        <v>40.43</v>
+      </c>
+      <c r="E7" s="40">
+        <v>4043.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="60">
+        <v>55015</v>
+      </c>
+      <c r="C8" s="61">
+        <v>4.05</v>
+      </c>
+      <c r="D8" s="40">
+        <v>43.86</v>
+      </c>
+      <c r="E8" s="40">
+        <v>4386.4799999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="60">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="61">
+        <v>6.93</v>
+      </c>
+      <c r="D10" s="40">
+        <v>33.67</v>
+      </c>
+      <c r="E10" s="40">
+        <v>841.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="60">
+        <v>45658</v>
+      </c>
+      <c r="C11" s="61">
+        <v>7.9</v>
+      </c>
+      <c r="D11" s="40">
+        <v>32.76</v>
+      </c>
+      <c r="E11" s="40">
+        <v>655.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="60">
+        <v>47119</v>
+      </c>
+      <c r="C12" s="61">
+        <v>8.23</v>
+      </c>
+      <c r="D12" s="40">
+        <v>34.65</v>
+      </c>
+      <c r="E12" s="40">
+        <v>1155.1500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="60">
+        <v>45717</v>
+      </c>
+      <c r="C14" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="40">
+        <v>101.37</v>
+      </c>
+      <c r="E14" s="40">
+        <v>10137.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K6"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -45082,73 +45842,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="72"/>
     </row>
     <row r="2" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -45379,9 +46139,15 @@
       <c r="K3" s="37">
         <v>43621</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
+      <c r="L3" s="11">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="11">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="12">
+        <v>43622</v>
+      </c>
       <c r="O3" s="18"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="20"/>
@@ -45468,9 +46234,15 @@
       <c r="K4" s="45">
         <v>2684.38</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
+      <c r="L4" s="41">
+        <v>3.63</v>
+      </c>
+      <c r="M4" s="42">
+        <v>53.72</v>
+      </c>
+      <c r="N4" s="43">
+        <v>2686.31</v>
+      </c>
       <c r="O4" s="41"/>
       <c r="P4" s="42"/>
       <c r="Q4" s="43"/>
@@ -45557,9 +46329,15 @@
       <c r="K5" s="45">
         <v>1750.89</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="45"/>
+      <c r="L5" s="44">
+        <v>3.94</v>
+      </c>
+      <c r="M5" s="40">
+        <v>34.97</v>
+      </c>
+      <c r="N5" s="45">
+        <v>1748.62</v>
+      </c>
       <c r="O5" s="44"/>
       <c r="P5" s="40"/>
       <c r="Q5" s="45"/>
@@ -45646,9 +46424,15 @@
       <c r="K6" s="45">
         <v>1192.0999999999999</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="45"/>
+      <c r="L6" s="44">
+        <v>3.94</v>
+      </c>
+      <c r="M6" s="40">
+        <v>35.68</v>
+      </c>
+      <c r="N6" s="45">
+        <v>1189.4100000000001</v>
+      </c>
       <c r="O6" s="44"/>
       <c r="P6" s="40"/>
       <c r="Q6" s="45"/>
@@ -45735,9 +46519,15 @@
       <c r="K7" s="45">
         <v>3751.51</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="45"/>
+      <c r="L7" s="44">
+        <v>3.67</v>
+      </c>
+      <c r="M7" s="40">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="N7" s="45">
+        <v>3752.34</v>
+      </c>
       <c r="O7" s="44"/>
       <c r="P7" s="40"/>
       <c r="Q7" s="45"/>
@@ -45824,9 +46614,15 @@
       <c r="K8" s="45">
         <v>4046.61</v>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="45"/>
+      <c r="L8" s="44">
+        <v>3.87</v>
+      </c>
+      <c r="M8" s="40">
+        <v>40.43</v>
+      </c>
+      <c r="N8" s="45">
+        <v>4043.21</v>
+      </c>
       <c r="O8" s="44"/>
       <c r="P8" s="40"/>
       <c r="Q8" s="45"/>
@@ -45913,9 +46709,15 @@
       <c r="K9" s="48">
         <v>4413.34</v>
       </c>
-      <c r="L9" s="44"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="45"/>
+      <c r="L9" s="46">
+        <v>4.05</v>
+      </c>
+      <c r="M9" s="47">
+        <v>43.86</v>
+      </c>
+      <c r="N9" s="48">
+        <v>4386.4799999999996</v>
+      </c>
       <c r="O9" s="44"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="45"/>
@@ -45969,73 +46771,73 @@
       <c r="BM9" s="48"/>
     </row>
     <row r="10" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="70"/>
-      <c r="AE10" s="70"/>
-      <c r="AF10" s="70"/>
-      <c r="AG10" s="70"/>
-      <c r="AH10" s="70"/>
-      <c r="AI10" s="70"/>
-      <c r="AJ10" s="70"/>
-      <c r="AK10" s="70"/>
-      <c r="AL10" s="70"/>
-      <c r="AM10" s="70"/>
-      <c r="AN10" s="70"/>
-      <c r="AO10" s="70"/>
-      <c r="AP10" s="70"/>
-      <c r="AQ10" s="70"/>
-      <c r="AR10" s="70"/>
-      <c r="AS10" s="70"/>
-      <c r="AT10" s="70"/>
-      <c r="AU10" s="70"/>
-      <c r="AV10" s="70"/>
-      <c r="AW10" s="70"/>
-      <c r="AX10" s="70"/>
-      <c r="AY10" s="70"/>
-      <c r="AZ10" s="70"/>
-      <c r="BA10" s="70"/>
-      <c r="BB10" s="70"/>
-      <c r="BC10" s="70"/>
-      <c r="BD10" s="70"/>
-      <c r="BE10" s="70"/>
-      <c r="BF10" s="70"/>
-      <c r="BG10" s="70"/>
-      <c r="BH10" s="70"/>
-      <c r="BI10" s="70"/>
-      <c r="BJ10" s="70"/>
-      <c r="BK10" s="70"/>
-      <c r="BL10" s="70"/>
-      <c r="BM10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="71"/>
+      <c r="AZ10" s="71"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="71"/>
+      <c r="BC10" s="71"/>
+      <c r="BD10" s="71"/>
+      <c r="BE10" s="71"/>
+      <c r="BF10" s="71"/>
+      <c r="BG10" s="71"/>
+      <c r="BH10" s="71"/>
+      <c r="BI10" s="71"/>
+      <c r="BJ10" s="71"/>
+      <c r="BK10" s="71"/>
+      <c r="BL10" s="71"/>
+      <c r="BM10" s="72"/>
     </row>
     <row r="11" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
@@ -46266,9 +47068,15 @@
       <c r="K12" s="12">
         <v>43621</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="L12" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M12" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N12" s="2">
+        <v>43622</v>
+      </c>
       <c r="O12" s="18"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="54"/>
@@ -46355,9 +47163,15 @@
       <c r="K13" s="43">
         <v>843.14</v>
       </c>
-      <c r="L13" s="72"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43"/>
+      <c r="L13" s="41">
+        <v>6.93</v>
+      </c>
+      <c r="M13" s="42">
+        <v>33.67</v>
+      </c>
+      <c r="N13" s="43">
+        <v>841.95</v>
+      </c>
       <c r="O13" s="41"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="43"/>
@@ -46444,9 +47258,15 @@
       <c r="K14" s="45">
         <v>658.45</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="45"/>
+      <c r="L14" s="44">
+        <v>7.9</v>
+      </c>
+      <c r="M14" s="40">
+        <v>32.76</v>
+      </c>
+      <c r="N14" s="45">
+        <v>655.26</v>
+      </c>
       <c r="O14" s="44"/>
       <c r="P14" s="40"/>
       <c r="Q14" s="45"/>
@@ -46533,9 +47353,15 @@
       <c r="K15" s="48">
         <v>1162.28</v>
       </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="45"/>
+      <c r="L15" s="46">
+        <v>8.23</v>
+      </c>
+      <c r="M15" s="47">
+        <v>34.65</v>
+      </c>
+      <c r="N15" s="48">
+        <v>1155.1500000000001</v>
+      </c>
       <c r="O15" s="44"/>
       <c r="P15" s="40"/>
       <c r="Q15" s="45"/>
@@ -46589,73 +47415,73 @@
       <c r="BM15" s="48"/>
     </row>
     <row r="16" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="73"/>
       <c r="J16" s="73"/>
       <c r="K16" s="73"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
-      <c r="AE16" s="70"/>
-      <c r="AF16" s="70"/>
-      <c r="AG16" s="70"/>
-      <c r="AH16" s="70"/>
-      <c r="AI16" s="70"/>
-      <c r="AJ16" s="70"/>
-      <c r="AK16" s="70"/>
-      <c r="AL16" s="70"/>
-      <c r="AM16" s="70"/>
-      <c r="AN16" s="70"/>
-      <c r="AO16" s="70"/>
-      <c r="AP16" s="70"/>
-      <c r="AQ16" s="70"/>
-      <c r="AR16" s="70"/>
-      <c r="AS16" s="70"/>
-      <c r="AT16" s="70"/>
-      <c r="AU16" s="70"/>
-      <c r="AV16" s="70"/>
-      <c r="AW16" s="70"/>
-      <c r="AX16" s="70"/>
-      <c r="AY16" s="70"/>
-      <c r="AZ16" s="70"/>
-      <c r="BA16" s="70"/>
-      <c r="BB16" s="70"/>
-      <c r="BC16" s="70"/>
-      <c r="BD16" s="70"/>
-      <c r="BE16" s="70"/>
-      <c r="BF16" s="70"/>
-      <c r="BG16" s="70"/>
-      <c r="BH16" s="70"/>
-      <c r="BI16" s="70"/>
-      <c r="BJ16" s="70"/>
-      <c r="BK16" s="70"/>
-      <c r="BL16" s="70"/>
-      <c r="BM16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="71"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="71"/>
+      <c r="AN16" s="71"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="71"/>
+      <c r="AQ16" s="71"/>
+      <c r="AR16" s="71"/>
+      <c r="AS16" s="71"/>
+      <c r="AT16" s="71"/>
+      <c r="AU16" s="71"/>
+      <c r="AV16" s="71"/>
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="71"/>
+      <c r="AY16" s="71"/>
+      <c r="AZ16" s="71"/>
+      <c r="BA16" s="71"/>
+      <c r="BB16" s="71"/>
+      <c r="BC16" s="71"/>
+      <c r="BD16" s="71"/>
+      <c r="BE16" s="71"/>
+      <c r="BF16" s="71"/>
+      <c r="BG16" s="71"/>
+      <c r="BH16" s="71"/>
+      <c r="BI16" s="71"/>
+      <c r="BJ16" s="71"/>
+      <c r="BK16" s="71"/>
+      <c r="BL16" s="71"/>
+      <c r="BM16" s="72"/>
     </row>
     <row r="17" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
@@ -46886,9 +47712,15 @@
       <c r="K18" s="12">
         <v>43621</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="L18" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M18" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N18" s="2">
+        <v>43622</v>
+      </c>
       <c r="O18" s="18"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="20"/>
@@ -46975,9 +47807,15 @@
       <c r="K19" s="51">
         <v>10135.06</v>
       </c>
-      <c r="L19" s="74"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="51"/>
+      <c r="L19" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="M19" s="50">
+        <v>101.37</v>
+      </c>
+      <c r="N19" s="51">
+        <v>10137.57</v>
+      </c>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="51"/>
@@ -47123,12 +47961,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -47201,73 +48039,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="72"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -47498,9 +48336,15 @@
       <c r="K3" s="37">
         <v>43621</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="L3" s="15">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="15">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="15">
+        <v>43622</v>
+      </c>
       <c r="O3" s="18"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="20"/>
@@ -47587,9 +48431,15 @@
       <c r="K4" s="45">
         <v>2684.38</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
+      <c r="L4" s="41">
+        <v>3.63</v>
+      </c>
+      <c r="M4" s="42">
+        <v>53.72</v>
+      </c>
+      <c r="N4" s="43">
+        <v>2686.31</v>
+      </c>
       <c r="O4" s="41"/>
       <c r="P4" s="42"/>
       <c r="Q4" s="43"/>
@@ -47676,9 +48526,15 @@
       <c r="K5" s="45">
         <v>1750.89</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="45"/>
+      <c r="L5" s="44">
+        <v>3.94</v>
+      </c>
+      <c r="M5" s="40">
+        <v>34.97</v>
+      </c>
+      <c r="N5" s="45">
+        <v>1748.62</v>
+      </c>
       <c r="O5" s="44"/>
       <c r="P5" s="40"/>
       <c r="Q5" s="45"/>
@@ -47765,801 +48621,15 @@
       <c r="K6" s="48">
         <v>1192.0999999999999</v>
       </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="46"/>
-      <c r="BL6" s="47"/>
-      <c r="BM6" s="48"/>
-    </row>
-    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:BM1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM100"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="71"/>
-    </row>
-    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43619</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43620</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="I3" s="67">
-        <v>43621</v>
-      </c>
-      <c r="J3" s="15">
-        <v>43621</v>
-      </c>
-      <c r="K3" s="37">
-        <v>43621</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="18"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="20"/>
-    </row>
-    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="52">
-        <v>46249</v>
-      </c>
-      <c r="C4" s="41">
-        <v>3.71</v>
-      </c>
-      <c r="D4" s="42">
-        <v>37.409999999999997</v>
-      </c>
-      <c r="E4" s="43">
-        <v>3741.25</v>
-      </c>
-      <c r="F4" s="41">
-        <v>3.65</v>
-      </c>
-      <c r="G4" s="42">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="H4" s="43">
-        <v>3755</v>
-      </c>
-      <c r="I4" s="44">
-        <v>3.67</v>
-      </c>
-      <c r="J4" s="40">
-        <v>37.51</v>
-      </c>
-      <c r="K4" s="45">
-        <v>3751.51</v>
-      </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="43"/>
-    </row>
-    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="52">
-        <v>49444</v>
-      </c>
-      <c r="C5" s="44">
-        <v>3.9</v>
-      </c>
-      <c r="D5" s="40">
-        <v>40.270000000000003</v>
-      </c>
-      <c r="E5" s="45">
-        <v>4027.51</v>
-      </c>
-      <c r="F5" s="44">
-        <v>3.83</v>
-      </c>
-      <c r="G5" s="40">
-        <v>40.58</v>
-      </c>
-      <c r="H5" s="45">
-        <v>4058.68</v>
-      </c>
-      <c r="I5" s="44">
-        <v>3.86</v>
-      </c>
-      <c r="J5" s="40">
-        <v>40.46</v>
-      </c>
-      <c r="K5" s="45">
-        <v>4046.61</v>
-      </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="40"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="40"/>
-      <c r="BM5" s="45"/>
-    </row>
-    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="53">
-        <v>55015</v>
-      </c>
-      <c r="C6" s="46">
-        <v>4.09</v>
-      </c>
-      <c r="D6" s="47">
-        <v>43.55</v>
-      </c>
-      <c r="E6" s="48">
-        <v>4355.7700000000004</v>
-      </c>
-      <c r="F6" s="46">
-        <v>3.98</v>
-      </c>
-      <c r="G6" s="47">
-        <v>44.33</v>
-      </c>
-      <c r="H6" s="48">
-        <v>4433.3999999999996</v>
-      </c>
-      <c r="I6" s="46">
-        <v>4.01</v>
-      </c>
-      <c r="J6" s="47">
-        <v>44.13</v>
-      </c>
-      <c r="K6" s="48">
-        <v>4413.34</v>
-      </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
+      <c r="L6" s="46">
+        <v>3.94</v>
+      </c>
+      <c r="M6" s="47">
+        <v>35.68</v>
+      </c>
+      <c r="N6" s="48">
+        <v>1189.4100000000001</v>
+      </c>
       <c r="O6" s="46"/>
       <c r="P6" s="47"/>
       <c r="Q6" s="48"/>
@@ -48720,8 +48790,824 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K6"/>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="72"/>
+    </row>
+    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43619</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43620</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="I3" s="67">
+        <v>43621</v>
+      </c>
+      <c r="J3" s="15">
+        <v>43621</v>
+      </c>
+      <c r="K3" s="37">
+        <v>43621</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="20"/>
+    </row>
+    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="52">
+        <v>46249</v>
+      </c>
+      <c r="C4" s="41">
+        <v>3.71</v>
+      </c>
+      <c r="D4" s="42">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="E4" s="43">
+        <v>3741.25</v>
+      </c>
+      <c r="F4" s="41">
+        <v>3.65</v>
+      </c>
+      <c r="G4" s="42">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="H4" s="43">
+        <v>3755</v>
+      </c>
+      <c r="I4" s="44">
+        <v>3.67</v>
+      </c>
+      <c r="J4" s="40">
+        <v>37.51</v>
+      </c>
+      <c r="K4" s="45">
+        <v>3751.51</v>
+      </c>
+      <c r="L4" s="41">
+        <v>3.67</v>
+      </c>
+      <c r="M4" s="42">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="N4" s="43">
+        <v>3752.34</v>
+      </c>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="43"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="43"/>
+    </row>
+    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="52">
+        <v>49444</v>
+      </c>
+      <c r="C5" s="44">
+        <v>3.9</v>
+      </c>
+      <c r="D5" s="40">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="E5" s="45">
+        <v>4027.51</v>
+      </c>
+      <c r="F5" s="44">
+        <v>3.83</v>
+      </c>
+      <c r="G5" s="40">
+        <v>40.58</v>
+      </c>
+      <c r="H5" s="45">
+        <v>4058.68</v>
+      </c>
+      <c r="I5" s="44">
+        <v>3.86</v>
+      </c>
+      <c r="J5" s="40">
+        <v>40.46</v>
+      </c>
+      <c r="K5" s="45">
+        <v>4046.61</v>
+      </c>
+      <c r="L5" s="44">
+        <v>3.87</v>
+      </c>
+      <c r="M5" s="40">
+        <v>40.43</v>
+      </c>
+      <c r="N5" s="45">
+        <v>4043.21</v>
+      </c>
+      <c r="O5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="40"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="40"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="40"/>
+      <c r="BM5" s="45"/>
+    </row>
+    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="53">
+        <v>55015</v>
+      </c>
+      <c r="C6" s="46">
+        <v>4.09</v>
+      </c>
+      <c r="D6" s="47">
+        <v>43.55</v>
+      </c>
+      <c r="E6" s="48">
+        <v>4355.7700000000004</v>
+      </c>
+      <c r="F6" s="46">
+        <v>3.98</v>
+      </c>
+      <c r="G6" s="47">
+        <v>44.33</v>
+      </c>
+      <c r="H6" s="48">
+        <v>4433.3999999999996</v>
+      </c>
+      <c r="I6" s="46">
+        <v>4.01</v>
+      </c>
+      <c r="J6" s="47">
+        <v>44.13</v>
+      </c>
+      <c r="K6" s="48">
+        <v>4413.34</v>
+      </c>
+      <c r="L6" s="46">
+        <v>4.05</v>
+      </c>
+      <c r="M6" s="47">
+        <v>43.86</v>
+      </c>
+      <c r="N6" s="48">
+        <v>4386.4799999999996</v>
+      </c>
+      <c r="O6" s="46"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="47"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="46"/>
+      <c r="BC6" s="47"/>
+      <c r="BD6" s="48"/>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="47"/>
+      <c r="BG6" s="48"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="47"/>
+      <c r="BJ6" s="48"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="47"/>
+      <c r="BM6" s="48"/>
+    </row>
+    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:BM1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM100"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -48794,73 +49680,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="72"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -49091,9 +49977,15 @@
       <c r="K3" s="12">
         <v>43621</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="L3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43622</v>
+      </c>
       <c r="O3" s="18"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="54"/>
@@ -49180,9 +50072,15 @@
       <c r="K4" s="43">
         <v>843.14</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
+      <c r="L4" s="41">
+        <v>6.93</v>
+      </c>
+      <c r="M4" s="42">
+        <v>33.67</v>
+      </c>
+      <c r="N4" s="43">
+        <v>841.95</v>
+      </c>
       <c r="O4" s="41"/>
       <c r="P4" s="42"/>
       <c r="Q4" s="43"/>
@@ -49269,9 +50167,15 @@
       <c r="K5" s="45">
         <v>658.45</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="45"/>
+      <c r="L5" s="44">
+        <v>7.9</v>
+      </c>
+      <c r="M5" s="40">
+        <v>32.76</v>
+      </c>
+      <c r="N5" s="45">
+        <v>655.26</v>
+      </c>
       <c r="O5" s="44"/>
       <c r="P5" s="40"/>
       <c r="Q5" s="45"/>
@@ -49358,9 +50262,15 @@
       <c r="K6" s="48">
         <v>1162.28</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
+      <c r="L6" s="46">
+        <v>8.23</v>
+      </c>
+      <c r="M6" s="47">
+        <v>34.65</v>
+      </c>
+      <c r="N6" s="48">
+        <v>1155.1500000000001</v>
+      </c>
       <c r="O6" s="46"/>
       <c r="P6" s="47"/>
       <c r="Q6" s="48"/>
@@ -49517,12 +50427,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -49595,73 +50505,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="72"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -49892,9 +50802,15 @@
       <c r="K3" s="12">
         <v>43621</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="L3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43622</v>
+      </c>
       <c r="O3" s="18"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="20"/>
@@ -49981,9 +50897,15 @@
       <c r="K4" s="51">
         <v>10135.06</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="51"/>
+      <c r="L4" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="M4" s="50">
+        <v>101.37</v>
+      </c>
+      <c r="N4" s="51">
+        <v>10137.57</v>
+      </c>
       <c r="O4" s="49"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="51"/>

--- a/TESOURO DIRETO_0619 - Compra.xlsx
+++ b/TESOURO DIRETO_0619 - Compra.xlsx
@@ -9,25 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="030619" sheetId="9" r:id="rId1"/>
     <sheet name="040619" sheetId="10" r:id="rId2"/>
     <sheet name="050619" sheetId="11" r:id="rId3"/>
     <sheet name="060619" sheetId="12" r:id="rId4"/>
-    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId5"/>
-    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId6"/>
-    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId7"/>
-    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId8"/>
-    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId9"/>
+    <sheet name="070619" sheetId="13" r:id="rId5"/>
+    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId6"/>
+    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId7"/>
+    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId8"/>
+    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId9"/>
+    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="25">
   <si>
     <t>Vencimento</t>
   </si>
@@ -504,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -704,6 +705,9 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -967,6 +971,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1042,6 +1049,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,6 +1195,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1260,6 +1273,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1403,6 +1419,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1478,6 +1497,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,6 +1643,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1696,6 +1721,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,6 +1867,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1914,6 +1945,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2057,6 +2091,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2133,6 +2170,9 @@
                 <c:pt idx="3" formatCode="General">
                   <c:v>4.05</c:v>
                 </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>4.03</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2148,11 +2188,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="11693456"/>
-        <c:axId val="11702160"/>
+        <c:axId val="-662238800"/>
+        <c:axId val="-662238256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="11693456"/>
+        <c:axId val="-662238800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,7 +2234,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11702160"/>
+        <c:crossAx val="-662238256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2202,7 +2242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11702160"/>
+        <c:axId val="-662238256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,7 +2292,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11693456"/>
+        <c:crossAx val="-662238800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2358,7 +2398,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2463,7 +2502,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2506,6 +2544,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2581,6 +2622,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2618,8 +2662,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="11694544"/>
-        <c:axId val="11697264"/>
+        <c:axId val="-475710880"/>
+        <c:axId val="-475715232"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2755,6 +2799,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -2832,6 +2879,9 @@
                       </c:pt>
                       <c:pt idx="3" formatCode="General">
                         <c:v>3.94</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>3.93</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2972,6 +3022,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3050,6 +3103,9 @@
                       <c:pt idx="3" formatCode="General">
                         <c:v>3.94</c:v>
                       </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>3.93</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3060,7 +3116,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11694544"/>
+        <c:axId val="-475710880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3094,7 +3150,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11697264"/>
+        <c:crossAx val="-475715232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3102,7 +3158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11697264"/>
+        <c:axId val="-475715232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,7 +3168,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11694544"/>
+        <c:crossAx val="-475710880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3126,7 +3182,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3352,6 +3407,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3427,6 +3485,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3464,8 +3525,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="11699984"/>
-        <c:axId val="1980280688"/>
+        <c:axId val="-475705440"/>
+        <c:axId val="-475707616"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3601,6 +3662,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3678,6 +3742,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>53.72</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>54.15</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3818,6 +3885,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3896,6 +3966,9 @@
                       <c:pt idx="3">
                         <c:v>34.97</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>35</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3906,7 +3979,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11699984"/>
+        <c:axId val="-475705440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3940,7 +4013,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980280688"/>
+        <c:crossAx val="-475707616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3948,7 +4021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1980280688"/>
+        <c:axId val="-475707616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3958,7 +4031,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11699984"/>
+        <c:crossAx val="-475705440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4257,6 +4330,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4332,6 +4408,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4459,6 +4538,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4534,6 +4616,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4661,6 +4746,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4737,6 +4825,9 @@
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.94</c:v>
                 </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.93</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4753,11 +4844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1980282864"/>
-        <c:axId val="1980274704"/>
+        <c:axId val="-475706528"/>
+        <c:axId val="-475716320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1980282864"/>
+        <c:axId val="-475706528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4800,7 +4891,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980274704"/>
+        <c:crossAx val="-475716320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4808,7 +4899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1980274704"/>
+        <c:axId val="-475716320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4818,7 +4909,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1980282864"/>
+        <c:crossAx val="-475706528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5059,6 +5150,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5134,6 +5228,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3752.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3778.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5171,11 +5268,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1960845216"/>
-        <c:axId val="122819936"/>
+        <c:axId val="-475713056"/>
+        <c:axId val="-475714144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1960845216"/>
+        <c:axId val="-475713056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5209,7 +5306,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122819936"/>
+        <c:crossAx val="-475714144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5217,7 +5314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122819936"/>
+        <c:axId val="-475714144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5227,7 +5324,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1960845216"/>
+        <c:crossAx val="-475713056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5464,6 +5561,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5539,6 +5639,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4043.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,8 +5679,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122815584"/>
-        <c:axId val="122817760"/>
+        <c:axId val="-475713600"/>
+        <c:axId val="-475705984"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -5713,6 +5816,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -5790,6 +5896,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>3752.34</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3778.4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5930,6 +6039,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6008,6 +6120,9 @@
                       <c:pt idx="3">
                         <c:v>4386.4799999999996</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4398.05</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6018,7 +6133,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122815584"/>
+        <c:axId val="-475713600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6052,7 +6167,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122817760"/>
+        <c:crossAx val="-475705984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6060,7 +6175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122817760"/>
+        <c:axId val="-475705984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6070,7 +6185,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122815584"/>
+        <c:crossAx val="-475713600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6307,6 +6422,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -6382,6 +6500,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4386.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4398.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6419,8 +6540,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122821568"/>
-        <c:axId val="122819392"/>
+        <c:axId val="-475704896"/>
+        <c:axId val="-475712512"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6556,6 +6677,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6633,6 +6757,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>3752.34</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3778.4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6773,6 +6900,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6851,6 +6981,9 @@
                       <c:pt idx="3">
                         <c:v>4043.21</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4054</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6861,7 +6994,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122821568"/>
+        <c:axId val="-475704896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6895,7 +7028,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122819392"/>
+        <c:crossAx val="-475712512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6903,7 +7036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122819392"/>
+        <c:axId val="-475712512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6913,7 +7046,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122821568"/>
+        <c:crossAx val="-475704896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7152,6 +7285,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -7227,6 +7363,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>43.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7264,8 +7403,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122817216"/>
-        <c:axId val="122822112"/>
+        <c:axId val="-475711424"/>
+        <c:axId val="-475703808"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7401,6 +7540,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7478,6 +7620,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>37.520000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>37.78</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7618,6 +7763,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7696,6 +7844,9 @@
                       <c:pt idx="3">
                         <c:v>40.43</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>40.54</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -7706,7 +7857,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122817216"/>
+        <c:axId val="-475711424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7740,7 +7891,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122822112"/>
+        <c:crossAx val="-475703808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7748,7 +7899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122822112"/>
+        <c:axId val="-475703808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7758,7 +7909,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122817216"/>
+        <c:crossAx val="-475711424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7998,6 +8149,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -8073,6 +8227,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>40.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8110,8 +8267,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122816128"/>
-        <c:axId val="122822656"/>
+        <c:axId val="-475702176"/>
+        <c:axId val="-475710336"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -8247,6 +8404,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8324,6 +8484,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>37.520000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>37.78</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8464,6 +8627,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8542,6 +8708,9 @@
                       <c:pt idx="3">
                         <c:v>43.86</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43.98</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8552,7 +8721,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122816128"/>
+        <c:axId val="-475702176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8586,7 +8755,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122822656"/>
+        <c:crossAx val="-475710336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8594,7 +8763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122822656"/>
+        <c:axId val="-475710336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8604,7 +8773,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122816128"/>
+        <c:crossAx val="-475702176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8696,7 +8865,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8801,7 +8969,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8844,6 +9011,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -8919,6 +9089,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8956,11 +9129,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122823744"/>
-        <c:axId val="122814496"/>
+        <c:axId val="-475703264"/>
+        <c:axId val="-475702720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122823744"/>
+        <c:axId val="-475703264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8994,7 +9167,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122814496"/>
+        <c:crossAx val="-475702720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9002,7 +9175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122814496"/>
+        <c:axId val="-475702720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9012,7 +9185,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122823744"/>
+        <c:crossAx val="-475703264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9026,7 +9199,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9104,7 +9276,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9209,7 +9380,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9252,6 +9422,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9327,6 +9500,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9364,8 +9540,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122823200"/>
-        <c:axId val="122824288"/>
+        <c:axId val="-475716864"/>
+        <c:axId val="-472757296"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9501,6 +9677,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9578,6 +9757,9 @@
                       </c:pt>
                       <c:pt idx="3" formatCode="General">
                         <c:v>3.87</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>3.84</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9718,6 +9900,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9796,6 +9981,9 @@
                       <c:pt idx="3" formatCode="General">
                         <c:v>4.05</c:v>
                       </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>4.03</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -9806,7 +9994,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122823200"/>
+        <c:axId val="-475716864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9840,7 +10028,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122824288"/>
+        <c:crossAx val="-472757296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9848,7 +10036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122824288"/>
+        <c:axId val="-472757296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9858,7 +10046,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122823200"/>
+        <c:crossAx val="-475716864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9872,7 +10060,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10069,6 +10256,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10144,6 +10334,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>6.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10209,6 +10402,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10284,6 +10480,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>7.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10349,6 +10548,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10425,6 +10627,9 @@
                 <c:pt idx="3" formatCode="General">
                   <c:v>8.23</c:v>
                 </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>8.09</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10439,11 +10644,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="11700528"/>
-        <c:axId val="11691824"/>
+        <c:axId val="-662242608"/>
+        <c:axId val="-662244784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="11700528"/>
+        <c:axId val="-662242608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10504,7 +10709,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11691824"/>
+        <c:crossAx val="-662244784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10512,7 +10717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11691824"/>
+        <c:axId val="-662244784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10573,7 +10778,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11700528"/>
+        <c:crossAx val="-662242608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10818,6 +11023,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10893,6 +11101,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10930,8 +11141,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122811232"/>
-        <c:axId val="122816672"/>
+        <c:axId val="-472766544"/>
+        <c:axId val="-472763824"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -11067,6 +11278,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11144,6 +11358,9 @@
                       </c:pt>
                       <c:pt idx="3" formatCode="General">
                         <c:v>3.67</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>3.54</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11284,6 +11501,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11362,6 +11582,9 @@
                       <c:pt idx="3" formatCode="General">
                         <c:v>4.05</c:v>
                       </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>4.03</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -11372,7 +11595,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122811232"/>
+        <c:axId val="-472766544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11406,7 +11629,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122816672"/>
+        <c:crossAx val="-472763824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11414,7 +11637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122816672"/>
+        <c:axId val="-472763824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11424,7 +11647,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122811232"/>
+        <c:crossAx val="-472766544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11664,6 +11887,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11739,6 +11965,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>4.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11776,8 +12005,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122824832"/>
-        <c:axId val="122825920"/>
+        <c:axId val="-472767632"/>
+        <c:axId val="-472756208"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -11913,6 +12142,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11990,6 +12222,9 @@
                       </c:pt>
                       <c:pt idx="3" formatCode="General">
                         <c:v>3.67</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>3.54</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12130,6 +12365,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -12208,6 +12446,9 @@
                       <c:pt idx="3" formatCode="General">
                         <c:v>3.87</c:v>
                       </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>3.84</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -12218,7 +12459,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122824832"/>
+        <c:axId val="-472767632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12252,7 +12493,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122825920"/>
+        <c:crossAx val="-472756208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12260,7 +12501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122825920"/>
+        <c:axId val="-472756208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12270,7 +12511,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122824832"/>
+        <c:crossAx val="-472767632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12510,6 +12751,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12585,6 +12829,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>6.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12622,8 +12869,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122818304"/>
-        <c:axId val="122811776"/>
+        <c:axId val="-472763280"/>
+        <c:axId val="-472762736"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12759,6 +13006,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -12836,6 +13086,9 @@
                       </c:pt>
                       <c:pt idx="3" formatCode="General">
                         <c:v>7.9</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>7.72</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12976,6 +13229,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13054,6 +13310,9 @@
                       <c:pt idx="3" formatCode="General">
                         <c:v>8.23</c:v>
                       </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>8.09</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -13064,7 +13323,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122818304"/>
+        <c:axId val="-472763280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13098,7 +13357,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122811776"/>
+        <c:crossAx val="-472762736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13106,7 +13365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122811776"/>
+        <c:axId val="-472762736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13116,7 +13375,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122818304"/>
+        <c:crossAx val="-472763280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13356,6 +13615,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -13431,6 +13693,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>7.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13468,8 +13733,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122812320"/>
-        <c:axId val="122812864"/>
+        <c:axId val="-472754576"/>
+        <c:axId val="-472758384"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13605,6 +13870,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13682,6 +13950,9 @@
                       </c:pt>
                       <c:pt idx="3" formatCode="General">
                         <c:v>6.93</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>6.73</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13822,6 +14093,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13900,6 +14174,9 @@
                       <c:pt idx="3" formatCode="General">
                         <c:v>8.23</c:v>
                       </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>8.09</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -13910,7 +14187,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122812320"/>
+        <c:axId val="-472754576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13944,7 +14221,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122812864"/>
+        <c:crossAx val="-472758384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13952,7 +14229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122812864"/>
+        <c:axId val="-472758384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13962,7 +14239,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122812320"/>
+        <c:crossAx val="-472754576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14200,6 +14477,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -14275,6 +14555,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>8.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14312,8 +14595,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122813408"/>
-        <c:axId val="122813952"/>
+        <c:axId val="-472754032"/>
+        <c:axId val="-472762192"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -14449,6 +14732,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14526,6 +14812,9 @@
                       </c:pt>
                       <c:pt idx="3" formatCode="General">
                         <c:v>6.93</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>6.73</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14666,6 +14955,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14744,6 +15036,9 @@
                       <c:pt idx="3" formatCode="General">
                         <c:v>7.9</c:v>
                       </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>7.72</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -14754,7 +15049,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122813408"/>
+        <c:axId val="-472754032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14788,7 +15083,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122813952"/>
+        <c:crossAx val="-472762192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14796,7 +15091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122813952"/>
+        <c:axId val="-472762192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14806,7 +15101,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122813408"/>
+        <c:crossAx val="-472754032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15045,6 +15340,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -15120,6 +15418,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>33.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.840000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15157,8 +15458,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122825376"/>
-        <c:axId val="122826464"/>
+        <c:axId val="-472759472"/>
+        <c:axId val="-472756752"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -15294,6 +15595,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15371,6 +15675,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>32.76</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>33.07</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15511,6 +15818,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15589,6 +15899,9 @@
                       <c:pt idx="3">
                         <c:v>34.65</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34.950000000000003</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -15599,7 +15912,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122825376"/>
+        <c:axId val="-472759472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15633,7 +15946,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122826464"/>
+        <c:crossAx val="-472756752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15641,7 +15954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122826464"/>
+        <c:axId val="-472756752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15651,7 +15964,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122825376"/>
+        <c:crossAx val="-472759472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15891,6 +16204,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -15966,6 +16282,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16003,8 +16322,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122818848"/>
-        <c:axId val="122815040"/>
+        <c:axId val="-472753488"/>
+        <c:axId val="-472758928"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -16140,6 +16459,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16217,6 +16539,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>33.67</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>33.840000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16357,6 +16682,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16435,6 +16763,9 @@
                       <c:pt idx="3">
                         <c:v>34.65</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34.950000000000003</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -16445,7 +16776,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122818848"/>
+        <c:axId val="-472753488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16479,7 +16810,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122815040"/>
+        <c:crossAx val="-472758928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16487,7 +16818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122815040"/>
+        <c:axId val="-472758928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16497,7 +16828,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122818848"/>
+        <c:crossAx val="-472753488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16735,6 +17066,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -16810,6 +17144,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>34.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.950000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16847,8 +17184,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="122820480"/>
-        <c:axId val="122821024"/>
+        <c:axId val="-472768176"/>
+        <c:axId val="-472761648"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -16984,6 +17321,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17061,6 +17401,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>33.67</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>33.840000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17201,6 +17544,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17279,6 +17625,9 @@
                       <c:pt idx="3">
                         <c:v>32.76</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>33.07</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -17289,7 +17638,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122820480"/>
+        <c:axId val="-472768176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17323,7 +17672,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122821024"/>
+        <c:crossAx val="-472761648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17331,7 +17680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122821024"/>
+        <c:axId val="-472761648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17341,7 +17690,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122820480"/>
+        <c:crossAx val="-472768176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17578,6 +17927,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -17653,6 +18005,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1155.1500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1165.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17690,8 +18045,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="124322144"/>
-        <c:axId val="124327584"/>
+        <c:axId val="-472761104"/>
+        <c:axId val="-472757840"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -17827,6 +18182,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17904,6 +18262,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>841.95</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>846.22</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18044,6 +18405,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18122,6 +18486,9 @@
                       <c:pt idx="3">
                         <c:v>655.26</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>661.57</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -18132,7 +18499,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124322144"/>
+        <c:axId val="-472761104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18166,7 +18533,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124327584"/>
+        <c:crossAx val="-472757840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18174,7 +18541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124327584"/>
+        <c:axId val="-472757840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18184,7 +18551,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124322144"/>
+        <c:crossAx val="-472761104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18421,6 +18788,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -18496,6 +18866,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>655.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>661.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18533,8 +18906,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="124323232"/>
-        <c:axId val="124324320"/>
+        <c:axId val="-472760560"/>
+        <c:axId val="-472752944"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -18670,6 +19043,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18747,6 +19123,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>841.95</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>846.22</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18887,6 +19266,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18965,6 +19347,9 @@
                       <c:pt idx="3">
                         <c:v>1155.1500000000001</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1165.06</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -18975,7 +19360,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124323232"/>
+        <c:axId val="-472760560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19009,7 +19394,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124324320"/>
+        <c:crossAx val="-472752944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19017,7 +19402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124324320"/>
+        <c:axId val="-472752944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19027,7 +19412,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124323232"/>
+        <c:crossAx val="-472760560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19118,7 +19503,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19223,7 +19607,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -19266,6 +19649,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -19341,6 +19727,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>53.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19378,11 +19767,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="11702704"/>
-        <c:axId val="11697808"/>
+        <c:axId val="-662244240"/>
+        <c:axId val="-662242064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11702704"/>
+        <c:axId val="-662244240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19416,7 +19805,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11697808"/>
+        <c:crossAx val="-662242064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19424,7 +19813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11697808"/>
+        <c:axId val="-662242064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19434,7 +19823,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11702704"/>
+        <c:crossAx val="-662244240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19448,7 +19837,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19672,6 +20060,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -19747,6 +20138,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>841.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>846.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19784,8 +20178,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="124336288"/>
-        <c:axId val="124324864"/>
+        <c:axId val="-472760016"/>
+        <c:axId val="-472755664"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -19921,6 +20315,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19998,6 +20395,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>655.26</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>661.57</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20138,6 +20538,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -20216,6 +20619,9 @@
                       <c:pt idx="3">
                         <c:v>1155.1500000000001</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1165.06</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -20226,7 +20632,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124336288"/>
+        <c:axId val="-472760016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20260,7 +20666,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124324864"/>
+        <c:crossAx val="-472755664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20268,7 +20674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124324864"/>
+        <c:axId val="-472755664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20278,7 +20684,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124336288"/>
+        <c:crossAx val="-472760016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20527,6 +20933,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -20601,6 +21010,9 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
                   <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
@@ -20640,11 +21052,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124329760"/>
-        <c:axId val="124331936"/>
+        <c:axId val="-472755120"/>
+        <c:axId val="-472764368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124329760"/>
+        <c:axId val="-472755120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20678,7 +21090,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124331936"/>
+        <c:crossAx val="-472764368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20686,7 +21098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124331936"/>
+        <c:axId val="-472764368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20696,7 +21108,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124329760"/>
+        <c:crossAx val="-472755120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20907,6 +21319,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -20982,6 +21397,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>101.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21019,11 +21437,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="124329216"/>
-        <c:axId val="124322688"/>
+        <c:axId val="-472767088"/>
+        <c:axId val="-472766000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124329216"/>
+        <c:axId val="-472767088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21057,7 +21475,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124322688"/>
+        <c:crossAx val="-472766000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21065,7 +21483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124322688"/>
+        <c:axId val="-472766000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21075,7 +21493,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124329216"/>
+        <c:crossAx val="-472767088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21284,6 +21702,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -21359,6 +21780,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10137.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10140.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21396,11 +21820,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="124334112"/>
-        <c:axId val="124325408"/>
+        <c:axId val="-472765456"/>
+        <c:axId val="-472764912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124334112"/>
+        <c:axId val="-472765456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21434,7 +21858,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124325408"/>
+        <c:crossAx val="-472764912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21442,7 +21866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124325408"/>
+        <c:axId val="-472764912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21452,7 +21876,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124334112"/>
+        <c:crossAx val="-472765456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21663,6 +22087,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -21738,6 +22165,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>34.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21775,11 +22205,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="11690192"/>
-        <c:axId val="11703248"/>
+        <c:axId val="-662252944"/>
+        <c:axId val="-681700048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11690192"/>
+        <c:axId val="-662252944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21813,7 +22243,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11703248"/>
+        <c:crossAx val="-681700048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21821,7 +22251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11703248"/>
+        <c:axId val="-681700048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21831,7 +22261,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11690192"/>
+        <c:crossAx val="-662252944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22069,6 +22499,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22144,6 +22577,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1748.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1750.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22181,11 +22617,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="11692368"/>
-        <c:axId val="11695632"/>
+        <c:axId val="-475708160"/>
+        <c:axId val="-475709792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11692368"/>
+        <c:axId val="-475708160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22219,7 +22655,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11695632"/>
+        <c:crossAx val="-475709792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22227,7 +22663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11695632"/>
+        <c:axId val="-475709792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22237,7 +22673,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11692368"/>
+        <c:crossAx val="-475708160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22474,6 +22910,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22549,6 +22988,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1189.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1191.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22586,11 +23028,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="11703792"/>
-        <c:axId val="11692912"/>
+        <c:axId val="-475704352"/>
+        <c:axId val="-475708704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11703792"/>
+        <c:axId val="-475704352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22624,7 +23066,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11692912"/>
+        <c:crossAx val="-475708704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22632,7 +23074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11692912"/>
+        <c:axId val="-475708704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22642,7 +23084,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11703792"/>
+        <c:crossAx val="-475704352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22879,6 +23321,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22954,6 +23399,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2686.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2707.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22991,8 +23439,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="11704336"/>
-        <c:axId val="11704880"/>
+        <c:axId val="-475715776"/>
+        <c:axId val="-475709248"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -23128,6 +23576,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -23205,6 +23656,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>1748.62</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1750.35</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -23345,6 +23799,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -23423,6 +23880,9 @@
                       <c:pt idx="3">
                         <c:v>1189.4100000000001</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1191.74</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -23433,7 +23893,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11704336"/>
+        <c:axId val="-475715776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23467,7 +23927,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11704880"/>
+        <c:crossAx val="-475709248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23475,7 +23935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11704880"/>
+        <c:axId val="-475709248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23485,7 +23945,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11704336"/>
+        <c:crossAx val="-475715776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23724,6 +24184,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23799,6 +24262,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23836,8 +24302,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="11698896"/>
-        <c:axId val="11694000"/>
+        <c:axId val="-475711968"/>
+        <c:axId val="-475714688"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -23973,6 +24439,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -24050,6 +24519,9 @@
                       </c:pt>
                       <c:pt idx="3" formatCode="General">
                         <c:v>3.63</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>3.46</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -24190,6 +24662,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -24268,6 +24743,9 @@
                       <c:pt idx="3" formatCode="General">
                         <c:v>3.94</c:v>
                       </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>3.93</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -24278,7 +24756,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11698896"/>
+        <c:axId val="-475711968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24312,7 +24790,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11694000"/>
+        <c:crossAx val="-475714688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24320,7 +24798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11694000"/>
+        <c:axId val="-475714688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24330,7 +24808,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11698896"/>
+        <c:crossAx val="-475711968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24570,6 +25048,9 @@
                   <c:pt idx="3">
                     <c:v>06/06</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>07/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -24645,6 +25126,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24682,8 +25166,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="11695088"/>
-        <c:axId val="11696720"/>
+        <c:axId val="-475707072"/>
+        <c:axId val="-475717408"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -24819,6 +25303,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -24896,6 +25383,9 @@
                       </c:pt>
                       <c:pt idx="3" formatCode="General">
                         <c:v>3.63</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>3.46</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -25036,6 +25526,9 @@
                         <c:pt idx="3">
                           <c:v>06/06</c:v>
                         </c:pt>
+                        <c:pt idx="4">
+                          <c:v>07/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -25114,6 +25607,9 @@
                       <c:pt idx="3" formatCode="General">
                         <c:v>3.94</c:v>
                       </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>3.93</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -25124,7 +25620,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11695088"/>
+        <c:axId val="-475707072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25158,7 +25654,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11696720"/>
+        <c:crossAx val="-475717408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25166,7 +25662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11696720"/>
+        <c:axId val="-475717408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25176,7 +25672,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11695088"/>
+        <c:crossAx val="-475707072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44829,10 +45325,10 @@
       <c r="A2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -44940,10 +45436,10 @@
       <c r="A9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -45000,10 +45496,10 @@
       <c r="A13" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -45030,6 +45526,655 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM100"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="73"/>
+    </row>
+    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="34">
+        <v>43619</v>
+      </c>
+      <c r="D3" s="34">
+        <v>43619</v>
+      </c>
+      <c r="E3" s="34">
+        <v>43619</v>
+      </c>
+      <c r="F3" s="67">
+        <v>43620</v>
+      </c>
+      <c r="G3" s="15">
+        <v>43620</v>
+      </c>
+      <c r="H3" s="37">
+        <v>43620</v>
+      </c>
+      <c r="I3" s="10">
+        <v>43621</v>
+      </c>
+      <c r="J3" s="11">
+        <v>43621</v>
+      </c>
+      <c r="K3" s="12">
+        <v>43621</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="O3" s="18">
+        <v>43623</v>
+      </c>
+      <c r="P3" s="19">
+        <v>43623</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>43623</v>
+      </c>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="20"/>
+    </row>
+    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="53">
+        <v>45717</v>
+      </c>
+      <c r="C4" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="50">
+        <v>101.3</v>
+      </c>
+      <c r="E4" s="51">
+        <v>10130.07</v>
+      </c>
+      <c r="F4" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="50">
+        <v>101.32</v>
+      </c>
+      <c r="H4" s="51">
+        <v>10132.56</v>
+      </c>
+      <c r="I4" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="J4" s="50">
+        <v>101.35</v>
+      </c>
+      <c r="K4" s="51">
+        <v>10135.06</v>
+      </c>
+      <c r="L4" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="M4" s="50">
+        <v>101.37</v>
+      </c>
+      <c r="N4" s="51">
+        <v>10137.57</v>
+      </c>
+      <c r="O4" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="P4" s="50">
+        <v>101.4</v>
+      </c>
+      <c r="Q4" s="51">
+        <v>10140.08</v>
+      </c>
+      <c r="R4" s="49"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="50"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="50"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="50"/>
+      <c r="BM4" s="51"/>
+    </row>
+    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:BM1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45072,10 +46217,10 @@
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -45183,10 +46328,10 @@
       <c r="A9" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -45243,10 +46388,10 @@
       <c r="A13" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -45315,10 +46460,10 @@
       <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -45426,10 +46571,10 @@
       <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -45486,10 +46631,10 @@
       <c r="A13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -45557,10 +46702,10 @@
       <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -45668,10 +46813,10 @@
       <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -45728,10 +46873,10 @@
       <c r="A13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -45763,13 +46908,256 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="60">
+        <v>45519</v>
+      </c>
+      <c r="C3" s="61">
+        <v>3.46</v>
+      </c>
+      <c r="D3" s="40">
+        <v>54.15</v>
+      </c>
+      <c r="E3" s="40">
+        <v>2707.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="60">
+        <v>49444</v>
+      </c>
+      <c r="C4" s="61">
+        <v>3.93</v>
+      </c>
+      <c r="D4" s="40">
+        <v>35</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1750.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="60">
+        <v>53097</v>
+      </c>
+      <c r="C5" s="61">
+        <v>3.93</v>
+      </c>
+      <c r="D5" s="40">
+        <v>35.75</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1191.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="60">
+        <v>46249</v>
+      </c>
+      <c r="C6" s="61">
+        <v>3.54</v>
+      </c>
+      <c r="D6" s="40">
+        <v>37.78</v>
+      </c>
+      <c r="E6" s="40">
+        <v>3778.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="60">
+        <v>49444</v>
+      </c>
+      <c r="C7" s="61">
+        <v>3.84</v>
+      </c>
+      <c r="D7" s="40">
+        <v>40.54</v>
+      </c>
+      <c r="E7" s="40">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="60">
+        <v>55015</v>
+      </c>
+      <c r="C8" s="61">
+        <v>4.03</v>
+      </c>
+      <c r="D8" s="40">
+        <v>43.98</v>
+      </c>
+      <c r="E8" s="40">
+        <v>4398.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="60">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="61">
+        <v>6.73</v>
+      </c>
+      <c r="D10" s="40">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="E10" s="40">
+        <v>846.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="60">
+        <v>45658</v>
+      </c>
+      <c r="C11" s="61">
+        <v>7.72</v>
+      </c>
+      <c r="D11" s="40">
+        <v>33.07</v>
+      </c>
+      <c r="E11" s="40">
+        <v>661.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="60">
+        <v>47119</v>
+      </c>
+      <c r="C12" s="61">
+        <v>8.09</v>
+      </c>
+      <c r="D12" s="40">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="E12" s="40">
+        <v>1165.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="60">
+        <v>45717</v>
+      </c>
+      <c r="C14" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="40">
+        <v>101.4</v>
+      </c>
+      <c r="E14" s="40">
+        <v>10140.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BM100"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:N15"/>
+      <selection activeCell="O3" sqref="O3:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -45842,73 +47230,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="71"/>
-      <c r="BC1" s="71"/>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BF1" s="71"/>
-      <c r="BG1" s="71"/>
-      <c r="BH1" s="71"/>
-      <c r="BI1" s="71"/>
-      <c r="BJ1" s="71"/>
-      <c r="BK1" s="71"/>
-      <c r="BL1" s="71"/>
-      <c r="BM1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="73"/>
     </row>
     <row r="2" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -46148,9 +47536,15 @@
       <c r="N3" s="12">
         <v>43622</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="18">
+        <v>43623</v>
+      </c>
+      <c r="P3" s="19">
+        <v>43623</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>43623</v>
+      </c>
       <c r="R3" s="18"/>
       <c r="S3" s="19"/>
       <c r="T3" s="20"/>
@@ -46243,9 +47637,15 @@
       <c r="N4" s="43">
         <v>2686.31</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="O4" s="41">
+        <v>3.46</v>
+      </c>
+      <c r="P4" s="42">
+        <v>54.15</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>2707.72</v>
+      </c>
       <c r="R4" s="41"/>
       <c r="S4" s="42"/>
       <c r="T4" s="43"/>
@@ -46338,9 +47738,15 @@
       <c r="N5" s="45">
         <v>1748.62</v>
       </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="45"/>
+      <c r="O5" s="44">
+        <v>3.93</v>
+      </c>
+      <c r="P5" s="40">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>1750.35</v>
+      </c>
       <c r="R5" s="44"/>
       <c r="S5" s="40"/>
       <c r="T5" s="45"/>
@@ -46433,9 +47839,15 @@
       <c r="N6" s="45">
         <v>1189.4100000000001</v>
       </c>
-      <c r="O6" s="44"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="45"/>
+      <c r="O6" s="44">
+        <v>3.93</v>
+      </c>
+      <c r="P6" s="40">
+        <v>35.75</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>1191.74</v>
+      </c>
       <c r="R6" s="44"/>
       <c r="S6" s="40"/>
       <c r="T6" s="45"/>
@@ -46528,9 +47940,15 @@
       <c r="N7" s="45">
         <v>3752.34</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="45"/>
+      <c r="O7" s="44">
+        <v>3.54</v>
+      </c>
+      <c r="P7" s="40">
+        <v>37.78</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>3778.4</v>
+      </c>
       <c r="R7" s="44"/>
       <c r="S7" s="40"/>
       <c r="T7" s="45"/>
@@ -46623,9 +48041,15 @@
       <c r="N8" s="45">
         <v>4043.21</v>
       </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="45"/>
+      <c r="O8" s="44">
+        <v>3.84</v>
+      </c>
+      <c r="P8" s="40">
+        <v>40.54</v>
+      </c>
+      <c r="Q8" s="45">
+        <v>4054</v>
+      </c>
       <c r="R8" s="44"/>
       <c r="S8" s="40"/>
       <c r="T8" s="45"/>
@@ -46718,9 +48142,15 @@
       <c r="N9" s="48">
         <v>4386.4799999999996</v>
       </c>
-      <c r="O9" s="44"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="45"/>
+      <c r="O9" s="46">
+        <v>4.03</v>
+      </c>
+      <c r="P9" s="47">
+        <v>43.98</v>
+      </c>
+      <c r="Q9" s="48">
+        <v>4398.05</v>
+      </c>
       <c r="R9" s="44"/>
       <c r="S9" s="40"/>
       <c r="T9" s="45"/>
@@ -46771,73 +48201,73 @@
       <c r="BM9" s="48"/>
     </row>
     <row r="10" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="71"/>
-      <c r="AP10" s="71"/>
-      <c r="AQ10" s="71"/>
-      <c r="AR10" s="71"/>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="71"/>
-      <c r="AW10" s="71"/>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="71"/>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="71"/>
-      <c r="BB10" s="71"/>
-      <c r="BC10" s="71"/>
-      <c r="BD10" s="71"/>
-      <c r="BE10" s="71"/>
-      <c r="BF10" s="71"/>
-      <c r="BG10" s="71"/>
-      <c r="BH10" s="71"/>
-      <c r="BI10" s="71"/>
-      <c r="BJ10" s="71"/>
-      <c r="BK10" s="71"/>
-      <c r="BL10" s="71"/>
-      <c r="BM10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="72"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="72"/>
+      <c r="AO10" s="72"/>
+      <c r="AP10" s="72"/>
+      <c r="AQ10" s="72"/>
+      <c r="AR10" s="72"/>
+      <c r="AS10" s="72"/>
+      <c r="AT10" s="72"/>
+      <c r="AU10" s="72"/>
+      <c r="AV10" s="72"/>
+      <c r="AW10" s="72"/>
+      <c r="AX10" s="72"/>
+      <c r="AY10" s="72"/>
+      <c r="AZ10" s="72"/>
+      <c r="BA10" s="72"/>
+      <c r="BB10" s="72"/>
+      <c r="BC10" s="72"/>
+      <c r="BD10" s="72"/>
+      <c r="BE10" s="72"/>
+      <c r="BF10" s="72"/>
+      <c r="BG10" s="72"/>
+      <c r="BH10" s="72"/>
+      <c r="BI10" s="72"/>
+      <c r="BJ10" s="72"/>
+      <c r="BK10" s="72"/>
+      <c r="BL10" s="72"/>
+      <c r="BM10" s="73"/>
     </row>
     <row r="11" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
@@ -47077,9 +48507,15 @@
       <c r="N12" s="2">
         <v>43622</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="54"/>
+      <c r="O12" s="18">
+        <v>43623</v>
+      </c>
+      <c r="P12" s="19">
+        <v>43623</v>
+      </c>
+      <c r="Q12" s="54">
+        <v>43623</v>
+      </c>
       <c r="R12" s="18"/>
       <c r="S12" s="19"/>
       <c r="T12" s="20"/>
@@ -47172,9 +48608,15 @@
       <c r="N13" s="43">
         <v>841.95</v>
       </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="43"/>
+      <c r="O13" s="41">
+        <v>6.73</v>
+      </c>
+      <c r="P13" s="42">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>846.22</v>
+      </c>
       <c r="R13" s="41"/>
       <c r="S13" s="42"/>
       <c r="T13" s="43"/>
@@ -47267,9 +48709,15 @@
       <c r="N14" s="45">
         <v>655.26</v>
       </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="45"/>
+      <c r="O14" s="44">
+        <v>7.72</v>
+      </c>
+      <c r="P14" s="40">
+        <v>33.07</v>
+      </c>
+      <c r="Q14" s="45">
+        <v>661.57</v>
+      </c>
       <c r="R14" s="44"/>
       <c r="S14" s="40"/>
       <c r="T14" s="45"/>
@@ -47362,9 +48810,15 @@
       <c r="N15" s="48">
         <v>1155.1500000000001</v>
       </c>
-      <c r="O15" s="44"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="45"/>
+      <c r="O15" s="46">
+        <v>8.09</v>
+      </c>
+      <c r="P15" s="47">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="Q15" s="48">
+        <v>1165.06</v>
+      </c>
       <c r="R15" s="44"/>
       <c r="S15" s="40"/>
       <c r="T15" s="45"/>
@@ -47415,73 +48869,73 @@
       <c r="BM15" s="48"/>
     </row>
     <row r="16" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="71"/>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="71"/>
-      <c r="AQ16" s="71"/>
-      <c r="AR16" s="71"/>
-      <c r="AS16" s="71"/>
-      <c r="AT16" s="71"/>
-      <c r="AU16" s="71"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="71"/>
-      <c r="AY16" s="71"/>
-      <c r="AZ16" s="71"/>
-      <c r="BA16" s="71"/>
-      <c r="BB16" s="71"/>
-      <c r="BC16" s="71"/>
-      <c r="BD16" s="71"/>
-      <c r="BE16" s="71"/>
-      <c r="BF16" s="71"/>
-      <c r="BG16" s="71"/>
-      <c r="BH16" s="71"/>
-      <c r="BI16" s="71"/>
-      <c r="BJ16" s="71"/>
-      <c r="BK16" s="71"/>
-      <c r="BL16" s="71"/>
-      <c r="BM16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="72"/>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="72"/>
+      <c r="BD16" s="72"/>
+      <c r="BE16" s="72"/>
+      <c r="BF16" s="72"/>
+      <c r="BG16" s="72"/>
+      <c r="BH16" s="72"/>
+      <c r="BI16" s="72"/>
+      <c r="BJ16" s="72"/>
+      <c r="BK16" s="72"/>
+      <c r="BL16" s="72"/>
+      <c r="BM16" s="73"/>
     </row>
     <row r="17" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
@@ -47721,9 +49175,15 @@
       <c r="N18" s="2">
         <v>43622</v>
       </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
+      <c r="O18" s="18">
+        <v>43623</v>
+      </c>
+      <c r="P18" s="19">
+        <v>43623</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>43623</v>
+      </c>
       <c r="R18" s="18"/>
       <c r="S18" s="19"/>
       <c r="T18" s="20"/>
@@ -47816,9 +49276,15 @@
       <c r="N19" s="51">
         <v>10137.57</v>
       </c>
-      <c r="O19" s="49"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="51"/>
+      <c r="O19" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="P19" s="50">
+        <v>101.4</v>
+      </c>
+      <c r="Q19" s="51">
+        <v>10140.08</v>
+      </c>
       <c r="R19" s="49"/>
       <c r="S19" s="50"/>
       <c r="T19" s="51"/>
@@ -47961,12 +49427,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O3" sqref="O3:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -48039,73 +49505,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="71"/>
-      <c r="BC1" s="71"/>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BF1" s="71"/>
-      <c r="BG1" s="71"/>
-      <c r="BH1" s="71"/>
-      <c r="BI1" s="71"/>
-      <c r="BJ1" s="71"/>
-      <c r="BK1" s="71"/>
-      <c r="BL1" s="71"/>
-      <c r="BM1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="73"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -48345,9 +49811,15 @@
       <c r="N3" s="15">
         <v>43622</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="18">
+        <v>43623</v>
+      </c>
+      <c r="P3" s="19">
+        <v>43623</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>43623</v>
+      </c>
       <c r="R3" s="18"/>
       <c r="S3" s="19"/>
       <c r="T3" s="20"/>
@@ -48440,9 +49912,15 @@
       <c r="N4" s="43">
         <v>2686.31</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="O4" s="41">
+        <v>3.46</v>
+      </c>
+      <c r="P4" s="42">
+        <v>54.15</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>2707.72</v>
+      </c>
       <c r="R4" s="41"/>
       <c r="S4" s="42"/>
       <c r="T4" s="43"/>
@@ -48535,9 +50013,15 @@
       <c r="N5" s="45">
         <v>1748.62</v>
       </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="45"/>
+      <c r="O5" s="44">
+        <v>3.93</v>
+      </c>
+      <c r="P5" s="40">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>1750.35</v>
+      </c>
       <c r="R5" s="44"/>
       <c r="S5" s="40"/>
       <c r="T5" s="45"/>
@@ -48630,825 +50114,15 @@
       <c r="N6" s="48">
         <v>1189.4100000000001</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="46"/>
-      <c r="BL6" s="47"/>
-      <c r="BM6" s="48"/>
-    </row>
-    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:BM1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM100"/>
-  <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="71"/>
-      <c r="BC1" s="71"/>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BF1" s="71"/>
-      <c r="BG1" s="71"/>
-      <c r="BH1" s="71"/>
-      <c r="BI1" s="71"/>
-      <c r="BJ1" s="71"/>
-      <c r="BK1" s="71"/>
-      <c r="BL1" s="71"/>
-      <c r="BM1" s="72"/>
-    </row>
-    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43619</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43620</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="I3" s="67">
-        <v>43621</v>
-      </c>
-      <c r="J3" s="15">
-        <v>43621</v>
-      </c>
-      <c r="K3" s="37">
-        <v>43621</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="M3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="N3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="18"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="20"/>
-    </row>
-    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="52">
-        <v>46249</v>
-      </c>
-      <c r="C4" s="41">
-        <v>3.71</v>
-      </c>
-      <c r="D4" s="42">
-        <v>37.409999999999997</v>
-      </c>
-      <c r="E4" s="43">
-        <v>3741.25</v>
-      </c>
-      <c r="F4" s="41">
-        <v>3.65</v>
-      </c>
-      <c r="G4" s="42">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="H4" s="43">
-        <v>3755</v>
-      </c>
-      <c r="I4" s="44">
-        <v>3.67</v>
-      </c>
-      <c r="J4" s="40">
-        <v>37.51</v>
-      </c>
-      <c r="K4" s="45">
-        <v>3751.51</v>
-      </c>
-      <c r="L4" s="41">
-        <v>3.67</v>
-      </c>
-      <c r="M4" s="42">
-        <v>37.520000000000003</v>
-      </c>
-      <c r="N4" s="43">
-        <v>3752.34</v>
-      </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="43"/>
-    </row>
-    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="52">
-        <v>49444</v>
-      </c>
-      <c r="C5" s="44">
-        <v>3.9</v>
-      </c>
-      <c r="D5" s="40">
-        <v>40.270000000000003</v>
-      </c>
-      <c r="E5" s="45">
-        <v>4027.51</v>
-      </c>
-      <c r="F5" s="44">
-        <v>3.83</v>
-      </c>
-      <c r="G5" s="40">
-        <v>40.58</v>
-      </c>
-      <c r="H5" s="45">
-        <v>4058.68</v>
-      </c>
-      <c r="I5" s="44">
-        <v>3.86</v>
-      </c>
-      <c r="J5" s="40">
-        <v>40.46</v>
-      </c>
-      <c r="K5" s="45">
-        <v>4046.61</v>
-      </c>
-      <c r="L5" s="44">
-        <v>3.87</v>
-      </c>
-      <c r="M5" s="40">
-        <v>40.43</v>
-      </c>
-      <c r="N5" s="45">
-        <v>4043.21</v>
-      </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="40"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="40"/>
-      <c r="BM5" s="45"/>
-    </row>
-    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="53">
-        <v>55015</v>
-      </c>
-      <c r="C6" s="46">
-        <v>4.09</v>
-      </c>
-      <c r="D6" s="47">
-        <v>43.55</v>
-      </c>
-      <c r="E6" s="48">
-        <v>4355.7700000000004</v>
-      </c>
-      <c r="F6" s="46">
-        <v>3.98</v>
-      </c>
-      <c r="G6" s="47">
-        <v>44.33</v>
-      </c>
-      <c r="H6" s="48">
-        <v>4433.3999999999996</v>
-      </c>
-      <c r="I6" s="46">
-        <v>4.01</v>
-      </c>
-      <c r="J6" s="47">
-        <v>44.13</v>
-      </c>
-      <c r="K6" s="48">
-        <v>4413.34</v>
-      </c>
-      <c r="L6" s="46">
-        <v>4.05</v>
-      </c>
-      <c r="M6" s="47">
-        <v>43.86</v>
-      </c>
-      <c r="N6" s="48">
-        <v>4386.4799999999996</v>
-      </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
+      <c r="O6" s="46">
+        <v>3.93</v>
+      </c>
+      <c r="P6" s="47">
+        <v>35.75</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>1191.74</v>
+      </c>
       <c r="R6" s="46"/>
       <c r="S6" s="47"/>
       <c r="T6" s="48"/>
@@ -49606,8 +50280,848 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="73"/>
+    </row>
+    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43619</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43620</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="I3" s="67">
+        <v>43621</v>
+      </c>
+      <c r="J3" s="15">
+        <v>43621</v>
+      </c>
+      <c r="K3" s="37">
+        <v>43621</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="O3" s="18">
+        <v>43623</v>
+      </c>
+      <c r="P3" s="19">
+        <v>43623</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>43623</v>
+      </c>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="20"/>
+    </row>
+    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="52">
+        <v>46249</v>
+      </c>
+      <c r="C4" s="41">
+        <v>3.71</v>
+      </c>
+      <c r="D4" s="42">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="E4" s="43">
+        <v>3741.25</v>
+      </c>
+      <c r="F4" s="41">
+        <v>3.65</v>
+      </c>
+      <c r="G4" s="42">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="H4" s="43">
+        <v>3755</v>
+      </c>
+      <c r="I4" s="44">
+        <v>3.67</v>
+      </c>
+      <c r="J4" s="40">
+        <v>37.51</v>
+      </c>
+      <c r="K4" s="45">
+        <v>3751.51</v>
+      </c>
+      <c r="L4" s="41">
+        <v>3.67</v>
+      </c>
+      <c r="M4" s="42">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="N4" s="43">
+        <v>3752.34</v>
+      </c>
+      <c r="O4" s="41">
+        <v>3.54</v>
+      </c>
+      <c r="P4" s="42">
+        <v>37.78</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>3778.4</v>
+      </c>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="43"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="43"/>
+    </row>
+    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="52">
+        <v>49444</v>
+      </c>
+      <c r="C5" s="44">
+        <v>3.9</v>
+      </c>
+      <c r="D5" s="40">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="E5" s="45">
+        <v>4027.51</v>
+      </c>
+      <c r="F5" s="44">
+        <v>3.83</v>
+      </c>
+      <c r="G5" s="40">
+        <v>40.58</v>
+      </c>
+      <c r="H5" s="45">
+        <v>4058.68</v>
+      </c>
+      <c r="I5" s="44">
+        <v>3.86</v>
+      </c>
+      <c r="J5" s="40">
+        <v>40.46</v>
+      </c>
+      <c r="K5" s="45">
+        <v>4046.61</v>
+      </c>
+      <c r="L5" s="44">
+        <v>3.87</v>
+      </c>
+      <c r="M5" s="40">
+        <v>40.43</v>
+      </c>
+      <c r="N5" s="45">
+        <v>4043.21</v>
+      </c>
+      <c r="O5" s="44">
+        <v>3.84</v>
+      </c>
+      <c r="P5" s="40">
+        <v>40.54</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>4054</v>
+      </c>
+      <c r="R5" s="44"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="40"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="40"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="40"/>
+      <c r="BM5" s="45"/>
+    </row>
+    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="53">
+        <v>55015</v>
+      </c>
+      <c r="C6" s="46">
+        <v>4.09</v>
+      </c>
+      <c r="D6" s="47">
+        <v>43.55</v>
+      </c>
+      <c r="E6" s="48">
+        <v>4355.7700000000004</v>
+      </c>
+      <c r="F6" s="46">
+        <v>3.98</v>
+      </c>
+      <c r="G6" s="47">
+        <v>44.33</v>
+      </c>
+      <c r="H6" s="48">
+        <v>4433.3999999999996</v>
+      </c>
+      <c r="I6" s="46">
+        <v>4.01</v>
+      </c>
+      <c r="J6" s="47">
+        <v>44.13</v>
+      </c>
+      <c r="K6" s="48">
+        <v>4413.34</v>
+      </c>
+      <c r="L6" s="46">
+        <v>4.05</v>
+      </c>
+      <c r="M6" s="47">
+        <v>43.86</v>
+      </c>
+      <c r="N6" s="48">
+        <v>4386.4799999999996</v>
+      </c>
+      <c r="O6" s="46">
+        <v>4.03</v>
+      </c>
+      <c r="P6" s="47">
+        <v>43.98</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>4398.05</v>
+      </c>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="47"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="46"/>
+      <c r="BC6" s="47"/>
+      <c r="BD6" s="48"/>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="47"/>
+      <c r="BG6" s="48"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="47"/>
+      <c r="BJ6" s="48"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="47"/>
+      <c r="BM6" s="48"/>
+    </row>
+    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:BM1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM100"/>
+  <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:N6"/>
+      <selection activeCell="O3" sqref="O3:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -49680,73 +51194,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="71"/>
-      <c r="BC1" s="71"/>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BF1" s="71"/>
-      <c r="BG1" s="71"/>
-      <c r="BH1" s="71"/>
-      <c r="BI1" s="71"/>
-      <c r="BJ1" s="71"/>
-      <c r="BK1" s="71"/>
-      <c r="BL1" s="71"/>
-      <c r="BM1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="73"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -49986,9 +51500,15 @@
       <c r="N3" s="2">
         <v>43622</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="54"/>
+      <c r="O3" s="18">
+        <v>43623</v>
+      </c>
+      <c r="P3" s="19">
+        <v>43623</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>43623</v>
+      </c>
       <c r="R3" s="18"/>
       <c r="S3" s="19"/>
       <c r="T3" s="20"/>
@@ -50081,9 +51601,15 @@
       <c r="N4" s="43">
         <v>841.95</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="O4" s="41">
+        <v>6.73</v>
+      </c>
+      <c r="P4" s="42">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>846.22</v>
+      </c>
       <c r="R4" s="41"/>
       <c r="S4" s="42"/>
       <c r="T4" s="43"/>
@@ -50176,9 +51702,15 @@
       <c r="N5" s="45">
         <v>655.26</v>
       </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="45"/>
+      <c r="O5" s="44">
+        <v>7.72</v>
+      </c>
+      <c r="P5" s="40">
+        <v>33.07</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>661.57</v>
+      </c>
       <c r="R5" s="44"/>
       <c r="S5" s="40"/>
       <c r="T5" s="45"/>
@@ -50271,9 +51803,15 @@
       <c r="N6" s="48">
         <v>1155.1500000000001</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
+      <c r="O6" s="46">
+        <v>8.09</v>
+      </c>
+      <c r="P6" s="47">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>1165.06</v>
+      </c>
       <c r="R6" s="46"/>
       <c r="S6" s="47"/>
       <c r="T6" s="48"/>
@@ -50425,641 +51963,4 @@
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM100"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="71"/>
-      <c r="BC1" s="71"/>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BF1" s="71"/>
-      <c r="BG1" s="71"/>
-      <c r="BH1" s="71"/>
-      <c r="BI1" s="71"/>
-      <c r="BJ1" s="71"/>
-      <c r="BK1" s="71"/>
-      <c r="BL1" s="71"/>
-      <c r="BM1" s="72"/>
-    </row>
-    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="34">
-        <v>43619</v>
-      </c>
-      <c r="D3" s="34">
-        <v>43619</v>
-      </c>
-      <c r="E3" s="34">
-        <v>43619</v>
-      </c>
-      <c r="F3" s="67">
-        <v>43620</v>
-      </c>
-      <c r="G3" s="15">
-        <v>43620</v>
-      </c>
-      <c r="H3" s="37">
-        <v>43620</v>
-      </c>
-      <c r="I3" s="10">
-        <v>43621</v>
-      </c>
-      <c r="J3" s="11">
-        <v>43621</v>
-      </c>
-      <c r="K3" s="12">
-        <v>43621</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="M3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="N3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="18"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="20"/>
-    </row>
-    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="53">
-        <v>45717</v>
-      </c>
-      <c r="C4" s="49">
-        <v>0.02</v>
-      </c>
-      <c r="D4" s="50">
-        <v>101.3</v>
-      </c>
-      <c r="E4" s="51">
-        <v>10130.07</v>
-      </c>
-      <c r="F4" s="49">
-        <v>0.02</v>
-      </c>
-      <c r="G4" s="50">
-        <v>101.32</v>
-      </c>
-      <c r="H4" s="51">
-        <v>10132.56</v>
-      </c>
-      <c r="I4" s="49">
-        <v>0.02</v>
-      </c>
-      <c r="J4" s="50">
-        <v>101.35</v>
-      </c>
-      <c r="K4" s="51">
-        <v>10135.06</v>
-      </c>
-      <c r="L4" s="49">
-        <v>0.02</v>
-      </c>
-      <c r="M4" s="50">
-        <v>101.37</v>
-      </c>
-      <c r="N4" s="51">
-        <v>10137.57</v>
-      </c>
-      <c r="O4" s="49"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="50"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="49"/>
-      <c r="BC4" s="50"/>
-      <c r="BD4" s="51"/>
-      <c r="BE4" s="49"/>
-      <c r="BF4" s="50"/>
-      <c r="BG4" s="51"/>
-      <c r="BH4" s="49"/>
-      <c r="BI4" s="50"/>
-      <c r="BJ4" s="51"/>
-      <c r="BK4" s="49"/>
-      <c r="BL4" s="50"/>
-      <c r="BM4" s="51"/>
-    </row>
-    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:BM1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/TESOURO DIRETO_0619 - Compra.xlsx
+++ b/TESOURO DIRETO_0619 - Compra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="030619" sheetId="9" r:id="rId1"/>
@@ -17,18 +17,19 @@
     <sheet name="050619" sheetId="11" r:id="rId3"/>
     <sheet name="060619" sheetId="12" r:id="rId4"/>
     <sheet name="070619" sheetId="13" r:id="rId5"/>
-    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId6"/>
-    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId7"/>
-    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId8"/>
-    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId9"/>
-    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId10"/>
+    <sheet name="100619" sheetId="14" r:id="rId6"/>
+    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId7"/>
+    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId8"/>
+    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId9"/>
+    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId10"/>
+    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="25">
   <si>
     <t>Vencimento</t>
   </si>
@@ -505,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,6 +706,9 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -974,6 +978,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1052,6 +1059,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,6 +1208,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1275,6 +1288,9 @@
                   <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>3.93</c:v>
                 </c:pt>
               </c:numCache>
@@ -1422,6 +1438,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1499,6 +1518,9 @@
                   <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>3.93</c:v>
                 </c:pt>
               </c:numCache>
@@ -1646,6 +1668,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1724,6 +1749,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,6 +1898,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1948,6 +1979,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,6 +2128,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2173,6 +2210,9 @@
                 <c:pt idx="4" formatCode="General">
                   <c:v>4.03</c:v>
                 </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>4.03</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2188,11 +2228,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-662238800"/>
-        <c:axId val="-662238256"/>
+        <c:axId val="1588257584"/>
+        <c:axId val="1588247248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-662238800"/>
+        <c:axId val="1588257584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2274,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-662238256"/>
+        <c:crossAx val="1588247248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2242,7 +2282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-662238256"/>
+        <c:axId val="1588247248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2292,7 +2332,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-662238800"/>
+        <c:crossAx val="1588257584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2398,6 +2438,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2502,6 +2543,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2547,6 +2589,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2625,6 +2670,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,8 +2710,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475710880"/>
-        <c:axId val="-475715232"/>
+        <c:axId val="1810469728"/>
+        <c:axId val="1810457216"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2802,6 +2850,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -2881,6 +2932,9 @@
                         <c:v>3.94</c:v>
                       </c:pt>
                       <c:pt idx="4" formatCode="General">
+                        <c:v>3.93</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
                         <c:v>3.93</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3025,6 +3079,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3106,6 +3163,9 @@
                       <c:pt idx="4" formatCode="General">
                         <c:v>3.93</c:v>
                       </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>3.93</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3116,7 +3176,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475710880"/>
+        <c:axId val="1810469728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,7 +3210,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475715232"/>
+        <c:crossAx val="1810457216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3158,7 +3218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475715232"/>
+        <c:axId val="1810457216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,7 +3228,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475710880"/>
+        <c:crossAx val="1810469728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3182,6 +3242,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3410,6 +3471,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3487,6 +3551,9 @@
                   <c:v>35.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>35.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>35.75</c:v>
                 </c:pt>
               </c:numCache>
@@ -3525,8 +3592,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475705440"/>
-        <c:axId val="-475707616"/>
+        <c:axId val="1810466464"/>
+        <c:axId val="1810468640"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3665,6 +3732,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3745,6 +3815,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>54.15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>54.21</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3888,6 +3961,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3969,6 +4045,9 @@
                       <c:pt idx="4">
                         <c:v>35</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35.01</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3979,7 +4058,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475705440"/>
+        <c:axId val="1810466464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4013,7 +4092,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475707616"/>
+        <c:crossAx val="1810468640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4021,7 +4100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475707616"/>
+        <c:axId val="1810468640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4031,7 +4110,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475705440"/>
+        <c:crossAx val="1810466464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4333,6 +4412,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4411,6 +4493,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4541,6 +4626,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4618,6 +4706,9 @@
                   <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>3.93</c:v>
                 </c:pt>
               </c:numCache>
@@ -4749,6 +4840,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4828,6 +4922,9 @@
                 <c:pt idx="4" formatCode="General">
                   <c:v>3.93</c:v>
                 </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.93</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4844,11 +4941,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-475706528"/>
-        <c:axId val="-475716320"/>
+        <c:axId val="1810462112"/>
+        <c:axId val="1810470816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475706528"/>
+        <c:axId val="1810462112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4891,7 +4988,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475716320"/>
+        <c:crossAx val="1810470816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4899,7 +4996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475716320"/>
+        <c:axId val="1810470816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4909,7 +5006,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475706528"/>
+        <c:crossAx val="1810462112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5153,6 +5250,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5231,6 +5331,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3778.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3783.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5268,11 +5371,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475713056"/>
-        <c:axId val="-475714144"/>
+        <c:axId val="1810461568"/>
+        <c:axId val="1810467008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475713056"/>
+        <c:axId val="1810461568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5306,7 +5409,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475714144"/>
+        <c:crossAx val="1810467008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5314,7 +5417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475714144"/>
+        <c:axId val="1810467008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5324,7 +5427,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475713056"/>
+        <c:crossAx val="1810461568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5564,6 +5667,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5642,6 +5748,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4059.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5679,8 +5788,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475713600"/>
-        <c:axId val="-475705984"/>
+        <c:axId val="1810459936"/>
+        <c:axId val="1810471360"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -5819,6 +5928,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -5899,6 +6011,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>3778.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3783.42</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6042,6 +6157,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6123,6 +6241,9 @@
                       <c:pt idx="4">
                         <c:v>4398.05</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4398.93</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6133,7 +6254,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475713600"/>
+        <c:axId val="1810459936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6167,7 +6288,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475705984"/>
+        <c:crossAx val="1810471360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6175,7 +6296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475705984"/>
+        <c:axId val="1810471360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6185,7 +6306,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475713600"/>
+        <c:crossAx val="1810459936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6425,6 +6546,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -6503,6 +6627,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4398.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4398.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6540,8 +6667,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475704896"/>
-        <c:axId val="-475712512"/>
+        <c:axId val="1810471904"/>
+        <c:axId val="1810462656"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6680,6 +6807,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6760,6 +6890,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>3778.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3783.42</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6903,6 +7036,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6984,6 +7120,9 @@
                       <c:pt idx="4">
                         <c:v>4054</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4059.11</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6994,7 +7133,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475704896"/>
+        <c:axId val="1810471904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7028,7 +7167,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475712512"/>
+        <c:crossAx val="1810462656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7036,7 +7175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475712512"/>
+        <c:axId val="1810462656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7046,7 +7185,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475704896"/>
+        <c:crossAx val="1810471904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7288,6 +7427,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -7365,6 +7507,9 @@
                   <c:v>43.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>43.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>43.98</c:v>
                 </c:pt>
               </c:numCache>
@@ -7403,8 +7548,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475711424"/>
-        <c:axId val="-475703808"/>
+        <c:axId val="1810463200"/>
+        <c:axId val="1810467552"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7543,6 +7688,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7623,6 +7771,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>37.78</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>37.83</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7766,6 +7917,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7847,6 +8001,9 @@
                       <c:pt idx="4">
                         <c:v>40.54</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40.590000000000003</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -7857,7 +8014,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475711424"/>
+        <c:axId val="1810463200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7891,7 +8048,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475703808"/>
+        <c:crossAx val="1810467552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7899,7 +8056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475703808"/>
+        <c:axId val="1810467552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7909,7 +8066,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475711424"/>
+        <c:crossAx val="1810463200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8152,6 +8309,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -8230,6 +8390,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>40.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.590000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8267,8 +8430,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475702176"/>
-        <c:axId val="-475710336"/>
+        <c:axId val="1810470272"/>
+        <c:axId val="1810463744"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -8407,6 +8570,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8487,6 +8653,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>37.78</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>37.83</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8630,6 +8799,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8711,6 +8883,9 @@
                       <c:pt idx="4">
                         <c:v>43.98</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43.98</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8721,7 +8896,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475702176"/>
+        <c:axId val="1810470272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8755,7 +8930,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475710336"/>
+        <c:crossAx val="1810463744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8763,7 +8938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475710336"/>
+        <c:axId val="1810463744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8773,7 +8948,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475702176"/>
+        <c:crossAx val="1810470272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9014,6 +9189,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9092,6 +9270,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>37.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9129,11 +9310,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475703264"/>
-        <c:axId val="-475702720"/>
+        <c:axId val="1810464832"/>
+        <c:axId val="1810464288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475703264"/>
+        <c:axId val="1810464832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9167,7 +9348,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475702720"/>
+        <c:crossAx val="1810464288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9175,7 +9356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475702720"/>
+        <c:axId val="1810464288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9185,7 +9366,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475703264"/>
+        <c:crossAx val="1810464832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9425,6 +9606,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9503,6 +9687,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9540,8 +9727,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475716864"/>
-        <c:axId val="-472757296"/>
+        <c:axId val="1810459392"/>
+        <c:axId val="1810465376"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9680,6 +9867,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9760,6 +9950,9 @@
                       </c:pt>
                       <c:pt idx="4" formatCode="General">
                         <c:v>3.84</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>3.83</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9903,6 +10096,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9984,6 +10180,9 @@
                       <c:pt idx="4" formatCode="General">
                         <c:v>4.03</c:v>
                       </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>4.03</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -9994,7 +10193,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475716864"/>
+        <c:axId val="1810459392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10028,7 +10227,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472757296"/>
+        <c:crossAx val="1810465376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10036,7 +10235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472757296"/>
+        <c:axId val="1810465376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10046,7 +10245,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475716864"/>
+        <c:crossAx val="1810459392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10259,6 +10458,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10337,6 +10539,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>6.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10405,6 +10610,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10483,6 +10691,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>7.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10551,6 +10762,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10630,6 +10844,9 @@
                 <c:pt idx="4" formatCode="General">
                   <c:v>8.09</c:v>
                 </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10644,11 +10861,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="-662242608"/>
-        <c:axId val="-662244784"/>
+        <c:axId val="1588249968"/>
+        <c:axId val="1588251600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-662242608"/>
+        <c:axId val="1588249968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10709,7 +10926,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-662244784"/>
+        <c:crossAx val="1588251600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10717,7 +10934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-662244784"/>
+        <c:axId val="1588251600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10778,7 +10995,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-662242608"/>
+        <c:crossAx val="1588249968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11026,6 +11243,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11104,6 +11324,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11141,8 +11364,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472766544"/>
-        <c:axId val="-472763824"/>
+        <c:axId val="1810456672"/>
+        <c:axId val="1810457760"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -11281,6 +11504,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11361,6 +11587,9 @@
                       </c:pt>
                       <c:pt idx="4" formatCode="General">
                         <c:v>3.54</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>3.52</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11504,6 +11733,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11585,6 +11817,9 @@
                       <c:pt idx="4" formatCode="General">
                         <c:v>4.03</c:v>
                       </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>4.03</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -11595,7 +11830,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472766544"/>
+        <c:axId val="1810456672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11629,7 +11864,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472763824"/>
+        <c:crossAx val="1810457760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11637,7 +11872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472763824"/>
+        <c:axId val="1810457760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11647,7 +11882,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472766544"/>
+        <c:crossAx val="1810456672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11890,6 +12125,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11967,6 +12205,9 @@
                   <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>4.03</c:v>
                 </c:pt>
               </c:numCache>
@@ -12005,8 +12246,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472767632"/>
-        <c:axId val="-472756208"/>
+        <c:axId val="1810458304"/>
+        <c:axId val="1810458848"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12145,6 +12386,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -12225,6 +12469,9 @@
                       </c:pt>
                       <c:pt idx="4" formatCode="General">
                         <c:v>3.54</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>3.52</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12368,6 +12615,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -12449,6 +12699,9 @@
                       <c:pt idx="4" formatCode="General">
                         <c:v>3.84</c:v>
                       </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>3.83</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -12459,7 +12712,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472767632"/>
+        <c:axId val="1810458304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12493,7 +12746,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472756208"/>
+        <c:crossAx val="1810458848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12501,7 +12754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472756208"/>
+        <c:axId val="1810458848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12511,7 +12764,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472767632"/>
+        <c:crossAx val="1810458304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12754,6 +13007,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12832,6 +13088,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>6.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12869,8 +13128,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472763280"/>
-        <c:axId val="-472762736"/>
+        <c:axId val="1815667856"/>
+        <c:axId val="1815672208"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13009,6 +13268,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13089,6 +13351,9 @@
                       </c:pt>
                       <c:pt idx="4" formatCode="General">
                         <c:v>7.72</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>7.74</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13232,6 +13497,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13313,6 +13581,9 @@
                       <c:pt idx="4" formatCode="General">
                         <c:v>8.09</c:v>
                       </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>8.1199999999999992</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -13323,7 +13594,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472763280"/>
+        <c:axId val="1815667856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13357,7 +13628,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472762736"/>
+        <c:crossAx val="1815672208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13365,7 +13636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472762736"/>
+        <c:axId val="1815672208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13375,7 +13646,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472763280"/>
+        <c:crossAx val="1815667856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13618,6 +13889,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -13696,6 +13970,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>7.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13733,8 +14010,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472754576"/>
-        <c:axId val="-472758384"/>
+        <c:axId val="1815661328"/>
+        <c:axId val="1815656976"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13873,6 +14150,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13953,6 +14233,9 @@
                       </c:pt>
                       <c:pt idx="4" formatCode="General">
                         <c:v>6.73</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>6.72</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14096,6 +14379,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14177,6 +14463,9 @@
                       <c:pt idx="4" formatCode="General">
                         <c:v>8.09</c:v>
                       </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>8.1199999999999992</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -14187,7 +14476,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472754576"/>
+        <c:axId val="1815661328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14221,7 +14510,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472758384"/>
+        <c:crossAx val="1815656976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14229,7 +14518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472758384"/>
+        <c:axId val="1815656976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14239,7 +14528,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472754576"/>
+        <c:crossAx val="1815661328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14480,6 +14769,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -14558,6 +14850,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>8.09</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>8.1199999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14595,8 +14890,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472754032"/>
-        <c:axId val="-472762192"/>
+        <c:axId val="1815670576"/>
+        <c:axId val="1815663504"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -14735,6 +15030,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14815,6 +15113,9 @@
                       </c:pt>
                       <c:pt idx="4" formatCode="General">
                         <c:v>6.73</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>6.72</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14958,6 +15259,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15039,6 +15343,9 @@
                       <c:pt idx="4" formatCode="General">
                         <c:v>7.72</c:v>
                       </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>7.74</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -15049,7 +15356,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472754032"/>
+        <c:axId val="1815670576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15083,7 +15390,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472762192"/>
+        <c:crossAx val="1815663504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15091,7 +15398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472762192"/>
+        <c:axId val="1815663504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15101,7 +15408,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472754032"/>
+        <c:crossAx val="1815670576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15343,6 +15650,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -15421,6 +15731,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>33.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15458,8 +15771,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472759472"/>
-        <c:axId val="-472756752"/>
+        <c:axId val="1815660784"/>
+        <c:axId val="1815661872"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -15598,6 +15911,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15678,6 +15994,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>33.07</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>33.049999999999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15821,6 +16140,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15902,6 +16224,9 @@
                       <c:pt idx="4">
                         <c:v>34.950000000000003</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>34.9</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -15912,7 +16237,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472759472"/>
+        <c:axId val="1815660784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15946,7 +16271,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472756752"/>
+        <c:crossAx val="1815661872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15954,7 +16279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472756752"/>
+        <c:axId val="1815661872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15964,7 +16289,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472759472"/>
+        <c:crossAx val="1815660784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16207,6 +16532,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -16285,6 +16613,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>33.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.049999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16322,8 +16653,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472753488"/>
-        <c:axId val="-472758928"/>
+        <c:axId val="1815658608"/>
+        <c:axId val="1815668400"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -16462,6 +16793,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16542,6 +16876,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>33.840000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>33.86</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16685,6 +17022,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16766,6 +17106,9 @@
                       <c:pt idx="4">
                         <c:v>34.950000000000003</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>34.9</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -16776,7 +17119,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472753488"/>
+        <c:axId val="1815658608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16810,7 +17153,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472758928"/>
+        <c:crossAx val="1815668400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16818,7 +17161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472758928"/>
+        <c:axId val="1815668400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16828,7 +17171,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472753488"/>
+        <c:crossAx val="1815658608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17069,6 +17412,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -17147,6 +17493,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>34.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17184,8 +17533,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472768176"/>
-        <c:axId val="-472761648"/>
+        <c:axId val="1815671664"/>
+        <c:axId val="1815657520"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -17324,6 +17673,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17404,6 +17756,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>33.840000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>33.86</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17547,6 +17902,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17628,6 +17986,9 @@
                       <c:pt idx="4">
                         <c:v>33.07</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>33.049999999999997</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -17638,7 +17999,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472768176"/>
+        <c:axId val="1815671664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17672,7 +18033,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472761648"/>
+        <c:crossAx val="1815657520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17680,7 +18041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472761648"/>
+        <c:axId val="1815657520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17690,7 +18051,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472768176"/>
+        <c:crossAx val="1815671664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17930,6 +18291,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -18008,6 +18372,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1165.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1163.3599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18045,8 +18412,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472761104"/>
-        <c:axId val="-472757840"/>
+        <c:axId val="1815660240"/>
+        <c:axId val="1815662416"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -18185,6 +18552,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18265,6 +18635,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>846.22</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>846.65</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18408,6 +18781,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18489,6 +18865,9 @@
                       <c:pt idx="4">
                         <c:v>661.57</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>661.08</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -18499,7 +18878,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472761104"/>
+        <c:axId val="1815660240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18533,7 +18912,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472757840"/>
+        <c:crossAx val="1815662416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18541,7 +18920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472757840"/>
+        <c:axId val="1815662416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18551,7 +18930,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472761104"/>
+        <c:crossAx val="1815660240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18791,6 +19170,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -18869,6 +19251,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>661.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>661.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18906,8 +19291,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472760560"/>
-        <c:axId val="-472752944"/>
+        <c:axId val="1815668944"/>
+        <c:axId val="1815666224"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -19046,6 +19431,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19126,6 +19514,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>846.22</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>846.65</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19269,6 +19660,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19350,6 +19744,9 @@
                       <c:pt idx="4">
                         <c:v>1165.06</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1163.3599999999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -19360,7 +19757,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472760560"/>
+        <c:axId val="1815668944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19394,7 +19791,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472752944"/>
+        <c:crossAx val="1815666224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19402,7 +19799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472752944"/>
+        <c:axId val="1815666224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19412,7 +19809,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472760560"/>
+        <c:crossAx val="1815668944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19503,6 +19900,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19607,6 +20005,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -19652,6 +20051,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -19730,6 +20132,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>54.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19767,11 +20172,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-662244240"/>
-        <c:axId val="-662242064"/>
+        <c:axId val="1588250512"/>
+        <c:axId val="1588252144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-662244240"/>
+        <c:axId val="1588250512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19805,7 +20210,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-662242064"/>
+        <c:crossAx val="1588252144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19813,7 +20218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-662242064"/>
+        <c:axId val="1588252144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19823,7 +20228,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-662244240"/>
+        <c:crossAx val="1588250512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19837,6 +20242,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20063,6 +20469,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -20141,6 +20550,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>846.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>846.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20178,8 +20590,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472760016"/>
-        <c:axId val="-472755664"/>
+        <c:axId val="1815665680"/>
+        <c:axId val="1815666768"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -20318,6 +20730,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -20398,6 +20813,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>661.57</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>661.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20541,6 +20959,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -20622,6 +21043,9 @@
                       <c:pt idx="4">
                         <c:v>1165.06</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1163.3599999999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -20632,7 +21056,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472760016"/>
+        <c:axId val="1815665680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20666,7 +21090,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472755664"/>
+        <c:crossAx val="1815666768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20674,7 +21098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472755664"/>
+        <c:axId val="1815666768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20684,7 +21108,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472760016"/>
+        <c:crossAx val="1815665680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20936,6 +21360,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -21013,6 +21440,9 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
@@ -21052,11 +21482,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-472755120"/>
-        <c:axId val="-472764368"/>
+        <c:axId val="1815664048"/>
+        <c:axId val="1815667312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472755120"/>
+        <c:axId val="1815664048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21090,7 +21520,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472764368"/>
+        <c:crossAx val="1815667312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21098,7 +21528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472764368"/>
+        <c:axId val="1815667312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21108,7 +21538,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472755120"/>
+        <c:crossAx val="1815664048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21322,6 +21752,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -21400,6 +21833,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>101.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21437,11 +21873,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472767088"/>
-        <c:axId val="-472766000"/>
+        <c:axId val="1815671120"/>
+        <c:axId val="1815669488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472767088"/>
+        <c:axId val="1815671120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21475,7 +21911,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472766000"/>
+        <c:crossAx val="1815669488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21483,7 +21919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472766000"/>
+        <c:axId val="1815669488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21493,7 +21929,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472767088"/>
+        <c:crossAx val="1815671120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21705,6 +22141,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -21783,6 +22222,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10140.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10142.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21820,11 +22262,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-472765456"/>
-        <c:axId val="-472764912"/>
+        <c:axId val="1815670032"/>
+        <c:axId val="1815662960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-472765456"/>
+        <c:axId val="1815670032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21858,7 +22300,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-472764912"/>
+        <c:crossAx val="1815662960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21866,7 +22308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-472764912"/>
+        <c:axId val="1815662960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21876,7 +22318,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-472765456"/>
+        <c:crossAx val="1815670032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22090,6 +22532,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22168,6 +22613,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22205,11 +22653,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-662252944"/>
-        <c:axId val="-681700048"/>
+        <c:axId val="1588254320"/>
+        <c:axId val="1588255408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-662252944"/>
+        <c:axId val="1588254320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22243,7 +22691,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681700048"/>
+        <c:crossAx val="1588255408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22251,7 +22699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-681700048"/>
+        <c:axId val="1588255408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22261,7 +22709,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-662252944"/>
+        <c:crossAx val="1588254320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22502,6 +22950,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22580,6 +23031,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1750.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1750.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22617,11 +23071,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475708160"/>
-        <c:axId val="-475709792"/>
+        <c:axId val="1382322240"/>
+        <c:axId val="1382327136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475708160"/>
+        <c:axId val="1382322240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22655,7 +23109,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475709792"/>
+        <c:crossAx val="1382327136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22663,7 +23117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475709792"/>
+        <c:axId val="1382327136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22673,7 +23127,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475708160"/>
+        <c:crossAx val="1382322240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22913,6 +23367,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22991,6 +23448,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1191.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1191.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23028,11 +23488,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475704352"/>
-        <c:axId val="-475708704"/>
+        <c:axId val="1382317344"/>
+        <c:axId val="1382328224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475704352"/>
+        <c:axId val="1382317344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23066,7 +23526,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475708704"/>
+        <c:crossAx val="1382328224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23074,7 +23534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475708704"/>
+        <c:axId val="1382328224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23084,7 +23544,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475704352"/>
+        <c:crossAx val="1382317344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23324,6 +23784,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23402,6 +23865,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2707.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2710.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23439,8 +23905,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475715776"/>
-        <c:axId val="-475709248"/>
+        <c:axId val="1382313536"/>
+        <c:axId val="1810465920"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -23579,6 +24045,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -23659,6 +24128,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>1750.35</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1750.69</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -23802,6 +24274,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -23883,6 +24358,9 @@
                       <c:pt idx="4">
                         <c:v>1191.74</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1191.97</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -23893,7 +24371,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475715776"/>
+        <c:axId val="1382313536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23927,7 +24405,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475709248"/>
+        <c:crossAx val="1810465920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23935,7 +24413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475709248"/>
+        <c:axId val="1810465920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23945,7 +24423,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475715776"/>
+        <c:crossAx val="1382313536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24187,6 +24665,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -24264,6 +24745,9 @@
                   <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>3.93</c:v>
                 </c:pt>
               </c:numCache>
@@ -24302,8 +24786,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475711968"/>
-        <c:axId val="-475714688"/>
+        <c:axId val="1810460480"/>
+        <c:axId val="1810469184"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -24442,6 +24926,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -24522,6 +25009,9 @@
                       </c:pt>
                       <c:pt idx="4" formatCode="General">
                         <c:v>3.46</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>3.44</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -24665,6 +25155,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -24746,6 +25239,9 @@
                       <c:pt idx="4" formatCode="General">
                         <c:v>3.93</c:v>
                       </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>3.93</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -24756,7 +25252,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475711968"/>
+        <c:axId val="1810460480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24790,7 +25286,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475714688"/>
+        <c:crossAx val="1810469184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24798,7 +25294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475714688"/>
+        <c:axId val="1810469184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24808,7 +25304,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475711968"/>
+        <c:crossAx val="1810460480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25051,6 +25547,9 @@
                   <c:pt idx="4">
                     <c:v>07/jun</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -25128,6 +25627,9 @@
                   <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>3.93</c:v>
                 </c:pt>
               </c:numCache>
@@ -25166,8 +25668,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-475707072"/>
-        <c:axId val="-475717408"/>
+        <c:axId val="1810468096"/>
+        <c:axId val="1810461024"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -25306,6 +25808,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -25386,6 +25891,9 @@
                       </c:pt>
                       <c:pt idx="4" formatCode="General">
                         <c:v>3.46</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>3.44</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -25529,6 +26037,9 @@
                         <c:pt idx="4">
                           <c:v>07/jun</c:v>
                         </c:pt>
+                        <c:pt idx="5">
+                          <c:v>10/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -25610,6 +26121,9 @@
                       <c:pt idx="4" formatCode="General">
                         <c:v>3.93</c:v>
                       </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>3.93</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -25620,7 +26134,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-475707072"/>
+        <c:axId val="1810468096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25654,7 +26168,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-475717408"/>
+        <c:crossAx val="1810461024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25662,7 +26176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-475717408"/>
+        <c:axId val="1810461024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25672,7 +26186,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-475707072"/>
+        <c:crossAx val="1810468096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -45325,10 +45839,10 @@
       <c r="A2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -45436,10 +45950,10 @@
       <c r="A9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -45496,10 +46010,10 @@
       <c r="A13" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -45533,8 +46047,881 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:Q4"/>
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:T6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="74"/>
+    </row>
+    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43619</v>
+      </c>
+      <c r="F3" s="67">
+        <v>43620</v>
+      </c>
+      <c r="G3" s="15">
+        <v>43620</v>
+      </c>
+      <c r="H3" s="37">
+        <v>43620</v>
+      </c>
+      <c r="I3" s="10">
+        <v>43621</v>
+      </c>
+      <c r="J3" s="11">
+        <v>43621</v>
+      </c>
+      <c r="K3" s="12">
+        <v>43621</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="O3" s="18">
+        <v>43623</v>
+      </c>
+      <c r="P3" s="19">
+        <v>43623</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>43623</v>
+      </c>
+      <c r="R3" s="18">
+        <v>43626</v>
+      </c>
+      <c r="S3" s="19">
+        <v>43626</v>
+      </c>
+      <c r="T3" s="20">
+        <v>43626</v>
+      </c>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="20"/>
+    </row>
+    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="52">
+        <v>44562</v>
+      </c>
+      <c r="C4" s="41">
+        <v>7.03</v>
+      </c>
+      <c r="D4" s="42">
+        <v>33.57</v>
+      </c>
+      <c r="E4" s="62">
+        <v>839.25</v>
+      </c>
+      <c r="F4" s="61">
+        <v>6.91</v>
+      </c>
+      <c r="G4" s="40">
+        <v>33.67</v>
+      </c>
+      <c r="H4" s="40">
+        <v>841.91</v>
+      </c>
+      <c r="I4" s="41">
+        <v>6.86</v>
+      </c>
+      <c r="J4" s="42">
+        <v>33.72</v>
+      </c>
+      <c r="K4" s="43">
+        <v>843.14</v>
+      </c>
+      <c r="L4" s="41">
+        <v>6.93</v>
+      </c>
+      <c r="M4" s="42">
+        <v>33.67</v>
+      </c>
+      <c r="N4" s="43">
+        <v>841.95</v>
+      </c>
+      <c r="O4" s="41">
+        <v>6.73</v>
+      </c>
+      <c r="P4" s="42">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>846.22</v>
+      </c>
+      <c r="R4" s="41">
+        <v>6.72</v>
+      </c>
+      <c r="S4" s="42">
+        <v>33.86</v>
+      </c>
+      <c r="T4" s="43">
+        <v>846.65</v>
+      </c>
+      <c r="U4" s="41"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="43"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="43"/>
+    </row>
+    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="52">
+        <v>45658</v>
+      </c>
+      <c r="C5" s="44">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="D5" s="40">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="E5" s="45">
+        <v>646.95000000000005</v>
+      </c>
+      <c r="F5" s="61">
+        <v>7.9</v>
+      </c>
+      <c r="G5" s="40">
+        <v>32.74</v>
+      </c>
+      <c r="H5" s="40">
+        <v>654.86</v>
+      </c>
+      <c r="I5" s="44">
+        <v>7.8</v>
+      </c>
+      <c r="J5" s="40">
+        <v>32.92</v>
+      </c>
+      <c r="K5" s="45">
+        <v>658.45</v>
+      </c>
+      <c r="L5" s="44">
+        <v>7.9</v>
+      </c>
+      <c r="M5" s="40">
+        <v>32.76</v>
+      </c>
+      <c r="N5" s="45">
+        <v>655.26</v>
+      </c>
+      <c r="O5" s="44">
+        <v>7.72</v>
+      </c>
+      <c r="P5" s="40">
+        <v>33.07</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>661.57</v>
+      </c>
+      <c r="R5" s="44">
+        <v>7.74</v>
+      </c>
+      <c r="S5" s="40">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="T5" s="45">
+        <v>661.08</v>
+      </c>
+      <c r="U5" s="44"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="40"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="40"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="40"/>
+      <c r="BM5" s="45"/>
+    </row>
+    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="53">
+        <v>47119</v>
+      </c>
+      <c r="C6" s="46">
+        <v>8.43</v>
+      </c>
+      <c r="D6" s="47">
+        <v>34.21</v>
+      </c>
+      <c r="E6" s="48">
+        <v>1140.6199999999999</v>
+      </c>
+      <c r="F6" s="61">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G6" s="40">
+        <v>34.69</v>
+      </c>
+      <c r="H6" s="40">
+        <v>1156.47</v>
+      </c>
+      <c r="I6" s="46">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J6" s="47">
+        <v>34.86</v>
+      </c>
+      <c r="K6" s="48">
+        <v>1162.28</v>
+      </c>
+      <c r="L6" s="46">
+        <v>8.23</v>
+      </c>
+      <c r="M6" s="47">
+        <v>34.65</v>
+      </c>
+      <c r="N6" s="48">
+        <v>1155.1500000000001</v>
+      </c>
+      <c r="O6" s="46">
+        <v>8.09</v>
+      </c>
+      <c r="P6" s="47">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>1165.06</v>
+      </c>
+      <c r="R6" s="46">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="S6" s="47">
+        <v>34.9</v>
+      </c>
+      <c r="T6" s="48">
+        <v>1163.3599999999999</v>
+      </c>
+      <c r="U6" s="46"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="47"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="46"/>
+      <c r="BC6" s="47"/>
+      <c r="BD6" s="48"/>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="47"/>
+      <c r="BG6" s="48"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="47"/>
+      <c r="BJ6" s="48"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="47"/>
+      <c r="BM6" s="48"/>
+    </row>
+    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:BM1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM100"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -45607,73 +46994,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="74"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -45922,9 +47309,15 @@
       <c r="Q3" s="20">
         <v>43623</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
+      <c r="R3" s="18">
+        <v>43626</v>
+      </c>
+      <c r="S3" s="19">
+        <v>43626</v>
+      </c>
+      <c r="T3" s="20">
+        <v>43626</v>
+      </c>
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
       <c r="W3" s="20"/>
@@ -46023,9 +47416,15 @@
       <c r="Q4" s="51">
         <v>10140.08</v>
       </c>
-      <c r="R4" s="49"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="51"/>
+      <c r="R4" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="S4" s="50">
+        <v>101.42</v>
+      </c>
+      <c r="T4" s="51">
+        <v>10142.58</v>
+      </c>
       <c r="U4" s="49"/>
       <c r="V4" s="50"/>
       <c r="W4" s="51"/>
@@ -46217,10 +47616,10 @@
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -46328,10 +47727,10 @@
       <c r="A9" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -46388,10 +47787,10 @@
       <c r="A13" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -46460,10 +47859,10 @@
       <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -46571,10 +47970,10 @@
       <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -46631,10 +48030,10 @@
       <c r="A13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -46702,10 +48101,10 @@
       <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -46813,10 +48212,10 @@
       <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -46873,10 +48272,10 @@
       <c r="A13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -46945,10 +48344,10 @@
       <c r="A2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -47056,10 +48455,10 @@
       <c r="A9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -47116,10 +48515,10 @@
       <c r="A13" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -47151,13 +48550,255 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="C3:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="60">
+        <v>45519</v>
+      </c>
+      <c r="C3" s="61">
+        <v>3.44</v>
+      </c>
+      <c r="D3" s="40">
+        <v>54.21</v>
+      </c>
+      <c r="E3" s="40">
+        <v>2710.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="60">
+        <v>49444</v>
+      </c>
+      <c r="C4" s="61">
+        <v>3.93</v>
+      </c>
+      <c r="D4" s="40">
+        <v>35.01</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1750.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="60">
+        <v>53097</v>
+      </c>
+      <c r="C5" s="61">
+        <v>3.93</v>
+      </c>
+      <c r="D5" s="40">
+        <v>35.75</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1191.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="60">
+        <v>46249</v>
+      </c>
+      <c r="C6" s="61">
+        <v>3.52</v>
+      </c>
+      <c r="D6" s="40">
+        <v>37.83</v>
+      </c>
+      <c r="E6" s="40">
+        <v>3783.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="60">
+        <v>49444</v>
+      </c>
+      <c r="C7" s="61">
+        <v>3.83</v>
+      </c>
+      <c r="D7" s="40">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="E7" s="40">
+        <v>4059.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="60">
+        <v>55015</v>
+      </c>
+      <c r="C8" s="61">
+        <v>4.03</v>
+      </c>
+      <c r="D8" s="40">
+        <v>43.98</v>
+      </c>
+      <c r="E8" s="40">
+        <v>4398.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="60">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="61">
+        <v>6.72</v>
+      </c>
+      <c r="D10" s="40">
+        <v>33.86</v>
+      </c>
+      <c r="E10" s="40">
+        <v>846.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="60">
+        <v>45658</v>
+      </c>
+      <c r="C11" s="61">
+        <v>7.74</v>
+      </c>
+      <c r="D11" s="40">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="E11" s="40">
+        <v>661.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="60">
+        <v>47119</v>
+      </c>
+      <c r="C12" s="61">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="D12" s="40">
+        <v>34.9</v>
+      </c>
+      <c r="E12" s="40">
+        <v>1163.3599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="60">
+        <v>45717</v>
+      </c>
+      <c r="C14" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="40">
+        <v>101.42</v>
+      </c>
+      <c r="E14" s="40">
+        <v>10142.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:Q6"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -47230,73 +48871,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="74"/>
     </row>
     <row r="2" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -47545,9 +49186,15 @@
       <c r="Q3" s="20">
         <v>43623</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
+      <c r="R3" s="18">
+        <v>43626</v>
+      </c>
+      <c r="S3" s="19">
+        <v>43626</v>
+      </c>
+      <c r="T3" s="20">
+        <v>43626</v>
+      </c>
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
       <c r="W3" s="20"/>
@@ -47646,9 +49293,15 @@
       <c r="Q4" s="43">
         <v>2707.72</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
+      <c r="R4" s="41">
+        <v>3.44</v>
+      </c>
+      <c r="S4" s="42">
+        <v>54.21</v>
+      </c>
+      <c r="T4" s="43">
+        <v>2710.91</v>
+      </c>
       <c r="U4" s="41"/>
       <c r="V4" s="42"/>
       <c r="W4" s="43"/>
@@ -47747,9 +49400,15 @@
       <c r="Q5" s="45">
         <v>1750.35</v>
       </c>
-      <c r="R5" s="44"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="45"/>
+      <c r="R5" s="44">
+        <v>3.93</v>
+      </c>
+      <c r="S5" s="40">
+        <v>35.01</v>
+      </c>
+      <c r="T5" s="45">
+        <v>1750.69</v>
+      </c>
       <c r="U5" s="44"/>
       <c r="V5" s="40"/>
       <c r="W5" s="45"/>
@@ -47848,9 +49507,15 @@
       <c r="Q6" s="45">
         <v>1191.74</v>
       </c>
-      <c r="R6" s="44"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="45"/>
+      <c r="R6" s="44">
+        <v>3.93</v>
+      </c>
+      <c r="S6" s="40">
+        <v>35.75</v>
+      </c>
+      <c r="T6" s="45">
+        <v>1191.97</v>
+      </c>
       <c r="U6" s="44"/>
       <c r="V6" s="40"/>
       <c r="W6" s="45"/>
@@ -47949,9 +49614,15 @@
       <c r="Q7" s="45">
         <v>3778.4</v>
       </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="45"/>
+      <c r="R7" s="44">
+        <v>3.52</v>
+      </c>
+      <c r="S7" s="40">
+        <v>37.83</v>
+      </c>
+      <c r="T7" s="45">
+        <v>3783.42</v>
+      </c>
       <c r="U7" s="44"/>
       <c r="V7" s="40"/>
       <c r="W7" s="45"/>
@@ -48050,9 +49721,15 @@
       <c r="Q8" s="45">
         <v>4054</v>
       </c>
-      <c r="R8" s="44"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="45"/>
+      <c r="R8" s="44">
+        <v>3.83</v>
+      </c>
+      <c r="S8" s="40">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="T8" s="45">
+        <v>4059.11</v>
+      </c>
       <c r="U8" s="13"/>
       <c r="V8" s="8"/>
       <c r="W8" s="14"/>
@@ -48151,9 +49828,15 @@
       <c r="Q9" s="48">
         <v>4398.05</v>
       </c>
-      <c r="R9" s="44"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="45"/>
+      <c r="R9" s="46">
+        <v>4.03</v>
+      </c>
+      <c r="S9" s="47">
+        <v>43.98</v>
+      </c>
+      <c r="T9" s="48">
+        <v>4398.93</v>
+      </c>
       <c r="U9" s="44"/>
       <c r="V9" s="40"/>
       <c r="W9" s="45"/>
@@ -48201,73 +49884,73 @@
       <c r="BM9" s="48"/>
     </row>
     <row r="10" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="72"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="72"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="72"/>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="72"/>
-      <c r="AY10" s="72"/>
-      <c r="AZ10" s="72"/>
-      <c r="BA10" s="72"/>
-      <c r="BB10" s="72"/>
-      <c r="BC10" s="72"/>
-      <c r="BD10" s="72"/>
-      <c r="BE10" s="72"/>
-      <c r="BF10" s="72"/>
-      <c r="BG10" s="72"/>
-      <c r="BH10" s="72"/>
-      <c r="BI10" s="72"/>
-      <c r="BJ10" s="72"/>
-      <c r="BK10" s="72"/>
-      <c r="BL10" s="72"/>
-      <c r="BM10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="73"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="73"/>
+      <c r="AL10" s="73"/>
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="73"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="73"/>
+      <c r="AT10" s="73"/>
+      <c r="AU10" s="73"/>
+      <c r="AV10" s="73"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="73"/>
+      <c r="AZ10" s="73"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="73"/>
+      <c r="BD10" s="73"/>
+      <c r="BE10" s="73"/>
+      <c r="BF10" s="73"/>
+      <c r="BG10" s="73"/>
+      <c r="BH10" s="73"/>
+      <c r="BI10" s="73"/>
+      <c r="BJ10" s="73"/>
+      <c r="BK10" s="73"/>
+      <c r="BL10" s="73"/>
+      <c r="BM10" s="74"/>
     </row>
     <row r="11" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
@@ -48516,9 +50199,15 @@
       <c r="Q12" s="54">
         <v>43623</v>
       </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="20"/>
+      <c r="R12" s="18">
+        <v>43626</v>
+      </c>
+      <c r="S12" s="19">
+        <v>43626</v>
+      </c>
+      <c r="T12" s="20">
+        <v>43626</v>
+      </c>
       <c r="U12" s="18"/>
       <c r="V12" s="19"/>
       <c r="W12" s="20"/>
@@ -48617,9 +50306,15 @@
       <c r="Q13" s="43">
         <v>846.22</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="43"/>
+      <c r="R13" s="41">
+        <v>6.72</v>
+      </c>
+      <c r="S13" s="42">
+        <v>33.86</v>
+      </c>
+      <c r="T13" s="43">
+        <v>846.65</v>
+      </c>
       <c r="U13" s="41"/>
       <c r="V13" s="42"/>
       <c r="W13" s="43"/>
@@ -48718,9 +50413,15 @@
       <c r="Q14" s="45">
         <v>661.57</v>
       </c>
-      <c r="R14" s="44"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="45"/>
+      <c r="R14" s="44">
+        <v>7.74</v>
+      </c>
+      <c r="S14" s="40">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="T14" s="45">
+        <v>661.08</v>
+      </c>
       <c r="U14" s="44"/>
       <c r="V14" s="40"/>
       <c r="W14" s="45"/>
@@ -48819,9 +50520,15 @@
       <c r="Q15" s="48">
         <v>1165.06</v>
       </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="45"/>
+      <c r="R15" s="46">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="S15" s="47">
+        <v>34.9</v>
+      </c>
+      <c r="T15" s="48">
+        <v>1163.3599999999999</v>
+      </c>
       <c r="U15" s="44"/>
       <c r="V15" s="40"/>
       <c r="W15" s="45"/>
@@ -48869,73 +50576,73 @@
       <c r="BM15" s="48"/>
     </row>
     <row r="16" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="72"/>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="72"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="72"/>
-      <c r="BA16" s="72"/>
-      <c r="BB16" s="72"/>
-      <c r="BC16" s="72"/>
-      <c r="BD16" s="72"/>
-      <c r="BE16" s="72"/>
-      <c r="BF16" s="72"/>
-      <c r="BG16" s="72"/>
-      <c r="BH16" s="72"/>
-      <c r="BI16" s="72"/>
-      <c r="BJ16" s="72"/>
-      <c r="BK16" s="72"/>
-      <c r="BL16" s="72"/>
-      <c r="BM16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="73"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="73"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="73"/>
+      <c r="AO16" s="73"/>
+      <c r="AP16" s="73"/>
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="73"/>
+      <c r="AS16" s="73"/>
+      <c r="AT16" s="73"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="73"/>
+      <c r="BC16" s="73"/>
+      <c r="BD16" s="73"/>
+      <c r="BE16" s="73"/>
+      <c r="BF16" s="73"/>
+      <c r="BG16" s="73"/>
+      <c r="BH16" s="73"/>
+      <c r="BI16" s="73"/>
+      <c r="BJ16" s="73"/>
+      <c r="BK16" s="73"/>
+      <c r="BL16" s="73"/>
+      <c r="BM16" s="74"/>
     </row>
     <row r="17" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
@@ -49184,9 +50891,15 @@
       <c r="Q18" s="20">
         <v>43623</v>
       </c>
-      <c r="R18" s="18"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="20"/>
+      <c r="R18" s="18">
+        <v>43626</v>
+      </c>
+      <c r="S18" s="19">
+        <v>43626</v>
+      </c>
+      <c r="T18" s="20">
+        <v>43626</v>
+      </c>
       <c r="U18" s="18"/>
       <c r="V18" s="19"/>
       <c r="W18" s="20"/>
@@ -49285,9 +50998,15 @@
       <c r="Q19" s="51">
         <v>10140.08</v>
       </c>
-      <c r="R19" s="49"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="51"/>
+      <c r="R19" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="S19" s="50">
+        <v>101.42</v>
+      </c>
+      <c r="T19" s="51">
+        <v>10142.58</v>
+      </c>
       <c r="U19" s="49"/>
       <c r="V19" s="50"/>
       <c r="W19" s="51"/>
@@ -49427,12 +51146,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:Q6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -49505,73 +51224,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="74"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -49820,9 +51539,15 @@
       <c r="Q3" s="20">
         <v>43623</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
+      <c r="R3" s="18">
+        <v>43626</v>
+      </c>
+      <c r="S3" s="19">
+        <v>43626</v>
+      </c>
+      <c r="T3" s="20">
+        <v>43626</v>
+      </c>
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
       <c r="W3" s="20"/>
@@ -49921,9 +51646,15 @@
       <c r="Q4" s="43">
         <v>2707.72</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
+      <c r="R4" s="41">
+        <v>3.44</v>
+      </c>
+      <c r="S4" s="42">
+        <v>54.21</v>
+      </c>
+      <c r="T4" s="43">
+        <v>2710.91</v>
+      </c>
       <c r="U4" s="41"/>
       <c r="V4" s="42"/>
       <c r="W4" s="43"/>
@@ -50022,9 +51753,15 @@
       <c r="Q5" s="45">
         <v>1750.35</v>
       </c>
-      <c r="R5" s="44"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="45"/>
+      <c r="R5" s="44">
+        <v>3.93</v>
+      </c>
+      <c r="S5" s="40">
+        <v>35.01</v>
+      </c>
+      <c r="T5" s="45">
+        <v>1750.69</v>
+      </c>
       <c r="U5" s="44"/>
       <c r="V5" s="40"/>
       <c r="W5" s="45"/>
@@ -50123,849 +51860,15 @@
       <c r="Q6" s="48">
         <v>1191.74</v>
       </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="46"/>
-      <c r="BL6" s="47"/>
-      <c r="BM6" s="48"/>
-    </row>
-    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:BM1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM100"/>
-  <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="73"/>
-    </row>
-    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43619</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43620</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="I3" s="67">
-        <v>43621</v>
-      </c>
-      <c r="J3" s="15">
-        <v>43621</v>
-      </c>
-      <c r="K3" s="37">
-        <v>43621</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="M3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="N3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="O3" s="18">
-        <v>43623</v>
-      </c>
-      <c r="P3" s="19">
-        <v>43623</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>43623</v>
-      </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="18"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="20"/>
-    </row>
-    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="52">
-        <v>46249</v>
-      </c>
-      <c r="C4" s="41">
-        <v>3.71</v>
-      </c>
-      <c r="D4" s="42">
-        <v>37.409999999999997</v>
-      </c>
-      <c r="E4" s="43">
-        <v>3741.25</v>
-      </c>
-      <c r="F4" s="41">
-        <v>3.65</v>
-      </c>
-      <c r="G4" s="42">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="H4" s="43">
-        <v>3755</v>
-      </c>
-      <c r="I4" s="44">
-        <v>3.67</v>
-      </c>
-      <c r="J4" s="40">
-        <v>37.51</v>
-      </c>
-      <c r="K4" s="45">
-        <v>3751.51</v>
-      </c>
-      <c r="L4" s="41">
-        <v>3.67</v>
-      </c>
-      <c r="M4" s="42">
-        <v>37.520000000000003</v>
-      </c>
-      <c r="N4" s="43">
-        <v>3752.34</v>
-      </c>
-      <c r="O4" s="41">
-        <v>3.54</v>
-      </c>
-      <c r="P4" s="42">
-        <v>37.78</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>3778.4</v>
-      </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="43"/>
-    </row>
-    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="52">
-        <v>49444</v>
-      </c>
-      <c r="C5" s="44">
-        <v>3.9</v>
-      </c>
-      <c r="D5" s="40">
-        <v>40.270000000000003</v>
-      </c>
-      <c r="E5" s="45">
-        <v>4027.51</v>
-      </c>
-      <c r="F5" s="44">
-        <v>3.83</v>
-      </c>
-      <c r="G5" s="40">
-        <v>40.58</v>
-      </c>
-      <c r="H5" s="45">
-        <v>4058.68</v>
-      </c>
-      <c r="I5" s="44">
-        <v>3.86</v>
-      </c>
-      <c r="J5" s="40">
-        <v>40.46</v>
-      </c>
-      <c r="K5" s="45">
-        <v>4046.61</v>
-      </c>
-      <c r="L5" s="44">
-        <v>3.87</v>
-      </c>
-      <c r="M5" s="40">
-        <v>40.43</v>
-      </c>
-      <c r="N5" s="45">
-        <v>4043.21</v>
-      </c>
-      <c r="O5" s="44">
-        <v>3.84</v>
-      </c>
-      <c r="P5" s="40">
-        <v>40.54</v>
-      </c>
-      <c r="Q5" s="45">
-        <v>4054</v>
-      </c>
-      <c r="R5" s="44"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="40"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="40"/>
-      <c r="BM5" s="45"/>
-    </row>
-    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="53">
-        <v>55015</v>
-      </c>
-      <c r="C6" s="46">
-        <v>4.09</v>
-      </c>
-      <c r="D6" s="47">
-        <v>43.55</v>
-      </c>
-      <c r="E6" s="48">
-        <v>4355.7700000000004</v>
-      </c>
-      <c r="F6" s="46">
-        <v>3.98</v>
-      </c>
-      <c r="G6" s="47">
-        <v>44.33</v>
-      </c>
-      <c r="H6" s="48">
-        <v>4433.3999999999996</v>
-      </c>
-      <c r="I6" s="46">
-        <v>4.01</v>
-      </c>
-      <c r="J6" s="47">
-        <v>44.13</v>
-      </c>
-      <c r="K6" s="48">
-        <v>4413.34</v>
-      </c>
-      <c r="L6" s="46">
-        <v>4.05</v>
-      </c>
-      <c r="M6" s="47">
-        <v>43.86</v>
-      </c>
-      <c r="N6" s="48">
-        <v>4386.4799999999996</v>
-      </c>
-      <c r="O6" s="46">
-        <v>4.03</v>
-      </c>
-      <c r="P6" s="47">
-        <v>43.98</v>
-      </c>
-      <c r="Q6" s="48">
-        <v>4398.05</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
+      <c r="R6" s="46">
+        <v>3.93</v>
+      </c>
+      <c r="S6" s="47">
+        <v>35.75</v>
+      </c>
+      <c r="T6" s="48">
+        <v>1191.97</v>
+      </c>
       <c r="U6" s="46"/>
       <c r="V6" s="47"/>
       <c r="W6" s="48"/>
@@ -51120,147 +52023,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:Q6"/>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="73"/>
+      <c r="A1" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="74"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -51287,13 +52181,13 @@
       <c r="H2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="22" t="s">
@@ -51302,16 +52196,16 @@
       <c r="M2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="25" t="s">
@@ -51386,13 +52280,13 @@
       <c r="AO2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="24" t="s">
+      <c r="AP2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="24" t="s">
+      <c r="AQ2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AR2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="AS2" s="25" t="s">
@@ -51413,22 +52307,22 @@
       <c r="AX2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AY2" s="25" t="s">
+      <c r="AY2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AZ2" s="25" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="BA2" s="25" t="s">
+      <c r="BA2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB2" s="25" t="s">
+      <c r="BB2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="BC2" s="25" t="s">
+      <c r="BC2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="BD2" s="25" t="s">
+      <c r="BD2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="BE2" s="17" t="s">
@@ -51473,22 +52367,22 @@
       <c r="E3" s="3">
         <v>43619</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="1">
         <v>43620</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="2">
         <v>43620</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="2">
         <v>43620</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="67">
         <v>43621</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="15">
         <v>43621</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="37">
         <v>43621</v>
       </c>
       <c r="L3" s="2">
@@ -51506,12 +52400,18 @@
       <c r="P3" s="19">
         <v>43623</v>
       </c>
-      <c r="Q3" s="54">
+      <c r="Q3" s="19">
         <v>43623</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
+      <c r="R3" s="18">
+        <v>43626</v>
+      </c>
+      <c r="S3" s="19">
+        <v>43626</v>
+      </c>
+      <c r="T3" s="20">
+        <v>43626</v>
+      </c>
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
       <c r="W3" s="20"/>
@@ -51532,10 +52432,10 @@
       <c r="AL3" s="20"/>
       <c r="AM3" s="18"/>
       <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
       <c r="AS3" s="18"/>
       <c r="AT3" s="19"/>
       <c r="AU3" s="20"/>
@@ -51560,59 +52460,65 @@
     </row>
     <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="52">
-        <v>44562</v>
+        <v>46249</v>
       </c>
       <c r="C4" s="41">
-        <v>7.03</v>
+        <v>3.71</v>
       </c>
       <c r="D4" s="42">
-        <v>33.57</v>
-      </c>
-      <c r="E4" s="62">
-        <v>839.25</v>
-      </c>
-      <c r="F4" s="61">
-        <v>6.91</v>
-      </c>
-      <c r="G4" s="40">
-        <v>33.67</v>
-      </c>
-      <c r="H4" s="40">
-        <v>841.91</v>
-      </c>
-      <c r="I4" s="41">
-        <v>6.86</v>
-      </c>
-      <c r="J4" s="42">
-        <v>33.72</v>
-      </c>
-      <c r="K4" s="43">
-        <v>843.14</v>
+        <v>37.409999999999997</v>
+      </c>
+      <c r="E4" s="43">
+        <v>3741.25</v>
+      </c>
+      <c r="F4" s="41">
+        <v>3.65</v>
+      </c>
+      <c r="G4" s="42">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="H4" s="43">
+        <v>3755</v>
+      </c>
+      <c r="I4" s="44">
+        <v>3.67</v>
+      </c>
+      <c r="J4" s="40">
+        <v>37.51</v>
+      </c>
+      <c r="K4" s="45">
+        <v>3751.51</v>
       </c>
       <c r="L4" s="41">
-        <v>6.93</v>
+        <v>3.67</v>
       </c>
       <c r="M4" s="42">
-        <v>33.67</v>
+        <v>37.520000000000003</v>
       </c>
       <c r="N4" s="43">
-        <v>841.95</v>
+        <v>3752.34</v>
       </c>
       <c r="O4" s="41">
-        <v>6.73</v>
+        <v>3.54</v>
       </c>
       <c r="P4" s="42">
-        <v>33.840000000000003</v>
+        <v>37.78</v>
       </c>
       <c r="Q4" s="43">
-        <v>846.22</v>
-      </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
+        <v>3778.4</v>
+      </c>
+      <c r="R4" s="41">
+        <v>3.52</v>
+      </c>
+      <c r="S4" s="42">
+        <v>37.83</v>
+      </c>
+      <c r="T4" s="43">
+        <v>3783.42</v>
+      </c>
       <c r="U4" s="41"/>
       <c r="V4" s="42"/>
       <c r="W4" s="43"/>
@@ -51661,68 +52567,74 @@
     </row>
     <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="52">
-        <v>45658</v>
+        <v>49444</v>
       </c>
       <c r="C5" s="44">
-        <v>8.1300000000000008</v>
+        <v>3.9</v>
       </c>
       <c r="D5" s="40">
-        <v>32.340000000000003</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="E5" s="45">
-        <v>646.95000000000005</v>
-      </c>
-      <c r="F5" s="61">
-        <v>7.9</v>
+        <v>4027.51</v>
+      </c>
+      <c r="F5" s="44">
+        <v>3.83</v>
       </c>
       <c r="G5" s="40">
-        <v>32.74</v>
-      </c>
-      <c r="H5" s="40">
-        <v>654.86</v>
+        <v>40.58</v>
+      </c>
+      <c r="H5" s="45">
+        <v>4058.68</v>
       </c>
       <c r="I5" s="44">
-        <v>7.8</v>
+        <v>3.86</v>
       </c>
       <c r="J5" s="40">
-        <v>32.92</v>
+        <v>40.46</v>
       </c>
       <c r="K5" s="45">
-        <v>658.45</v>
+        <v>4046.61</v>
       </c>
       <c r="L5" s="44">
-        <v>7.9</v>
+        <v>3.87</v>
       </c>
       <c r="M5" s="40">
-        <v>32.76</v>
+        <v>40.43</v>
       </c>
       <c r="N5" s="45">
-        <v>655.26</v>
+        <v>4043.21</v>
       </c>
       <c r="O5" s="44">
-        <v>7.72</v>
+        <v>3.84</v>
       </c>
       <c r="P5" s="40">
-        <v>33.07</v>
+        <v>40.54</v>
       </c>
       <c r="Q5" s="45">
-        <v>661.57</v>
-      </c>
-      <c r="R5" s="44"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="45"/>
+        <v>4054</v>
+      </c>
+      <c r="R5" s="44">
+        <v>3.83</v>
+      </c>
+      <c r="S5" s="40">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="T5" s="45">
+        <v>4059.11</v>
+      </c>
+      <c r="U5" s="13"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="14"/>
       <c r="AD5" s="44"/>
       <c r="AE5" s="40"/>
       <c r="AF5" s="45"/>
@@ -51762,59 +52674,65 @@
     </row>
     <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="53">
-        <v>47119</v>
+        <v>55015</v>
       </c>
       <c r="C6" s="46">
-        <v>8.43</v>
+        <v>4.09</v>
       </c>
       <c r="D6" s="47">
-        <v>34.21</v>
+        <v>43.55</v>
       </c>
       <c r="E6" s="48">
-        <v>1140.6199999999999</v>
-      </c>
-      <c r="F6" s="61">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G6" s="40">
-        <v>34.69</v>
-      </c>
-      <c r="H6" s="40">
-        <v>1156.47</v>
+        <v>4355.7700000000004</v>
+      </c>
+      <c r="F6" s="46">
+        <v>3.98</v>
+      </c>
+      <c r="G6" s="47">
+        <v>44.33</v>
+      </c>
+      <c r="H6" s="48">
+        <v>4433.3999999999996</v>
       </c>
       <c r="I6" s="46">
-        <v>8.1199999999999992</v>
+        <v>4.01</v>
       </c>
       <c r="J6" s="47">
-        <v>34.86</v>
+        <v>44.13</v>
       </c>
       <c r="K6" s="48">
-        <v>1162.28</v>
+        <v>4413.34</v>
       </c>
       <c r="L6" s="46">
-        <v>8.23</v>
+        <v>4.05</v>
       </c>
       <c r="M6" s="47">
-        <v>34.65</v>
+        <v>43.86</v>
       </c>
       <c r="N6" s="48">
-        <v>1155.1500000000001</v>
+        <v>4386.4799999999996</v>
       </c>
       <c r="O6" s="46">
-        <v>8.09</v>
+        <v>4.03</v>
       </c>
       <c r="P6" s="47">
-        <v>34.950000000000003</v>
+        <v>43.98</v>
       </c>
       <c r="Q6" s="48">
-        <v>1165.06</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
+        <v>4398.05</v>
+      </c>
+      <c r="R6" s="46">
+        <v>4.03</v>
+      </c>
+      <c r="S6" s="47">
+        <v>43.98</v>
+      </c>
+      <c r="T6" s="48">
+        <v>4398.93</v>
+      </c>
       <c r="U6" s="46"/>
       <c r="V6" s="47"/>
       <c r="W6" s="48"/>
@@ -51960,7 +52878,7 @@
     <mergeCell ref="A1:BM1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TESOURO DIRETO_0619 - Compra.xlsx
+++ b/TESOURO DIRETO_0619 - Compra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="030619" sheetId="9" r:id="rId1"/>
@@ -18,18 +18,19 @@
     <sheet name="060619" sheetId="12" r:id="rId4"/>
     <sheet name="070619" sheetId="13" r:id="rId5"/>
     <sheet name="100619" sheetId="14" r:id="rId6"/>
-    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId7"/>
-    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId8"/>
-    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId9"/>
-    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId10"/>
-    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId11"/>
+    <sheet name="110619" sheetId="15" r:id="rId7"/>
+    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId8"/>
+    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId9"/>
+    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId10"/>
+    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId11"/>
+    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="25">
   <si>
     <t>Vencimento</t>
   </si>
@@ -506,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,6 +720,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,7 +798,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -932,7 +935,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -980,6 +982,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1062,6 +1067,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,7 +1170,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1210,6 +1217,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1292,6 +1302,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,7 +1405,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1440,6 +1452,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1522,6 +1537,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1622,7 +1640,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1670,6 +1687,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1752,6 +1772,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1852,7 +1875,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1900,6 +1922,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1982,6 +2007,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,7 +2110,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2130,6 +2157,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2213,6 +2243,9 @@
                 <c:pt idx="5" formatCode="General">
                   <c:v>4.03</c:v>
                 </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2228,11 +2261,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1588257584"/>
-        <c:axId val="1588247248"/>
+        <c:axId val="-37084384"/>
+        <c:axId val="-37094720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1588257584"/>
+        <c:axId val="-37084384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +2307,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588247248"/>
+        <c:crossAx val="-37094720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2282,7 +2315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1588247248"/>
+        <c:axId val="-37094720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,7 +2365,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588257584"/>
+        <c:crossAx val="-37084384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2346,7 +2379,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2438,7 +2470,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2543,7 +2574,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2591,6 +2621,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2673,6 +2706,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,8 +2746,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810469728"/>
-        <c:axId val="1810457216"/>
+        <c:axId val="-37109488"/>
+        <c:axId val="-37104048"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2853,6 +2889,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -2936,6 +2975,9 @@
                       </c:pt>
                       <c:pt idx="5" formatCode="General">
                         <c:v>3.93</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>3.9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3082,6 +3124,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3166,6 +3211,9 @@
                       <c:pt idx="5" formatCode="General">
                         <c:v>3.93</c:v>
                       </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>3.9</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3176,7 +3224,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810469728"/>
+        <c:axId val="-37109488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,7 +3258,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810457216"/>
+        <c:crossAx val="-37104048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3218,7 +3266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810457216"/>
+        <c:axId val="-37104048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,7 +3276,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810469728"/>
+        <c:crossAx val="-37109488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3242,7 +3290,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3474,6 +3521,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3555,6 +3605,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>35.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3592,8 +3645,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810466464"/>
-        <c:axId val="1810468640"/>
+        <c:axId val="-37111120"/>
+        <c:axId val="-37108944"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3735,6 +3788,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3818,6 +3874,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>54.21</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>54.39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3964,6 +4023,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -4048,6 +4110,9 @@
                       <c:pt idx="5">
                         <c:v>35.01</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>35.18</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4058,7 +4123,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810466464"/>
+        <c:axId val="-37111120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,7 +4157,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810468640"/>
+        <c:crossAx val="-37108944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4100,7 +4165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810468640"/>
+        <c:axId val="-37108944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,7 +4175,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810466464"/>
+        <c:crossAx val="-37111120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4415,6 +4480,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4496,6 +4564,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4629,6 +4700,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4710,6 +4784,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4843,6 +4920,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4925,6 +5005,9 @@
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.93</c:v>
                 </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4941,11 +5024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1810462112"/>
-        <c:axId val="1810470816"/>
+        <c:axId val="-37108400"/>
+        <c:axId val="-37107856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810462112"/>
+        <c:axId val="-37108400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4988,7 +5071,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810470816"/>
+        <c:crossAx val="-37107856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4996,7 +5079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810470816"/>
+        <c:axId val="-37107856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5006,7 +5089,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810462112"/>
+        <c:crossAx val="-37108400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5253,6 +5336,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5334,6 +5420,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3783.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3794.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5371,11 +5460,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810461568"/>
-        <c:axId val="1810467008"/>
+        <c:axId val="-37101872"/>
+        <c:axId val="-37106768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810461568"/>
+        <c:axId val="-37101872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5409,7 +5498,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810467008"/>
+        <c:crossAx val="-37106768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5417,7 +5506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810467008"/>
+        <c:axId val="-37106768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5427,7 +5516,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810461568"/>
+        <c:crossAx val="-37101872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5670,6 +5759,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5751,6 +5843,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4059.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4072.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5788,8 +5883,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810459936"/>
-        <c:axId val="1810471360"/>
+        <c:axId val="-37106224"/>
+        <c:axId val="-37101328"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -5931,6 +6026,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6014,6 +6112,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>3783.42</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3794.99</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6160,6 +6261,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6244,6 +6348,9 @@
                       <c:pt idx="5">
                         <c:v>4398.93</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4406.7700000000004</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6254,7 +6361,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810459936"/>
+        <c:axId val="-37106224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6288,7 +6395,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810471360"/>
+        <c:crossAx val="-37101328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6296,7 +6403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810471360"/>
+        <c:axId val="-37101328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6306,7 +6413,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810459936"/>
+        <c:crossAx val="-37106224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6549,6 +6656,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -6630,6 +6740,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4398.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4406.7700000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6667,8 +6780,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810471904"/>
-        <c:axId val="1810462656"/>
+        <c:axId val="-37107312"/>
+        <c:axId val="-37111664"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6810,6 +6923,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6893,6 +7009,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>3783.42</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3794.99</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7039,6 +7158,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7123,6 +7245,9 @@
                       <c:pt idx="5">
                         <c:v>4059.11</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4072.92</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -7133,7 +7258,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810471904"/>
+        <c:axId val="-37107312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7167,7 +7292,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810462656"/>
+        <c:crossAx val="-37111664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7175,7 +7300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810462656"/>
+        <c:axId val="-37111664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7185,7 +7310,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810471904"/>
+        <c:crossAx val="-37107312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7430,6 +7555,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -7511,6 +7639,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>43.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7548,8 +7679,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810463200"/>
-        <c:axId val="1810467552"/>
+        <c:axId val="-37105680"/>
+        <c:axId val="-37104592"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7691,6 +7822,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7774,6 +7908,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>37.83</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>37.94</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7920,6 +8057,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8004,6 +8144,9 @@
                       <c:pt idx="5">
                         <c:v>40.590000000000003</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>40.72</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8014,7 +8157,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810463200"/>
+        <c:axId val="-37105680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8048,7 +8191,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810467552"/>
+        <c:crossAx val="-37104592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8056,7 +8199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810467552"/>
+        <c:axId val="-37104592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8066,7 +8209,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810463200"/>
+        <c:crossAx val="-37105680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8312,6 +8455,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -8393,6 +8539,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>40.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8430,8 +8579,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810470272"/>
-        <c:axId val="1810463744"/>
+        <c:axId val="-37105136"/>
+        <c:axId val="-37100240"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -8573,6 +8722,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8656,6 +8808,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>37.83</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>37.94</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8802,6 +8957,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8886,6 +9044,9 @@
                       <c:pt idx="5">
                         <c:v>43.98</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44.06</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8896,7 +9057,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810470272"/>
+        <c:axId val="-37105136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8930,7 +9091,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810463744"/>
+        <c:crossAx val="-37100240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8938,7 +9099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810463744"/>
+        <c:axId val="-37100240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8948,7 +9109,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810470272"/>
+        <c:crossAx val="-37105136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9192,6 +9353,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9273,6 +9437,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>37.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9310,11 +9477,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810464832"/>
-        <c:axId val="1810464288"/>
+        <c:axId val="-37110576"/>
+        <c:axId val="-37110032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810464832"/>
+        <c:axId val="-37110576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9348,7 +9515,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810464288"/>
+        <c:crossAx val="-37110032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9356,7 +9523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810464288"/>
+        <c:axId val="-37110032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9366,7 +9533,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810464832"/>
+        <c:crossAx val="-37110576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9609,6 +9776,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9690,6 +9860,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9727,8 +9900,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810459392"/>
-        <c:axId val="1810465376"/>
+        <c:axId val="-73595952"/>
+        <c:axId val="-1992353344"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9870,6 +10043,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9953,6 +10129,9 @@
                       </c:pt>
                       <c:pt idx="5" formatCode="General">
                         <c:v>3.83</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>3.8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10099,6 +10278,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -10183,6 +10365,9 @@
                       <c:pt idx="5" formatCode="General">
                         <c:v>4.03</c:v>
                       </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>4.0199999999999996</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -10193,7 +10378,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810459392"/>
+        <c:axId val="-73595952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10227,7 +10412,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810465376"/>
+        <c:crossAx val="-1992353344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10235,7 +10420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810465376"/>
+        <c:axId val="-1992353344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10245,7 +10430,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810459392"/>
+        <c:crossAx val="-73595952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10461,6 +10646,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10542,6 +10730,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>6.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10613,6 +10804,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10694,6 +10888,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>7.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10765,6 +10962,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10847,6 +11047,9 @@
                 <c:pt idx="5" formatCode="General">
                   <c:v>8.1199999999999992</c:v>
                 </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.08</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10861,11 +11064,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="1588249968"/>
-        <c:axId val="1588251600"/>
+        <c:axId val="-37087104"/>
+        <c:axId val="-37086016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1588249968"/>
+        <c:axId val="-37087104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10926,7 +11129,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588251600"/>
+        <c:crossAx val="-37086016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10934,7 +11137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1588251600"/>
+        <c:axId val="-37086016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10995,7 +11198,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588249968"/>
+        <c:crossAx val="-37087104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11246,6 +11449,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11327,6 +11533,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11364,8 +11573,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810456672"/>
-        <c:axId val="1810457760"/>
+        <c:axId val="-1992352256"/>
+        <c:axId val="-1992352800"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -11507,6 +11716,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11590,6 +11802,9 @@
                       </c:pt>
                       <c:pt idx="5" formatCode="General">
                         <c:v>3.52</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>3.47</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11736,6 +11951,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11820,6 +12038,9 @@
                       <c:pt idx="5" formatCode="General">
                         <c:v>4.03</c:v>
                       </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>4.0199999999999996</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -11830,7 +12051,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810456672"/>
+        <c:axId val="-1992352256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11864,7 +12085,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810457760"/>
+        <c:crossAx val="-1992352800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11872,7 +12093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810457760"/>
+        <c:axId val="-1992352800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11882,7 +12103,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810456672"/>
+        <c:crossAx val="-1992352256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12128,6 +12349,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12209,6 +12433,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12246,8 +12473,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810458304"/>
-        <c:axId val="1810458848"/>
+        <c:axId val="-1992358240"/>
+        <c:axId val="-1992357696"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12389,6 +12616,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -12472,6 +12702,9 @@
                       </c:pt>
                       <c:pt idx="5" formatCode="General">
                         <c:v>3.52</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>3.47</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12618,6 +12851,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -12702,6 +12938,9 @@
                       <c:pt idx="5" formatCode="General">
                         <c:v>3.83</c:v>
                       </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>3.8</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -12712,7 +12951,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810458304"/>
+        <c:axId val="-1992358240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12746,7 +12985,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810458848"/>
+        <c:crossAx val="-1992357696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12754,7 +12993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810458848"/>
+        <c:axId val="-1992357696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12764,7 +13003,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810458304"/>
+        <c:crossAx val="-1992358240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13010,6 +13249,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -13091,6 +13333,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>6.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13128,8 +13373,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1815667856"/>
-        <c:axId val="1815672208"/>
+        <c:axId val="-1992351712"/>
+        <c:axId val="-1992350624"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13271,6 +13516,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13354,6 +13602,9 @@
                       </c:pt>
                       <c:pt idx="5" formatCode="General">
                         <c:v>7.74</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>7.71</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13500,6 +13751,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13584,6 +13838,9 @@
                       <c:pt idx="5" formatCode="General">
                         <c:v>8.1199999999999992</c:v>
                       </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>8.08</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -13594,7 +13851,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815667856"/>
+        <c:axId val="-1992351712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13628,7 +13885,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815672208"/>
+        <c:crossAx val="-1992350624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13636,7 +13893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815672208"/>
+        <c:axId val="-1992350624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13646,7 +13903,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815667856"/>
+        <c:crossAx val="-1992351712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13892,6 +14149,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -13973,6 +14233,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>7.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14010,8 +14273,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1815661328"/>
-        <c:axId val="1815656976"/>
+        <c:axId val="-1992356608"/>
+        <c:axId val="-1992345728"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -14153,6 +14416,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14236,6 +14502,9 @@
                       </c:pt>
                       <c:pt idx="5" formatCode="General">
                         <c:v>6.72</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>6.71</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14382,6 +14651,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14466,6 +14738,9 @@
                       <c:pt idx="5" formatCode="General">
                         <c:v>8.1199999999999992</c:v>
                       </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>8.08</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -14476,7 +14751,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815661328"/>
+        <c:axId val="-1992356608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14510,7 +14785,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815656976"/>
+        <c:crossAx val="-1992345728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14518,7 +14793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815656976"/>
+        <c:axId val="-1992345728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14528,7 +14803,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815661328"/>
+        <c:crossAx val="-1992356608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14620,6 +14895,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14724,6 +15000,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14771,6 +15048,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -14853,6 +15133,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14890,8 +15173,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1815670576"/>
-        <c:axId val="1815663504"/>
+        <c:axId val="-1992351168"/>
+        <c:axId val="-1992357152"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -15033,6 +15316,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15116,6 +15402,9 @@
                       </c:pt>
                       <c:pt idx="5" formatCode="General">
                         <c:v>6.72</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>6.71</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15262,6 +15551,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15346,6 +15638,9 @@
                       <c:pt idx="5" formatCode="General">
                         <c:v>7.74</c:v>
                       </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>7.71</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -15356,7 +15651,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815670576"/>
+        <c:axId val="-1992351168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15390,7 +15685,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815663504"/>
+        <c:crossAx val="-1992357152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15398,7 +15693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815663504"/>
+        <c:axId val="-1992357152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15408,7 +15703,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815670576"/>
+        <c:crossAx val="-1992351168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15422,6 +15717,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15653,6 +15949,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -15734,6 +16033,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>33.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.880000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15771,8 +16073,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1815660784"/>
-        <c:axId val="1815661872"/>
+        <c:axId val="-1992345184"/>
+        <c:axId val="-1992344640"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -15914,6 +16216,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15997,6 +16302,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>33.049999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33.11</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16143,6 +16451,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16227,6 +16538,9 @@
                       <c:pt idx="5">
                         <c:v>34.9</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>34.99</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -16237,7 +16551,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815660784"/>
+        <c:axId val="-1992345184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16271,7 +16585,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815661872"/>
+        <c:crossAx val="-1992344640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16279,7 +16593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815661872"/>
+        <c:axId val="-1992344640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16289,7 +16603,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815660784"/>
+        <c:crossAx val="-1992345184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16535,6 +16849,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -16616,6 +16933,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>33.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16653,8 +16973,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1815658608"/>
-        <c:axId val="1815668400"/>
+        <c:axId val="-1992359328"/>
+        <c:axId val="-1992344096"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -16796,6 +17116,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16879,6 +17202,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>33.86</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33.880000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17025,6 +17351,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17109,6 +17438,9 @@
                       <c:pt idx="5">
                         <c:v>34.9</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>34.99</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -17119,7 +17451,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815658608"/>
+        <c:axId val="-1992359328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17153,7 +17485,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815668400"/>
+        <c:crossAx val="-1992344096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17161,7 +17493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815668400"/>
+        <c:axId val="-1992344096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17171,7 +17503,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815658608"/>
+        <c:crossAx val="-1992359328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17263,6 +17595,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17367,6 +17700,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17414,6 +17748,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -17496,6 +17833,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17533,8 +17873,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1815671664"/>
-        <c:axId val="1815657520"/>
+        <c:axId val="-1992350080"/>
+        <c:axId val="-1992353888"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -17676,6 +18016,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17759,6 +18102,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>33.86</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33.880000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17905,6 +18251,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17989,6 +18338,9 @@
                       <c:pt idx="5">
                         <c:v>33.049999999999997</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33.11</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -17999,7 +18351,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815671664"/>
+        <c:axId val="-1992350080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18033,7 +18385,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815657520"/>
+        <c:crossAx val="-1992353888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18041,7 +18393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815657520"/>
+        <c:axId val="-1992353888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18051,7 +18403,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815671664"/>
+        <c:crossAx val="-1992350080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18065,6 +18417,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18294,6 +18647,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -18375,6 +18731,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1163.3599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1166.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18412,8 +18771,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1815660240"/>
-        <c:axId val="1815662416"/>
+        <c:axId val="-1992358784"/>
+        <c:axId val="-1992349536"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -18555,6 +18914,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18638,6 +19000,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>846.65</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>847.07</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18784,6 +19149,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18868,6 +19236,9 @@
                       <c:pt idx="5">
                         <c:v>661.08</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>662.3</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -18878,7 +19249,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815660240"/>
+        <c:axId val="-1992358784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18912,7 +19283,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815662416"/>
+        <c:crossAx val="-1992349536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18920,7 +19291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815662416"/>
+        <c:axId val="-1992349536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18930,7 +19301,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815660240"/>
+        <c:crossAx val="-1992358784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19173,6 +19544,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -19254,6 +19628,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>661.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>662.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19291,8 +19668,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1815668944"/>
-        <c:axId val="1815666224"/>
+        <c:axId val="-1992348992"/>
+        <c:axId val="-1992348448"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -19434,6 +19811,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19517,6 +19897,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>846.65</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>847.07</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19663,6 +20046,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19747,6 +20133,9 @@
                       <c:pt idx="5">
                         <c:v>1163.3599999999999</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1166.46</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -19757,7 +20146,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815668944"/>
+        <c:axId val="-1992348992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19791,7 +20180,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815666224"/>
+        <c:crossAx val="-1992348448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19799,7 +20188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815666224"/>
+        <c:axId val="-1992348448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19809,7 +20198,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815668944"/>
+        <c:crossAx val="-1992348992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19900,7 +20289,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20005,7 +20393,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -20053,6 +20440,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -20135,6 +20525,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>54.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20172,11 +20565,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1588250512"/>
-        <c:axId val="1588252144"/>
+        <c:axId val="-37085472"/>
+        <c:axId val="-37084928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1588250512"/>
+        <c:axId val="-37085472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20210,7 +20603,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588252144"/>
+        <c:crossAx val="-37084928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20218,7 +20611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1588252144"/>
+        <c:axId val="-37084928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20228,7 +20621,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1588250512"/>
+        <c:crossAx val="-37085472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20242,7 +20635,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20472,6 +20864,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -20553,6 +20948,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>846.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>847.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20590,8 +20988,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1815665680"/>
-        <c:axId val="1815666768"/>
+        <c:axId val="-1992347904"/>
+        <c:axId val="-1992356064"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -20733,6 +21131,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -20816,6 +21217,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>661.08</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>662.3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20962,6 +21366,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -21046,6 +21453,9 @@
                       <c:pt idx="5">
                         <c:v>1163.3599999999999</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1166.46</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -21056,7 +21466,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815665680"/>
+        <c:axId val="-1992347904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21090,7 +21500,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815666768"/>
+        <c:crossAx val="-1992356064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21098,7 +21508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815666768"/>
+        <c:axId val="-1992356064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21108,7 +21518,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815665680"/>
+        <c:crossAx val="-1992347904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21199,7 +21609,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21314,7 +21723,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21362,6 +21770,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -21443,6 +21854,9 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
@@ -21482,11 +21896,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1815664048"/>
-        <c:axId val="1815667312"/>
+        <c:axId val="-1992355520"/>
+        <c:axId val="-1992354976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815664048"/>
+        <c:axId val="-1992355520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21520,7 +21934,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815667312"/>
+        <c:crossAx val="-1992354976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21528,7 +21942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815667312"/>
+        <c:axId val="-1992354976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21538,7 +21952,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815664048"/>
+        <c:crossAx val="-1992355520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21601,7 +22015,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21706,7 +22119,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21754,6 +22166,9 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -21836,6 +22251,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>101.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21873,11 +22291,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1815671120"/>
-        <c:axId val="1815669488"/>
+        <c:axId val="-1992347360"/>
+        <c:axId val="-1992354432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815671120"/>
+        <c:axId val="-1992347360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21911,7 +22329,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815669488"/>
+        <c:crossAx val="-1992354432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21919,7 +22337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815669488"/>
+        <c:axId val="-1992354432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21929,7 +22347,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815671120"/>
+        <c:crossAx val="-1992347360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22144,6 +22562,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22225,6 +22646,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10142.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10145.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22262,11 +22686,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1815670032"/>
-        <c:axId val="1815662960"/>
+        <c:axId val="-1992346816"/>
+        <c:axId val="-1992346272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815670032"/>
+        <c:axId val="-1992346816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22300,7 +22724,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815662960"/>
+        <c:crossAx val="-1992346272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22308,7 +22732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815662960"/>
+        <c:axId val="-1992346272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22318,7 +22742,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1815670032"/>
+        <c:crossAx val="-1992346816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22535,6 +22959,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22616,6 +23043,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>35.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22653,11 +23083,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1588254320"/>
-        <c:axId val="1588255408"/>
+        <c:axId val="-37093088"/>
+        <c:axId val="-37092000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1588254320"/>
+        <c:axId val="-37093088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22691,7 +23121,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588255408"/>
+        <c:crossAx val="-37092000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22699,7 +23129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1588255408"/>
+        <c:axId val="-37092000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22709,7 +23139,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1588254320"/>
+        <c:crossAx val="-37093088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22953,6 +23383,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23034,6 +23467,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1750.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1759.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23071,11 +23507,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1382322240"/>
-        <c:axId val="1382327136"/>
+        <c:axId val="-37114384"/>
+        <c:axId val="-37112752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1382322240"/>
+        <c:axId val="-37114384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23109,7 +23545,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382327136"/>
+        <c:crossAx val="-37112752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23117,7 +23553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1382327136"/>
+        <c:axId val="-37112752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23127,7 +23563,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1382322240"/>
+        <c:crossAx val="-37114384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23370,6 +23806,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23451,6 +23890,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1191.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1201.1300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23488,11 +23930,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1382317344"/>
-        <c:axId val="1382328224"/>
+        <c:axId val="-37099696"/>
+        <c:axId val="-37102960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1382317344"/>
+        <c:axId val="-37099696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23526,7 +23968,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382328224"/>
+        <c:crossAx val="-37102960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23534,7 +23976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1382328224"/>
+        <c:axId val="-37102960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23544,7 +23986,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1382317344"/>
+        <c:crossAx val="-37099696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23787,6 +24229,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23868,6 +24313,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2710.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2719.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23905,8 +24353,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1382313536"/>
-        <c:axId val="1810465920"/>
+        <c:axId val="-37100784"/>
+        <c:axId val="-37113840"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -24048,6 +24496,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -24131,6 +24582,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>1750.69</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1759.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -24277,6 +24731,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -24361,6 +24818,9 @@
                       <c:pt idx="5">
                         <c:v>1191.97</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1201.1300000000001</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -24371,7 +24831,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1382313536"/>
+        <c:axId val="-37100784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24405,7 +24865,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810465920"/>
+        <c:crossAx val="-37113840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24413,7 +24873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810465920"/>
+        <c:axId val="-37113840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24423,7 +24883,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1382313536"/>
+        <c:crossAx val="-37100784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24668,6 +25128,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -24749,6 +25212,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24786,8 +25252,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810460480"/>
-        <c:axId val="1810469184"/>
+        <c:axId val="-37103504"/>
+        <c:axId val="-37113296"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -24929,6 +25395,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -25012,6 +25481,9 @@
                       </c:pt>
                       <c:pt idx="5" formatCode="General">
                         <c:v>3.44</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>3.38</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -25158,6 +25630,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -25242,6 +25717,9 @@
                       <c:pt idx="5" formatCode="General">
                         <c:v>3.93</c:v>
                       </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>3.9</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -25252,7 +25730,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810460480"/>
+        <c:axId val="-37103504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25286,7 +25764,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810469184"/>
+        <c:crossAx val="-37113296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25294,7 +25772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810469184"/>
+        <c:axId val="-37113296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25304,7 +25782,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810460480"/>
+        <c:crossAx val="-37103504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25550,6 +26028,9 @@
                   <c:pt idx="5">
                     <c:v>10/jun</c:v>
                   </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -25631,6 +26112,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25668,8 +26152,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1810468096"/>
-        <c:axId val="1810461024"/>
+        <c:axId val="-37102416"/>
+        <c:axId val="-37112208"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -25811,6 +26295,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -25894,6 +26381,9 @@
                       </c:pt>
                       <c:pt idx="5" formatCode="General">
                         <c:v>3.44</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>3.38</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -26040,6 +26530,9 @@
                         <c:pt idx="5">
                           <c:v>10/jun</c:v>
                         </c:pt>
+                        <c:pt idx="6">
+                          <c:v>11/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -26124,6 +26617,9 @@
                       <c:pt idx="5" formatCode="General">
                         <c:v>3.93</c:v>
                       </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>3.9</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -26134,7 +26630,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810468096"/>
+        <c:axId val="-37102416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26168,7 +26664,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810461024"/>
+        <c:crossAx val="-37112208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26176,7 +26672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810461024"/>
+        <c:axId val="-37112208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26186,7 +26682,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1810468096"/>
+        <c:crossAx val="-37102416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -45839,10 +46335,10 @@
       <c r="A2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -45950,10 +46446,10 @@
       <c r="A9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -46010,10 +46506,10 @@
       <c r="A13" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -46047,8 +46543,896 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:T6"/>
+    <sheetView topLeftCell="V3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="74"/>
+      <c r="BD1" s="74"/>
+      <c r="BE1" s="74"/>
+      <c r="BF1" s="74"/>
+      <c r="BG1" s="74"/>
+      <c r="BH1" s="74"/>
+      <c r="BI1" s="74"/>
+      <c r="BJ1" s="74"/>
+      <c r="BK1" s="74"/>
+      <c r="BL1" s="74"/>
+      <c r="BM1" s="75"/>
+    </row>
+    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43619</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43620</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="I3" s="67">
+        <v>43621</v>
+      </c>
+      <c r="J3" s="15">
+        <v>43621</v>
+      </c>
+      <c r="K3" s="37">
+        <v>43621</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="O3" s="18">
+        <v>43623</v>
+      </c>
+      <c r="P3" s="19">
+        <v>43623</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>43623</v>
+      </c>
+      <c r="R3" s="18">
+        <v>43626</v>
+      </c>
+      <c r="S3" s="19">
+        <v>43626</v>
+      </c>
+      <c r="T3" s="20">
+        <v>43626</v>
+      </c>
+      <c r="U3" s="18">
+        <v>43627</v>
+      </c>
+      <c r="V3" s="19">
+        <v>43627</v>
+      </c>
+      <c r="W3" s="20">
+        <v>43627</v>
+      </c>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="20"/>
+    </row>
+    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="52">
+        <v>46249</v>
+      </c>
+      <c r="C4" s="41">
+        <v>3.71</v>
+      </c>
+      <c r="D4" s="42">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="E4" s="43">
+        <v>3741.25</v>
+      </c>
+      <c r="F4" s="41">
+        <v>3.65</v>
+      </c>
+      <c r="G4" s="42">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="H4" s="43">
+        <v>3755</v>
+      </c>
+      <c r="I4" s="44">
+        <v>3.67</v>
+      </c>
+      <c r="J4" s="40">
+        <v>37.51</v>
+      </c>
+      <c r="K4" s="45">
+        <v>3751.51</v>
+      </c>
+      <c r="L4" s="41">
+        <v>3.67</v>
+      </c>
+      <c r="M4" s="42">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="N4" s="43">
+        <v>3752.34</v>
+      </c>
+      <c r="O4" s="41">
+        <v>3.54</v>
+      </c>
+      <c r="P4" s="42">
+        <v>37.78</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>3778.4</v>
+      </c>
+      <c r="R4" s="41">
+        <v>3.52</v>
+      </c>
+      <c r="S4" s="42">
+        <v>37.83</v>
+      </c>
+      <c r="T4" s="43">
+        <v>3783.42</v>
+      </c>
+      <c r="U4" s="41">
+        <v>3.47</v>
+      </c>
+      <c r="V4" s="42">
+        <v>37.94</v>
+      </c>
+      <c r="W4" s="43">
+        <v>3794.99</v>
+      </c>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="43"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="43"/>
+    </row>
+    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="52">
+        <v>49444</v>
+      </c>
+      <c r="C5" s="44">
+        <v>3.9</v>
+      </c>
+      <c r="D5" s="40">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="E5" s="45">
+        <v>4027.51</v>
+      </c>
+      <c r="F5" s="44">
+        <v>3.83</v>
+      </c>
+      <c r="G5" s="40">
+        <v>40.58</v>
+      </c>
+      <c r="H5" s="45">
+        <v>4058.68</v>
+      </c>
+      <c r="I5" s="44">
+        <v>3.86</v>
+      </c>
+      <c r="J5" s="40">
+        <v>40.46</v>
+      </c>
+      <c r="K5" s="45">
+        <v>4046.61</v>
+      </c>
+      <c r="L5" s="44">
+        <v>3.87</v>
+      </c>
+      <c r="M5" s="40">
+        <v>40.43</v>
+      </c>
+      <c r="N5" s="45">
+        <v>4043.21</v>
+      </c>
+      <c r="O5" s="44">
+        <v>3.84</v>
+      </c>
+      <c r="P5" s="40">
+        <v>40.54</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>4054</v>
+      </c>
+      <c r="R5" s="44">
+        <v>3.83</v>
+      </c>
+      <c r="S5" s="40">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="T5" s="45">
+        <v>4059.11</v>
+      </c>
+      <c r="U5" s="44">
+        <v>3.8</v>
+      </c>
+      <c r="V5" s="40">
+        <v>40.72</v>
+      </c>
+      <c r="W5" s="45">
+        <v>4072.92</v>
+      </c>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="40"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="40"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="40"/>
+      <c r="BM5" s="45"/>
+    </row>
+    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="53">
+        <v>55015</v>
+      </c>
+      <c r="C6" s="46">
+        <v>4.09</v>
+      </c>
+      <c r="D6" s="47">
+        <v>43.55</v>
+      </c>
+      <c r="E6" s="48">
+        <v>4355.7700000000004</v>
+      </c>
+      <c r="F6" s="46">
+        <v>3.98</v>
+      </c>
+      <c r="G6" s="47">
+        <v>44.33</v>
+      </c>
+      <c r="H6" s="48">
+        <v>4433.3999999999996</v>
+      </c>
+      <c r="I6" s="46">
+        <v>4.01</v>
+      </c>
+      <c r="J6" s="47">
+        <v>44.13</v>
+      </c>
+      <c r="K6" s="48">
+        <v>4413.34</v>
+      </c>
+      <c r="L6" s="46">
+        <v>4.05</v>
+      </c>
+      <c r="M6" s="47">
+        <v>43.86</v>
+      </c>
+      <c r="N6" s="48">
+        <v>4386.4799999999996</v>
+      </c>
+      <c r="O6" s="46">
+        <v>4.03</v>
+      </c>
+      <c r="P6" s="47">
+        <v>43.98</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>4398.05</v>
+      </c>
+      <c r="R6" s="46">
+        <v>4.03</v>
+      </c>
+      <c r="S6" s="47">
+        <v>43.98</v>
+      </c>
+      <c r="T6" s="48">
+        <v>4398.93</v>
+      </c>
+      <c r="U6" s="46">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="V6" s="47">
+        <v>44.06</v>
+      </c>
+      <c r="W6" s="48">
+        <v>4406.7700000000004</v>
+      </c>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="47"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="46"/>
+      <c r="BC6" s="47"/>
+      <c r="BD6" s="48"/>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="47"/>
+      <c r="BG6" s="48"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="47"/>
+      <c r="BJ6" s="48"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="47"/>
+      <c r="BM6" s="48"/>
+    </row>
+    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:BM1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM100"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -46121,73 +47505,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="74"/>
+      <c r="BD1" s="74"/>
+      <c r="BE1" s="74"/>
+      <c r="BF1" s="74"/>
+      <c r="BG1" s="74"/>
+      <c r="BH1" s="74"/>
+      <c r="BI1" s="74"/>
+      <c r="BJ1" s="74"/>
+      <c r="BK1" s="74"/>
+      <c r="BL1" s="74"/>
+      <c r="BM1" s="75"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -46445,9 +47829,15 @@
       <c r="T3" s="20">
         <v>43626</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
+      <c r="U3" s="18">
+        <v>43627</v>
+      </c>
+      <c r="V3" s="19">
+        <v>43627</v>
+      </c>
+      <c r="W3" s="20">
+        <v>43627</v>
+      </c>
       <c r="X3" s="18"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="20"/>
@@ -46552,9 +47942,15 @@
       <c r="T4" s="43">
         <v>846.65</v>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="43"/>
+      <c r="U4" s="41">
+        <v>6.71</v>
+      </c>
+      <c r="V4" s="42">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="W4" s="43">
+        <v>847.07</v>
+      </c>
       <c r="X4" s="41"/>
       <c r="Y4" s="42"/>
       <c r="Z4" s="43"/>
@@ -46659,9 +48055,15 @@
       <c r="T5" s="45">
         <v>661.08</v>
       </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="45"/>
+      <c r="U5" s="44">
+        <v>7.71</v>
+      </c>
+      <c r="V5" s="40">
+        <v>33.11</v>
+      </c>
+      <c r="W5" s="45">
+        <v>662.3</v>
+      </c>
       <c r="X5" s="44"/>
       <c r="Y5" s="40"/>
       <c r="Z5" s="45"/>
@@ -46766,9 +48168,15 @@
       <c r="T6" s="48">
         <v>1163.3599999999999</v>
       </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48"/>
+      <c r="U6" s="46">
+        <v>8.08</v>
+      </c>
+      <c r="V6" s="47">
+        <v>34.99</v>
+      </c>
+      <c r="W6" s="48">
+        <v>1166.46</v>
+      </c>
       <c r="X6" s="46"/>
       <c r="Y6" s="47"/>
       <c r="Z6" s="48"/>
@@ -46916,12 +48324,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:T4"/>
+      <selection activeCell="U3" sqref="U3:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -46994,73 +48402,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="74"/>
+      <c r="BD1" s="74"/>
+      <c r="BE1" s="74"/>
+      <c r="BF1" s="74"/>
+      <c r="BG1" s="74"/>
+      <c r="BH1" s="74"/>
+      <c r="BI1" s="74"/>
+      <c r="BJ1" s="74"/>
+      <c r="BK1" s="74"/>
+      <c r="BL1" s="74"/>
+      <c r="BM1" s="75"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -47318,9 +48726,15 @@
       <c r="T3" s="20">
         <v>43626</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
+      <c r="U3" s="18">
+        <v>43627</v>
+      </c>
+      <c r="V3" s="19">
+        <v>43627</v>
+      </c>
+      <c r="W3" s="20">
+        <v>43627</v>
+      </c>
       <c r="X3" s="18"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="20"/>
@@ -47425,9 +48839,15 @@
       <c r="T4" s="51">
         <v>10142.58</v>
       </c>
-      <c r="U4" s="49"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="51"/>
+      <c r="U4" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="V4" s="50">
+        <v>101.45</v>
+      </c>
+      <c r="W4" s="51">
+        <v>10145.08</v>
+      </c>
       <c r="X4" s="49"/>
       <c r="Y4" s="50"/>
       <c r="Z4" s="51"/>
@@ -47616,10 +49036,10 @@
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -47727,10 +49147,10 @@
       <c r="A9" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -47787,10 +49207,10 @@
       <c r="A13" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -47859,10 +49279,10 @@
       <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -47970,10 +49390,10 @@
       <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -48030,10 +49450,10 @@
       <c r="A13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -48101,10 +49521,10 @@
       <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -48212,10 +49632,10 @@
       <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -48272,10 +49692,10 @@
       <c r="A13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -48344,10 +49764,10 @@
       <c r="A2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -48455,10 +49875,10 @@
       <c r="A9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -48515,10 +49935,10 @@
       <c r="A13" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -48587,10 +50007,10 @@
       <c r="A2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -48698,10 +50118,10 @@
       <c r="A9" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -48758,10 +50178,10 @@
       <c r="A13" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
@@ -48792,13 +50212,256 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C3:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="60">
+        <v>45519</v>
+      </c>
+      <c r="C3" s="61">
+        <v>3.38</v>
+      </c>
+      <c r="D3" s="40">
+        <v>54.39</v>
+      </c>
+      <c r="E3" s="40">
+        <v>2719.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="60">
+        <v>49444</v>
+      </c>
+      <c r="C4" s="61">
+        <v>3.9</v>
+      </c>
+      <c r="D4" s="40">
+        <v>35.18</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1759.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="60">
+        <v>53097</v>
+      </c>
+      <c r="C5" s="61">
+        <v>3.9</v>
+      </c>
+      <c r="D5" s="40">
+        <v>36.03</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1201.1300000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="60">
+        <v>46249</v>
+      </c>
+      <c r="C6" s="61">
+        <v>3.47</v>
+      </c>
+      <c r="D6" s="40">
+        <v>37.94</v>
+      </c>
+      <c r="E6" s="40">
+        <v>3794.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="60">
+        <v>49444</v>
+      </c>
+      <c r="C7" s="61">
+        <v>3.8</v>
+      </c>
+      <c r="D7" s="40">
+        <v>40.72</v>
+      </c>
+      <c r="E7" s="40">
+        <v>4072.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="60">
+        <v>55015</v>
+      </c>
+      <c r="C8" s="61">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D8" s="40">
+        <v>44.06</v>
+      </c>
+      <c r="E8" s="40">
+        <v>4406.7700000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="60">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="61">
+        <v>6.71</v>
+      </c>
+      <c r="D10" s="40">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="E10" s="40">
+        <v>847.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="60">
+        <v>45658</v>
+      </c>
+      <c r="C11" s="61">
+        <v>7.71</v>
+      </c>
+      <c r="D11" s="40">
+        <v>33.11</v>
+      </c>
+      <c r="E11" s="40">
+        <v>662.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="60">
+        <v>47119</v>
+      </c>
+      <c r="C12" s="61">
+        <v>8.08</v>
+      </c>
+      <c r="D12" s="40">
+        <v>34.99</v>
+      </c>
+      <c r="E12" s="40">
+        <v>1166.46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="60">
+        <v>45717</v>
+      </c>
+      <c r="C14" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="40">
+        <v>101.45</v>
+      </c>
+      <c r="E14" s="40">
+        <v>10145.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BM100"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12:T15"/>
+      <selection activeCell="U12" sqref="U12:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -48871,73 +50534,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="74"/>
+      <c r="BD1" s="74"/>
+      <c r="BE1" s="74"/>
+      <c r="BF1" s="74"/>
+      <c r="BG1" s="74"/>
+      <c r="BH1" s="74"/>
+      <c r="BI1" s="74"/>
+      <c r="BJ1" s="74"/>
+      <c r="BK1" s="74"/>
+      <c r="BL1" s="74"/>
+      <c r="BM1" s="75"/>
     </row>
     <row r="2" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -49195,9 +50858,15 @@
       <c r="T3" s="20">
         <v>43626</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
+      <c r="U3" s="18">
+        <v>43627</v>
+      </c>
+      <c r="V3" s="19">
+        <v>43627</v>
+      </c>
+      <c r="W3" s="20">
+        <v>43627</v>
+      </c>
       <c r="X3" s="18"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="20"/>
@@ -49302,9 +50971,15 @@
       <c r="T4" s="43">
         <v>2710.91</v>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="43"/>
+      <c r="U4" s="41">
+        <v>3.38</v>
+      </c>
+      <c r="V4" s="42">
+        <v>54.39</v>
+      </c>
+      <c r="W4" s="43">
+        <v>2719.52</v>
+      </c>
       <c r="X4" s="41"/>
       <c r="Y4" s="42"/>
       <c r="Z4" s="43"/>
@@ -49409,9 +51084,15 @@
       <c r="T5" s="45">
         <v>1750.69</v>
       </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="45"/>
+      <c r="U5" s="44">
+        <v>3.9</v>
+      </c>
+      <c r="V5" s="40">
+        <v>35.18</v>
+      </c>
+      <c r="W5" s="45">
+        <v>1759.08</v>
+      </c>
       <c r="X5" s="44"/>
       <c r="Y5" s="40"/>
       <c r="Z5" s="45"/>
@@ -49516,9 +51197,15 @@
       <c r="T6" s="45">
         <v>1191.97</v>
       </c>
-      <c r="U6" s="44"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="45"/>
+      <c r="U6" s="44">
+        <v>3.9</v>
+      </c>
+      <c r="V6" s="40">
+        <v>36.03</v>
+      </c>
+      <c r="W6" s="45">
+        <v>1201.1300000000001</v>
+      </c>
       <c r="X6" s="44"/>
       <c r="Y6" s="40"/>
       <c r="Z6" s="45"/>
@@ -49623,9 +51310,15 @@
       <c r="T7" s="45">
         <v>3783.42</v>
       </c>
-      <c r="U7" s="44"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="45"/>
+      <c r="U7" s="44">
+        <v>3.47</v>
+      </c>
+      <c r="V7" s="40">
+        <v>37.94</v>
+      </c>
+      <c r="W7" s="45">
+        <v>3794.99</v>
+      </c>
       <c r="X7" s="44"/>
       <c r="Y7" s="40"/>
       <c r="Z7" s="45"/>
@@ -49730,9 +51423,15 @@
       <c r="T8" s="45">
         <v>4059.11</v>
       </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="14"/>
+      <c r="U8" s="44">
+        <v>3.8</v>
+      </c>
+      <c r="V8" s="40">
+        <v>40.72</v>
+      </c>
+      <c r="W8" s="45">
+        <v>4072.92</v>
+      </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="14"/>
@@ -49837,9 +51536,15 @@
       <c r="T9" s="48">
         <v>4398.93</v>
       </c>
-      <c r="U9" s="44"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="45"/>
+      <c r="U9" s="46">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="V9" s="47">
+        <v>44.06</v>
+      </c>
+      <c r="W9" s="48">
+        <v>4406.7700000000004</v>
+      </c>
       <c r="X9" s="44"/>
       <c r="Y9" s="40"/>
       <c r="Z9" s="45"/>
@@ -49884,73 +51589,73 @@
       <c r="BM9" s="48"/>
     </row>
     <row r="10" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="73"/>
-      <c r="BA10" s="73"/>
-      <c r="BB10" s="73"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="73"/>
-      <c r="BF10" s="73"/>
-      <c r="BG10" s="73"/>
-      <c r="BH10" s="73"/>
-      <c r="BI10" s="73"/>
-      <c r="BJ10" s="73"/>
-      <c r="BK10" s="73"/>
-      <c r="BL10" s="73"/>
-      <c r="BM10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="74"/>
+      <c r="BJ10" s="74"/>
+      <c r="BK10" s="74"/>
+      <c r="BL10" s="74"/>
+      <c r="BM10" s="75"/>
     </row>
     <row r="11" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
@@ -50208,9 +51913,15 @@
       <c r="T12" s="20">
         <v>43626</v>
       </c>
-      <c r="U12" s="18"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="20"/>
+      <c r="U12" s="18">
+        <v>43627</v>
+      </c>
+      <c r="V12" s="19">
+        <v>43627</v>
+      </c>
+      <c r="W12" s="20">
+        <v>43627</v>
+      </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="20"/>
@@ -50315,9 +52026,15 @@
       <c r="T13" s="43">
         <v>846.65</v>
       </c>
-      <c r="U13" s="41"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="43"/>
+      <c r="U13" s="41">
+        <v>6.71</v>
+      </c>
+      <c r="V13" s="42">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="W13" s="43">
+        <v>847.07</v>
+      </c>
       <c r="X13" s="41"/>
       <c r="Y13" s="42"/>
       <c r="Z13" s="43"/>
@@ -50422,9 +52139,15 @@
       <c r="T14" s="45">
         <v>661.08</v>
       </c>
-      <c r="U14" s="44"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="45"/>
+      <c r="U14" s="44">
+        <v>7.71</v>
+      </c>
+      <c r="V14" s="40">
+        <v>33.11</v>
+      </c>
+      <c r="W14" s="45">
+        <v>662.3</v>
+      </c>
       <c r="X14" s="44"/>
       <c r="Y14" s="40"/>
       <c r="Z14" s="45"/>
@@ -50529,9 +52252,15 @@
       <c r="T15" s="48">
         <v>1163.3599999999999</v>
       </c>
-      <c r="U15" s="44"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="45"/>
+      <c r="U15" s="46">
+        <v>8.08</v>
+      </c>
+      <c r="V15" s="47">
+        <v>34.99</v>
+      </c>
+      <c r="W15" s="48">
+        <v>1166.46</v>
+      </c>
       <c r="X15" s="44"/>
       <c r="Y15" s="40"/>
       <c r="Z15" s="45"/>
@@ -50576,73 +52305,73 @@
       <c r="BM15" s="48"/>
     </row>
     <row r="16" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="73"/>
-      <c r="BD16" s="73"/>
-      <c r="BE16" s="73"/>
-      <c r="BF16" s="73"/>
-      <c r="BG16" s="73"/>
-      <c r="BH16" s="73"/>
-      <c r="BI16" s="73"/>
-      <c r="BJ16" s="73"/>
-      <c r="BK16" s="73"/>
-      <c r="BL16" s="73"/>
-      <c r="BM16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="74"/>
+      <c r="AZ16" s="74"/>
+      <c r="BA16" s="74"/>
+      <c r="BB16" s="74"/>
+      <c r="BC16" s="74"/>
+      <c r="BD16" s="74"/>
+      <c r="BE16" s="74"/>
+      <c r="BF16" s="74"/>
+      <c r="BG16" s="74"/>
+      <c r="BH16" s="74"/>
+      <c r="BI16" s="74"/>
+      <c r="BJ16" s="74"/>
+      <c r="BK16" s="74"/>
+      <c r="BL16" s="74"/>
+      <c r="BM16" s="75"/>
     </row>
     <row r="17" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
@@ -50900,9 +52629,15 @@
       <c r="T18" s="20">
         <v>43626</v>
       </c>
-      <c r="U18" s="18"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="20"/>
+      <c r="U18" s="18">
+        <v>43627</v>
+      </c>
+      <c r="V18" s="19">
+        <v>43627</v>
+      </c>
+      <c r="W18" s="20">
+        <v>43627</v>
+      </c>
       <c r="X18" s="18"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="20"/>
@@ -51007,9 +52742,15 @@
       <c r="T19" s="51">
         <v>10142.58</v>
       </c>
-      <c r="U19" s="49"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="51"/>
+      <c r="U19" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="V19" s="50">
+        <v>101.45</v>
+      </c>
+      <c r="W19" s="51">
+        <v>10145.08</v>
+      </c>
       <c r="X19" s="49"/>
       <c r="Y19" s="50"/>
       <c r="Z19" s="51"/>
@@ -51146,12 +52887,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -51224,73 +52965,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="74"/>
+      <c r="BD1" s="74"/>
+      <c r="BE1" s="74"/>
+      <c r="BF1" s="74"/>
+      <c r="BG1" s="74"/>
+      <c r="BH1" s="74"/>
+      <c r="BI1" s="74"/>
+      <c r="BJ1" s="74"/>
+      <c r="BK1" s="74"/>
+      <c r="BL1" s="74"/>
+      <c r="BM1" s="75"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -51548,9 +53289,15 @@
       <c r="T3" s="20">
         <v>43626</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
+      <c r="U3" s="18">
+        <v>43627</v>
+      </c>
+      <c r="V3" s="19">
+        <v>43627</v>
+      </c>
+      <c r="W3" s="20">
+        <v>43627</v>
+      </c>
       <c r="X3" s="18"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="20"/>
@@ -51655,9 +53402,15 @@
       <c r="T4" s="43">
         <v>2710.91</v>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="43"/>
+      <c r="U4" s="41">
+        <v>3.38</v>
+      </c>
+      <c r="V4" s="42">
+        <v>54.39</v>
+      </c>
+      <c r="W4" s="43">
+        <v>2719.52</v>
+      </c>
       <c r="X4" s="41"/>
       <c r="Y4" s="42"/>
       <c r="Z4" s="43"/>
@@ -51762,9 +53515,15 @@
       <c r="T5" s="45">
         <v>1750.69</v>
       </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="45"/>
+      <c r="U5" s="44">
+        <v>3.9</v>
+      </c>
+      <c r="V5" s="40">
+        <v>35.18</v>
+      </c>
+      <c r="W5" s="45">
+        <v>1759.08</v>
+      </c>
       <c r="X5" s="44"/>
       <c r="Y5" s="40"/>
       <c r="Z5" s="45"/>
@@ -51869,873 +53628,15 @@
       <c r="T6" s="48">
         <v>1191.97</v>
       </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="46"/>
-      <c r="BL6" s="47"/>
-      <c r="BM6" s="48"/>
-    </row>
-    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:BM1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM100"/>
-  <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="74"/>
-    </row>
-    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43619</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43620</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="I3" s="67">
-        <v>43621</v>
-      </c>
-      <c r="J3" s="15">
-        <v>43621</v>
-      </c>
-      <c r="K3" s="37">
-        <v>43621</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="M3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="N3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="O3" s="18">
-        <v>43623</v>
-      </c>
-      <c r="P3" s="19">
-        <v>43623</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>43623</v>
-      </c>
-      <c r="R3" s="18">
-        <v>43626</v>
-      </c>
-      <c r="S3" s="19">
-        <v>43626</v>
-      </c>
-      <c r="T3" s="20">
-        <v>43626</v>
-      </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="18"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="20"/>
-    </row>
-    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="52">
-        <v>46249</v>
-      </c>
-      <c r="C4" s="41">
-        <v>3.71</v>
-      </c>
-      <c r="D4" s="42">
-        <v>37.409999999999997</v>
-      </c>
-      <c r="E4" s="43">
-        <v>3741.25</v>
-      </c>
-      <c r="F4" s="41">
-        <v>3.65</v>
-      </c>
-      <c r="G4" s="42">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="H4" s="43">
-        <v>3755</v>
-      </c>
-      <c r="I4" s="44">
-        <v>3.67</v>
-      </c>
-      <c r="J4" s="40">
-        <v>37.51</v>
-      </c>
-      <c r="K4" s="45">
-        <v>3751.51</v>
-      </c>
-      <c r="L4" s="41">
-        <v>3.67</v>
-      </c>
-      <c r="M4" s="42">
-        <v>37.520000000000003</v>
-      </c>
-      <c r="N4" s="43">
-        <v>3752.34</v>
-      </c>
-      <c r="O4" s="41">
-        <v>3.54</v>
-      </c>
-      <c r="P4" s="42">
-        <v>37.78</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>3778.4</v>
-      </c>
-      <c r="R4" s="41">
-        <v>3.52</v>
-      </c>
-      <c r="S4" s="42">
-        <v>37.83</v>
-      </c>
-      <c r="T4" s="43">
-        <v>3783.42</v>
-      </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="43"/>
-    </row>
-    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="52">
-        <v>49444</v>
-      </c>
-      <c r="C5" s="44">
+      <c r="U6" s="46">
         <v>3.9</v>
       </c>
-      <c r="D5" s="40">
-        <v>40.270000000000003</v>
-      </c>
-      <c r="E5" s="45">
-        <v>4027.51</v>
-      </c>
-      <c r="F5" s="44">
-        <v>3.83</v>
-      </c>
-      <c r="G5" s="40">
-        <v>40.58</v>
-      </c>
-      <c r="H5" s="45">
-        <v>4058.68</v>
-      </c>
-      <c r="I5" s="44">
-        <v>3.86</v>
-      </c>
-      <c r="J5" s="40">
-        <v>40.46</v>
-      </c>
-      <c r="K5" s="45">
-        <v>4046.61</v>
-      </c>
-      <c r="L5" s="44">
-        <v>3.87</v>
-      </c>
-      <c r="M5" s="40">
-        <v>40.43</v>
-      </c>
-      <c r="N5" s="45">
-        <v>4043.21</v>
-      </c>
-      <c r="O5" s="44">
-        <v>3.84</v>
-      </c>
-      <c r="P5" s="40">
-        <v>40.54</v>
-      </c>
-      <c r="Q5" s="45">
-        <v>4054</v>
-      </c>
-      <c r="R5" s="44">
-        <v>3.83</v>
-      </c>
-      <c r="S5" s="40">
-        <v>40.590000000000003</v>
-      </c>
-      <c r="T5" s="45">
-        <v>4059.11</v>
-      </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="40"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="40"/>
-      <c r="BM5" s="45"/>
-    </row>
-    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="53">
-        <v>55015</v>
-      </c>
-      <c r="C6" s="46">
-        <v>4.09</v>
-      </c>
-      <c r="D6" s="47">
-        <v>43.55</v>
-      </c>
-      <c r="E6" s="48">
-        <v>4355.7700000000004</v>
-      </c>
-      <c r="F6" s="46">
-        <v>3.98</v>
-      </c>
-      <c r="G6" s="47">
-        <v>44.33</v>
-      </c>
-      <c r="H6" s="48">
-        <v>4433.3999999999996</v>
-      </c>
-      <c r="I6" s="46">
-        <v>4.01</v>
-      </c>
-      <c r="J6" s="47">
-        <v>44.13</v>
-      </c>
-      <c r="K6" s="48">
-        <v>4413.34</v>
-      </c>
-      <c r="L6" s="46">
-        <v>4.05</v>
-      </c>
-      <c r="M6" s="47">
-        <v>43.86</v>
-      </c>
-      <c r="N6" s="48">
-        <v>4386.4799999999996</v>
-      </c>
-      <c r="O6" s="46">
-        <v>4.03</v>
-      </c>
-      <c r="P6" s="47">
-        <v>43.98</v>
-      </c>
-      <c r="Q6" s="48">
-        <v>4398.05</v>
-      </c>
-      <c r="R6" s="46">
-        <v>4.03</v>
-      </c>
-      <c r="S6" s="47">
-        <v>43.98</v>
-      </c>
-      <c r="T6" s="48">
-        <v>4398.93</v>
-      </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48"/>
+      <c r="V6" s="47">
+        <v>36.03</v>
+      </c>
+      <c r="W6" s="48">
+        <v>1201.1300000000001</v>
+      </c>
       <c r="X6" s="46"/>
       <c r="Y6" s="47"/>
       <c r="Z6" s="48"/>

--- a/TESOURO DIRETO_0619 - Compra.xlsx
+++ b/TESOURO DIRETO_0619 - Compra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="030619" sheetId="9" r:id="rId1"/>
@@ -21,18 +21,19 @@
     <sheet name="110619" sheetId="15" r:id="rId7"/>
     <sheet name="120619" sheetId="16" r:id="rId8"/>
     <sheet name="130619" sheetId="17" r:id="rId9"/>
-    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId10"/>
-    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId11"/>
-    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId12"/>
-    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId13"/>
-    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId14"/>
+    <sheet name="140619" sheetId="18" r:id="rId10"/>
+    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId11"/>
+    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId12"/>
+    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId13"/>
+    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId14"/>
+    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="25">
   <si>
     <t>Vencimento</t>
   </si>
@@ -115,7 +116,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -510,13 +511,13 @@
   </cellStyleXfs>
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,16 +535,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,7 +592,7 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,7 +601,7 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,7 +610,7 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -697,7 +698,7 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,6 +722,18 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,18 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,6 +809,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -945,6 +947,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1001,6 +1004,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1092,6 +1098,9 @@
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,6 +1201,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1248,6 +1258,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1339,6 +1352,9 @@
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,6 +1455,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1495,6 +1512,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1586,6 +1606,9 @@
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1686,6 +1709,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1742,6 +1766,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1833,6 +1860,9 @@
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1933,6 +1963,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1989,6 +2020,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2079,6 +2113,9 @@
                   <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
                   <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -2180,6 +2217,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2236,6 +2274,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2328,6 +2369,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.99</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.98</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2343,11 +2387,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-1362315328"/>
-        <c:axId val="-1362314784"/>
+        <c:axId val="-905073776"/>
+        <c:axId val="-905083568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1362315328"/>
+        <c:axId val="-905073776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2433,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1362314784"/>
+        <c:crossAx val="-905083568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2397,7 +2441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1362314784"/>
+        <c:axId val="-905083568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,7 +2491,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1362315328"/>
+        <c:crossAx val="-905073776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2461,6 +2505,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2713,6 +2758,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2804,6 +2852,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.38</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2840,8 +2891,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309331472"/>
-        <c:axId val="-1309336368"/>
+        <c:axId val="-715440064"/>
+        <c:axId val="-715446048"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2992,6 +3043,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3084,6 +3138,9 @@
                       </c:pt>
                       <c:pt idx="8" formatCode="General">
                         <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>3.91</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3239,6 +3296,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3332,6 +3392,9 @@
                       <c:pt idx="8" formatCode="General">
                         <c:v>3.9</c:v>
                       </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>3.91</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3342,7 +3405,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309331472"/>
+        <c:axId val="-715440064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3376,7 +3439,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309336368"/>
+        <c:crossAx val="-715446048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3384,7 +3447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309336368"/>
+        <c:axId val="-715446048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3394,7 +3457,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309331472"/>
+        <c:crossAx val="-715440064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3648,6 +3711,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3739,6 +3805,9 @@
                 <c:pt idx="8">
                   <c:v>36.04</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.96</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3775,8 +3844,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309323856"/>
-        <c:axId val="-1309335280"/>
+        <c:axId val="-715437344"/>
+        <c:axId val="-715438976"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3927,6 +3996,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -4019,6 +4091,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>54.4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>54.39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4174,6 +4249,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -4267,6 +4345,9 @@
                       <c:pt idx="8">
                         <c:v>35.19</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>35.14</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4277,7 +4358,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309323856"/>
+        <c:axId val="-715437344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4311,7 +4392,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309335280"/>
+        <c:crossAx val="-715438976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4319,7 +4400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309335280"/>
+        <c:axId val="-715438976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4329,7 +4410,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309323856"/>
+        <c:crossAx val="-715437344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4643,6 +4724,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4733,6 +4817,9 @@
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4875,6 +4962,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4965,6 +5055,9 @@
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5107,6 +5200,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5198,6 +5294,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.9</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.91</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5214,11 +5313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1309330928"/>
-        <c:axId val="-1309335824"/>
+        <c:axId val="-715442784"/>
+        <c:axId val="-715438432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309330928"/>
+        <c:axId val="-715442784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5261,7 +5360,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309335824"/>
+        <c:crossAx val="-715438432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5269,7 +5368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309335824"/>
+        <c:axId val="-715438432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,7 +5378,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309330928"/>
+        <c:crossAx val="-715442784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5535,6 +5634,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5626,6 +5728,9 @@
                 <c:pt idx="8">
                   <c:v>3798.51</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>3801.39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5662,11 +5767,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309323312"/>
-        <c:axId val="-1309327664"/>
+        <c:axId val="-715435712"/>
+        <c:axId val="-715445504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309323312"/>
+        <c:axId val="-715435712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5700,7 +5805,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309327664"/>
+        <c:crossAx val="-715445504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5708,7 +5813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309327664"/>
+        <c:axId val="-715445504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5718,7 +5823,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309323312"/>
+        <c:crossAx val="-715435712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5970,6 +6075,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -6061,6 +6169,9 @@
                 <c:pt idx="8">
                   <c:v>4074.47</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>4075.27</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6097,8 +6208,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309330384"/>
-        <c:axId val="-1309327120"/>
+        <c:axId val="-715443328"/>
+        <c:axId val="-715433536"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6249,6 +6360,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6341,6 +6455,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>3798.51</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3801.39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6496,6 +6613,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6589,6 +6709,9 @@
                       <c:pt idx="8">
                         <c:v>4429.54</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4437.49</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6599,7 +6722,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309330384"/>
+        <c:axId val="-715443328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6633,7 +6756,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309327120"/>
+        <c:crossAx val="-715433536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6641,7 +6764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309327120"/>
+        <c:axId val="-715433536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6651,7 +6774,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309330384"/>
+        <c:crossAx val="-715443328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6903,6 +7026,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -6994,6 +7120,9 @@
                 <c:pt idx="8">
                   <c:v>4429.54</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>4437.49</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7030,8 +7159,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309329840"/>
-        <c:axId val="-1309326576"/>
+        <c:axId val="-715437888"/>
+        <c:axId val="-715447680"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7182,6 +7311,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7274,6 +7406,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>3798.51</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3801.39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7429,6 +7564,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7522,6 +7660,9 @@
                       <c:pt idx="8">
                         <c:v>4074.47</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4075.27</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -7532,7 +7673,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309329840"/>
+        <c:axId val="-715437888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7566,7 +7707,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309326576"/>
+        <c:crossAx val="-715447680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7574,7 +7715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309326576"/>
+        <c:axId val="-715447680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7584,7 +7725,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309329840"/>
+        <c:crossAx val="-715437888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7838,6 +7979,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -7929,6 +8073,9 @@
                 <c:pt idx="8">
                   <c:v>44.29</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.37</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7965,8 +8112,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309337456"/>
-        <c:axId val="-1309324400"/>
+        <c:axId val="-715440608"/>
+        <c:axId val="-715432992"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -8117,6 +8264,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8209,6 +8359,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>37.979999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>38.01</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8364,6 +8517,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8457,6 +8613,9 @@
                       <c:pt idx="8">
                         <c:v>40.74</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40.75</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8467,7 +8626,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309337456"/>
+        <c:axId val="-715440608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8501,7 +8660,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309324400"/>
+        <c:crossAx val="-715432992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8509,7 +8668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309324400"/>
+        <c:axId val="-715432992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8519,7 +8678,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309337456"/>
+        <c:crossAx val="-715440608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8774,6 +8933,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -8865,6 +9027,9 @@
                 <c:pt idx="8">
                   <c:v>40.74</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8901,8 +9066,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309326032"/>
-        <c:axId val="-1309338000"/>
+        <c:axId val="-715435168"/>
+        <c:axId val="-715434624"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9053,6 +9218,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9145,6 +9313,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>37.979999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>38.01</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9300,6 +9471,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9393,6 +9567,9 @@
                       <c:pt idx="8">
                         <c:v>44.29</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44.37</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -9403,7 +9580,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309326032"/>
+        <c:axId val="-715435168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9437,7 +9614,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309338000"/>
+        <c:crossAx val="-715434624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9445,7 +9622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309338000"/>
+        <c:axId val="-715434624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9455,7 +9632,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309326032"/>
+        <c:crossAx val="-715435168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9708,6 +9885,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9799,6 +9979,9 @@
                 <c:pt idx="8">
                   <c:v>37.979999999999997</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.01</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9835,11 +10018,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309325488"/>
-        <c:axId val="-1510444064"/>
+        <c:axId val="-714179904"/>
+        <c:axId val="-714181536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309325488"/>
+        <c:axId val="-714179904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9873,7 +10056,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510444064"/>
+        <c:crossAx val="-714181536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9881,7 +10064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510444064"/>
+        <c:axId val="-714181536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9891,7 +10074,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309325488"/>
+        <c:crossAx val="-714179904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10143,6 +10326,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10234,6 +10420,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.46</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10270,8 +10459,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510447872"/>
-        <c:axId val="-1510438080"/>
+        <c:axId val="-714180992"/>
+        <c:axId val="-714182080"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -10422,6 +10611,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -10513,6 +10705,9 @@
                         <c:v>3.78</c:v>
                       </c:pt>
                       <c:pt idx="8" formatCode="General">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
                         <c:v>3.8</c:v>
                       </c:pt>
                     </c:numCache>
@@ -10669,6 +10864,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -10762,6 +10960,9 @@
                       <c:pt idx="8" formatCode="General">
                         <c:v>3.99</c:v>
                       </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>3.98</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -10772,7 +10973,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510447872"/>
+        <c:axId val="-714180992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10806,7 +11007,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510438080"/>
+        <c:crossAx val="-714182080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10814,7 +11015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510438080"/>
+        <c:axId val="-714182080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10824,7 +11025,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510447872"/>
+        <c:crossAx val="-714180992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11049,6 +11250,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11139,6 +11343,9 @@
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>6.61</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>6.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11219,6 +11426,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11309,6 +11519,9 @@
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>7.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11389,6 +11602,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11480,6 +11696,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>7.9</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>7.85</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11494,11 +11713,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="-1362312608"/>
-        <c:axId val="-1532459264"/>
+        <c:axId val="-905073232"/>
+        <c:axId val="-905072144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1362312608"/>
+        <c:axId val="-905073232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11559,7 +11778,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1532459264"/>
+        <c:crossAx val="-905072144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11567,7 +11786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1532459264"/>
+        <c:axId val="-905072144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11628,7 +11847,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1362312608"/>
+        <c:crossAx val="-905073232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11888,6 +12107,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11979,6 +12201,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.8</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12015,8 +12240,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510441888"/>
-        <c:axId val="-1510443520"/>
+        <c:axId val="-714184256"/>
+        <c:axId val="-714186432"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12167,6 +12392,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -12259,6 +12487,9 @@
                       </c:pt>
                       <c:pt idx="8" formatCode="General">
                         <c:v>3.46</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>3.45</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12414,6 +12645,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -12507,6 +12741,9 @@
                       <c:pt idx="8" formatCode="General">
                         <c:v>3.99</c:v>
                       </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>3.98</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -12517,7 +12754,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510441888"/>
+        <c:axId val="-714184256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12551,7 +12788,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510443520"/>
+        <c:crossAx val="-714186432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12559,7 +12796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510443520"/>
+        <c:axId val="-714186432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12569,7 +12806,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510441888"/>
+        <c:crossAx val="-714184256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12824,6 +13061,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12915,6 +13155,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.99</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.98</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12951,8 +13194,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510448960"/>
-        <c:axId val="-1510434272"/>
+        <c:axId val="-714179360"/>
+        <c:axId val="-714182624"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13103,6 +13346,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13195,6 +13441,9 @@
                       </c:pt>
                       <c:pt idx="8" formatCode="General">
                         <c:v>3.46</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>3.45</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13350,6 +13599,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13443,6 +13695,9 @@
                       <c:pt idx="8" formatCode="General">
                         <c:v>3.8</c:v>
                       </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>3.8</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -13453,7 +13708,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510448960"/>
+        <c:axId val="-714179360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13487,7 +13742,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510434272"/>
+        <c:crossAx val="-714182624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13495,7 +13750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510434272"/>
+        <c:axId val="-714182624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13505,7 +13760,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510448960"/>
+        <c:crossAx val="-714179360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13758,6 +14013,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -13849,6 +14107,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>6.61</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>6.54</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13885,8 +14146,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510449504"/>
-        <c:axId val="-1510437536"/>
+        <c:axId val="-714183712"/>
+        <c:axId val="-714178816"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -14037,6 +14298,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14129,6 +14393,9 @@
                       </c:pt>
                       <c:pt idx="8" formatCode="General">
                         <c:v>7.55</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>7.49</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14284,6 +14551,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14377,6 +14647,9 @@
                       <c:pt idx="8" formatCode="General">
                         <c:v>7.9</c:v>
                       </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>7.85</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -14387,7 +14660,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510449504"/>
+        <c:axId val="-714183712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14421,7 +14694,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510437536"/>
+        <c:crossAx val="-714178816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14429,7 +14702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510437536"/>
+        <c:axId val="-714178816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14439,7 +14712,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510449504"/>
+        <c:crossAx val="-714183712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14693,6 +14966,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -14784,6 +15060,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>7.55</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>7.49</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14820,8 +15099,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510440800"/>
-        <c:axId val="-1510436992"/>
+        <c:axId val="-714180448"/>
+        <c:axId val="-714185344"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -14972,6 +15251,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15064,6 +15346,9 @@
                       </c:pt>
                       <c:pt idx="8" formatCode="General">
                         <c:v>6.61</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>6.54</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15219,6 +15504,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15312,6 +15600,9 @@
                       <c:pt idx="8" formatCode="General">
                         <c:v>7.9</c:v>
                       </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>7.85</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -15322,7 +15613,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510440800"/>
+        <c:axId val="-714180448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15356,7 +15647,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510436992"/>
+        <c:crossAx val="-714185344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15364,7 +15655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510436992"/>
+        <c:axId val="-714185344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15374,7 +15665,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510440800"/>
+        <c:crossAx val="-714180448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15629,6 +15920,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -15720,6 +16014,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>7.9</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>7.85</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15756,8 +16053,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510444608"/>
-        <c:axId val="-1510435904"/>
+        <c:axId val="-714178272"/>
+        <c:axId val="-714189152"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -15908,6 +16205,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16000,6 +16300,9 @@
                       </c:pt>
                       <c:pt idx="8" formatCode="General">
                         <c:v>6.61</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>6.54</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16155,6 +16458,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16248,6 +16554,9 @@
                       <c:pt idx="8" formatCode="General">
                         <c:v>7.55</c:v>
                       </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>7.49</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -16258,7 +16567,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510444608"/>
+        <c:axId val="-714178272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16292,7 +16601,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510435904"/>
+        <c:crossAx val="-714189152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16300,7 +16609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510435904"/>
+        <c:axId val="-714189152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16310,7 +16619,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510444608"/>
+        <c:crossAx val="-714178272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16563,6 +16872,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -16654,6 +16966,9 @@
                 <c:pt idx="8">
                   <c:v>33.979999999999997</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.04</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16690,8 +17005,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510448416"/>
-        <c:axId val="-1510435360"/>
+        <c:axId val="-714177728"/>
+        <c:axId val="-714177184"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -16842,6 +17157,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16934,6 +17252,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>33.4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>33.520000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17089,6 +17410,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17182,6 +17506,9 @@
                       <c:pt idx="8">
                         <c:v>35.380000000000003</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>35.5</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -17192,7 +17519,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510448416"/>
+        <c:axId val="-714177728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17226,7 +17553,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510435360"/>
+        <c:crossAx val="-714177184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17234,7 +17561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510435360"/>
+        <c:axId val="-714177184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17244,7 +17571,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510448416"/>
+        <c:crossAx val="-714177728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17335,7 +17662,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17440,7 +17766,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17497,6 +17822,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -17589,6 +17917,9 @@
                 <c:pt idx="8">
                   <c:v>33.4</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.520000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17625,8 +17956,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510440256"/>
-        <c:axId val="-1510438624"/>
+        <c:axId val="-714188608"/>
+        <c:axId val="-714183168"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -17777,6 +18108,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17869,6 +18203,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>33.979999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>34.04</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18024,6 +18361,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18117,6 +18457,9 @@
                       <c:pt idx="8">
                         <c:v>35.380000000000003</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>35.5</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -18127,7 +18470,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510440256"/>
+        <c:axId val="-714188608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18161,7 +18504,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510438624"/>
+        <c:crossAx val="-714183168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18169,7 +18512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510438624"/>
+        <c:axId val="-714183168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18179,7 +18522,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510440256"/>
+        <c:crossAx val="-714188608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18193,7 +18536,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18434,6 +18776,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -18525,6 +18870,9 @@
                 <c:pt idx="8">
                   <c:v>35.380000000000003</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18561,8 +18909,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510442976"/>
-        <c:axId val="-1510442432"/>
+        <c:axId val="-714176640"/>
+        <c:axId val="-714190784"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -18713,6 +19061,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18805,6 +19156,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>33.979999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>34.04</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18960,6 +19314,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19053,6 +19410,9 @@
                       <c:pt idx="8">
                         <c:v>33.4</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>33.520000000000003</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -19063,7 +19423,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510442976"/>
+        <c:axId val="-714176640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19097,7 +19457,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510442432"/>
+        <c:crossAx val="-714190784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19105,7 +19465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510442432"/>
+        <c:axId val="-714190784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19115,7 +19475,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510442976"/>
+        <c:crossAx val="-714176640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19368,6 +19728,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -19459,6 +19822,9 @@
                 <c:pt idx="8">
                   <c:v>1179.6099999999999</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1183.45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19495,8 +19861,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510436448"/>
-        <c:axId val="-1510434816"/>
+        <c:axId val="-714176096"/>
+        <c:axId val="-714175552"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -19647,6 +20013,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19739,6 +20108,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>849.53</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>851.17</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19894,6 +20266,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19987,6 +20362,9 @@
                       <c:pt idx="8">
                         <c:v>668.17</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>670.43</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -19997,7 +20375,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510436448"/>
+        <c:axId val="-714176096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20031,7 +20409,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510434816"/>
+        <c:crossAx val="-714175552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20039,7 +20417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510434816"/>
+        <c:axId val="-714175552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20049,7 +20427,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510436448"/>
+        <c:crossAx val="-714176096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20301,6 +20679,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -20392,6 +20773,9 @@
                 <c:pt idx="8">
                   <c:v>668.17</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>670.43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20428,8 +20812,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510447328"/>
-        <c:axId val="-1510441344"/>
+        <c:axId val="-714190240"/>
+        <c:axId val="-714189696"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -20580,6 +20964,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -20672,6 +21059,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>849.53</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>851.17</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20827,6 +21217,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -20920,6 +21313,9 @@
                       <c:pt idx="8">
                         <c:v>1179.6099999999999</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1183.45</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -20930,7 +21326,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510447328"/>
+        <c:axId val="-714190240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20964,7 +21360,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510441344"/>
+        <c:crossAx val="-714189696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20972,7 +21368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510441344"/>
+        <c:axId val="-714189696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20982,7 +21378,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510447328"/>
+        <c:crossAx val="-714190240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21234,6 +21630,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -21325,6 +21724,9 @@
                 <c:pt idx="8">
                   <c:v>54.4</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -21361,11 +21763,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1532457088"/>
-        <c:axId val="-1532456544"/>
+        <c:axId val="-1004864800"/>
+        <c:axId val="-715442240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1532457088"/>
+        <c:axId val="-1004864800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21399,7 +21801,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1532456544"/>
+        <c:crossAx val="-715442240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21407,7 +21809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1532456544"/>
+        <c:axId val="-715442240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21417,7 +21819,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1532457088"/>
+        <c:crossAx val="-1004864800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21669,6 +22071,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -21760,6 +22165,9 @@
                 <c:pt idx="8">
                   <c:v>849.53</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>851.17</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -21796,8 +22204,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510439712"/>
-        <c:axId val="-1510446784"/>
+        <c:axId val="-714188064"/>
+        <c:axId val="-714187520"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -21948,6 +22356,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -22040,6 +22451,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>668.17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>670.43</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -22195,6 +22609,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -22288,6 +22705,9 @@
                       <c:pt idx="8">
                         <c:v>1179.6099999999999</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1183.45</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -22298,7 +22718,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510439712"/>
+        <c:axId val="-714188064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22332,7 +22752,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510446784"/>
+        <c:crossAx val="-714187520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22340,7 +22760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510446784"/>
+        <c:axId val="-714187520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22350,7 +22770,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510439712"/>
+        <c:crossAx val="-714188064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22612,6 +23032,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22703,6 +23126,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>0.02</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -22740,11 +23166,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1510439168"/>
-        <c:axId val="-1510446240"/>
+        <c:axId val="-714186976"/>
+        <c:axId val="-714184800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510439168"/>
+        <c:axId val="-714186976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22778,7 +23204,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510446240"/>
+        <c:crossAx val="-714184800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22786,7 +23212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510446240"/>
+        <c:axId val="-714184800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22796,7 +23222,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510439168"/>
+        <c:crossAx val="-714186976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23020,6 +23446,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23111,6 +23540,9 @@
                 <c:pt idx="8">
                   <c:v>101.5</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>101.52</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -23147,11 +23579,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1510445696"/>
-        <c:axId val="-1510445152"/>
+        <c:axId val="-714185888"/>
+        <c:axId val="-712209360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1510445696"/>
+        <c:axId val="-714185888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23185,7 +23617,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510445152"/>
+        <c:crossAx val="-712209360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23193,7 +23625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1510445152"/>
+        <c:axId val="-712209360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23203,7 +23635,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1510445696"/>
+        <c:crossAx val="-714185888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23427,6 +23859,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23518,6 +23953,9 @@
                 <c:pt idx="8">
                   <c:v>10150.1</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>10152.61</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -23554,11 +23992,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1305110096"/>
-        <c:axId val="-1305114448"/>
+        <c:axId val="-712207184"/>
+        <c:axId val="-712210448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1305110096"/>
+        <c:axId val="-712207184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23592,7 +24030,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1305114448"/>
+        <c:crossAx val="-712210448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23600,7 +24038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1305114448"/>
+        <c:axId val="-712210448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23610,7 +24048,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1305110096"/>
+        <c:crossAx val="-712207184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23673,7 +24111,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23778,7 +24215,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -23835,6 +24271,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -23927,6 +24366,9 @@
                 <c:pt idx="8">
                   <c:v>35.19</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.14</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -23963,11 +24405,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309334736"/>
-        <c:axId val="-1309328208"/>
+        <c:axId val="-715441152"/>
+        <c:axId val="-715436800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309334736"/>
+        <c:axId val="-715441152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24001,7 +24443,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309328208"/>
+        <c:crossAx val="-715436800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24009,7 +24451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309328208"/>
+        <c:axId val="-715436800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24019,7 +24461,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309334736"/>
+        <c:crossAx val="-715441152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24033,7 +24475,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24272,6 +24713,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -24363,6 +24807,9 @@
                 <c:pt idx="8">
                   <c:v>1759.76</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1757.42</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -24399,11 +24846,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309333648"/>
-        <c:axId val="-1309334192"/>
+        <c:axId val="-715444960"/>
+        <c:axId val="-715447136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309333648"/>
+        <c:axId val="-715444960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24437,7 +24884,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309334192"/>
+        <c:crossAx val="-715447136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24445,7 +24892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309334192"/>
+        <c:axId val="-715447136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24455,7 +24902,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309333648"/>
+        <c:crossAx val="-715444960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24707,6 +25154,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -24798,6 +25248,9 @@
                 <c:pt idx="8">
                   <c:v>1201.5899999999999</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1198.8499999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -24834,11 +25287,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309324944"/>
-        <c:axId val="-1309333104"/>
+        <c:axId val="-715441696"/>
+        <c:axId val="-715444416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309324944"/>
+        <c:axId val="-715441696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24872,7 +25325,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309333104"/>
+        <c:crossAx val="-715444416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24880,7 +25333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309333104"/>
+        <c:axId val="-715444416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24890,7 +25343,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309324944"/>
+        <c:crossAx val="-715441696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25142,6 +25595,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -25233,6 +25689,9 @@
                 <c:pt idx="8">
                   <c:v>2720.47</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2719.61</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -25269,8 +25728,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309329296"/>
-        <c:axId val="-1309332560"/>
+        <c:axId val="-715436256"/>
+        <c:axId val="-715446592"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -25421,6 +25880,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -25513,6 +25975,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>1759.76</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1757.42</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -25668,6 +26133,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -25761,6 +26229,9 @@
                       <c:pt idx="8">
                         <c:v>1201.5899999999999</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1198.8499999999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -25771,7 +26242,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309329296"/>
+        <c:axId val="-715436256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25805,7 +26276,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309332560"/>
+        <c:crossAx val="-715446592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25813,7 +26284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309332560"/>
+        <c:axId val="-715446592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25823,7 +26294,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309329296"/>
+        <c:crossAx val="-715436256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26077,6 +26548,9 @@
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -26168,6 +26642,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.9</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.91</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -26204,8 +26681,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309336912"/>
-        <c:axId val="-1309332016"/>
+        <c:axId val="-715448224"/>
+        <c:axId val="-715443872"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -26356,6 +26833,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -26448,6 +26928,9 @@
                       </c:pt>
                       <c:pt idx="8" formatCode="General">
                         <c:v>3.38</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>3.39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -26603,6 +27086,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -26696,6 +27182,9 @@
                       <c:pt idx="8" formatCode="General">
                         <c:v>3.9</c:v>
                       </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>3.91</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -26706,7 +27195,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309336912"/>
+        <c:axId val="-715448224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26740,7 +27229,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309332016"/>
+        <c:crossAx val="-715443872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26748,7 +27237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309332016"/>
+        <c:axId val="-715443872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26758,7 +27247,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309336912"/>
+        <c:crossAx val="-715448224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26850,7 +27339,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26955,7 +27443,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -27012,6 +27499,9 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>13/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -27104,6 +27594,9 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.9</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.91</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -27140,8 +27633,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1309328752"/>
-        <c:axId val="-1309338544"/>
+        <c:axId val="-715439520"/>
+        <c:axId val="-715434080"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -27292,6 +27785,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -27384,6 +27880,9 @@
                       </c:pt>
                       <c:pt idx="8" formatCode="General">
                         <c:v>3.38</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>3.39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -27539,6 +28038,9 @@
                         <c:pt idx="8">
                           <c:v>13/jun</c:v>
                         </c:pt>
+                        <c:pt idx="9">
+                          <c:v>14/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -27632,6 +28134,9 @@
                       <c:pt idx="8" formatCode="General">
                         <c:v>3.9</c:v>
                       </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>3.91</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -27642,7 +28147,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1309328752"/>
+        <c:axId val="-715439520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27676,7 +28181,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1309338544"/>
+        <c:crossAx val="-715434080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27684,7 +28189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1309338544"/>
+        <c:axId val="-715434080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27694,7 +28199,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1309328752"/>
+        <c:crossAx val="-715439520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27708,7 +28213,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -47347,10 +47851,10 @@
       <c r="A2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -47458,10 +47962,10 @@
       <c r="A9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -47518,10 +48022,10 @@
       <c r="A13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -47553,13 +48057,256 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C3:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="57">
+        <v>45519</v>
+      </c>
+      <c r="C3" s="58">
+        <v>3.39</v>
+      </c>
+      <c r="D3" s="37">
+        <v>54.39</v>
+      </c>
+      <c r="E3" s="37">
+        <v>2719.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="57">
+        <v>49444</v>
+      </c>
+      <c r="C4" s="58">
+        <v>3.91</v>
+      </c>
+      <c r="D4" s="37">
+        <v>35.14</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1757.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="57">
+        <v>53097</v>
+      </c>
+      <c r="C5" s="58">
+        <v>3.91</v>
+      </c>
+      <c r="D5" s="37">
+        <v>35.96</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1198.8499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="57">
+        <v>46249</v>
+      </c>
+      <c r="C6" s="58">
+        <v>3.45</v>
+      </c>
+      <c r="D6" s="37">
+        <v>38.01</v>
+      </c>
+      <c r="E6" s="37">
+        <v>3801.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="57">
+        <v>49444</v>
+      </c>
+      <c r="C7" s="58">
+        <v>3.8</v>
+      </c>
+      <c r="D7" s="37">
+        <v>40.75</v>
+      </c>
+      <c r="E7" s="37">
+        <v>4075.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="57">
+        <v>55015</v>
+      </c>
+      <c r="C8" s="58">
+        <v>3.98</v>
+      </c>
+      <c r="D8" s="37">
+        <v>44.37</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4437.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="57">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="58">
+        <v>6.54</v>
+      </c>
+      <c r="D10" s="37">
+        <v>34.04</v>
+      </c>
+      <c r="E10" s="37">
+        <v>851.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="57">
+        <v>45658</v>
+      </c>
+      <c r="C11" s="58">
+        <v>7.49</v>
+      </c>
+      <c r="D11" s="37">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="E11" s="37">
+        <v>670.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="57">
+        <v>47119</v>
+      </c>
+      <c r="C12" s="58">
+        <v>7.85</v>
+      </c>
+      <c r="D12" s="37">
+        <v>35.5</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1183.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="57">
+        <v>45717</v>
+      </c>
+      <c r="C14" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="37">
+        <v>101.52</v>
+      </c>
+      <c r="E14" s="37">
+        <v>10152.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12:AC15"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -47632,73 +48379,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="78"/>
     </row>
     <row r="2" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
@@ -47983,9 +48730,15 @@
       <c r="AC3" s="17">
         <v>43629</v>
       </c>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="17"/>
+      <c r="AD3" s="15">
+        <v>43630</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>43630</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>43630</v>
+      </c>
       <c r="AG3" s="15"/>
       <c r="AH3" s="16"/>
       <c r="AI3" s="17"/>
@@ -48108,9 +48861,15 @@
       <c r="AC4" s="40">
         <v>2720.47</v>
       </c>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="40"/>
+      <c r="AD4" s="38">
+        <v>3.39</v>
+      </c>
+      <c r="AE4" s="39">
+        <v>54.39</v>
+      </c>
+      <c r="AF4" s="40">
+        <v>2719.61</v>
+      </c>
       <c r="AG4" s="38"/>
       <c r="AH4" s="39"/>
       <c r="AI4" s="40"/>
@@ -48233,9 +48992,15 @@
       <c r="AC5" s="42">
         <v>1759.76</v>
       </c>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="42"/>
+      <c r="AD5" s="41">
+        <v>3.91</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>35.14</v>
+      </c>
+      <c r="AF5" s="42">
+        <v>1757.42</v>
+      </c>
       <c r="AG5" s="41"/>
       <c r="AH5" s="37"/>
       <c r="AI5" s="42"/>
@@ -48358,9 +49123,15 @@
       <c r="AC6" s="42">
         <v>1201.5899999999999</v>
       </c>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="42"/>
+      <c r="AD6" s="41">
+        <v>3.91</v>
+      </c>
+      <c r="AE6" s="37">
+        <v>35.96</v>
+      </c>
+      <c r="AF6" s="42">
+        <v>1198.8499999999999</v>
+      </c>
       <c r="AG6" s="41"/>
       <c r="AH6" s="37"/>
       <c r="AI6" s="42"/>
@@ -48483,9 +49254,15 @@
       <c r="AC7" s="42">
         <v>3798.51</v>
       </c>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="42"/>
+      <c r="AD7" s="41">
+        <v>3.45</v>
+      </c>
+      <c r="AE7" s="37">
+        <v>38.01</v>
+      </c>
+      <c r="AF7" s="42">
+        <v>3801.39</v>
+      </c>
       <c r="AG7" s="41"/>
       <c r="AH7" s="37"/>
       <c r="AI7" s="42"/>
@@ -48608,9 +49385,15 @@
       <c r="AC8" s="42">
         <v>4074.47</v>
       </c>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="42"/>
+      <c r="AD8" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="AE8" s="37">
+        <v>40.75</v>
+      </c>
+      <c r="AF8" s="42">
+        <v>4075.27</v>
+      </c>
       <c r="AG8" s="41"/>
       <c r="AH8" s="37"/>
       <c r="AI8" s="42"/>
@@ -48733,9 +49516,15 @@
       <c r="AC9" s="45">
         <v>4429.54</v>
       </c>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="42"/>
+      <c r="AD9" s="43">
+        <v>3.98</v>
+      </c>
+      <c r="AE9" s="44">
+        <v>44.37</v>
+      </c>
+      <c r="AF9" s="45">
+        <v>4437.49</v>
+      </c>
       <c r="AG9" s="41"/>
       <c r="AH9" s="37"/>
       <c r="AI9" s="42"/>
@@ -48771,73 +49560,73 @@
       <c r="BM9" s="45"/>
     </row>
     <row r="10" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="73"/>
-      <c r="BA10" s="73"/>
-      <c r="BB10" s="73"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="73"/>
-      <c r="BF10" s="73"/>
-      <c r="BG10" s="73"/>
-      <c r="BH10" s="73"/>
-      <c r="BI10" s="73"/>
-      <c r="BJ10" s="73"/>
-      <c r="BK10" s="73"/>
-      <c r="BL10" s="73"/>
-      <c r="BM10" s="74"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="77"/>
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+      <c r="BF10" s="77"/>
+      <c r="BG10" s="77"/>
+      <c r="BH10" s="77"/>
+      <c r="BI10" s="77"/>
+      <c r="BJ10" s="77"/>
+      <c r="BK10" s="77"/>
+      <c r="BL10" s="77"/>
+      <c r="BM10" s="78"/>
     </row>
     <row r="11" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
@@ -49113,18 +49902,24 @@
       <c r="Z12" s="17">
         <v>43628</v>
       </c>
-      <c r="AA12" s="77">
+      <c r="AA12" s="72">
         <v>43629</v>
       </c>
-      <c r="AB12" s="78">
+      <c r="AB12" s="73">
         <v>43629</v>
       </c>
-      <c r="AC12" s="79">
+      <c r="AC12" s="74">
         <v>43629</v>
       </c>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="17"/>
+      <c r="AD12" s="15">
+        <v>43630</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>43630</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>43630</v>
+      </c>
       <c r="AG12" s="15"/>
       <c r="AH12" s="16"/>
       <c r="AI12" s="17"/>
@@ -49247,9 +50042,15 @@
       <c r="AC13" s="37">
         <v>849.53</v>
       </c>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="40"/>
+      <c r="AD13" s="38">
+        <v>6.54</v>
+      </c>
+      <c r="AE13" s="39">
+        <v>34.04</v>
+      </c>
+      <c r="AF13" s="40">
+        <v>851.17</v>
+      </c>
       <c r="AG13" s="38"/>
       <c r="AH13" s="39"/>
       <c r="AI13" s="40"/>
@@ -49372,9 +50173,15 @@
       <c r="AC14" s="37">
         <v>668.17</v>
       </c>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="42"/>
+      <c r="AD14" s="41">
+        <v>7.49</v>
+      </c>
+      <c r="AE14" s="37">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="AF14" s="42">
+        <v>670.43</v>
+      </c>
       <c r="AG14" s="41"/>
       <c r="AH14" s="37"/>
       <c r="AI14" s="42"/>
@@ -49497,9 +50304,15 @@
       <c r="AC15" s="37">
         <v>1179.6099999999999</v>
       </c>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="42"/>
+      <c r="AD15" s="43">
+        <v>7.85</v>
+      </c>
+      <c r="AE15" s="44">
+        <v>35.5</v>
+      </c>
+      <c r="AF15" s="45">
+        <v>1183.45</v>
+      </c>
       <c r="AG15" s="41"/>
       <c r="AH15" s="37"/>
       <c r="AI15" s="42"/>
@@ -49535,73 +50348,73 @@
       <c r="BM15" s="45"/>
     </row>
     <row r="16" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="73"/>
-      <c r="BD16" s="73"/>
-      <c r="BE16" s="73"/>
-      <c r="BF16" s="73"/>
-      <c r="BG16" s="73"/>
-      <c r="BH16" s="73"/>
-      <c r="BI16" s="73"/>
-      <c r="BJ16" s="73"/>
-      <c r="BK16" s="73"/>
-      <c r="BL16" s="73"/>
-      <c r="BM16" s="74"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="77"/>
+      <c r="AI16" s="77"/>
+      <c r="AJ16" s="77"/>
+      <c r="AK16" s="77"/>
+      <c r="AL16" s="77"/>
+      <c r="AM16" s="77"/>
+      <c r="AN16" s="77"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="77"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="77"/>
+      <c r="AT16" s="77"/>
+      <c r="AU16" s="77"/>
+      <c r="AV16" s="77"/>
+      <c r="AW16" s="77"/>
+      <c r="AX16" s="77"/>
+      <c r="AY16" s="77"/>
+      <c r="AZ16" s="77"/>
+      <c r="BA16" s="77"/>
+      <c r="BB16" s="77"/>
+      <c r="BC16" s="77"/>
+      <c r="BD16" s="77"/>
+      <c r="BE16" s="77"/>
+      <c r="BF16" s="77"/>
+      <c r="BG16" s="77"/>
+      <c r="BH16" s="77"/>
+      <c r="BI16" s="77"/>
+      <c r="BJ16" s="77"/>
+      <c r="BK16" s="77"/>
+      <c r="BL16" s="77"/>
+      <c r="BM16" s="78"/>
     </row>
     <row r="17" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
@@ -49886,9 +50699,15 @@
       <c r="AC18" s="17">
         <v>43629</v>
       </c>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="17"/>
+      <c r="AD18" s="15">
+        <v>43630</v>
+      </c>
+      <c r="AE18" s="16">
+        <v>43630</v>
+      </c>
+      <c r="AF18" s="17">
+        <v>43630</v>
+      </c>
       <c r="AG18" s="15"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="17"/>
@@ -50011,9 +50830,15 @@
       <c r="AC19" s="48">
         <v>10150.1</v>
       </c>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="48"/>
+      <c r="AD19" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="AE19" s="47">
+        <v>101.52</v>
+      </c>
+      <c r="AF19" s="48">
+        <v>10152.61</v>
+      </c>
       <c r="AG19" s="46"/>
       <c r="AH19" s="47"/>
       <c r="AI19" s="48"/>
@@ -50141,12 +50966,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView topLeftCell="AA1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -50219,73 +51044,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="78"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
@@ -50570,9 +51395,15 @@
       <c r="AC3" s="17">
         <v>43629</v>
       </c>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="17"/>
+      <c r="AD3" s="15">
+        <v>43630</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>43630</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>43630</v>
+      </c>
       <c r="AG3" s="15"/>
       <c r="AH3" s="16"/>
       <c r="AI3" s="17"/>
@@ -50695,9 +51526,15 @@
       <c r="AC4" s="40">
         <v>2720.47</v>
       </c>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="40"/>
+      <c r="AD4" s="38">
+        <v>3.39</v>
+      </c>
+      <c r="AE4" s="39">
+        <v>54.39</v>
+      </c>
+      <c r="AF4" s="40">
+        <v>2719.61</v>
+      </c>
       <c r="AG4" s="38"/>
       <c r="AH4" s="39"/>
       <c r="AI4" s="40"/>
@@ -50820,9 +51657,15 @@
       <c r="AC5" s="42">
         <v>1759.76</v>
       </c>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="42"/>
+      <c r="AD5" s="41">
+        <v>3.91</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>35.14</v>
+      </c>
+      <c r="AF5" s="42">
+        <v>1757.42</v>
+      </c>
       <c r="AG5" s="41"/>
       <c r="AH5" s="37"/>
       <c r="AI5" s="42"/>
@@ -50945,945 +51788,15 @@
       <c r="AC6" s="45">
         <v>1201.5899999999999</v>
       </c>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="43"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="43"/>
-      <c r="BF6" s="44"/>
-      <c r="BG6" s="45"/>
-      <c r="BH6" s="43"/>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="45"/>
-      <c r="BK6" s="43"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="45"/>
-    </row>
-    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:BM1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM100"/>
-  <sheetViews>
-    <sheetView topLeftCell="V3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="74"/>
-    </row>
-    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM2" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43619</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43620</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="I3" s="64">
-        <v>43621</v>
-      </c>
-      <c r="J3" s="12">
-        <v>43621</v>
-      </c>
-      <c r="K3" s="34">
-        <v>43621</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="M3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="N3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="O3" s="15">
-        <v>43623</v>
-      </c>
-      <c r="P3" s="16">
-        <v>43623</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>43623</v>
-      </c>
-      <c r="R3" s="15">
-        <v>43626</v>
-      </c>
-      <c r="S3" s="16">
-        <v>43626</v>
-      </c>
-      <c r="T3" s="17">
-        <v>43626</v>
-      </c>
-      <c r="U3" s="15">
-        <v>43627</v>
-      </c>
-      <c r="V3" s="16">
-        <v>43627</v>
-      </c>
-      <c r="W3" s="17">
-        <v>43627</v>
-      </c>
-      <c r="X3" s="15">
-        <v>43628</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>43628</v>
-      </c>
-      <c r="Z3" s="17">
-        <v>43628</v>
-      </c>
-      <c r="AA3" s="15">
-        <v>43629</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>43629</v>
-      </c>
-      <c r="AC3" s="17">
-        <v>43629</v>
-      </c>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="17"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="16"/>
-      <c r="BJ3" s="17"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="16"/>
-      <c r="BM3" s="17"/>
-    </row>
-    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="49">
-        <v>46249</v>
-      </c>
-      <c r="C4" s="38">
-        <v>3.71</v>
-      </c>
-      <c r="D4" s="39">
-        <v>37.409999999999997</v>
-      </c>
-      <c r="E4" s="40">
-        <v>3741.25</v>
-      </c>
-      <c r="F4" s="38">
-        <v>3.65</v>
-      </c>
-      <c r="G4" s="39">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="H4" s="40">
-        <v>3755</v>
-      </c>
-      <c r="I4" s="41">
-        <v>3.67</v>
-      </c>
-      <c r="J4" s="37">
-        <v>37.51</v>
-      </c>
-      <c r="K4" s="42">
-        <v>3751.51</v>
-      </c>
-      <c r="L4" s="38">
-        <v>3.67</v>
-      </c>
-      <c r="M4" s="39">
-        <v>37.520000000000003</v>
-      </c>
-      <c r="N4" s="40">
-        <v>3752.34</v>
-      </c>
-      <c r="O4" s="38">
-        <v>3.54</v>
-      </c>
-      <c r="P4" s="39">
-        <v>37.78</v>
-      </c>
-      <c r="Q4" s="40">
-        <v>3778.4</v>
-      </c>
-      <c r="R4" s="38">
-        <v>3.52</v>
-      </c>
-      <c r="S4" s="39">
-        <v>37.83</v>
-      </c>
-      <c r="T4" s="40">
-        <v>3783.42</v>
-      </c>
-      <c r="U4" s="38">
-        <v>3.47</v>
-      </c>
-      <c r="V4" s="39">
-        <v>37.94</v>
-      </c>
-      <c r="W4" s="40">
-        <v>3794.99</v>
-      </c>
-      <c r="X4" s="38">
-        <v>3.44</v>
-      </c>
-      <c r="Y4" s="39">
-        <v>38.020000000000003</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>3802.21</v>
-      </c>
-      <c r="AA4" s="38">
-        <v>3.46</v>
-      </c>
-      <c r="AB4" s="39">
-        <v>37.979999999999997</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>3798.51</v>
-      </c>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="38"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="40"/>
-    </row>
-    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="49">
-        <v>49444</v>
-      </c>
-      <c r="C5" s="41">
-        <v>3.9</v>
-      </c>
-      <c r="D5" s="37">
-        <v>40.270000000000003</v>
-      </c>
-      <c r="E5" s="42">
-        <v>4027.51</v>
-      </c>
-      <c r="F5" s="41">
-        <v>3.83</v>
-      </c>
-      <c r="G5" s="37">
-        <v>40.58</v>
-      </c>
-      <c r="H5" s="42">
-        <v>4058.68</v>
-      </c>
-      <c r="I5" s="41">
-        <v>3.86</v>
-      </c>
-      <c r="J5" s="37">
-        <v>40.46</v>
-      </c>
-      <c r="K5" s="42">
-        <v>4046.61</v>
-      </c>
-      <c r="L5" s="41">
-        <v>3.87</v>
-      </c>
-      <c r="M5" s="37">
-        <v>40.43</v>
-      </c>
-      <c r="N5" s="42">
-        <v>4043.21</v>
-      </c>
-      <c r="O5" s="41">
-        <v>3.84</v>
-      </c>
-      <c r="P5" s="37">
-        <v>40.54</v>
-      </c>
-      <c r="Q5" s="42">
-        <v>4054</v>
-      </c>
-      <c r="R5" s="41">
-        <v>3.83</v>
-      </c>
-      <c r="S5" s="37">
-        <v>40.590000000000003</v>
-      </c>
-      <c r="T5" s="42">
-        <v>4059.11</v>
-      </c>
-      <c r="U5" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="V5" s="37">
-        <v>40.72</v>
-      </c>
-      <c r="W5" s="42">
-        <v>4072.92</v>
-      </c>
-      <c r="X5" s="41">
-        <v>3.78</v>
-      </c>
-      <c r="Y5" s="37">
-        <v>40.82</v>
-      </c>
-      <c r="Z5" s="42">
-        <v>4082.41</v>
-      </c>
-      <c r="AA5" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="AB5" s="37">
-        <v>40.74</v>
-      </c>
-      <c r="AC5" s="42">
-        <v>4074.47</v>
-      </c>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="42"/>
-    </row>
-    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="50">
-        <v>55015</v>
-      </c>
-      <c r="C6" s="43">
-        <v>4.09</v>
-      </c>
-      <c r="D6" s="44">
-        <v>43.55</v>
-      </c>
-      <c r="E6" s="45">
-        <v>4355.7700000000004</v>
-      </c>
-      <c r="F6" s="43">
-        <v>3.98</v>
-      </c>
-      <c r="G6" s="44">
-        <v>44.33</v>
-      </c>
-      <c r="H6" s="45">
-        <v>4433.3999999999996</v>
-      </c>
-      <c r="I6" s="43">
-        <v>4.01</v>
-      </c>
-      <c r="J6" s="44">
-        <v>44.13</v>
-      </c>
-      <c r="K6" s="45">
-        <v>4413.34</v>
-      </c>
-      <c r="L6" s="43">
-        <v>4.05</v>
-      </c>
-      <c r="M6" s="44">
-        <v>43.86</v>
-      </c>
-      <c r="N6" s="45">
-        <v>4386.4799999999996</v>
-      </c>
-      <c r="O6" s="43">
-        <v>4.03</v>
-      </c>
-      <c r="P6" s="44">
-        <v>43.98</v>
-      </c>
-      <c r="Q6" s="45">
-        <v>4398.05</v>
-      </c>
-      <c r="R6" s="43">
-        <v>4.03</v>
-      </c>
-      <c r="S6" s="44">
-        <v>43.98</v>
-      </c>
-      <c r="T6" s="45">
-        <v>4398.93</v>
-      </c>
-      <c r="U6" s="43">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="V6" s="44">
-        <v>44.06</v>
-      </c>
-      <c r="W6" s="45">
-        <v>4406.7700000000004</v>
-      </c>
-      <c r="X6" s="43">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="44">
-        <v>44.21</v>
-      </c>
-      <c r="Z6" s="45">
-        <v>4421.6499999999996</v>
-      </c>
-      <c r="AA6" s="43">
-        <v>3.99</v>
-      </c>
-      <c r="AB6" s="44">
-        <v>44.29</v>
-      </c>
-      <c r="AC6" s="45">
-        <v>4429.54</v>
-      </c>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="45"/>
+      <c r="AD6" s="43">
+        <v>3.91</v>
+      </c>
+      <c r="AE6" s="44">
+        <v>35.96</v>
+      </c>
+      <c r="AF6" s="45">
+        <v>1198.8499999999999</v>
+      </c>
       <c r="AG6" s="43"/>
       <c r="AH6" s="44"/>
       <c r="AI6" s="45"/>
@@ -52026,8 +51939,968 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
+    <sheetView topLeftCell="V3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="78"/>
+    </row>
+    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43619</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43620</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="I3" s="64">
+        <v>43621</v>
+      </c>
+      <c r="J3" s="12">
+        <v>43621</v>
+      </c>
+      <c r="K3" s="34">
+        <v>43621</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="O3" s="15">
+        <v>43623</v>
+      </c>
+      <c r="P3" s="16">
+        <v>43623</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>43623</v>
+      </c>
+      <c r="R3" s="15">
+        <v>43626</v>
+      </c>
+      <c r="S3" s="16">
+        <v>43626</v>
+      </c>
+      <c r="T3" s="17">
+        <v>43626</v>
+      </c>
+      <c r="U3" s="15">
+        <v>43627</v>
+      </c>
+      <c r="V3" s="16">
+        <v>43627</v>
+      </c>
+      <c r="W3" s="17">
+        <v>43627</v>
+      </c>
+      <c r="X3" s="15">
+        <v>43628</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>43628</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>43628</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>43629</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>43629</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>43629</v>
+      </c>
+      <c r="AD3" s="15">
+        <v>43630</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>43630</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>43630</v>
+      </c>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="17"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="17"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="17"/>
+    </row>
+    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="49">
+        <v>46249</v>
+      </c>
+      <c r="C4" s="38">
+        <v>3.71</v>
+      </c>
+      <c r="D4" s="39">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="E4" s="40">
+        <v>3741.25</v>
+      </c>
+      <c r="F4" s="38">
+        <v>3.65</v>
+      </c>
+      <c r="G4" s="39">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="H4" s="40">
+        <v>3755</v>
+      </c>
+      <c r="I4" s="41">
+        <v>3.67</v>
+      </c>
+      <c r="J4" s="37">
+        <v>37.51</v>
+      </c>
+      <c r="K4" s="42">
+        <v>3751.51</v>
+      </c>
+      <c r="L4" s="38">
+        <v>3.67</v>
+      </c>
+      <c r="M4" s="39">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="N4" s="40">
+        <v>3752.34</v>
+      </c>
+      <c r="O4" s="38">
+        <v>3.54</v>
+      </c>
+      <c r="P4" s="39">
+        <v>37.78</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>3778.4</v>
+      </c>
+      <c r="R4" s="38">
+        <v>3.52</v>
+      </c>
+      <c r="S4" s="39">
+        <v>37.83</v>
+      </c>
+      <c r="T4" s="40">
+        <v>3783.42</v>
+      </c>
+      <c r="U4" s="38">
+        <v>3.47</v>
+      </c>
+      <c r="V4" s="39">
+        <v>37.94</v>
+      </c>
+      <c r="W4" s="40">
+        <v>3794.99</v>
+      </c>
+      <c r="X4" s="38">
+        <v>3.44</v>
+      </c>
+      <c r="Y4" s="39">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="Z4" s="40">
+        <v>3802.21</v>
+      </c>
+      <c r="AA4" s="38">
+        <v>3.46</v>
+      </c>
+      <c r="AB4" s="39">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="AC4" s="40">
+        <v>3798.51</v>
+      </c>
+      <c r="AD4" s="38">
+        <v>3.45</v>
+      </c>
+      <c r="AE4" s="39">
+        <v>38.01</v>
+      </c>
+      <c r="AF4" s="40">
+        <v>3801.39</v>
+      </c>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="40"/>
+    </row>
+    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="49">
+        <v>49444</v>
+      </c>
+      <c r="C5" s="41">
+        <v>3.9</v>
+      </c>
+      <c r="D5" s="37">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="E5" s="42">
+        <v>4027.51</v>
+      </c>
+      <c r="F5" s="41">
+        <v>3.83</v>
+      </c>
+      <c r="G5" s="37">
+        <v>40.58</v>
+      </c>
+      <c r="H5" s="42">
+        <v>4058.68</v>
+      </c>
+      <c r="I5" s="41">
+        <v>3.86</v>
+      </c>
+      <c r="J5" s="37">
+        <v>40.46</v>
+      </c>
+      <c r="K5" s="42">
+        <v>4046.61</v>
+      </c>
+      <c r="L5" s="41">
+        <v>3.87</v>
+      </c>
+      <c r="M5" s="37">
+        <v>40.43</v>
+      </c>
+      <c r="N5" s="42">
+        <v>4043.21</v>
+      </c>
+      <c r="O5" s="41">
+        <v>3.84</v>
+      </c>
+      <c r="P5" s="37">
+        <v>40.54</v>
+      </c>
+      <c r="Q5" s="42">
+        <v>4054</v>
+      </c>
+      <c r="R5" s="41">
+        <v>3.83</v>
+      </c>
+      <c r="S5" s="37">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="T5" s="42">
+        <v>4059.11</v>
+      </c>
+      <c r="U5" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="V5" s="37">
+        <v>40.72</v>
+      </c>
+      <c r="W5" s="42">
+        <v>4072.92</v>
+      </c>
+      <c r="X5" s="41">
+        <v>3.78</v>
+      </c>
+      <c r="Y5" s="37">
+        <v>40.82</v>
+      </c>
+      <c r="Z5" s="42">
+        <v>4082.41</v>
+      </c>
+      <c r="AA5" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="AB5" s="37">
+        <v>40.74</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>4074.47</v>
+      </c>
+      <c r="AD5" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>40.75</v>
+      </c>
+      <c r="AF5" s="42">
+        <v>4075.27</v>
+      </c>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="42"/>
+    </row>
+    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="50">
+        <v>55015</v>
+      </c>
+      <c r="C6" s="43">
+        <v>4.09</v>
+      </c>
+      <c r="D6" s="44">
+        <v>43.55</v>
+      </c>
+      <c r="E6" s="45">
+        <v>4355.7700000000004</v>
+      </c>
+      <c r="F6" s="43">
+        <v>3.98</v>
+      </c>
+      <c r="G6" s="44">
+        <v>44.33</v>
+      </c>
+      <c r="H6" s="45">
+        <v>4433.3999999999996</v>
+      </c>
+      <c r="I6" s="43">
+        <v>4.01</v>
+      </c>
+      <c r="J6" s="44">
+        <v>44.13</v>
+      </c>
+      <c r="K6" s="45">
+        <v>4413.34</v>
+      </c>
+      <c r="L6" s="43">
+        <v>4.05</v>
+      </c>
+      <c r="M6" s="44">
+        <v>43.86</v>
+      </c>
+      <c r="N6" s="45">
+        <v>4386.4799999999996</v>
+      </c>
+      <c r="O6" s="43">
+        <v>4.03</v>
+      </c>
+      <c r="P6" s="44">
+        <v>43.98</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>4398.05</v>
+      </c>
+      <c r="R6" s="43">
+        <v>4.03</v>
+      </c>
+      <c r="S6" s="44">
+        <v>43.98</v>
+      </c>
+      <c r="T6" s="45">
+        <v>4398.93</v>
+      </c>
+      <c r="U6" s="43">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="V6" s="44">
+        <v>44.06</v>
+      </c>
+      <c r="W6" s="45">
+        <v>4406.7700000000004</v>
+      </c>
+      <c r="X6" s="43">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="44">
+        <v>44.21</v>
+      </c>
+      <c r="Z6" s="45">
+        <v>4421.6499999999996</v>
+      </c>
+      <c r="AA6" s="43">
+        <v>3.99</v>
+      </c>
+      <c r="AB6" s="44">
+        <v>44.29</v>
+      </c>
+      <c r="AC6" s="45">
+        <v>4429.54</v>
+      </c>
+      <c r="AD6" s="43">
+        <v>3.98</v>
+      </c>
+      <c r="AE6" s="44">
+        <v>44.37</v>
+      </c>
+      <c r="AF6" s="45">
+        <v>4437.49</v>
+      </c>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="43"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="43"/>
+      <c r="BF6" s="44"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="43"/>
+      <c r="BI6" s="44"/>
+      <c r="BJ6" s="45"/>
+      <c r="BK6" s="43"/>
+      <c r="BL6" s="44"/>
+      <c r="BM6" s="45"/>
+    </row>
+    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:BM1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM100"/>
+  <sheetViews>
     <sheetView topLeftCell="AA1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AC6"/>
+      <selection activeCell="AD3" sqref="AD3:AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -52100,73 +52973,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="78"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -52442,18 +53315,24 @@
       <c r="Z3" s="17">
         <v>43628</v>
       </c>
-      <c r="AA3" s="77">
+      <c r="AA3" s="72">
         <v>43629</v>
       </c>
-      <c r="AB3" s="78">
+      <c r="AB3" s="73">
         <v>43629</v>
       </c>
-      <c r="AC3" s="79">
+      <c r="AC3" s="74">
         <v>43629</v>
       </c>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="17"/>
+      <c r="AD3" s="15">
+        <v>43630</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>43630</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>43630</v>
+      </c>
       <c r="AG3" s="15"/>
       <c r="AH3" s="16"/>
       <c r="AI3" s="17"/>
@@ -52576,9 +53455,15 @@
       <c r="AC4" s="37">
         <v>849.53</v>
       </c>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="40"/>
+      <c r="AD4" s="38">
+        <v>6.54</v>
+      </c>
+      <c r="AE4" s="39">
+        <v>34.04</v>
+      </c>
+      <c r="AF4" s="40">
+        <v>851.17</v>
+      </c>
       <c r="AG4" s="38"/>
       <c r="AH4" s="39"/>
       <c r="AI4" s="40"/>
@@ -52701,9 +53586,15 @@
       <c r="AC5" s="37">
         <v>668.17</v>
       </c>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="42"/>
+      <c r="AD5" s="41">
+        <v>7.49</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="AF5" s="42">
+        <v>670.43</v>
+      </c>
       <c r="AG5" s="41"/>
       <c r="AH5" s="37"/>
       <c r="AI5" s="42"/>
@@ -52826,9 +53717,15 @@
       <c r="AC6" s="37">
         <v>1179.6099999999999</v>
       </c>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="45"/>
+      <c r="AD6" s="43">
+        <v>7.85</v>
+      </c>
+      <c r="AE6" s="44">
+        <v>35.5</v>
+      </c>
+      <c r="AF6" s="45">
+        <v>1183.45</v>
+      </c>
       <c r="AG6" s="43"/>
       <c r="AH6" s="44"/>
       <c r="AI6" s="45"/>
@@ -52967,12 +53864,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AC4"/>
+      <selection activeCell="AD3" sqref="AD3:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -53045,73 +53942,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="78"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -53396,9 +54293,15 @@
       <c r="AC3" s="17">
         <v>43629</v>
       </c>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="17"/>
+      <c r="AD3" s="15">
+        <v>43630</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>43630</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>43630</v>
+      </c>
       <c r="AG3" s="15"/>
       <c r="AH3" s="16"/>
       <c r="AI3" s="17"/>
@@ -53521,9 +54424,15 @@
       <c r="AC4" s="48">
         <v>10150.1</v>
       </c>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="48"/>
+      <c r="AD4" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="AE4" s="47">
+        <v>101.52</v>
+      </c>
+      <c r="AF4" s="48">
+        <v>10152.61</v>
+      </c>
       <c r="AG4" s="46"/>
       <c r="AH4" s="47"/>
       <c r="AI4" s="48"/>
@@ -53703,10 +54612,10 @@
       <c r="A2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -53814,10 +54723,10 @@
       <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -53874,10 +54783,10 @@
       <c r="A13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -53946,10 +54855,10 @@
       <c r="A2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -54057,10 +54966,10 @@
       <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -54117,10 +55026,10 @@
       <c r="A13" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -54188,10 +55097,10 @@
       <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -54299,10 +55208,10 @@
       <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -54359,10 +55268,10 @@
       <c r="A13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -54431,10 +55340,10 @@
       <c r="A2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -54542,10 +55451,10 @@
       <c r="A9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -54602,10 +55511,10 @@
       <c r="A13" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -54674,10 +55583,10 @@
       <c r="A2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -54785,10 +55694,10 @@
       <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -54845,10 +55754,10 @@
       <c r="A13" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -54916,10 +55825,10 @@
       <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -55027,10 +55936,10 @@
       <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -55087,10 +55996,10 @@
       <c r="A13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -55159,10 +56068,10 @@
       <c r="A2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -55270,10 +56179,10 @@
       <c r="A9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -55330,10 +56239,10 @@
       <c r="A13" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -55402,10 +56311,10 @@
       <c r="A2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -55513,10 +56422,10 @@
       <c r="A9" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -55573,10 +56482,10 @@
       <c r="A13" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">

--- a/TESOURO DIRETO_0619 - Compra.xlsx
+++ b/TESOURO DIRETO_0619 - Compra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="030619" sheetId="9" r:id="rId1"/>
@@ -22,18 +22,19 @@
     <sheet name="120619" sheetId="16" r:id="rId8"/>
     <sheet name="130619" sheetId="17" r:id="rId9"/>
     <sheet name="140619" sheetId="18" r:id="rId10"/>
-    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId11"/>
-    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId12"/>
-    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId13"/>
-    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId14"/>
-    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId15"/>
+    <sheet name="150619" sheetId="19" r:id="rId11"/>
+    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId12"/>
+    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId13"/>
+    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId14"/>
+    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId15"/>
+    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="25">
   <si>
     <t>Vencimento</t>
   </si>
@@ -509,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -734,6 +735,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,7 +813,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -947,7 +950,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1007,6 +1009,9 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1101,6 +1106,9 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,7 +1209,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1261,6 +1268,9 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1355,6 +1365,9 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,7 +1468,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1515,6 +1527,9 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1609,6 +1624,9 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,7 +1727,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1769,6 +1786,9 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1863,6 +1883,9 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,7 +1986,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2023,6 +2045,9 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2117,6 +2142,9 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,7 +2245,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2277,6 +2304,9 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2372,6 +2402,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.98</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.96</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2387,11 +2420,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-905073776"/>
-        <c:axId val="-905083568"/>
+        <c:axId val="1359465984"/>
+        <c:axId val="1359463264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-905073776"/>
+        <c:axId val="1359465984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +2466,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-905083568"/>
+        <c:crossAx val="1359463264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2441,7 +2474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-905083568"/>
+        <c:axId val="1359463264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,7 +2524,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-905073776"/>
+        <c:crossAx val="1359465984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2505,7 +2538,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2761,6 +2793,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2855,6 +2890,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.39</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.36</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2891,8 +2929,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715440064"/>
-        <c:axId val="-715446048"/>
+        <c:axId val="1570117952"/>
+        <c:axId val="1570121216"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3046,6 +3084,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3141,6 +3182,9 @@
                       </c:pt>
                       <c:pt idx="9" formatCode="General">
                         <c:v>3.91</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>3.89</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3299,6 +3343,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3395,6 +3442,9 @@
                       <c:pt idx="9" formatCode="General">
                         <c:v>3.91</c:v>
                       </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>3.89</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3405,7 +3455,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715440064"/>
+        <c:axId val="1570117952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3489,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715446048"/>
+        <c:crossAx val="1570121216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3447,7 +3497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715446048"/>
+        <c:axId val="1570121216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3457,7 +3507,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715440064"/>
+        <c:crossAx val="1570117952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3714,6 +3764,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3808,6 +3861,9 @@
                 <c:pt idx="9">
                   <c:v>35.96</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3844,8 +3900,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715437344"/>
-        <c:axId val="-715438976"/>
+        <c:axId val="1570127744"/>
+        <c:axId val="1570113600"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3999,6 +4055,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -4094,6 +4153,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>54.39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>54.48</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4252,6 +4314,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -4348,6 +4413,9 @@
                       <c:pt idx="9">
                         <c:v>35.14</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>35.26</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4358,7 +4426,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715437344"/>
+        <c:axId val="1570127744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4392,7 +4460,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715438976"/>
+        <c:crossAx val="1570113600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4400,7 +4468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715438976"/>
+        <c:axId val="1570113600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4410,7 +4478,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715437344"/>
+        <c:crossAx val="1570127744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4727,6 +4795,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4820,6 +4891,9 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4965,6 +5039,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5058,6 +5135,9 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5203,6 +5283,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5297,6 +5380,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.91</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.89</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5313,11 +5399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-715442784"/>
-        <c:axId val="-715438432"/>
+        <c:axId val="1570128288"/>
+        <c:axId val="1570121760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715442784"/>
+        <c:axId val="1570128288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5360,7 +5446,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715438432"/>
+        <c:crossAx val="1570121760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5368,7 +5454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715438432"/>
+        <c:axId val="1570121760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5378,7 +5464,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715442784"/>
+        <c:crossAx val="1570128288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5637,6 +5723,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5731,6 +5820,9 @@
                 <c:pt idx="9">
                   <c:v>3801.39</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>3810.65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5767,11 +5859,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715435712"/>
-        <c:axId val="-715445504"/>
+        <c:axId val="1570116864"/>
+        <c:axId val="1570119040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715435712"/>
+        <c:axId val="1570116864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5805,7 +5897,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715445504"/>
+        <c:crossAx val="1570119040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5813,7 +5905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715445504"/>
+        <c:axId val="1570119040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5823,7 +5915,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715435712"/>
+        <c:crossAx val="1570116864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6078,6 +6170,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -6172,6 +6267,9 @@
                 <c:pt idx="9">
                   <c:v>4075.27</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>4084.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6208,8 +6306,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715443328"/>
-        <c:axId val="-715433536"/>
+        <c:axId val="1570119584"/>
+        <c:axId val="1570122848"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6363,6 +6461,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6458,6 +6559,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>3801.39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3810.65</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6616,6 +6720,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6712,6 +6819,9 @@
                       <c:pt idx="9">
                         <c:v>4437.49</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4452.32</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6722,7 +6832,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715443328"/>
+        <c:axId val="1570119584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6756,7 +6866,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715433536"/>
+        <c:crossAx val="1570122848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6764,7 +6874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715433536"/>
+        <c:axId val="1570122848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6774,7 +6884,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715443328"/>
+        <c:crossAx val="1570119584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7029,6 +7139,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -7123,6 +7236,9 @@
                 <c:pt idx="9">
                   <c:v>4437.49</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>4452.32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7159,8 +7275,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715437888"/>
-        <c:axId val="-715447680"/>
+        <c:axId val="1570126112"/>
+        <c:axId val="1570123392"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7314,6 +7430,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7409,6 +7528,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>3801.39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3810.65</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7567,6 +7689,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7663,6 +7788,9 @@
                       <c:pt idx="9">
                         <c:v>4075.27</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4084.6</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -7673,7 +7801,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715437888"/>
+        <c:axId val="1570126112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7707,7 +7835,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715447680"/>
+        <c:crossAx val="1570123392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7715,7 +7843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715447680"/>
+        <c:axId val="1570123392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7725,7 +7853,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715437888"/>
+        <c:crossAx val="1570126112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7982,6 +8110,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -8076,6 +8207,9 @@
                 <c:pt idx="9">
                   <c:v>44.37</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.52</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8112,8 +8246,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715440608"/>
-        <c:axId val="-715432992"/>
+        <c:axId val="1570123936"/>
+        <c:axId val="1570124480"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -8267,6 +8401,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8362,6 +8499,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>38.01</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>38.1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8520,6 +8660,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8616,6 +8759,9 @@
                       <c:pt idx="9">
                         <c:v>40.75</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40.840000000000003</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8626,7 +8772,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715440608"/>
+        <c:axId val="1570123936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8660,7 +8806,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715432992"/>
+        <c:crossAx val="1570124480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8668,7 +8814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715432992"/>
+        <c:axId val="1570124480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8678,7 +8824,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715440608"/>
+        <c:crossAx val="1570123936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8936,6 +9082,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9030,6 +9179,9 @@
                 <c:pt idx="9">
                   <c:v>40.75</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.840000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9066,8 +9218,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715435168"/>
-        <c:axId val="-715434624"/>
+        <c:axId val="1582618880"/>
+        <c:axId val="1582605824"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9221,6 +9373,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9316,6 +9471,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>38.01</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>38.1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9474,6 +9632,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9570,6 +9731,9 @@
                       <c:pt idx="9">
                         <c:v>44.37</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44.52</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -9580,7 +9744,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715435168"/>
+        <c:axId val="1582618880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9614,7 +9778,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715434624"/>
+        <c:crossAx val="1582605824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9622,7 +9786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715434624"/>
+        <c:axId val="1582605824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9632,7 +9796,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715435168"/>
+        <c:crossAx val="1582618880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9888,6 +10052,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9982,6 +10149,9 @@
                 <c:pt idx="9">
                   <c:v>38.01</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10018,11 +10188,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714179904"/>
-        <c:axId val="-714181536"/>
+        <c:axId val="1582610176"/>
+        <c:axId val="1582618336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714179904"/>
+        <c:axId val="1582610176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10056,7 +10226,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714181536"/>
+        <c:crossAx val="1582618336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10064,7 +10234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714181536"/>
+        <c:axId val="1582618336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10074,7 +10244,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714179904"/>
+        <c:crossAx val="1582610176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10329,6 +10499,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10423,6 +10596,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.45</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.41</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10459,8 +10635,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714180992"/>
-        <c:axId val="-714182080"/>
+        <c:axId val="1582610720"/>
+        <c:axId val="1582613440"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -10614,6 +10790,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -10709,6 +10888,9 @@
                       </c:pt>
                       <c:pt idx="9" formatCode="General">
                         <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>3.78</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10867,6 +11049,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -10963,6 +11148,9 @@
                       <c:pt idx="9" formatCode="General">
                         <c:v>3.98</c:v>
                       </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>3.96</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -10973,7 +11161,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714180992"/>
+        <c:axId val="1582610720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11007,7 +11195,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714182080"/>
+        <c:crossAx val="1582613440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11015,7 +11203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714182080"/>
+        <c:axId val="1582613440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11025,7 +11213,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714180992"/>
+        <c:crossAx val="1582610720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11253,6 +11441,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11346,6 +11537,9 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11429,6 +11623,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11522,6 +11719,9 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>7.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11605,6 +11805,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11699,6 +11902,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>7.85</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>7.84</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11713,11 +11919,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="-905073232"/>
-        <c:axId val="-905072144"/>
+        <c:axId val="1359464352"/>
+        <c:axId val="1570114688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-905073232"/>
+        <c:axId val="1359464352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11778,7 +11984,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-905072144"/>
+        <c:crossAx val="1570114688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11786,7 +11992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-905072144"/>
+        <c:axId val="1570114688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11847,7 +12053,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-905073232"/>
+        <c:crossAx val="1359464352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12110,6 +12316,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12204,6 +12413,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.8</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.78</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12240,8 +12452,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714184256"/>
-        <c:axId val="-714186432"/>
+        <c:axId val="1582604192"/>
+        <c:axId val="1582616160"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12395,6 +12607,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -12490,6 +12705,9 @@
                       </c:pt>
                       <c:pt idx="9" formatCode="General">
                         <c:v>3.45</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>3.41</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12648,6 +12866,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -12744,6 +12965,9 @@
                       <c:pt idx="9" formatCode="General">
                         <c:v>3.98</c:v>
                       </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>3.96</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -12754,7 +12978,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714184256"/>
+        <c:axId val="1582604192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12788,7 +13012,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714186432"/>
+        <c:crossAx val="1582616160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12796,7 +13020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714186432"/>
+        <c:axId val="1582616160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12806,7 +13030,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714184256"/>
+        <c:crossAx val="1582604192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13064,6 +13288,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -13158,6 +13385,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.98</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.96</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13194,8 +13424,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714179360"/>
-        <c:axId val="-714182624"/>
+        <c:axId val="1582606368"/>
+        <c:axId val="1582611808"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13349,6 +13579,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13444,6 +13677,9 @@
                       </c:pt>
                       <c:pt idx="9" formatCode="General">
                         <c:v>3.45</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>3.41</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13602,6 +13838,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13698,6 +13937,9 @@
                       <c:pt idx="9" formatCode="General">
                         <c:v>3.8</c:v>
                       </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>3.78</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -13708,7 +13950,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714179360"/>
+        <c:axId val="1582606368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13742,7 +13984,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714182624"/>
+        <c:crossAx val="1582611808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13750,7 +13992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714182624"/>
+        <c:axId val="1582611808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13760,7 +14002,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714179360"/>
+        <c:crossAx val="1582606368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14016,6 +14258,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -14110,6 +14355,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>6.54</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>6.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14146,8 +14394,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714183712"/>
-        <c:axId val="-714178816"/>
+        <c:axId val="1582616704"/>
+        <c:axId val="1582612352"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -14301,6 +14549,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14396,6 +14647,9 @@
                       </c:pt>
                       <c:pt idx="9" formatCode="General">
                         <c:v>7.49</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>7.45</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14554,6 +14808,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14650,6 +14907,9 @@
                       <c:pt idx="9" formatCode="General">
                         <c:v>7.85</c:v>
                       </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>7.84</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -14660,7 +14920,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714183712"/>
+        <c:axId val="1582616704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14694,7 +14954,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714178816"/>
+        <c:crossAx val="1582612352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14702,7 +14962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714178816"/>
+        <c:axId val="1582612352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14712,7 +14972,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714183712"/>
+        <c:crossAx val="1582616704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14969,6 +15229,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -15063,6 +15326,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>7.49</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>7.45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15099,8 +15365,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714180448"/>
-        <c:axId val="-714185344"/>
+        <c:axId val="1582604736"/>
+        <c:axId val="1582608000"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -15254,6 +15520,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15349,6 +15618,9 @@
                       </c:pt>
                       <c:pt idx="9" formatCode="General">
                         <c:v>6.54</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>6.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15507,6 +15779,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15603,6 +15878,9 @@
                       <c:pt idx="9" formatCode="General">
                         <c:v>7.85</c:v>
                       </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>7.84</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -15613,7 +15891,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714180448"/>
+        <c:axId val="1582604736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15647,7 +15925,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714185344"/>
+        <c:crossAx val="1582608000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15655,7 +15933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714185344"/>
+        <c:axId val="1582608000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15665,7 +15943,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714180448"/>
+        <c:crossAx val="1582604736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15923,6 +16201,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -16017,6 +16298,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>7.85</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>7.84</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16053,8 +16337,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714178272"/>
-        <c:axId val="-714189152"/>
+        <c:axId val="1582617248"/>
+        <c:axId val="1582608544"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -16208,6 +16492,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16303,6 +16590,9 @@
                       </c:pt>
                       <c:pt idx="9" formatCode="General">
                         <c:v>6.54</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>6.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16461,6 +16751,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16557,6 +16850,9 @@
                       <c:pt idx="9" formatCode="General">
                         <c:v>7.49</c:v>
                       </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>7.45</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -16567,7 +16863,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714178272"/>
+        <c:axId val="1582617248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16601,7 +16897,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714189152"/>
+        <c:crossAx val="1582608544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16609,7 +16905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714189152"/>
+        <c:axId val="1582608544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16619,7 +16915,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714178272"/>
+        <c:crossAx val="1582617248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16875,6 +17171,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -16969,6 +17268,9 @@
                 <c:pt idx="9">
                   <c:v>34.04</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.08</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17005,8 +17307,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714177728"/>
-        <c:axId val="-714177184"/>
+        <c:axId val="1582617792"/>
+        <c:axId val="1582619424"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -17160,6 +17462,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17255,6 +17560,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>33.520000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>33.6</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17413,6 +17721,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17509,6 +17820,9 @@
                       <c:pt idx="9">
                         <c:v>35.5</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>35.53</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -17519,7 +17833,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714177728"/>
+        <c:axId val="1582617792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17553,7 +17867,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714177184"/>
+        <c:crossAx val="1582619424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17561,7 +17875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714177184"/>
+        <c:axId val="1582619424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17571,7 +17885,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714177728"/>
+        <c:crossAx val="1582617792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17826,6 +18140,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -17920,6 +18237,9 @@
                 <c:pt idx="9">
                   <c:v>33.520000000000003</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17956,8 +18276,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714188608"/>
-        <c:axId val="-714183168"/>
+        <c:axId val="1582606912"/>
+        <c:axId val="1582605280"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -18111,6 +18431,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18206,6 +18529,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>34.04</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>34.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18364,6 +18690,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18460,6 +18789,9 @@
                       <c:pt idx="9">
                         <c:v>35.5</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>35.53</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -18470,7 +18802,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714188608"/>
+        <c:axId val="1582606912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18504,7 +18836,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714183168"/>
+        <c:crossAx val="1582605280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18512,7 +18844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714183168"/>
+        <c:axId val="1582605280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18522,7 +18854,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714188608"/>
+        <c:crossAx val="1582606912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18779,6 +19111,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -18873,6 +19208,9 @@
                 <c:pt idx="9">
                   <c:v>35.5</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.53</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18909,8 +19247,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714176640"/>
-        <c:axId val="-714190784"/>
+        <c:axId val="1582614528"/>
+        <c:axId val="1582607456"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -19064,6 +19402,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19159,6 +19500,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>34.04</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>34.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19317,6 +19661,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19413,6 +19760,9 @@
                       <c:pt idx="9">
                         <c:v>33.520000000000003</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>33.6</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -19423,7 +19773,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714176640"/>
+        <c:axId val="1582614528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19457,7 +19807,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714190784"/>
+        <c:crossAx val="1582607456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19465,7 +19815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714190784"/>
+        <c:axId val="1582607456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19475,7 +19825,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714176640"/>
+        <c:crossAx val="1582614528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19731,6 +20081,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -19825,6 +20178,9 @@
                 <c:pt idx="9">
                   <c:v>1183.45</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1184.51</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19861,8 +20217,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714176096"/>
-        <c:axId val="-714175552"/>
+        <c:axId val="1582611264"/>
+        <c:axId val="1582609088"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -20016,6 +20372,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -20111,6 +20470,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>851.17</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>852.19</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20269,6 +20631,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -20365,6 +20730,9 @@
                       <c:pt idx="9">
                         <c:v>670.43</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>672</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -20375,7 +20743,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714176096"/>
+        <c:axId val="1582611264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20409,7 +20777,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714175552"/>
+        <c:crossAx val="1582609088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20417,7 +20785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714175552"/>
+        <c:axId val="1582609088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20427,7 +20795,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714176096"/>
+        <c:crossAx val="1582611264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20682,6 +21050,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -20776,6 +21147,9 @@
                 <c:pt idx="9">
                   <c:v>670.43</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>672</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20812,8 +21186,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714190240"/>
-        <c:axId val="-714189696"/>
+        <c:axId val="1582612896"/>
+        <c:axId val="1582613984"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -20967,6 +21341,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -21062,6 +21439,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>851.17</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>852.19</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -21220,6 +21600,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -21316,6 +21699,9 @@
                       <c:pt idx="9">
                         <c:v>1183.45</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1184.51</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -21326,7 +21712,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714190240"/>
+        <c:axId val="1582612896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21360,7 +21746,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714189696"/>
+        <c:crossAx val="1582613984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21368,7 +21754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714189696"/>
+        <c:axId val="1582613984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21378,7 +21764,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714190240"/>
+        <c:crossAx val="1582612896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21633,6 +22019,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -21727,6 +22116,9 @@
                 <c:pt idx="9">
                   <c:v>54.39</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.48</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -21763,11 +22155,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1004864800"/>
-        <c:axId val="-715442240"/>
+        <c:axId val="1570125024"/>
+        <c:axId val="1570113056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1004864800"/>
+        <c:axId val="1570125024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21801,7 +22193,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715442240"/>
+        <c:crossAx val="1570113056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21809,7 +22201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715442240"/>
+        <c:axId val="1570113056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21819,7 +22211,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1004864800"/>
+        <c:crossAx val="1570125024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22074,6 +22466,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22168,6 +22563,9 @@
                 <c:pt idx="9">
                   <c:v>851.17</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>852.19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -22204,8 +22602,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714188064"/>
-        <c:axId val="-714187520"/>
+        <c:axId val="1582615072"/>
+        <c:axId val="1582615616"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -22359,6 +22757,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -22454,6 +22855,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>670.43</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>672</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -22612,6 +23016,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -22708,6 +23115,9 @@
                       <c:pt idx="9">
                         <c:v>1183.45</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1184.51</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -22718,7 +23128,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714188064"/>
+        <c:axId val="1582615072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22752,7 +23162,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714187520"/>
+        <c:crossAx val="1582615616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22760,7 +23170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714187520"/>
+        <c:axId val="1582615616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22770,7 +23180,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714188064"/>
+        <c:crossAx val="1582615072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23035,6 +23445,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23129,6 +23542,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>0.02</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -23166,11 +23582,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-714186976"/>
-        <c:axId val="-714184800"/>
+        <c:axId val="1359467072"/>
+        <c:axId val="1530229792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714186976"/>
+        <c:axId val="1359467072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23204,7 +23620,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714184800"/>
+        <c:crossAx val="1530229792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23212,7 +23628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714184800"/>
+        <c:axId val="1530229792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23222,7 +23638,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714186976"/>
+        <c:crossAx val="1359467072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23449,6 +23865,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23543,6 +23962,9 @@
                 <c:pt idx="9">
                   <c:v>101.52</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.55</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -23579,11 +24001,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-714185888"/>
-        <c:axId val="-712209360"/>
+        <c:axId val="1584799728"/>
+        <c:axId val="1584804624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-714185888"/>
+        <c:axId val="1584799728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23617,7 +24039,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-712209360"/>
+        <c:crossAx val="1584804624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23625,7 +24047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-712209360"/>
+        <c:axId val="1584804624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23635,7 +24057,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714185888"/>
+        <c:crossAx val="1584799728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23862,6 +24284,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23956,6 +24381,9 @@
                 <c:pt idx="9">
                   <c:v>10152.61</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>10155.120000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -23992,11 +24420,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-712207184"/>
-        <c:axId val="-712210448"/>
+        <c:axId val="1584806800"/>
+        <c:axId val="1584805712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-712207184"/>
+        <c:axId val="1584806800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24030,7 +24458,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-712210448"/>
+        <c:crossAx val="1584805712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24038,7 +24466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-712210448"/>
+        <c:axId val="1584805712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24048,7 +24476,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-712207184"/>
+        <c:crossAx val="1584806800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24275,6 +24703,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -24369,6 +24800,9 @@
                 <c:pt idx="9">
                   <c:v>35.14</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.26</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -24405,11 +24839,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715441152"/>
-        <c:axId val="-715436800"/>
+        <c:axId val="1570117408"/>
+        <c:axId val="1570120672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715441152"/>
+        <c:axId val="1570117408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24443,7 +24877,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715436800"/>
+        <c:crossAx val="1570120672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24451,7 +24885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715436800"/>
+        <c:axId val="1570120672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24461,7 +24895,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715441152"/>
+        <c:crossAx val="1570117408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24716,6 +25150,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -24810,6 +25247,9 @@
                 <c:pt idx="9">
                   <c:v>1757.42</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1763.07</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -24846,11 +25286,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715444960"/>
-        <c:axId val="-715447136"/>
+        <c:axId val="1570125568"/>
+        <c:axId val="1570115776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715444960"/>
+        <c:axId val="1570125568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24884,7 +25324,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715447136"/>
+        <c:crossAx val="1570115776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24892,7 +25332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715447136"/>
+        <c:axId val="1570115776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24902,7 +25342,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715444960"/>
+        <c:crossAx val="1570125568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25157,6 +25597,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -25251,6 +25694,9 @@
                 <c:pt idx="9">
                   <c:v>1198.8499999999999</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1205.02</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -25287,11 +25733,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715441696"/>
-        <c:axId val="-715444416"/>
+        <c:axId val="1570118496"/>
+        <c:axId val="1570126656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715441696"/>
+        <c:axId val="1570118496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25325,7 +25771,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715444416"/>
+        <c:crossAx val="1570126656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25333,7 +25779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715444416"/>
+        <c:axId val="1570126656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25343,7 +25789,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715441696"/>
+        <c:crossAx val="1570118496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25598,6 +26044,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -25692,6 +26141,9 @@
                 <c:pt idx="9">
                   <c:v>2719.61</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2724.04</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -25728,8 +26180,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715436256"/>
-        <c:axId val="-715446592"/>
+        <c:axId val="1570114144"/>
+        <c:axId val="1570127200"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -25883,6 +26335,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -25978,6 +26433,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>1757.42</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1763.07</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -26136,6 +26594,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -26232,6 +26693,9 @@
                       <c:pt idx="9">
                         <c:v>1198.8499999999999</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1205.02</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -26242,7 +26706,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715436256"/>
+        <c:axId val="1570114144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26276,7 +26740,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715446592"/>
+        <c:crossAx val="1570127200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26284,7 +26748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715446592"/>
+        <c:axId val="1570127200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26294,7 +26758,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715436256"/>
+        <c:crossAx val="1570114144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26551,6 +27015,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -26645,6 +27112,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.91</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.89</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -26681,8 +27151,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715448224"/>
-        <c:axId val="-715443872"/>
+        <c:axId val="1570122304"/>
+        <c:axId val="1570115232"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -26836,6 +27306,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -26931,6 +27404,9 @@
                       </c:pt>
                       <c:pt idx="9" formatCode="General">
                         <c:v>3.39</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>3.36</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -27089,6 +27565,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -27185,6 +27664,9 @@
                       <c:pt idx="9" formatCode="General">
                         <c:v>3.91</c:v>
                       </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>3.89</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -27195,7 +27677,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715448224"/>
+        <c:axId val="1570122304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27229,7 +27711,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715443872"/>
+        <c:crossAx val="1570115232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27237,7 +27719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715443872"/>
+        <c:axId val="1570115232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27247,7 +27729,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715448224"/>
+        <c:crossAx val="1570122304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27503,6 +27985,9 @@
                   <c:pt idx="9">
                     <c:v>14/jun</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>15/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -27597,6 +28082,9 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.91</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.89</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -27633,8 +28121,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-715439520"/>
-        <c:axId val="-715434080"/>
+        <c:axId val="1570120128"/>
+        <c:axId val="1570116320"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -27788,6 +28276,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -27883,6 +28374,9 @@
                       </c:pt>
                       <c:pt idx="9" formatCode="General">
                         <c:v>3.39</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>3.36</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -28041,6 +28535,9 @@
                         <c:pt idx="9">
                           <c:v>14/jun</c:v>
                         </c:pt>
+                        <c:pt idx="10">
+                          <c:v>15/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -28137,6 +28634,9 @@
                       <c:pt idx="9" formatCode="General">
                         <c:v>3.91</c:v>
                       </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>3.89</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -28147,7 +28647,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-715439520"/>
+        <c:axId val="1570120128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28181,7 +28681,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-715434080"/>
+        <c:crossAx val="1570116320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28189,7 +28689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-715434080"/>
+        <c:axId val="1570116320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28199,7 +28699,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-715439520"/>
+        <c:crossAx val="1570120128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -47851,10 +48351,10 @@
       <c r="A2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -47962,10 +48462,10 @@
       <c r="A9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -48022,10 +48522,10 @@
       <c r="A13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -48094,10 +48594,10 @@
       <c r="A2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -48205,10 +48705,10 @@
       <c r="A9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -48265,10 +48765,10 @@
       <c r="A13" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -48300,13 +48800,256 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C3:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="57">
+        <v>45519</v>
+      </c>
+      <c r="C3" s="58">
+        <v>3.36</v>
+      </c>
+      <c r="D3" s="37">
+        <v>54.48</v>
+      </c>
+      <c r="E3" s="37">
+        <v>2724.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="57">
+        <v>49444</v>
+      </c>
+      <c r="C4" s="58">
+        <v>3.89</v>
+      </c>
+      <c r="D4" s="37">
+        <v>35.26</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1763.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="57">
+        <v>53097</v>
+      </c>
+      <c r="C5" s="58">
+        <v>3.89</v>
+      </c>
+      <c r="D5" s="37">
+        <v>36.15</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1205.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="57">
+        <v>46249</v>
+      </c>
+      <c r="C6" s="58">
+        <v>3.41</v>
+      </c>
+      <c r="D6" s="37">
+        <v>38.1</v>
+      </c>
+      <c r="E6" s="37">
+        <v>3810.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="57">
+        <v>49444</v>
+      </c>
+      <c r="C7" s="58">
+        <v>3.78</v>
+      </c>
+      <c r="D7" s="37">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="E7" s="37">
+        <v>4084.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="57">
+        <v>55015</v>
+      </c>
+      <c r="C8" s="58">
+        <v>3.96</v>
+      </c>
+      <c r="D8" s="37">
+        <v>44.52</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4452.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="57">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="58">
+        <v>6.5</v>
+      </c>
+      <c r="D10" s="37">
+        <v>34.08</v>
+      </c>
+      <c r="E10" s="37">
+        <v>852.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="57">
+        <v>45658</v>
+      </c>
+      <c r="C11" s="58">
+        <v>7.45</v>
+      </c>
+      <c r="D11" s="37">
+        <v>33.6</v>
+      </c>
+      <c r="E11" s="37">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="57">
+        <v>47119</v>
+      </c>
+      <c r="C12" s="58">
+        <v>7.84</v>
+      </c>
+      <c r="D12" s="37">
+        <v>35.53</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1184.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="57">
+        <v>45717</v>
+      </c>
+      <c r="C14" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="37">
+        <v>101.55</v>
+      </c>
+      <c r="E14" s="37">
+        <v>10155.120000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12:AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -48379,73 +49122,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="79"/>
     </row>
     <row r="2" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
@@ -48739,9 +49482,15 @@
       <c r="AF3" s="17">
         <v>43630</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="17"/>
+      <c r="AG3" s="15">
+        <v>43631</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>43631</v>
+      </c>
+      <c r="AI3" s="17">
+        <v>43631</v>
+      </c>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="16"/>
       <c r="AL3" s="17"/>
@@ -48870,9 +49619,15 @@
       <c r="AF4" s="40">
         <v>2719.61</v>
       </c>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="40"/>
+      <c r="AG4" s="38">
+        <v>3.36</v>
+      </c>
+      <c r="AH4" s="39">
+        <v>54.48</v>
+      </c>
+      <c r="AI4" s="40">
+        <v>2724.04</v>
+      </c>
       <c r="AJ4" s="38"/>
       <c r="AK4" s="39"/>
       <c r="AL4" s="40"/>
@@ -49001,9 +49756,15 @@
       <c r="AF5" s="42">
         <v>1757.42</v>
       </c>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="42"/>
+      <c r="AG5" s="41">
+        <v>3.89</v>
+      </c>
+      <c r="AH5" s="37">
+        <v>35.26</v>
+      </c>
+      <c r="AI5" s="42">
+        <v>1763.07</v>
+      </c>
       <c r="AJ5" s="41"/>
       <c r="AK5" s="37"/>
       <c r="AL5" s="42"/>
@@ -49132,9 +49893,15 @@
       <c r="AF6" s="42">
         <v>1198.8499999999999</v>
       </c>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="42"/>
+      <c r="AG6" s="41">
+        <v>3.89</v>
+      </c>
+      <c r="AH6" s="37">
+        <v>36.15</v>
+      </c>
+      <c r="AI6" s="42">
+        <v>1205.02</v>
+      </c>
       <c r="AJ6" s="41"/>
       <c r="AK6" s="37"/>
       <c r="AL6" s="42"/>
@@ -49263,9 +50030,15 @@
       <c r="AF7" s="42">
         <v>3801.39</v>
       </c>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="42"/>
+      <c r="AG7" s="41">
+        <v>3.41</v>
+      </c>
+      <c r="AH7" s="37">
+        <v>38.1</v>
+      </c>
+      <c r="AI7" s="42">
+        <v>3810.65</v>
+      </c>
       <c r="AJ7" s="41"/>
       <c r="AK7" s="37"/>
       <c r="AL7" s="42"/>
@@ -49394,9 +50167,15 @@
       <c r="AF8" s="42">
         <v>4075.27</v>
       </c>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="42"/>
+      <c r="AG8" s="41">
+        <v>3.78</v>
+      </c>
+      <c r="AH8" s="37">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="AI8" s="42">
+        <v>4084.6</v>
+      </c>
       <c r="AJ8" s="41"/>
       <c r="AK8" s="37"/>
       <c r="AL8" s="42"/>
@@ -49525,9 +50304,15 @@
       <c r="AF9" s="45">
         <v>4437.49</v>
       </c>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="42"/>
+      <c r="AG9" s="43">
+        <v>3.96</v>
+      </c>
+      <c r="AH9" s="44">
+        <v>44.52</v>
+      </c>
+      <c r="AI9" s="45">
+        <v>4452.32</v>
+      </c>
       <c r="AJ9" s="41"/>
       <c r="AK9" s="37"/>
       <c r="AL9" s="42"/>
@@ -49560,73 +50345,73 @@
       <c r="BM9" s="45"/>
     </row>
     <row r="10" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="77"/>
-      <c r="AZ10" s="77"/>
-      <c r="BA10" s="77"/>
-      <c r="BB10" s="77"/>
-      <c r="BC10" s="77"/>
-      <c r="BD10" s="77"/>
-      <c r="BE10" s="77"/>
-      <c r="BF10" s="77"/>
-      <c r="BG10" s="77"/>
-      <c r="BH10" s="77"/>
-      <c r="BI10" s="77"/>
-      <c r="BJ10" s="77"/>
-      <c r="BK10" s="77"/>
-      <c r="BL10" s="77"/>
-      <c r="BM10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="78"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="78"/>
+      <c r="AZ10" s="78"/>
+      <c r="BA10" s="78"/>
+      <c r="BB10" s="78"/>
+      <c r="BC10" s="78"/>
+      <c r="BD10" s="78"/>
+      <c r="BE10" s="78"/>
+      <c r="BF10" s="78"/>
+      <c r="BG10" s="78"/>
+      <c r="BH10" s="78"/>
+      <c r="BI10" s="78"/>
+      <c r="BJ10" s="78"/>
+      <c r="BK10" s="78"/>
+      <c r="BL10" s="78"/>
+      <c r="BM10" s="79"/>
     </row>
     <row r="11" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
@@ -49920,9 +50705,15 @@
       <c r="AF12" s="17">
         <v>43630</v>
       </c>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="17"/>
+      <c r="AG12" s="15">
+        <v>43631</v>
+      </c>
+      <c r="AH12" s="16">
+        <v>43631</v>
+      </c>
+      <c r="AI12" s="17">
+        <v>43631</v>
+      </c>
       <c r="AJ12" s="15"/>
       <c r="AK12" s="16"/>
       <c r="AL12" s="17"/>
@@ -50051,9 +50842,15 @@
       <c r="AF13" s="40">
         <v>851.17</v>
       </c>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="40"/>
+      <c r="AG13" s="38">
+        <v>6.5</v>
+      </c>
+      <c r="AH13" s="39">
+        <v>34.08</v>
+      </c>
+      <c r="AI13" s="40">
+        <v>852.19</v>
+      </c>
       <c r="AJ13" s="38"/>
       <c r="AK13" s="39"/>
       <c r="AL13" s="40"/>
@@ -50182,9 +50979,15 @@
       <c r="AF14" s="42">
         <v>670.43</v>
       </c>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="42"/>
+      <c r="AG14" s="41">
+        <v>7.45</v>
+      </c>
+      <c r="AH14" s="37">
+        <v>33.6</v>
+      </c>
+      <c r="AI14" s="42">
+        <v>672</v>
+      </c>
       <c r="AJ14" s="41"/>
       <c r="AK14" s="37"/>
       <c r="AL14" s="42"/>
@@ -50313,9 +51116,15 @@
       <c r="AF15" s="45">
         <v>1183.45</v>
       </c>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="42"/>
+      <c r="AG15" s="43">
+        <v>7.84</v>
+      </c>
+      <c r="AH15" s="44">
+        <v>35.53</v>
+      </c>
+      <c r="AI15" s="45">
+        <v>1184.51</v>
+      </c>
       <c r="AJ15" s="41"/>
       <c r="AK15" s="37"/>
       <c r="AL15" s="42"/>
@@ -50348,73 +51157,73 @@
       <c r="BM15" s="45"/>
     </row>
     <row r="16" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="77"/>
-      <c r="AK16" s="77"/>
-      <c r="AL16" s="77"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="77"/>
-      <c r="AT16" s="77"/>
-      <c r="AU16" s="77"/>
-      <c r="AV16" s="77"/>
-      <c r="AW16" s="77"/>
-      <c r="AX16" s="77"/>
-      <c r="AY16" s="77"/>
-      <c r="AZ16" s="77"/>
-      <c r="BA16" s="77"/>
-      <c r="BB16" s="77"/>
-      <c r="BC16" s="77"/>
-      <c r="BD16" s="77"/>
-      <c r="BE16" s="77"/>
-      <c r="BF16" s="77"/>
-      <c r="BG16" s="77"/>
-      <c r="BH16" s="77"/>
-      <c r="BI16" s="77"/>
-      <c r="BJ16" s="77"/>
-      <c r="BK16" s="77"/>
-      <c r="BL16" s="77"/>
-      <c r="BM16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
+      <c r="AK16" s="78"/>
+      <c r="AL16" s="78"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="78"/>
+      <c r="AO16" s="78"/>
+      <c r="AP16" s="78"/>
+      <c r="AQ16" s="78"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="78"/>
+      <c r="AW16" s="78"/>
+      <c r="AX16" s="78"/>
+      <c r="AY16" s="78"/>
+      <c r="AZ16" s="78"/>
+      <c r="BA16" s="78"/>
+      <c r="BB16" s="78"/>
+      <c r="BC16" s="78"/>
+      <c r="BD16" s="78"/>
+      <c r="BE16" s="78"/>
+      <c r="BF16" s="78"/>
+      <c r="BG16" s="78"/>
+      <c r="BH16" s="78"/>
+      <c r="BI16" s="78"/>
+      <c r="BJ16" s="78"/>
+      <c r="BK16" s="78"/>
+      <c r="BL16" s="78"/>
+      <c r="BM16" s="79"/>
     </row>
     <row r="17" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
@@ -50708,9 +51517,15 @@
       <c r="AF18" s="17">
         <v>43630</v>
       </c>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="17"/>
+      <c r="AG18" s="15">
+        <v>43631</v>
+      </c>
+      <c r="AH18" s="16">
+        <v>43631</v>
+      </c>
+      <c r="AI18" s="17">
+        <v>43631</v>
+      </c>
       <c r="AJ18" s="15"/>
       <c r="AK18" s="16"/>
       <c r="AL18" s="17"/>
@@ -50839,9 +51654,15 @@
       <c r="AF19" s="48">
         <v>10152.61</v>
       </c>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="48"/>
+      <c r="AG19" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="AH19" s="47">
+        <v>101.55</v>
+      </c>
+      <c r="AI19" s="48">
+        <v>10155.120000000001</v>
+      </c>
       <c r="AJ19" s="46"/>
       <c r="AK19" s="47"/>
       <c r="AL19" s="48"/>
@@ -50966,12 +51787,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -51044,73 +51865,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="79"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
@@ -51404,9 +52225,15 @@
       <c r="AF3" s="17">
         <v>43630</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="17"/>
+      <c r="AG3" s="15">
+        <v>43631</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>43631</v>
+      </c>
+      <c r="AI3" s="17">
+        <v>43631</v>
+      </c>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="16"/>
       <c r="AL3" s="17"/>
@@ -51535,9 +52362,15 @@
       <c r="AF4" s="40">
         <v>2719.61</v>
       </c>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="40"/>
+      <c r="AG4" s="38">
+        <v>3.36</v>
+      </c>
+      <c r="AH4" s="39">
+        <v>54.48</v>
+      </c>
+      <c r="AI4" s="40">
+        <v>2724.04</v>
+      </c>
       <c r="AJ4" s="38"/>
       <c r="AK4" s="39"/>
       <c r="AL4" s="40"/>
@@ -51666,9 +52499,15 @@
       <c r="AF5" s="42">
         <v>1757.42</v>
       </c>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="42"/>
+      <c r="AG5" s="41">
+        <v>3.89</v>
+      </c>
+      <c r="AH5" s="37">
+        <v>35.26</v>
+      </c>
+      <c r="AI5" s="42">
+        <v>1763.07</v>
+      </c>
       <c r="AJ5" s="41"/>
       <c r="AK5" s="37"/>
       <c r="AL5" s="42"/>
@@ -51797,969 +52636,15 @@
       <c r="AF6" s="45">
         <v>1198.8499999999999</v>
       </c>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="43"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="43"/>
-      <c r="BF6" s="44"/>
-      <c r="BG6" s="45"/>
-      <c r="BH6" s="43"/>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="45"/>
-      <c r="BK6" s="43"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="45"/>
-    </row>
-    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:BM1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM100"/>
-  <sheetViews>
-    <sheetView topLeftCell="V3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="78"/>
-    </row>
-    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM2" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43619</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43620</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="I3" s="64">
-        <v>43621</v>
-      </c>
-      <c r="J3" s="12">
-        <v>43621</v>
-      </c>
-      <c r="K3" s="34">
-        <v>43621</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="M3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="N3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="O3" s="15">
-        <v>43623</v>
-      </c>
-      <c r="P3" s="16">
-        <v>43623</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>43623</v>
-      </c>
-      <c r="R3" s="15">
-        <v>43626</v>
-      </c>
-      <c r="S3" s="16">
-        <v>43626</v>
-      </c>
-      <c r="T3" s="17">
-        <v>43626</v>
-      </c>
-      <c r="U3" s="15">
-        <v>43627</v>
-      </c>
-      <c r="V3" s="16">
-        <v>43627</v>
-      </c>
-      <c r="W3" s="17">
-        <v>43627</v>
-      </c>
-      <c r="X3" s="15">
-        <v>43628</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>43628</v>
-      </c>
-      <c r="Z3" s="17">
-        <v>43628</v>
-      </c>
-      <c r="AA3" s="15">
-        <v>43629</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>43629</v>
-      </c>
-      <c r="AC3" s="17">
-        <v>43629</v>
-      </c>
-      <c r="AD3" s="15">
-        <v>43630</v>
-      </c>
-      <c r="AE3" s="16">
-        <v>43630</v>
-      </c>
-      <c r="AF3" s="17">
-        <v>43630</v>
-      </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="17"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="16"/>
-      <c r="BJ3" s="17"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="16"/>
-      <c r="BM3" s="17"/>
-    </row>
-    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="49">
-        <v>46249</v>
-      </c>
-      <c r="C4" s="38">
-        <v>3.71</v>
-      </c>
-      <c r="D4" s="39">
-        <v>37.409999999999997</v>
-      </c>
-      <c r="E4" s="40">
-        <v>3741.25</v>
-      </c>
-      <c r="F4" s="38">
-        <v>3.65</v>
-      </c>
-      <c r="G4" s="39">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="H4" s="40">
-        <v>3755</v>
-      </c>
-      <c r="I4" s="41">
-        <v>3.67</v>
-      </c>
-      <c r="J4" s="37">
-        <v>37.51</v>
-      </c>
-      <c r="K4" s="42">
-        <v>3751.51</v>
-      </c>
-      <c r="L4" s="38">
-        <v>3.67</v>
-      </c>
-      <c r="M4" s="39">
-        <v>37.520000000000003</v>
-      </c>
-      <c r="N4" s="40">
-        <v>3752.34</v>
-      </c>
-      <c r="O4" s="38">
-        <v>3.54</v>
-      </c>
-      <c r="P4" s="39">
-        <v>37.78</v>
-      </c>
-      <c r="Q4" s="40">
-        <v>3778.4</v>
-      </c>
-      <c r="R4" s="38">
-        <v>3.52</v>
-      </c>
-      <c r="S4" s="39">
-        <v>37.83</v>
-      </c>
-      <c r="T4" s="40">
-        <v>3783.42</v>
-      </c>
-      <c r="U4" s="38">
-        <v>3.47</v>
-      </c>
-      <c r="V4" s="39">
-        <v>37.94</v>
-      </c>
-      <c r="W4" s="40">
-        <v>3794.99</v>
-      </c>
-      <c r="X4" s="38">
-        <v>3.44</v>
-      </c>
-      <c r="Y4" s="39">
-        <v>38.020000000000003</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>3802.21</v>
-      </c>
-      <c r="AA4" s="38">
-        <v>3.46</v>
-      </c>
-      <c r="AB4" s="39">
-        <v>37.979999999999997</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>3798.51</v>
-      </c>
-      <c r="AD4" s="38">
-        <v>3.45</v>
-      </c>
-      <c r="AE4" s="39">
-        <v>38.01</v>
-      </c>
-      <c r="AF4" s="40">
-        <v>3801.39</v>
-      </c>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="38"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="40"/>
-    </row>
-    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="49">
-        <v>49444</v>
-      </c>
-      <c r="C5" s="41">
-        <v>3.9</v>
-      </c>
-      <c r="D5" s="37">
-        <v>40.270000000000003</v>
-      </c>
-      <c r="E5" s="42">
-        <v>4027.51</v>
-      </c>
-      <c r="F5" s="41">
-        <v>3.83</v>
-      </c>
-      <c r="G5" s="37">
-        <v>40.58</v>
-      </c>
-      <c r="H5" s="42">
-        <v>4058.68</v>
-      </c>
-      <c r="I5" s="41">
-        <v>3.86</v>
-      </c>
-      <c r="J5" s="37">
-        <v>40.46</v>
-      </c>
-      <c r="K5" s="42">
-        <v>4046.61</v>
-      </c>
-      <c r="L5" s="41">
-        <v>3.87</v>
-      </c>
-      <c r="M5" s="37">
-        <v>40.43</v>
-      </c>
-      <c r="N5" s="42">
-        <v>4043.21</v>
-      </c>
-      <c r="O5" s="41">
-        <v>3.84</v>
-      </c>
-      <c r="P5" s="37">
-        <v>40.54</v>
-      </c>
-      <c r="Q5" s="42">
-        <v>4054</v>
-      </c>
-      <c r="R5" s="41">
-        <v>3.83</v>
-      </c>
-      <c r="S5" s="37">
-        <v>40.590000000000003</v>
-      </c>
-      <c r="T5" s="42">
-        <v>4059.11</v>
-      </c>
-      <c r="U5" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="V5" s="37">
-        <v>40.72</v>
-      </c>
-      <c r="W5" s="42">
-        <v>4072.92</v>
-      </c>
-      <c r="X5" s="41">
-        <v>3.78</v>
-      </c>
-      <c r="Y5" s="37">
-        <v>40.82</v>
-      </c>
-      <c r="Z5" s="42">
-        <v>4082.41</v>
-      </c>
-      <c r="AA5" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="AB5" s="37">
-        <v>40.74</v>
-      </c>
-      <c r="AC5" s="42">
-        <v>4074.47</v>
-      </c>
-      <c r="AD5" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="AE5" s="37">
-        <v>40.75</v>
-      </c>
-      <c r="AF5" s="42">
-        <v>4075.27</v>
-      </c>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="42"/>
-    </row>
-    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="50">
-        <v>55015</v>
-      </c>
-      <c r="C6" s="43">
-        <v>4.09</v>
-      </c>
-      <c r="D6" s="44">
-        <v>43.55</v>
-      </c>
-      <c r="E6" s="45">
-        <v>4355.7700000000004</v>
-      </c>
-      <c r="F6" s="43">
-        <v>3.98</v>
-      </c>
-      <c r="G6" s="44">
-        <v>44.33</v>
-      </c>
-      <c r="H6" s="45">
-        <v>4433.3999999999996</v>
-      </c>
-      <c r="I6" s="43">
-        <v>4.01</v>
-      </c>
-      <c r="J6" s="44">
-        <v>44.13</v>
-      </c>
-      <c r="K6" s="45">
-        <v>4413.34</v>
-      </c>
-      <c r="L6" s="43">
-        <v>4.05</v>
-      </c>
-      <c r="M6" s="44">
-        <v>43.86</v>
-      </c>
-      <c r="N6" s="45">
-        <v>4386.4799999999996</v>
-      </c>
-      <c r="O6" s="43">
-        <v>4.03</v>
-      </c>
-      <c r="P6" s="44">
-        <v>43.98</v>
-      </c>
-      <c r="Q6" s="45">
-        <v>4398.05</v>
-      </c>
-      <c r="R6" s="43">
-        <v>4.03</v>
-      </c>
-      <c r="S6" s="44">
-        <v>43.98</v>
-      </c>
-      <c r="T6" s="45">
-        <v>4398.93</v>
-      </c>
-      <c r="U6" s="43">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="V6" s="44">
-        <v>44.06</v>
-      </c>
-      <c r="W6" s="45">
-        <v>4406.7700000000004</v>
-      </c>
-      <c r="X6" s="43">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="44">
-        <v>44.21</v>
-      </c>
-      <c r="Z6" s="45">
-        <v>4421.6499999999996</v>
-      </c>
-      <c r="AA6" s="43">
-        <v>3.99</v>
-      </c>
-      <c r="AB6" s="44">
-        <v>44.29</v>
-      </c>
-      <c r="AC6" s="45">
-        <v>4429.54</v>
-      </c>
-      <c r="AD6" s="43">
-        <v>3.98</v>
-      </c>
-      <c r="AE6" s="44">
-        <v>44.37</v>
-      </c>
-      <c r="AF6" s="45">
-        <v>4437.49</v>
-      </c>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="45"/>
+      <c r="AG6" s="43">
+        <v>3.89</v>
+      </c>
+      <c r="AH6" s="44">
+        <v>36.15</v>
+      </c>
+      <c r="AI6" s="45">
+        <v>1205.02</v>
+      </c>
       <c r="AJ6" s="43"/>
       <c r="AK6" s="44"/>
       <c r="AL6" s="45"/>
@@ -52899,8 +52784,992 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AF6"/>
+    <sheetView topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="79"/>
+    </row>
+    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43619</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43620</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="I3" s="64">
+        <v>43621</v>
+      </c>
+      <c r="J3" s="12">
+        <v>43621</v>
+      </c>
+      <c r="K3" s="34">
+        <v>43621</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="O3" s="15">
+        <v>43623</v>
+      </c>
+      <c r="P3" s="16">
+        <v>43623</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>43623</v>
+      </c>
+      <c r="R3" s="15">
+        <v>43626</v>
+      </c>
+      <c r="S3" s="16">
+        <v>43626</v>
+      </c>
+      <c r="T3" s="17">
+        <v>43626</v>
+      </c>
+      <c r="U3" s="15">
+        <v>43627</v>
+      </c>
+      <c r="V3" s="16">
+        <v>43627</v>
+      </c>
+      <c r="W3" s="17">
+        <v>43627</v>
+      </c>
+      <c r="X3" s="15">
+        <v>43628</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>43628</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>43628</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>43629</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>43629</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>43629</v>
+      </c>
+      <c r="AD3" s="15">
+        <v>43630</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>43630</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>43630</v>
+      </c>
+      <c r="AG3" s="15">
+        <v>43631</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>43631</v>
+      </c>
+      <c r="AI3" s="17">
+        <v>43631</v>
+      </c>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="17"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="17"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="17"/>
+    </row>
+    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="49">
+        <v>46249</v>
+      </c>
+      <c r="C4" s="38">
+        <v>3.71</v>
+      </c>
+      <c r="D4" s="39">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="E4" s="40">
+        <v>3741.25</v>
+      </c>
+      <c r="F4" s="38">
+        <v>3.65</v>
+      </c>
+      <c r="G4" s="39">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="H4" s="40">
+        <v>3755</v>
+      </c>
+      <c r="I4" s="41">
+        <v>3.67</v>
+      </c>
+      <c r="J4" s="37">
+        <v>37.51</v>
+      </c>
+      <c r="K4" s="42">
+        <v>3751.51</v>
+      </c>
+      <c r="L4" s="38">
+        <v>3.67</v>
+      </c>
+      <c r="M4" s="39">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="N4" s="40">
+        <v>3752.34</v>
+      </c>
+      <c r="O4" s="38">
+        <v>3.54</v>
+      </c>
+      <c r="P4" s="39">
+        <v>37.78</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>3778.4</v>
+      </c>
+      <c r="R4" s="38">
+        <v>3.52</v>
+      </c>
+      <c r="S4" s="39">
+        <v>37.83</v>
+      </c>
+      <c r="T4" s="40">
+        <v>3783.42</v>
+      </c>
+      <c r="U4" s="38">
+        <v>3.47</v>
+      </c>
+      <c r="V4" s="39">
+        <v>37.94</v>
+      </c>
+      <c r="W4" s="40">
+        <v>3794.99</v>
+      </c>
+      <c r="X4" s="38">
+        <v>3.44</v>
+      </c>
+      <c r="Y4" s="39">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="Z4" s="40">
+        <v>3802.21</v>
+      </c>
+      <c r="AA4" s="38">
+        <v>3.46</v>
+      </c>
+      <c r="AB4" s="39">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="AC4" s="40">
+        <v>3798.51</v>
+      </c>
+      <c r="AD4" s="38">
+        <v>3.45</v>
+      </c>
+      <c r="AE4" s="39">
+        <v>38.01</v>
+      </c>
+      <c r="AF4" s="40">
+        <v>3801.39</v>
+      </c>
+      <c r="AG4" s="38">
+        <v>3.41</v>
+      </c>
+      <c r="AH4" s="39">
+        <v>38.1</v>
+      </c>
+      <c r="AI4" s="40">
+        <v>3810.65</v>
+      </c>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="40"/>
+    </row>
+    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="49">
+        <v>49444</v>
+      </c>
+      <c r="C5" s="41">
+        <v>3.9</v>
+      </c>
+      <c r="D5" s="37">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="E5" s="42">
+        <v>4027.51</v>
+      </c>
+      <c r="F5" s="41">
+        <v>3.83</v>
+      </c>
+      <c r="G5" s="37">
+        <v>40.58</v>
+      </c>
+      <c r="H5" s="42">
+        <v>4058.68</v>
+      </c>
+      <c r="I5" s="41">
+        <v>3.86</v>
+      </c>
+      <c r="J5" s="37">
+        <v>40.46</v>
+      </c>
+      <c r="K5" s="42">
+        <v>4046.61</v>
+      </c>
+      <c r="L5" s="41">
+        <v>3.87</v>
+      </c>
+      <c r="M5" s="37">
+        <v>40.43</v>
+      </c>
+      <c r="N5" s="42">
+        <v>4043.21</v>
+      </c>
+      <c r="O5" s="41">
+        <v>3.84</v>
+      </c>
+      <c r="P5" s="37">
+        <v>40.54</v>
+      </c>
+      <c r="Q5" s="42">
+        <v>4054</v>
+      </c>
+      <c r="R5" s="41">
+        <v>3.83</v>
+      </c>
+      <c r="S5" s="37">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="T5" s="42">
+        <v>4059.11</v>
+      </c>
+      <c r="U5" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="V5" s="37">
+        <v>40.72</v>
+      </c>
+      <c r="W5" s="42">
+        <v>4072.92</v>
+      </c>
+      <c r="X5" s="41">
+        <v>3.78</v>
+      </c>
+      <c r="Y5" s="37">
+        <v>40.82</v>
+      </c>
+      <c r="Z5" s="42">
+        <v>4082.41</v>
+      </c>
+      <c r="AA5" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="AB5" s="37">
+        <v>40.74</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>4074.47</v>
+      </c>
+      <c r="AD5" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>40.75</v>
+      </c>
+      <c r="AF5" s="42">
+        <v>4075.27</v>
+      </c>
+      <c r="AG5" s="41">
+        <v>3.78</v>
+      </c>
+      <c r="AH5" s="37">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="AI5" s="42">
+        <v>4084.6</v>
+      </c>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="42"/>
+    </row>
+    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="50">
+        <v>55015</v>
+      </c>
+      <c r="C6" s="43">
+        <v>4.09</v>
+      </c>
+      <c r="D6" s="44">
+        <v>43.55</v>
+      </c>
+      <c r="E6" s="45">
+        <v>4355.7700000000004</v>
+      </c>
+      <c r="F6" s="43">
+        <v>3.98</v>
+      </c>
+      <c r="G6" s="44">
+        <v>44.33</v>
+      </c>
+      <c r="H6" s="45">
+        <v>4433.3999999999996</v>
+      </c>
+      <c r="I6" s="43">
+        <v>4.01</v>
+      </c>
+      <c r="J6" s="44">
+        <v>44.13</v>
+      </c>
+      <c r="K6" s="45">
+        <v>4413.34</v>
+      </c>
+      <c r="L6" s="43">
+        <v>4.05</v>
+      </c>
+      <c r="M6" s="44">
+        <v>43.86</v>
+      </c>
+      <c r="N6" s="45">
+        <v>4386.4799999999996</v>
+      </c>
+      <c r="O6" s="43">
+        <v>4.03</v>
+      </c>
+      <c r="P6" s="44">
+        <v>43.98</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>4398.05</v>
+      </c>
+      <c r="R6" s="43">
+        <v>4.03</v>
+      </c>
+      <c r="S6" s="44">
+        <v>43.98</v>
+      </c>
+      <c r="T6" s="45">
+        <v>4398.93</v>
+      </c>
+      <c r="U6" s="43">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="V6" s="44">
+        <v>44.06</v>
+      </c>
+      <c r="W6" s="45">
+        <v>4406.7700000000004</v>
+      </c>
+      <c r="X6" s="43">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="44">
+        <v>44.21</v>
+      </c>
+      <c r="Z6" s="45">
+        <v>4421.6499999999996</v>
+      </c>
+      <c r="AA6" s="43">
+        <v>3.99</v>
+      </c>
+      <c r="AB6" s="44">
+        <v>44.29</v>
+      </c>
+      <c r="AC6" s="45">
+        <v>4429.54</v>
+      </c>
+      <c r="AD6" s="43">
+        <v>3.98</v>
+      </c>
+      <c r="AE6" s="44">
+        <v>44.37</v>
+      </c>
+      <c r="AF6" s="45">
+        <v>4437.49</v>
+      </c>
+      <c r="AG6" s="43">
+        <v>3.96</v>
+      </c>
+      <c r="AH6" s="44">
+        <v>44.52</v>
+      </c>
+      <c r="AI6" s="45">
+        <v>4452.32</v>
+      </c>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="43"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="43"/>
+      <c r="BF6" s="44"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="43"/>
+      <c r="BI6" s="44"/>
+      <c r="BJ6" s="45"/>
+      <c r="BK6" s="43"/>
+      <c r="BL6" s="44"/>
+      <c r="BM6" s="45"/>
+    </row>
+    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:BM1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM100"/>
+  <sheetViews>
+    <sheetView topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3:AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -52973,73 +53842,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="79"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -53333,9 +54202,15 @@
       <c r="AF3" s="17">
         <v>43630</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="17"/>
+      <c r="AG3" s="15">
+        <v>43631</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>43631</v>
+      </c>
+      <c r="AI3" s="17">
+        <v>43631</v>
+      </c>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="16"/>
       <c r="AL3" s="17"/>
@@ -53464,9 +54339,15 @@
       <c r="AF4" s="40">
         <v>851.17</v>
       </c>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="40"/>
+      <c r="AG4" s="38">
+        <v>6.5</v>
+      </c>
+      <c r="AH4" s="39">
+        <v>34.08</v>
+      </c>
+      <c r="AI4" s="40">
+        <v>852.19</v>
+      </c>
       <c r="AJ4" s="38"/>
       <c r="AK4" s="39"/>
       <c r="AL4" s="40"/>
@@ -53595,9 +54476,15 @@
       <c r="AF5" s="42">
         <v>670.43</v>
       </c>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="42"/>
+      <c r="AG5" s="41">
+        <v>7.45</v>
+      </c>
+      <c r="AH5" s="37">
+        <v>33.6</v>
+      </c>
+      <c r="AI5" s="42">
+        <v>672</v>
+      </c>
       <c r="AJ5" s="41"/>
       <c r="AK5" s="37"/>
       <c r="AL5" s="42"/>
@@ -53726,9 +54613,15 @@
       <c r="AF6" s="45">
         <v>1183.45</v>
       </c>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="45"/>
+      <c r="AG6" s="43">
+        <v>7.84</v>
+      </c>
+      <c r="AH6" s="44">
+        <v>35.53</v>
+      </c>
+      <c r="AI6" s="45">
+        <v>1184.51</v>
+      </c>
       <c r="AJ6" s="43"/>
       <c r="AK6" s="44"/>
       <c r="AL6" s="45"/>
@@ -53864,12 +54757,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AF4"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3:AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -53942,73 +54835,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="79"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -54302,9 +55195,15 @@
       <c r="AF3" s="17">
         <v>43630</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="17"/>
+      <c r="AG3" s="15">
+        <v>43631</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>43631</v>
+      </c>
+      <c r="AI3" s="17">
+        <v>43631</v>
+      </c>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="16"/>
       <c r="AL3" s="17"/>
@@ -54433,9 +55332,15 @@
       <c r="AF4" s="48">
         <v>10152.61</v>
       </c>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="48"/>
+      <c r="AG4" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="AH4" s="47">
+        <v>101.55</v>
+      </c>
+      <c r="AI4" s="48">
+        <v>10155.120000000001</v>
+      </c>
       <c r="AJ4" s="46"/>
       <c r="AK4" s="47"/>
       <c r="AL4" s="48"/>
@@ -54612,10 +55517,10 @@
       <c r="A2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -54723,10 +55628,10 @@
       <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -54783,10 +55688,10 @@
       <c r="A13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -54855,10 +55760,10 @@
       <c r="A2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -54966,10 +55871,10 @@
       <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -55026,10 +55931,10 @@
       <c r="A13" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -55097,10 +56002,10 @@
       <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -55208,10 +56113,10 @@
       <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -55268,10 +56173,10 @@
       <c r="A13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -55340,10 +56245,10 @@
       <c r="A2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -55451,10 +56356,10 @@
       <c r="A9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -55511,10 +56416,10 @@
       <c r="A13" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -55583,10 +56488,10 @@
       <c r="A2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -55694,10 +56599,10 @@
       <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -55754,10 +56659,10 @@
       <c r="A13" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -55825,10 +56730,10 @@
       <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -55936,10 +56841,10 @@
       <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -55996,10 +56901,10 @@
       <c r="A13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -56068,10 +56973,10 @@
       <c r="A2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -56179,10 +57084,10 @@
       <c r="A9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -56239,10 +57144,10 @@
       <c r="A13" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -56311,10 +57216,10 @@
       <c r="A2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -56422,10 +57327,10 @@
       <c r="A9" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -56482,10 +57387,10 @@
       <c r="A13" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">

--- a/TESOURO DIRETO_0619 - Compra.xlsx
+++ b/TESOURO DIRETO_0619 - Compra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="030619" sheetId="9" r:id="rId1"/>
@@ -22,19 +22,21 @@
     <sheet name="120619" sheetId="16" r:id="rId8"/>
     <sheet name="130619" sheetId="17" r:id="rId9"/>
     <sheet name="140619" sheetId="18" r:id="rId10"/>
-    <sheet name="150619" sheetId="19" r:id="rId11"/>
-    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId12"/>
-    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId13"/>
-    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId14"/>
-    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId15"/>
-    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId16"/>
+    <sheet name="170619" sheetId="19" r:id="rId11"/>
+    <sheet name="180619" sheetId="20" r:id="rId12"/>
+    <sheet name="190619" sheetId="21" r:id="rId13"/>
+    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId14"/>
+    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId15"/>
+    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId16"/>
+    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId17"/>
+    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="25">
   <si>
     <t>Vencimento</t>
   </si>
@@ -510,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -738,6 +740,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -813,6 +821,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -950,6 +959,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1011,7 +1021,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1109,6 +1125,12 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>3.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,6 +1231,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1270,7 +1293,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1367,6 +1396,12 @@
                   <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
                   <c:v>3.89</c:v>
                 </c:pt>
               </c:numCache>
@@ -1468,6 +1503,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1529,7 +1565,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1626,6 +1668,12 @@
                   <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
                   <c:v>3.89</c:v>
                 </c:pt>
               </c:numCache>
@@ -1727,6 +1775,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1788,7 +1837,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1886,6 +1941,12 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>3.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1986,6 +2047,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2047,7 +2109,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2144,6 +2212,12 @@
                   <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
                   <c:v>3.78</c:v>
                 </c:pt>
               </c:numCache>
@@ -2245,6 +2319,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2306,7 +2381,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2405,6 +2486,12 @@
                 <c:pt idx="10" formatCode="General">
                   <c:v>3.96</c:v>
                 </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>3.94</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2420,11 +2507,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1359465984"/>
-        <c:axId val="1359463264"/>
+        <c:axId val="1500953888"/>
+        <c:axId val="1500958784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1359465984"/>
+        <c:axId val="1500953888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,7 +2553,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1359463264"/>
+        <c:crossAx val="1500958784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2474,7 +2561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1359463264"/>
+        <c:axId val="1500958784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2611,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1359465984"/>
+        <c:crossAx val="1500953888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2538,6 +2625,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2794,7 +2882,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2892,6 +2986,12 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>3.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,8 +3029,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570117952"/>
-        <c:axId val="1570121216"/>
+        <c:axId val="1678275232"/>
+        <c:axId val="1678281216"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3085,7 +3185,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -3184,6 +3290,12 @@
                         <c:v>3.91</c:v>
                       </c:pt>
                       <c:pt idx="10" formatCode="General">
+                        <c:v>3.89</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>3.88</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
                         <c:v>3.89</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3344,7 +3456,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -3445,6 +3563,12 @@
                       <c:pt idx="10" formatCode="General">
                         <c:v>3.89</c:v>
                       </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>3.88</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>3.89</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3455,7 +3579,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570117952"/>
+        <c:axId val="1678275232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3489,7 +3613,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570121216"/>
+        <c:crossAx val="1678281216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3497,7 +3621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570121216"/>
+        <c:axId val="1678281216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3507,7 +3631,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570117952"/>
+        <c:crossAx val="1678275232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3598,7 +3722,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3703,7 +3826,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3765,7 +3887,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3863,6 +3991,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>36.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.159999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3900,8 +4034,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570127744"/>
-        <c:axId val="1570113600"/>
+        <c:axId val="1678277408"/>
+        <c:axId val="1678270880"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4056,7 +4190,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -4156,6 +4296,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>54.48</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>54.54</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>54.52</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4315,7 +4461,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -4416,6 +4568,12 @@
                       <c:pt idx="10">
                         <c:v>35.26</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>35.32</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>35.270000000000003</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4426,7 +4584,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570127744"/>
+        <c:axId val="1678277408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,7 +4618,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570113600"/>
+        <c:crossAx val="1678270880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4468,7 +4626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570113600"/>
+        <c:axId val="1678270880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4478,7 +4636,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570127744"/>
+        <c:crossAx val="1678277408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4492,7 +4650,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4796,7 +4953,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4894,6 +5057,12 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>3.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5040,7 +5209,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5137,6 +5312,12 @@
                   <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
                   <c:v>3.89</c:v>
                 </c:pt>
               </c:numCache>
@@ -5284,7 +5465,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5383,6 +5570,12 @@
                 <c:pt idx="10" formatCode="General">
                   <c:v>3.89</c:v>
                 </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>3.89</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5399,11 +5592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1570128288"/>
-        <c:axId val="1570121760"/>
+        <c:axId val="1678278496"/>
+        <c:axId val="1678279040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570128288"/>
+        <c:axId val="1678278496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5446,7 +5639,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570121760"/>
+        <c:crossAx val="1678279040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5454,7 +5647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570121760"/>
+        <c:axId val="1678279040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5464,7 +5657,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570128288"/>
+        <c:crossAx val="1678278496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5724,7 +5917,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5822,6 +6021,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3810.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3819.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3816.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5859,11 +6064,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570116864"/>
-        <c:axId val="1570119040"/>
+        <c:axId val="1678281760"/>
+        <c:axId val="1678282304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570116864"/>
+        <c:axId val="1678281760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5897,7 +6102,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570119040"/>
+        <c:crossAx val="1678282304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5905,7 +6110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570119040"/>
+        <c:axId val="1678282304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5915,7 +6120,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570116864"/>
+        <c:crossAx val="1678281760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6171,7 +6376,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -6269,6 +6480,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4084.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4089.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4085.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6306,8 +6523,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570119584"/>
-        <c:axId val="1570122848"/>
+        <c:axId val="1678282848"/>
+        <c:axId val="1678283392"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6462,7 +6679,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -6562,6 +6785,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>3810.65</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3819.93</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3816.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6721,7 +6950,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -6822,6 +7057,12 @@
                       <c:pt idx="10">
                         <c:v>4452.32</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4467.21</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4467.92</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6832,7 +7073,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570119584"/>
+        <c:axId val="1678282848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,7 +7107,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570122848"/>
+        <c:crossAx val="1678283392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6874,7 +7115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570122848"/>
+        <c:axId val="1678283392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6884,7 +7125,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570119584"/>
+        <c:crossAx val="1678282848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7140,7 +7381,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -7238,6 +7485,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4452.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4467.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4467.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7275,8 +7528,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570126112"/>
-        <c:axId val="1570123392"/>
+        <c:axId val="1678283936"/>
+        <c:axId val="1678284480"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7431,7 +7684,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -7531,6 +7790,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>3810.65</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3819.93</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3816.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7690,7 +7955,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -7791,6 +8062,12 @@
                       <c:pt idx="10">
                         <c:v>4084.6</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4089.58</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4085.84</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -7801,7 +8078,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570126112"/>
+        <c:axId val="1678283936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7835,7 +8112,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570123392"/>
+        <c:crossAx val="1678284480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7843,7 +8120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570123392"/>
+        <c:axId val="1678284480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7853,7 +8130,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570126112"/>
+        <c:crossAx val="1678283936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8111,7 +8388,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -8209,6 +8492,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8246,8 +8535,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570123936"/>
-        <c:axId val="1570124480"/>
+        <c:axId val="1678285568"/>
+        <c:axId val="1678286112"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -8402,7 +8691,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -8502,6 +8797,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>38.1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>38.19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>38.159999999999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8661,7 +8962,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -8762,6 +9069,12 @@
                       <c:pt idx="10">
                         <c:v>40.840000000000003</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>40.89</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>40.85</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8772,7 +9085,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570123936"/>
+        <c:axId val="1678285568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8806,7 +9119,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570124480"/>
+        <c:crossAx val="1678286112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8814,7 +9127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570124480"/>
+        <c:axId val="1678286112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8824,7 +9137,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570123936"/>
+        <c:crossAx val="1678285568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8916,7 +9229,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9021,7 +9333,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9083,7 +9394,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -9181,6 +9498,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>40.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9218,8 +9541,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582618880"/>
-        <c:axId val="1582605824"/>
+        <c:axId val="1678271424"/>
+        <c:axId val="1678271968"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9374,7 +9697,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -9474,6 +9803,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>38.1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>38.19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>38.159999999999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9633,7 +9968,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -9734,6 +10075,12 @@
                       <c:pt idx="10">
                         <c:v>44.52</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44.67</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44.67</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -9744,7 +10091,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582618880"/>
+        <c:axId val="1678271424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9778,7 +10125,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582605824"/>
+        <c:crossAx val="1678271968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9786,7 +10133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582605824"/>
+        <c:axId val="1678271968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9796,7 +10143,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582618880"/>
+        <c:crossAx val="1678271424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9810,7 +10157,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10053,7 +10399,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -10151,6 +10503,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.159999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10188,11 +10546,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582610176"/>
-        <c:axId val="1582618336"/>
+        <c:axId val="1678272512"/>
+        <c:axId val="1678273600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582610176"/>
+        <c:axId val="1678272512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10226,7 +10584,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582618336"/>
+        <c:crossAx val="1678273600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10234,7 +10592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582618336"/>
+        <c:axId val="1678273600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10244,7 +10602,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582610176"/>
+        <c:crossAx val="1678272512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10500,7 +10858,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -10598,6 +10962,12 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>3.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10635,8 +11005,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582610720"/>
-        <c:axId val="1582613440"/>
+        <c:axId val="1678273056"/>
+        <c:axId val="1691361424"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -10791,7 +11161,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -10890,6 +11266,12 @@
                         <c:v>3.8</c:v>
                       </c:pt>
                       <c:pt idx="10" formatCode="General">
+                        <c:v>3.78</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>3.77</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
                         <c:v>3.78</c:v>
                       </c:pt>
                     </c:numCache>
@@ -11050,7 +11432,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -11151,6 +11539,12 @@
                       <c:pt idx="10" formatCode="General">
                         <c:v>3.96</c:v>
                       </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>3.94</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>3.94</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -11161,7 +11555,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582610720"/>
+        <c:axId val="1678273056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11195,7 +11589,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582613440"/>
+        <c:crossAx val="1691361424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11203,7 +11597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582613440"/>
+        <c:axId val="1691361424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11213,7 +11607,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582610720"/>
+        <c:crossAx val="1678273056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11444,6 +11838,12 @@
                   <c:pt idx="10">
                     <c:v>15/jun</c:v>
                   </c:pt>
+                  <c:pt idx="11">
+                    <c:v>16/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11540,6 +11940,12 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>6.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11626,6 +12032,12 @@
                   <c:pt idx="10">
                     <c:v>15/jun</c:v>
                   </c:pt>
+                  <c:pt idx="11">
+                    <c:v>16/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11722,6 +12134,12 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11808,6 +12226,12 @@
                   <c:pt idx="10">
                     <c:v>15/jun</c:v>
                   </c:pt>
+                  <c:pt idx="11">
+                    <c:v>16/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11905,6 +12329,12 @@
                 <c:pt idx="10" formatCode="General">
                   <c:v>7.84</c:v>
                 </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>7.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11919,11 +12349,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="1359464352"/>
-        <c:axId val="1570114688"/>
+        <c:axId val="1500960960"/>
+        <c:axId val="1500963680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1359464352"/>
+        <c:axId val="1500960960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11984,7 +12414,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570114688"/>
+        <c:crossAx val="1500963680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11992,7 +12422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570114688"/>
+        <c:axId val="1500963680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12053,7 +12483,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1359464352"/>
+        <c:crossAx val="1500960960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12150,7 +12580,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12255,7 +12684,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12317,7 +12745,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -12414,6 +12848,12 @@
                   <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
                   <c:v>3.78</c:v>
                 </c:pt>
               </c:numCache>
@@ -12452,8 +12892,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582604192"/>
-        <c:axId val="1582616160"/>
+        <c:axId val="1691362512"/>
+        <c:axId val="1691357616"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12608,7 +13048,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -12708,6 +13154,12 @@
                       </c:pt>
                       <c:pt idx="10" formatCode="General">
                         <c:v>3.41</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>3.37</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>3.39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12867,7 +13319,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -12968,6 +13426,12 @@
                       <c:pt idx="10" formatCode="General">
                         <c:v>3.96</c:v>
                       </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>3.94</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>3.94</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -12978,7 +13442,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582604192"/>
+        <c:axId val="1691362512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13012,7 +13476,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582616160"/>
+        <c:crossAx val="1691357616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13020,7 +13484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582616160"/>
+        <c:axId val="1691357616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13030,7 +13494,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582604192"/>
+        <c:crossAx val="1691362512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13044,7 +13508,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13289,7 +13752,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -13387,6 +13856,12 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>3.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13424,8 +13899,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582606368"/>
-        <c:axId val="1582611808"/>
+        <c:axId val="1691358704"/>
+        <c:axId val="1691354352"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13580,7 +14055,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -13680,6 +14161,12 @@
                       </c:pt>
                       <c:pt idx="10" formatCode="General">
                         <c:v>3.41</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>3.37</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>3.39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13839,7 +14326,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -13940,6 +14433,12 @@
                       <c:pt idx="10" formatCode="General">
                         <c:v>3.78</c:v>
                       </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>3.77</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>3.78</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -13950,7 +14449,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582606368"/>
+        <c:axId val="1691358704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13984,7 +14483,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582611808"/>
+        <c:crossAx val="1691354352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13992,7 +14491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582611808"/>
+        <c:axId val="1691354352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14002,7 +14501,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582606368"/>
+        <c:crossAx val="1691358704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14259,7 +14758,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -14357,6 +14862,12 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>6.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14394,8 +14905,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582616704"/>
-        <c:axId val="1582612352"/>
+        <c:axId val="1691359248"/>
+        <c:axId val="1691355984"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -14550,7 +15061,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -14650,6 +15167,12 @@
                       </c:pt>
                       <c:pt idx="10" formatCode="General">
                         <c:v>7.45</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>7.46</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>7.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14809,7 +15332,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -14910,6 +15439,12 @@
                       <c:pt idx="10" formatCode="General">
                         <c:v>7.84</c:v>
                       </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>7.86</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>7.9</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -14920,7 +15455,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582616704"/>
+        <c:axId val="1691359248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14954,7 +15489,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582612352"/>
+        <c:crossAx val="1691355984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14962,7 +15497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582612352"/>
+        <c:axId val="1691355984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14972,7 +15507,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582616704"/>
+        <c:crossAx val="1691359248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15063,7 +15598,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15168,7 +15702,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15230,7 +15763,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -15328,6 +15867,12 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15365,8 +15910,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582604736"/>
-        <c:axId val="1582608000"/>
+        <c:axId val="1691352720"/>
+        <c:axId val="1691356528"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -15521,7 +16066,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -15621,6 +16172,12 @@
                       </c:pt>
                       <c:pt idx="10" formatCode="General">
                         <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>6.51</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>6.54</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15780,7 +16337,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -15881,6 +16444,12 @@
                       <c:pt idx="10" formatCode="General">
                         <c:v>7.84</c:v>
                       </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>7.86</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>7.9</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -15891,7 +16460,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582604736"/>
+        <c:axId val="1691352720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15925,7 +16494,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582608000"/>
+        <c:crossAx val="1691356528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15933,7 +16502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582608000"/>
+        <c:axId val="1691356528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15943,7 +16512,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582604736"/>
+        <c:crossAx val="1691352720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15957,7 +16526,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16202,7 +16770,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -16300,6 +16874,12 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>7.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16337,8 +16917,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582617248"/>
-        <c:axId val="1582608544"/>
+        <c:axId val="1691359792"/>
+        <c:axId val="1691363056"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -16493,7 +17073,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -16593,6 +17179,12 @@
                       </c:pt>
                       <c:pt idx="10" formatCode="General">
                         <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>6.51</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>6.54</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16752,7 +17344,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -16853,6 +17451,12 @@
                       <c:pt idx="10" formatCode="General">
                         <c:v>7.45</c:v>
                       </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>7.46</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>7.5</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -16863,7 +17467,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582617248"/>
+        <c:axId val="1691359792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16897,7 +17501,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582608544"/>
+        <c:crossAx val="1691363056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16905,7 +17509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582608544"/>
+        <c:axId val="1691363056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16915,7 +17519,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582617248"/>
+        <c:crossAx val="1691359792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17172,7 +17776,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -17270,6 +17880,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>34.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17307,8 +17923,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582617792"/>
-        <c:axId val="1582619424"/>
+        <c:axId val="1691357072"/>
+        <c:axId val="1691365232"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -17463,7 +18079,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -17563,6 +18185,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>33.6</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>33.590000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>33.53</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17722,7 +18350,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -17823,6 +18457,12 @@
                       <c:pt idx="10">
                         <c:v>35.53</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>35.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>35.43</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -17833,7 +18473,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582617792"/>
+        <c:axId val="1691357072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17867,7 +18507,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582619424"/>
+        <c:crossAx val="1691365232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17875,7 +18515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582619424"/>
+        <c:axId val="1691365232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17885,7 +18525,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582617792"/>
+        <c:crossAx val="1691357072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18141,7 +18781,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -18239,6 +18885,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18276,8 +18928,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582606912"/>
-        <c:axId val="1582605280"/>
+        <c:axId val="1691360336"/>
+        <c:axId val="1691366320"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -18432,7 +19084,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -18532,6 +19190,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>34.08</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>34.08</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>34.07</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18691,7 +19355,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -18792,6 +19462,12 @@
                       <c:pt idx="10">
                         <c:v>35.53</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>35.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>35.43</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -18802,7 +19478,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582606912"/>
+        <c:axId val="1691360336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18836,7 +19512,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582605280"/>
+        <c:crossAx val="1691366320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18844,7 +19520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582605280"/>
+        <c:axId val="1691366320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18854,7 +19530,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582606912"/>
+        <c:crossAx val="1691360336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19112,7 +19788,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -19210,6 +19892,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>35.53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19247,8 +19935,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582614528"/>
-        <c:axId val="1582607456"/>
+        <c:axId val="1691358160"/>
+        <c:axId val="1691366864"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -19403,7 +20091,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -19503,6 +20197,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>34.08</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>34.08</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>34.07</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19662,7 +20362,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -19763,6 +20469,12 @@
                       <c:pt idx="10">
                         <c:v>33.6</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>33.590000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>33.53</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -19773,7 +20485,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582614528"/>
+        <c:axId val="1691358160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19807,7 +20519,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582607456"/>
+        <c:crossAx val="1691366864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19815,7 +20527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582607456"/>
+        <c:axId val="1691366864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19825,7 +20537,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582614528"/>
+        <c:crossAx val="1691358160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20082,7 +20794,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -20180,6 +20898,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1184.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1183.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1181.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20217,8 +20941,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582611264"/>
-        <c:axId val="1582609088"/>
+        <c:axId val="1691363600"/>
+        <c:axId val="1691354896"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -20373,7 +21097,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -20473,6 +21203,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>852.19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>852.2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>851.81</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20632,7 +21368,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -20733,6 +21475,12 @@
                       <c:pt idx="10">
                         <c:v>672</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>671.85</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>670.66</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -20743,7 +21491,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582611264"/>
+        <c:axId val="1691363600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20777,7 +21525,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582609088"/>
+        <c:crossAx val="1691354896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20785,7 +21533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582609088"/>
+        <c:axId val="1691354896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20795,7 +21543,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582611264"/>
+        <c:crossAx val="1691363600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21051,7 +21799,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -21149,6 +21903,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>671.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>670.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21186,8 +21946,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582612896"/>
-        <c:axId val="1582613984"/>
+        <c:axId val="1691365776"/>
+        <c:axId val="1691360880"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -21342,7 +22102,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -21442,6 +22208,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>852.19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>852.2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>851.81</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -21601,7 +22373,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -21702,6 +22480,12 @@
                       <c:pt idx="10">
                         <c:v>1184.51</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1183.47</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1181.04</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -21712,7 +22496,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582612896"/>
+        <c:axId val="1691365776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21746,7 +22530,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582613984"/>
+        <c:crossAx val="1691360880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21754,7 +22538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582613984"/>
+        <c:axId val="1691360880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21764,7 +22548,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582612896"/>
+        <c:crossAx val="1691365776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22020,7 +22804,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -22118,6 +22908,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>54.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22155,11 +22951,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570125024"/>
-        <c:axId val="1570113056"/>
+        <c:axId val="1500961504"/>
+        <c:axId val="1500964224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570125024"/>
+        <c:axId val="1500961504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22193,7 +22989,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570113056"/>
+        <c:crossAx val="1500964224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22201,7 +22997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570113056"/>
+        <c:axId val="1500964224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22211,7 +23007,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570125024"/>
+        <c:crossAx val="1500961504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22467,7 +23263,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -22565,6 +23367,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>852.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>852.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>851.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22602,8 +23410,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1582615072"/>
-        <c:axId val="1582615616"/>
+        <c:axId val="1691361968"/>
+        <c:axId val="1691364144"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -22758,7 +23566,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -22858,6 +23672,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>672</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>671.85</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>670.66</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -23017,7 +23837,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -23118,6 +23944,12 @@
                       <c:pt idx="10">
                         <c:v>1184.51</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1183.47</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1181.04</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -23128,7 +23960,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582615072"/>
+        <c:axId val="1691361968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23162,7 +23994,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582615616"/>
+        <c:crossAx val="1691364144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23170,7 +24002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582615616"/>
+        <c:axId val="1691364144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23180,7 +24012,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582615072"/>
+        <c:crossAx val="1691361968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23446,7 +24278,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -23543,6 +24381,12 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
                   <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
@@ -23582,11 +24426,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1359467072"/>
-        <c:axId val="1530229792"/>
+        <c:axId val="1691353808"/>
+        <c:axId val="1691353264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1359467072"/>
+        <c:axId val="1691353808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23620,7 +24464,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1530229792"/>
+        <c:crossAx val="1691353264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23628,7 +24472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1530229792"/>
+        <c:axId val="1691353264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23638,7 +24482,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1359467072"/>
+        <c:crossAx val="1691353808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23866,7 +24710,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -23964,6 +24814,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>101.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24001,11 +24857,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1584799728"/>
-        <c:axId val="1584804624"/>
+        <c:axId val="1691364688"/>
+        <c:axId val="1691351632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1584799728"/>
+        <c:axId val="1691364688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24039,7 +24895,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1584804624"/>
+        <c:crossAx val="1691351632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24047,7 +24903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1584804624"/>
+        <c:axId val="1691351632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24057,7 +24913,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1584799728"/>
+        <c:crossAx val="1691364688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24285,7 +25141,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -24383,6 +25245,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10155.120000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10157.620000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10160.129999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24420,11 +25288,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1584806800"/>
-        <c:axId val="1584805712"/>
+        <c:axId val="1691355440"/>
+        <c:axId val="1691352176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1584806800"/>
+        <c:axId val="1691355440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24458,7 +25326,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1584805712"/>
+        <c:crossAx val="1691352176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24466,7 +25334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1584805712"/>
+        <c:axId val="1691352176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24476,7 +25344,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1584806800"/>
+        <c:crossAx val="1691355440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24704,7 +25572,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -24802,6 +25676,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>35.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.270000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24839,11 +25719,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570117408"/>
-        <c:axId val="1570120672"/>
+        <c:axId val="1500966400"/>
+        <c:axId val="1400034272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570117408"/>
+        <c:axId val="1500966400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24877,7 +25757,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570120672"/>
+        <c:crossAx val="1400034272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24885,7 +25765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570120672"/>
+        <c:axId val="1400034272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24895,7 +25775,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570117408"/>
+        <c:crossAx val="1500966400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25151,7 +26031,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -25249,6 +26135,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1763.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1766.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1763.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25286,11 +26178,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570125568"/>
-        <c:axId val="1570115776"/>
+        <c:axId val="1678280128"/>
+        <c:axId val="1678279584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570125568"/>
+        <c:axId val="1678280128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25324,7 +26216,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570115776"/>
+        <c:crossAx val="1678279584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25332,7 +26224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570115776"/>
+        <c:axId val="1678279584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25342,7 +26234,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570125568"/>
+        <c:crossAx val="1678280128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25598,7 +26490,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -25696,6 +26594,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1205.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1208.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1205.3900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25733,11 +26637,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570118496"/>
-        <c:axId val="1570126656"/>
+        <c:axId val="1678275776"/>
+        <c:axId val="1678280672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570118496"/>
+        <c:axId val="1678275776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25771,7 +26675,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570126656"/>
+        <c:crossAx val="1678280672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25779,7 +26683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570126656"/>
+        <c:axId val="1678280672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25789,7 +26693,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570118496"/>
+        <c:crossAx val="1678275776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26045,7 +26949,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -26143,6 +27053,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2724.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2727.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2726.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26180,8 +27096,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570114144"/>
-        <c:axId val="1570127200"/>
+        <c:axId val="1678285024"/>
+        <c:axId val="1678276864"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -26336,7 +27252,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -26436,6 +27358,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>1763.07</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1766.04</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1763.63</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -26595,7 +27523,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -26696,6 +27630,12 @@
                       <c:pt idx="10">
                         <c:v>1205.02</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1208.2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1205.3900000000001</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -26706,7 +27646,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570114144"/>
+        <c:axId val="1678285024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26740,7 +27680,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570127200"/>
+        <c:crossAx val="1678276864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26748,7 +27688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570127200"/>
+        <c:axId val="1678276864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26758,7 +27698,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570114144"/>
+        <c:crossAx val="1678285024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26849,7 +27789,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26954,7 +27893,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -27016,7 +27954,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -27113,6 +28057,12 @@
                   <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
                   <c:v>3.89</c:v>
                 </c:pt>
               </c:numCache>
@@ -27151,8 +28101,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570122304"/>
-        <c:axId val="1570115232"/>
+        <c:axId val="1678277952"/>
+        <c:axId val="1678276320"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -27307,7 +28257,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -27407,6 +28363,12 @@
                       </c:pt>
                       <c:pt idx="10" formatCode="General">
                         <c:v>3.36</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>3.34</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>3.35</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -27566,7 +28528,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -27667,6 +28635,12 @@
                       <c:pt idx="10" formatCode="General">
                         <c:v>3.89</c:v>
                       </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>3.88</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>3.89</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -27677,7 +28651,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570122304"/>
+        <c:axId val="1678277952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27711,7 +28685,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570115232"/>
+        <c:crossAx val="1678276320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27719,7 +28693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570115232"/>
+        <c:axId val="1678276320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27729,7 +28703,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570122304"/>
+        <c:crossAx val="1678277952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27743,7 +28717,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -27986,7 +28959,13 @@
                     <c:v>14/jun</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>15/jun</c:v>
+                    <c:v>17/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18/jun</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>19/jun</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -28083,6 +29062,12 @@
                   <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
                   <c:v>3.89</c:v>
                 </c:pt>
               </c:numCache>
@@ -28121,8 +29106,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1570120128"/>
-        <c:axId val="1570116320"/>
+        <c:axId val="1678274144"/>
+        <c:axId val="1678274688"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -28277,7 +29262,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -28377,6 +29368,12 @@
                       </c:pt>
                       <c:pt idx="10" formatCode="General">
                         <c:v>3.36</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>3.34</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>3.35</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -28536,7 +29533,13 @@
                           <c:v>14/jun</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>15/jun</c:v>
+                          <c:v>17/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>18/jun</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>19/jun</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -28637,6 +29640,12 @@
                       <c:pt idx="10" formatCode="General">
                         <c:v>3.89</c:v>
                       </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>3.88</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>3.89</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -28647,7 +29656,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1570120128"/>
+        <c:axId val="1678274144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28681,7 +29690,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1570116320"/>
+        <c:crossAx val="1678274688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28689,7 +29698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1570116320"/>
+        <c:axId val="1678274688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28699,7 +29708,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570120128"/>
+        <c:crossAx val="1678274144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -48351,10 +49360,10 @@
       <c r="A2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -48462,10 +49471,10 @@
       <c r="A9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -48522,10 +49531,10 @@
       <c r="A13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -48594,10 +49603,10 @@
       <c r="A2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -48705,10 +49714,10 @@
       <c r="A9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -48765,10 +49774,10 @@
       <c r="A13" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -48837,10 +49846,10 @@
       <c r="A2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -48948,10 +49957,10 @@
       <c r="A9" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -49008,10 +50017,10 @@
       <c r="A13" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -49043,13 +50052,499 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="57">
+        <v>45519</v>
+      </c>
+      <c r="C3" s="58">
+        <v>3.34</v>
+      </c>
+      <c r="D3" s="37">
+        <v>54.54</v>
+      </c>
+      <c r="E3" s="37">
+        <v>2727.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="57">
+        <v>49444</v>
+      </c>
+      <c r="C4" s="58">
+        <v>3.88</v>
+      </c>
+      <c r="D4" s="37">
+        <v>35.32</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1766.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="57">
+        <v>53097</v>
+      </c>
+      <c r="C5" s="58">
+        <v>3.88</v>
+      </c>
+      <c r="D5" s="37">
+        <v>36.24</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1208.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="57">
+        <v>46249</v>
+      </c>
+      <c r="C6" s="58">
+        <v>3.37</v>
+      </c>
+      <c r="D6" s="37">
+        <v>38.19</v>
+      </c>
+      <c r="E6" s="37">
+        <v>3819.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="57">
+        <v>49444</v>
+      </c>
+      <c r="C7" s="58">
+        <v>3.77</v>
+      </c>
+      <c r="D7" s="37">
+        <v>40.89</v>
+      </c>
+      <c r="E7" s="37">
+        <v>4089.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="57">
+        <v>55015</v>
+      </c>
+      <c r="C8" s="58">
+        <v>3.94</v>
+      </c>
+      <c r="D8" s="37">
+        <v>44.67</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4467.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="57">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="58">
+        <v>6.51</v>
+      </c>
+      <c r="D10" s="37">
+        <v>34.08</v>
+      </c>
+      <c r="E10" s="37">
+        <v>852.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="57">
+        <v>45658</v>
+      </c>
+      <c r="C11" s="58">
+        <v>7.46</v>
+      </c>
+      <c r="D11" s="37">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="E11" s="37">
+        <v>671.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="57">
+        <v>47119</v>
+      </c>
+      <c r="C12" s="58">
+        <v>7.86</v>
+      </c>
+      <c r="D12" s="37">
+        <v>35.5</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1183.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="57">
+        <v>45717</v>
+      </c>
+      <c r="C14" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="37">
+        <v>101.57</v>
+      </c>
+      <c r="E14" s="37">
+        <v>10157.620000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="57">
+        <v>45519</v>
+      </c>
+      <c r="C3" s="58">
+        <v>3.35</v>
+      </c>
+      <c r="D3" s="37">
+        <v>54.52</v>
+      </c>
+      <c r="E3" s="37">
+        <v>2726.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="57">
+        <v>49444</v>
+      </c>
+      <c r="C4" s="58">
+        <v>3.89</v>
+      </c>
+      <c r="D4" s="37">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1763.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="57">
+        <v>53097</v>
+      </c>
+      <c r="C5" s="58">
+        <v>3.89</v>
+      </c>
+      <c r="D5" s="37">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1205.3900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="57">
+        <v>46249</v>
+      </c>
+      <c r="C6" s="58">
+        <v>3.39</v>
+      </c>
+      <c r="D6" s="37">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="E6" s="37">
+        <v>3816.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="57">
+        <v>49444</v>
+      </c>
+      <c r="C7" s="58">
+        <v>3.78</v>
+      </c>
+      <c r="D7" s="37">
+        <v>40.85</v>
+      </c>
+      <c r="E7" s="37">
+        <v>4085.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="57">
+        <v>55015</v>
+      </c>
+      <c r="C8" s="58">
+        <v>3.94</v>
+      </c>
+      <c r="D8" s="37">
+        <v>44.67</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4467.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="57">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="58">
+        <v>6.54</v>
+      </c>
+      <c r="D10" s="37">
+        <v>34.07</v>
+      </c>
+      <c r="E10" s="37">
+        <v>851.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="57">
+        <v>45658</v>
+      </c>
+      <c r="C11" s="58">
+        <v>7.5</v>
+      </c>
+      <c r="D11" s="37">
+        <v>33.53</v>
+      </c>
+      <c r="E11" s="37">
+        <v>670.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="57">
+        <v>47119</v>
+      </c>
+      <c r="C12" s="58">
+        <v>7.9</v>
+      </c>
+      <c r="D12" s="37">
+        <v>35.43</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1181.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="57">
+        <v>45717</v>
+      </c>
+      <c r="C14" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="37">
+        <v>101.6</v>
+      </c>
+      <c r="E14" s="37">
+        <v>10160.129999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12:AI15"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12:AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -49122,73 +50617,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="78"/>
-      <c r="BM1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="81"/>
     </row>
     <row r="2" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
@@ -49483,20 +50978,32 @@
         <v>43630</v>
       </c>
       <c r="AG3" s="15">
-        <v>43631</v>
+        <v>43633</v>
       </c>
       <c r="AH3" s="16">
-        <v>43631</v>
+        <v>43633</v>
       </c>
       <c r="AI3" s="17">
-        <v>43631</v>
-      </c>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
+        <v>43633</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>43634</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>43634</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>43634</v>
+      </c>
+      <c r="AM3" s="15">
+        <v>43635</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>43635</v>
+      </c>
+      <c r="AO3" s="16">
+        <v>43635</v>
+      </c>
       <c r="AP3" s="52"/>
       <c r="AQ3" s="16"/>
       <c r="AR3" s="17"/>
@@ -49628,12 +51135,24 @@
       <c r="AI4" s="40">
         <v>2724.04</v>
       </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="40"/>
+      <c r="AJ4" s="38">
+        <v>3.34</v>
+      </c>
+      <c r="AK4" s="39">
+        <v>54.54</v>
+      </c>
+      <c r="AL4" s="40">
+        <v>2727.12</v>
+      </c>
+      <c r="AM4" s="38">
+        <v>3.35</v>
+      </c>
+      <c r="AN4" s="39">
+        <v>54.52</v>
+      </c>
+      <c r="AO4" s="40">
+        <v>2726.14</v>
+      </c>
       <c r="AP4" s="38"/>
       <c r="AQ4" s="39"/>
       <c r="AR4" s="40"/>
@@ -49765,12 +51284,24 @@
       <c r="AI5" s="42">
         <v>1763.07</v>
       </c>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="42"/>
+      <c r="AJ5" s="41">
+        <v>3.88</v>
+      </c>
+      <c r="AK5" s="37">
+        <v>35.32</v>
+      </c>
+      <c r="AL5" s="42">
+        <v>1766.04</v>
+      </c>
+      <c r="AM5" s="41">
+        <v>3.89</v>
+      </c>
+      <c r="AN5" s="37">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="AO5" s="42">
+        <v>1763.63</v>
+      </c>
       <c r="AP5" s="41"/>
       <c r="AQ5" s="37"/>
       <c r="AR5" s="42"/>
@@ -49902,12 +51433,24 @@
       <c r="AI6" s="42">
         <v>1205.02</v>
       </c>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="42"/>
+      <c r="AJ6" s="41">
+        <v>3.88</v>
+      </c>
+      <c r="AK6" s="37">
+        <v>36.24</v>
+      </c>
+      <c r="AL6" s="42">
+        <v>1208.2</v>
+      </c>
+      <c r="AM6" s="41">
+        <v>3.89</v>
+      </c>
+      <c r="AN6" s="37">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="AO6" s="42">
+        <v>1205.3900000000001</v>
+      </c>
       <c r="AP6" s="41"/>
       <c r="AQ6" s="37"/>
       <c r="AR6" s="42"/>
@@ -50039,12 +51582,24 @@
       <c r="AI7" s="42">
         <v>3810.65</v>
       </c>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="42"/>
+      <c r="AJ7" s="41">
+        <v>3.37</v>
+      </c>
+      <c r="AK7" s="37">
+        <v>38.19</v>
+      </c>
+      <c r="AL7" s="42">
+        <v>3819.93</v>
+      </c>
+      <c r="AM7" s="41">
+        <v>3.39</v>
+      </c>
+      <c r="AN7" s="37">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="AO7" s="42">
+        <v>3816.08</v>
+      </c>
       <c r="AP7" s="41"/>
       <c r="AQ7" s="37"/>
       <c r="AR7" s="42"/>
@@ -50176,12 +51731,24 @@
       <c r="AI8" s="42">
         <v>4084.6</v>
       </c>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="41"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="42"/>
+      <c r="AJ8" s="41">
+        <v>3.77</v>
+      </c>
+      <c r="AK8" s="37">
+        <v>40.89</v>
+      </c>
+      <c r="AL8" s="42">
+        <v>4089.58</v>
+      </c>
+      <c r="AM8" s="41">
+        <v>3.78</v>
+      </c>
+      <c r="AN8" s="37">
+        <v>40.85</v>
+      </c>
+      <c r="AO8" s="42">
+        <v>4085.84</v>
+      </c>
       <c r="AP8" s="41"/>
       <c r="AQ8" s="37"/>
       <c r="AR8" s="42"/>
@@ -50313,12 +51880,24 @@
       <c r="AI9" s="45">
         <v>4452.32</v>
       </c>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="42"/>
+      <c r="AJ9" s="43">
+        <v>3.94</v>
+      </c>
+      <c r="AK9" s="44">
+        <v>44.67</v>
+      </c>
+      <c r="AL9" s="45">
+        <v>4467.21</v>
+      </c>
+      <c r="AM9" s="43">
+        <v>3.94</v>
+      </c>
+      <c r="AN9" s="44">
+        <v>44.67</v>
+      </c>
+      <c r="AO9" s="45">
+        <v>4467.92</v>
+      </c>
       <c r="AP9" s="41"/>
       <c r="AQ9" s="37"/>
       <c r="AR9" s="42"/>
@@ -50345,73 +51924,73 @@
       <c r="BM9" s="45"/>
     </row>
     <row r="10" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="78"/>
-      <c r="AO10" s="78"/>
-      <c r="AP10" s="78"/>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="78"/>
-      <c r="AS10" s="78"/>
-      <c r="AT10" s="78"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="78"/>
-      <c r="AZ10" s="78"/>
-      <c r="BA10" s="78"/>
-      <c r="BB10" s="78"/>
-      <c r="BC10" s="78"/>
-      <c r="BD10" s="78"/>
-      <c r="BE10" s="78"/>
-      <c r="BF10" s="78"/>
-      <c r="BG10" s="78"/>
-      <c r="BH10" s="78"/>
-      <c r="BI10" s="78"/>
-      <c r="BJ10" s="78"/>
-      <c r="BK10" s="78"/>
-      <c r="BL10" s="78"/>
-      <c r="BM10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="80"/>
+      <c r="AK10" s="80"/>
+      <c r="AL10" s="80"/>
+      <c r="AM10" s="80"/>
+      <c r="AN10" s="80"/>
+      <c r="AO10" s="80"/>
+      <c r="AP10" s="80"/>
+      <c r="AQ10" s="80"/>
+      <c r="AR10" s="80"/>
+      <c r="AS10" s="80"/>
+      <c r="AT10" s="80"/>
+      <c r="AU10" s="80"/>
+      <c r="AV10" s="80"/>
+      <c r="AW10" s="80"/>
+      <c r="AX10" s="80"/>
+      <c r="AY10" s="80"/>
+      <c r="AZ10" s="80"/>
+      <c r="BA10" s="80"/>
+      <c r="BB10" s="80"/>
+      <c r="BC10" s="80"/>
+      <c r="BD10" s="80"/>
+      <c r="BE10" s="80"/>
+      <c r="BF10" s="80"/>
+      <c r="BG10" s="80"/>
+      <c r="BH10" s="80"/>
+      <c r="BI10" s="80"/>
+      <c r="BJ10" s="80"/>
+      <c r="BK10" s="80"/>
+      <c r="BL10" s="80"/>
+      <c r="BM10" s="81"/>
     </row>
     <row r="11" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
@@ -50714,12 +52293,24 @@
       <c r="AI12" s="17">
         <v>43631</v>
       </c>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
+      <c r="AJ12" s="15">
+        <v>43632</v>
+      </c>
+      <c r="AK12" s="16">
+        <v>43632</v>
+      </c>
+      <c r="AL12" s="17">
+        <v>43632</v>
+      </c>
+      <c r="AM12" s="15">
+        <v>43635</v>
+      </c>
+      <c r="AN12" s="16">
+        <v>43635</v>
+      </c>
+      <c r="AO12" s="16">
+        <v>43635</v>
+      </c>
       <c r="AP12" s="52"/>
       <c r="AQ12" s="16"/>
       <c r="AR12" s="17"/>
@@ -50851,12 +52442,24 @@
       <c r="AI13" s="40">
         <v>852.19</v>
       </c>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="40"/>
+      <c r="AJ13" s="38">
+        <v>6.51</v>
+      </c>
+      <c r="AK13" s="39">
+        <v>34.08</v>
+      </c>
+      <c r="AL13" s="40">
+        <v>852.2</v>
+      </c>
+      <c r="AM13" s="38">
+        <v>6.54</v>
+      </c>
+      <c r="AN13" s="39">
+        <v>34.07</v>
+      </c>
+      <c r="AO13" s="40">
+        <v>851.81</v>
+      </c>
       <c r="AP13" s="38"/>
       <c r="AQ13" s="39"/>
       <c r="AR13" s="40"/>
@@ -50988,12 +52591,24 @@
       <c r="AI14" s="42">
         <v>672</v>
       </c>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="42"/>
+      <c r="AJ14" s="41">
+        <v>7.46</v>
+      </c>
+      <c r="AK14" s="37">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="AL14" s="42">
+        <v>671.85</v>
+      </c>
+      <c r="AM14" s="41">
+        <v>7.5</v>
+      </c>
+      <c r="AN14" s="37">
+        <v>33.53</v>
+      </c>
+      <c r="AO14" s="42">
+        <v>670.66</v>
+      </c>
       <c r="AP14" s="41"/>
       <c r="AQ14" s="37"/>
       <c r="AR14" s="42"/>
@@ -51125,12 +52740,24 @@
       <c r="AI15" s="45">
         <v>1184.51</v>
       </c>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="41"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="42"/>
+      <c r="AJ15" s="43">
+        <v>7.86</v>
+      </c>
+      <c r="AK15" s="44">
+        <v>35.5</v>
+      </c>
+      <c r="AL15" s="45">
+        <v>1183.47</v>
+      </c>
+      <c r="AM15" s="43">
+        <v>7.9</v>
+      </c>
+      <c r="AN15" s="44">
+        <v>35.43</v>
+      </c>
+      <c r="AO15" s="45">
+        <v>1181.04</v>
+      </c>
       <c r="AP15" s="41"/>
       <c r="AQ15" s="37"/>
       <c r="AR15" s="42"/>
@@ -51157,73 +52784,73 @@
       <c r="BM15" s="45"/>
     </row>
     <row r="16" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
-      <c r="AD16" s="78"/>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
-      <c r="AI16" s="78"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="78"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="78"/>
-      <c r="AO16" s="78"/>
-      <c r="AP16" s="78"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="78"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="78"/>
-      <c r="AZ16" s="78"/>
-      <c r="BA16" s="78"/>
-      <c r="BB16" s="78"/>
-      <c r="BC16" s="78"/>
-      <c r="BD16" s="78"/>
-      <c r="BE16" s="78"/>
-      <c r="BF16" s="78"/>
-      <c r="BG16" s="78"/>
-      <c r="BH16" s="78"/>
-      <c r="BI16" s="78"/>
-      <c r="BJ16" s="78"/>
-      <c r="BK16" s="78"/>
-      <c r="BL16" s="78"/>
-      <c r="BM16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="80"/>
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="80"/>
+      <c r="AN16" s="80"/>
+      <c r="AO16" s="80"/>
+      <c r="AP16" s="80"/>
+      <c r="AQ16" s="80"/>
+      <c r="AR16" s="80"/>
+      <c r="AS16" s="80"/>
+      <c r="AT16" s="80"/>
+      <c r="AU16" s="80"/>
+      <c r="AV16" s="80"/>
+      <c r="AW16" s="80"/>
+      <c r="AX16" s="80"/>
+      <c r="AY16" s="80"/>
+      <c r="AZ16" s="80"/>
+      <c r="BA16" s="80"/>
+      <c r="BB16" s="80"/>
+      <c r="BC16" s="80"/>
+      <c r="BD16" s="80"/>
+      <c r="BE16" s="80"/>
+      <c r="BF16" s="80"/>
+      <c r="BG16" s="80"/>
+      <c r="BH16" s="80"/>
+      <c r="BI16" s="80"/>
+      <c r="BJ16" s="80"/>
+      <c r="BK16" s="80"/>
+      <c r="BL16" s="80"/>
+      <c r="BM16" s="81"/>
     </row>
     <row r="17" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
@@ -51526,12 +53153,24 @@
       <c r="AI18" s="17">
         <v>43631</v>
       </c>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
+      <c r="AJ18" s="15">
+        <v>43632</v>
+      </c>
+      <c r="AK18" s="16">
+        <v>43632</v>
+      </c>
+      <c r="AL18" s="17">
+        <v>43632</v>
+      </c>
+      <c r="AM18" s="15">
+        <v>43635</v>
+      </c>
+      <c r="AN18" s="16">
+        <v>43635</v>
+      </c>
+      <c r="AO18" s="16">
+        <v>43635</v>
+      </c>
       <c r="AP18" s="52"/>
       <c r="AQ18" s="16"/>
       <c r="AR18" s="17"/>
@@ -51663,12 +53302,24 @@
       <c r="AI19" s="48">
         <v>10155.120000000001</v>
       </c>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="46"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="48"/>
+      <c r="AJ19" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="AK19" s="47">
+        <v>101.57</v>
+      </c>
+      <c r="AL19" s="48">
+        <v>10157.620000000001</v>
+      </c>
+      <c r="AM19" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="AN19" s="47">
+        <v>101.6</v>
+      </c>
+      <c r="AO19" s="48">
+        <v>10160.129999999999</v>
+      </c>
       <c r="AP19" s="46"/>
       <c r="AQ19" s="47"/>
       <c r="AR19" s="48"/>
@@ -51787,12 +53438,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+    <sheetView topLeftCell="AM1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4:AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -51865,73 +53516,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="78"/>
-      <c r="BM1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="81"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
@@ -52226,20 +53877,32 @@
         <v>43630</v>
       </c>
       <c r="AG3" s="15">
-        <v>43631</v>
+        <v>43633</v>
       </c>
       <c r="AH3" s="16">
-        <v>43631</v>
+        <v>43633</v>
       </c>
       <c r="AI3" s="17">
-        <v>43631</v>
-      </c>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="17"/>
+        <v>43633</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>43634</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>43634</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>43634</v>
+      </c>
+      <c r="AM3" s="15">
+        <v>43635</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>43635</v>
+      </c>
+      <c r="AO3" s="17">
+        <v>43635</v>
+      </c>
       <c r="AP3" s="52"/>
       <c r="AQ3" s="16"/>
       <c r="AR3" s="17"/>
@@ -52371,12 +54034,24 @@
       <c r="AI4" s="40">
         <v>2724.04</v>
       </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="40"/>
+      <c r="AJ4" s="38">
+        <v>3.34</v>
+      </c>
+      <c r="AK4" s="39">
+        <v>54.54</v>
+      </c>
+      <c r="AL4" s="40">
+        <v>2727.12</v>
+      </c>
+      <c r="AM4" s="38">
+        <v>3.35</v>
+      </c>
+      <c r="AN4" s="39">
+        <v>54.52</v>
+      </c>
+      <c r="AO4" s="40">
+        <v>2726.14</v>
+      </c>
       <c r="AP4" s="38"/>
       <c r="AQ4" s="39"/>
       <c r="AR4" s="40"/>
@@ -52508,12 +54183,24 @@
       <c r="AI5" s="42">
         <v>1763.07</v>
       </c>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="42"/>
+      <c r="AJ5" s="41">
+        <v>3.88</v>
+      </c>
+      <c r="AK5" s="37">
+        <v>35.32</v>
+      </c>
+      <c r="AL5" s="42">
+        <v>1766.04</v>
+      </c>
+      <c r="AM5" s="41">
+        <v>3.89</v>
+      </c>
+      <c r="AN5" s="37">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="AO5" s="42">
+        <v>1763.63</v>
+      </c>
       <c r="AP5" s="41"/>
       <c r="AQ5" s="37"/>
       <c r="AR5" s="42"/>
@@ -52645,12 +54332,24 @@
       <c r="AI6" s="45">
         <v>1205.02</v>
       </c>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="45"/>
+      <c r="AJ6" s="43">
+        <v>3.88</v>
+      </c>
+      <c r="AK6" s="44">
+        <v>36.24</v>
+      </c>
+      <c r="AL6" s="45">
+        <v>1208.2</v>
+      </c>
+      <c r="AM6" s="43">
+        <v>3.89</v>
+      </c>
+      <c r="AN6" s="44">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="AO6" s="45">
+        <v>1205.3900000000001</v>
+      </c>
       <c r="AP6" s="43"/>
       <c r="AQ6" s="44"/>
       <c r="AR6" s="45"/>
@@ -52780,12 +54479,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView topLeftCell="AM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4:AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -52849,73 +54548,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="78"/>
-      <c r="BM1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="81"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -53210,20 +54909,32 @@
         <v>43630</v>
       </c>
       <c r="AG3" s="15">
-        <v>43631</v>
+        <v>43633</v>
       </c>
       <c r="AH3" s="16">
-        <v>43631</v>
+        <v>43633</v>
       </c>
       <c r="AI3" s="17">
-        <v>43631</v>
-      </c>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="17"/>
+        <v>43633</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>43634</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>43634</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>43634</v>
+      </c>
+      <c r="AM3" s="15">
+        <v>43635</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>43635</v>
+      </c>
+      <c r="AO3" s="17">
+        <v>43635</v>
+      </c>
       <c r="AP3" s="29"/>
       <c r="AQ3" s="29"/>
       <c r="AR3" s="29"/>
@@ -53355,12 +55066,24 @@
       <c r="AI4" s="40">
         <v>3810.65</v>
       </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="40"/>
+      <c r="AJ4" s="38">
+        <v>3.37</v>
+      </c>
+      <c r="AK4" s="39">
+        <v>38.19</v>
+      </c>
+      <c r="AL4" s="40">
+        <v>3819.93</v>
+      </c>
+      <c r="AM4" s="38">
+        <v>3.39</v>
+      </c>
+      <c r="AN4" s="39">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="AO4" s="40">
+        <v>3816.08</v>
+      </c>
       <c r="AP4" s="38"/>
       <c r="AQ4" s="39"/>
       <c r="AR4" s="40"/>
@@ -53492,12 +55215,24 @@
       <c r="AI5" s="42">
         <v>4084.6</v>
       </c>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="42"/>
+      <c r="AJ5" s="41">
+        <v>3.77</v>
+      </c>
+      <c r="AK5" s="37">
+        <v>40.89</v>
+      </c>
+      <c r="AL5" s="42">
+        <v>4089.58</v>
+      </c>
+      <c r="AM5" s="41">
+        <v>3.78</v>
+      </c>
+      <c r="AN5" s="37">
+        <v>40.85</v>
+      </c>
+      <c r="AO5" s="42">
+        <v>4085.84</v>
+      </c>
       <c r="AP5" s="41"/>
       <c r="AQ5" s="37"/>
       <c r="AR5" s="42"/>
@@ -53629,12 +55364,24 @@
       <c r="AI6" s="45">
         <v>4452.32</v>
       </c>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="45"/>
+      <c r="AJ6" s="43">
+        <v>3.94</v>
+      </c>
+      <c r="AK6" s="44">
+        <v>44.67</v>
+      </c>
+      <c r="AL6" s="45">
+        <v>4467.21</v>
+      </c>
+      <c r="AM6" s="43">
+        <v>3.94</v>
+      </c>
+      <c r="AN6" s="44">
+        <v>44.67</v>
+      </c>
+      <c r="AO6" s="45">
+        <v>4467.92</v>
+      </c>
       <c r="AP6" s="43"/>
       <c r="AQ6" s="44"/>
       <c r="AR6" s="45"/>
@@ -53764,12 +55511,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3:AI6"/>
+    <sheetView topLeftCell="AM1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3:AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -53842,73 +55589,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="78"/>
-      <c r="BM1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="81"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -54203,20 +55950,32 @@
         <v>43630</v>
       </c>
       <c r="AG3" s="15">
-        <v>43631</v>
+        <v>43633</v>
       </c>
       <c r="AH3" s="16">
-        <v>43631</v>
+        <v>43633</v>
       </c>
       <c r="AI3" s="17">
-        <v>43631</v>
-      </c>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
+        <v>43633</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>43634</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>43634</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>43634</v>
+      </c>
+      <c r="AM3" s="15">
+        <v>43635</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>43635</v>
+      </c>
+      <c r="AO3" s="16">
+        <v>43635</v>
+      </c>
       <c r="AP3" s="52"/>
       <c r="AQ3" s="16"/>
       <c r="AR3" s="17"/>
@@ -54348,12 +56107,24 @@
       <c r="AI4" s="40">
         <v>852.19</v>
       </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="40"/>
+      <c r="AJ4" s="38">
+        <v>6.51</v>
+      </c>
+      <c r="AK4" s="39">
+        <v>34.08</v>
+      </c>
+      <c r="AL4" s="40">
+        <v>852.2</v>
+      </c>
+      <c r="AM4" s="38">
+        <v>6.54</v>
+      </c>
+      <c r="AN4" s="39">
+        <v>34.07</v>
+      </c>
+      <c r="AO4" s="40">
+        <v>851.81</v>
+      </c>
       <c r="AP4" s="38"/>
       <c r="AQ4" s="39"/>
       <c r="AR4" s="40"/>
@@ -54485,12 +56256,24 @@
       <c r="AI5" s="42">
         <v>672</v>
       </c>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="42"/>
+      <c r="AJ5" s="41">
+        <v>7.46</v>
+      </c>
+      <c r="AK5" s="37">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="AL5" s="42">
+        <v>671.85</v>
+      </c>
+      <c r="AM5" s="41">
+        <v>7.5</v>
+      </c>
+      <c r="AN5" s="37">
+        <v>33.53</v>
+      </c>
+      <c r="AO5" s="42">
+        <v>670.66</v>
+      </c>
       <c r="AP5" s="41"/>
       <c r="AQ5" s="37"/>
       <c r="AR5" s="42"/>
@@ -54622,12 +56405,24 @@
       <c r="AI6" s="45">
         <v>1184.51</v>
       </c>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="45"/>
+      <c r="AJ6" s="43">
+        <v>7.86</v>
+      </c>
+      <c r="AK6" s="44">
+        <v>35.5</v>
+      </c>
+      <c r="AL6" s="45">
+        <v>1183.47</v>
+      </c>
+      <c r="AM6" s="43">
+        <v>7.9</v>
+      </c>
+      <c r="AN6" s="44">
+        <v>35.43</v>
+      </c>
+      <c r="AO6" s="45">
+        <v>1181.04</v>
+      </c>
       <c r="AP6" s="43"/>
       <c r="AQ6" s="44"/>
       <c r="AR6" s="45"/>
@@ -54757,12 +56552,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3:AI4"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3:AO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -54835,73 +56630,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="78"/>
-      <c r="BM1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="81"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -55196,20 +56991,32 @@
         <v>43630</v>
       </c>
       <c r="AG3" s="15">
-        <v>43631</v>
+        <v>43633</v>
       </c>
       <c r="AH3" s="16">
-        <v>43631</v>
+        <v>43633</v>
       </c>
       <c r="AI3" s="17">
-        <v>43631</v>
-      </c>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
+        <v>43633</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>43634</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>43634</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>43634</v>
+      </c>
+      <c r="AM3" s="15">
+        <v>43635</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>43635</v>
+      </c>
+      <c r="AO3" s="16">
+        <v>43635</v>
+      </c>
       <c r="AP3" s="52"/>
       <c r="AQ3" s="16"/>
       <c r="AR3" s="17"/>
@@ -55341,12 +57148,24 @@
       <c r="AI4" s="48">
         <v>10155.120000000001</v>
       </c>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="48"/>
+      <c r="AJ4" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="AK4" s="47">
+        <v>101.57</v>
+      </c>
+      <c r="AL4" s="48">
+        <v>10157.620000000001</v>
+      </c>
+      <c r="AM4" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="AN4" s="47">
+        <v>101.6</v>
+      </c>
+      <c r="AO4" s="48">
+        <v>10160.129999999999</v>
+      </c>
       <c r="AP4" s="46"/>
       <c r="AQ4" s="47"/>
       <c r="AR4" s="48"/>
@@ -55517,10 +57336,10 @@
       <c r="A2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -55628,10 +57447,10 @@
       <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -55688,10 +57507,10 @@
       <c r="A13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -55760,10 +57579,10 @@
       <c r="A2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -55871,10 +57690,10 @@
       <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -55931,10 +57750,10 @@
       <c r="A13" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -56002,10 +57821,10 @@
       <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -56113,10 +57932,10 @@
       <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -56173,10 +57992,10 @@
       <c r="A13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -56245,10 +58064,10 @@
       <c r="A2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -56356,10 +58175,10 @@
       <c r="A9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -56416,10 +58235,10 @@
       <c r="A13" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -56488,10 +58307,10 @@
       <c r="A2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -56599,10 +58418,10 @@
       <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -56659,10 +58478,10 @@
       <c r="A13" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -56730,10 +58549,10 @@
       <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -56841,10 +58660,10 @@
       <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -56901,10 +58720,10 @@
       <c r="A13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -56973,10 +58792,10 @@
       <c r="A2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -57084,10 +58903,10 @@
       <c r="A9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -57144,10 +58963,10 @@
       <c r="A13" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -57216,10 +59035,10 @@
       <c r="A2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -57327,10 +59146,10 @@
       <c r="A9" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -57387,10 +59206,10 @@
       <c r="A13" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">

--- a/TESOURO DIRETO_0619 - Compra.xlsx
+++ b/TESOURO DIRETO_0619 - Compra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="030619" sheetId="9" r:id="rId1"/>
@@ -25,18 +25,19 @@
     <sheet name="170619" sheetId="19" r:id="rId11"/>
     <sheet name="180619" sheetId="20" r:id="rId12"/>
     <sheet name="190619" sheetId="21" r:id="rId13"/>
-    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId14"/>
-    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId15"/>
-    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId16"/>
-    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId17"/>
-    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId18"/>
+    <sheet name="210619" sheetId="22" r:id="rId14"/>
+    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId15"/>
+    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId16"/>
+    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId17"/>
+    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId18"/>
+    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="25">
   <si>
     <t>Vencimento</t>
   </si>
@@ -512,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,6 +747,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -821,7 +825,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -959,7 +962,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1029,6 +1031,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1131,6 +1136,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,7 +1239,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1301,6 +1308,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1403,6 +1413,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,7 +1516,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1573,6 +1585,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1675,6 +1690,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,7 +1793,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1845,6 +1862,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1947,6 +1967,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2047,7 +2070,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2117,6 +2139,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2219,6 +2244,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,7 +2347,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2389,6 +2416,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2492,6 +2522,9 @@
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.94</c:v>
                 </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.82</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2507,11 +2540,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1500953888"/>
-        <c:axId val="1500958784"/>
+        <c:axId val="2032118800"/>
+        <c:axId val="2032119344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1500953888"/>
+        <c:axId val="2032118800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +2586,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1500958784"/>
+        <c:crossAx val="2032119344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2561,7 +2594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1500958784"/>
+        <c:axId val="2032119344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,7 +2644,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1500953888"/>
+        <c:crossAx val="2032118800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2625,7 +2658,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2890,6 +2922,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2992,6 +3027,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,8 +3067,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678275232"/>
-        <c:axId val="1678281216"/>
+        <c:axId val="2083191424"/>
+        <c:axId val="2083187616"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3193,6 +3231,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3297,6 +3338,9 @@
                       </c:pt>
                       <c:pt idx="12" formatCode="General">
                         <c:v>3.89</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3.77</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3464,6 +3508,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3569,6 +3616,9 @@
                       <c:pt idx="12" formatCode="General">
                         <c:v>3.89</c:v>
                       </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3.77</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3579,7 +3629,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678275232"/>
+        <c:axId val="2083191424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3663,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678281216"/>
+        <c:crossAx val="2083187616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3621,7 +3671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678281216"/>
+        <c:axId val="2083187616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,7 +3681,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678275232"/>
+        <c:crossAx val="2083191424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3895,6 +3945,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3997,6 +4050,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>36.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4034,8 +4090,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678277408"/>
-        <c:axId val="1678270880"/>
+        <c:axId val="2083178912"/>
+        <c:axId val="2083183264"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4198,6 +4254,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -4302,6 +4361,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>54.52</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>54.93</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4469,6 +4531,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -4574,6 +4639,9 @@
                       <c:pt idx="12">
                         <c:v>35.270000000000003</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>35.93</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4584,7 +4652,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678277408"/>
+        <c:axId val="2083178912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4618,7 +4686,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678270880"/>
+        <c:crossAx val="2083183264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4626,7 +4694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678270880"/>
+        <c:axId val="2083183264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4636,7 +4704,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678277408"/>
+        <c:crossAx val="2083178912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4961,6 +5029,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5063,6 +5134,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5217,6 +5291,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5319,6 +5396,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5473,6 +5553,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5576,6 +5659,9 @@
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.89</c:v>
                 </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.77</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5592,11 +5678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1678278496"/>
-        <c:axId val="1678279040"/>
+        <c:axId val="2083188160"/>
+        <c:axId val="2083177280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678278496"/>
+        <c:axId val="2083188160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5639,7 +5725,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678279040"/>
+        <c:crossAx val="2083177280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5647,7 +5733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678279040"/>
+        <c:axId val="2083177280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5657,7 +5743,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678278496"/>
+        <c:crossAx val="2083188160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5925,6 +6011,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -6027,6 +6116,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3816.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3845.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6064,11 +6156,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678281760"/>
-        <c:axId val="1678282304"/>
+        <c:axId val="2083189792"/>
+        <c:axId val="2083188704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678281760"/>
+        <c:axId val="2083189792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6102,7 +6194,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678282304"/>
+        <c:crossAx val="2083188704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6110,7 +6202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678282304"/>
+        <c:axId val="2083188704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6120,7 +6212,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678281760"/>
+        <c:crossAx val="2083189792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6384,6 +6476,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -6486,6 +6581,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4085.84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4139.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6523,8 +6621,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678282848"/>
-        <c:axId val="1678283392"/>
+        <c:axId val="2083189248"/>
+        <c:axId val="2083190336"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6687,6 +6785,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6791,6 +6892,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>3816.08</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3845.19</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6958,6 +7062,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7063,6 +7170,9 @@
                       <c:pt idx="12">
                         <c:v>4467.92</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4555.24</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -7073,7 +7183,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678282848"/>
+        <c:axId val="2083189248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7107,7 +7217,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678283392"/>
+        <c:crossAx val="2083190336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7115,7 +7225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678283392"/>
+        <c:axId val="2083190336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7125,7 +7235,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678282848"/>
+        <c:crossAx val="2083189248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7389,6 +7499,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -7491,6 +7604,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4467.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4555.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7528,8 +7644,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678283936"/>
-        <c:axId val="1678284480"/>
+        <c:axId val="2083179456"/>
+        <c:axId val="2083180544"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7692,6 +7808,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7796,6 +7915,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>3816.08</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3845.19</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7963,6 +8085,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8068,6 +8193,9 @@
                       <c:pt idx="12">
                         <c:v>4085.84</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4139.28</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8078,7 +8206,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678283936"/>
+        <c:axId val="2083179456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8112,7 +8240,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678284480"/>
+        <c:crossAx val="2083180544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8120,7 +8248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678284480"/>
+        <c:axId val="2083180544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8130,7 +8258,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678283936"/>
+        <c:crossAx val="2083179456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8396,6 +8524,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -8498,6 +8629,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8535,8 +8669,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678285568"/>
-        <c:axId val="1678286112"/>
+        <c:axId val="2083191968"/>
+        <c:axId val="2083180000"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -8699,6 +8833,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8803,6 +8940,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>38.159999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>38.450000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8970,6 +9110,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9075,6 +9218,9 @@
                       <c:pt idx="12">
                         <c:v>40.85</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>41.39</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -9085,7 +9231,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678285568"/>
+        <c:axId val="2083191968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9119,7 +9265,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678286112"/>
+        <c:crossAx val="2083180000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9127,7 +9273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678286112"/>
+        <c:axId val="2083180000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9137,7 +9283,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678285568"/>
+        <c:crossAx val="2083191968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9402,6 +9548,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9504,6 +9653,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>40.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9541,8 +9693,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678271424"/>
-        <c:axId val="1678271968"/>
+        <c:axId val="2083176736"/>
+        <c:axId val="2083177824"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9705,6 +9857,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9809,6 +9964,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>38.159999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>38.450000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9976,6 +10134,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -10081,6 +10242,9 @@
                       <c:pt idx="12">
                         <c:v>44.67</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45.55</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -10091,7 +10255,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678271424"/>
+        <c:axId val="2083176736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10125,7 +10289,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678271968"/>
+        <c:crossAx val="2083177824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10133,7 +10297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678271968"/>
+        <c:axId val="2083177824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10143,7 +10307,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678271424"/>
+        <c:crossAx val="2083176736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10407,6 +10571,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10509,6 +10676,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>38.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.450000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10546,11 +10716,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678272512"/>
-        <c:axId val="1678273600"/>
+        <c:axId val="2086309760"/>
+        <c:axId val="2086307584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678272512"/>
+        <c:axId val="2086309760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10584,7 +10754,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678273600"/>
+        <c:crossAx val="2086307584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10592,7 +10762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678273600"/>
+        <c:axId val="2086307584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10602,7 +10772,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678272512"/>
+        <c:crossAx val="2086309760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10866,6 +11036,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10968,6 +11141,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11005,8 +11181,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678273056"/>
-        <c:axId val="1691361424"/>
+        <c:axId val="2086301056"/>
+        <c:axId val="2086301600"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -11169,6 +11345,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11273,6 +11452,9 @@
                       </c:pt>
                       <c:pt idx="12" formatCode="General">
                         <c:v>3.78</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3.66</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11440,6 +11622,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11545,6 +11730,9 @@
                       <c:pt idx="12" formatCode="General">
                         <c:v>3.94</c:v>
                       </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3.82</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -11555,7 +11743,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678273056"/>
+        <c:axId val="2086301056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11589,7 +11777,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691361424"/>
+        <c:crossAx val="2086301600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11597,7 +11785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691361424"/>
+        <c:axId val="2086301600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11607,7 +11795,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678273056"/>
+        <c:crossAx val="2086301056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11844,6 +12032,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11946,6 +12137,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>6.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12038,6 +12232,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12140,6 +12337,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>7.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12232,6 +12432,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12335,6 +12538,9 @@
                 <c:pt idx="12" formatCode="General">
                   <c:v>7.9</c:v>
                 </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>7.62</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12349,11 +12555,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="1500960960"/>
-        <c:axId val="1500963680"/>
+        <c:axId val="2032129680"/>
+        <c:axId val="1954282640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1500960960"/>
+        <c:axId val="2032129680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12414,7 +12620,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1500963680"/>
+        <c:crossAx val="1954282640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12422,7 +12628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1500963680"/>
+        <c:axId val="1954282640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12483,7 +12689,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1500960960"/>
+        <c:crossAx val="2032129680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12753,6 +12959,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12855,6 +13064,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12892,8 +13104,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691362512"/>
-        <c:axId val="1691357616"/>
+        <c:axId val="2086303232"/>
+        <c:axId val="2086304864"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13056,6 +13268,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13160,6 +13375,9 @@
                       </c:pt>
                       <c:pt idx="12" formatCode="General">
                         <c:v>3.39</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3.26</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13327,6 +13545,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13432,6 +13653,9 @@
                       <c:pt idx="12" formatCode="General">
                         <c:v>3.94</c:v>
                       </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3.82</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -13442,7 +13666,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691362512"/>
+        <c:axId val="2086303232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13476,7 +13700,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691357616"/>
+        <c:crossAx val="2086304864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13484,7 +13708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691357616"/>
+        <c:axId val="2086304864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13494,7 +13718,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691362512"/>
+        <c:crossAx val="2086303232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13760,6 +13984,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -13862,6 +14089,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13899,8 +14129,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691358704"/>
-        <c:axId val="1691354352"/>
+        <c:axId val="2086298336"/>
+        <c:axId val="2086302144"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -14063,6 +14293,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14167,6 +14400,9 @@
                       </c:pt>
                       <c:pt idx="12" formatCode="General">
                         <c:v>3.39</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3.26</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14334,6 +14570,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14439,6 +14678,9 @@
                       <c:pt idx="12" formatCode="General">
                         <c:v>3.78</c:v>
                       </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3.66</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -14449,7 +14691,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691358704"/>
+        <c:axId val="2086298336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14483,7 +14725,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691354352"/>
+        <c:crossAx val="2086302144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14491,7 +14733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691354352"/>
+        <c:axId val="2086302144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14501,7 +14743,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691358704"/>
+        <c:crossAx val="2086298336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14766,6 +15008,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -14868,6 +15113,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>6.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14905,8 +15153,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691359248"/>
-        <c:axId val="1691355984"/>
+        <c:axId val="2086306496"/>
+        <c:axId val="2086310304"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -15069,6 +15317,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15173,6 +15424,9 @@
                       </c:pt>
                       <c:pt idx="12" formatCode="General">
                         <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>7.21</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15340,6 +15594,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15445,6 +15702,9 @@
                       <c:pt idx="12" formatCode="General">
                         <c:v>7.9</c:v>
                       </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>7.62</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -15455,7 +15715,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691359248"/>
+        <c:axId val="2086306496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15489,7 +15749,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691355984"/>
+        <c:crossAx val="2086310304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15497,7 +15757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691355984"/>
+        <c:axId val="2086310304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15507,7 +15767,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691359248"/>
+        <c:crossAx val="2086306496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15771,6 +16031,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -15873,6 +16136,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>7.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15910,8 +16176,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691352720"/>
-        <c:axId val="1691356528"/>
+        <c:axId val="2086302688"/>
+        <c:axId val="2086303776"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -16074,6 +16340,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16178,6 +16447,9 @@
                       </c:pt>
                       <c:pt idx="12" formatCode="General">
                         <c:v>6.54</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>6.31</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16345,6 +16617,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16450,6 +16725,9 @@
                       <c:pt idx="12" formatCode="General">
                         <c:v>7.9</c:v>
                       </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>7.62</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -16460,7 +16738,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691352720"/>
+        <c:axId val="2086302688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16494,7 +16772,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691356528"/>
+        <c:crossAx val="2086303776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16502,7 +16780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691356528"/>
+        <c:axId val="2086303776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16512,7 +16790,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691352720"/>
+        <c:crossAx val="2086302688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16778,6 +17056,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -16880,6 +17161,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>7.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16917,8 +17201,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691359792"/>
-        <c:axId val="1691363056"/>
+        <c:axId val="2086304320"/>
+        <c:axId val="2086308128"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -17081,6 +17365,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17185,6 +17472,9 @@
                       </c:pt>
                       <c:pt idx="12" formatCode="General">
                         <c:v>6.54</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>6.31</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17352,6 +17642,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17457,6 +17750,9 @@
                       <c:pt idx="12" formatCode="General">
                         <c:v>7.5</c:v>
                       </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>7.21</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -17467,7 +17763,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691359792"/>
+        <c:axId val="2086304320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17501,7 +17797,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691363056"/>
+        <c:crossAx val="2086308128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17509,7 +17805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691363056"/>
+        <c:axId val="2086308128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17519,7 +17815,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691359792"/>
+        <c:crossAx val="2086304320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17784,6 +18080,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -17886,6 +18185,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>34.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17923,8 +18225,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691357072"/>
-        <c:axId val="1691365232"/>
+        <c:axId val="2086299968"/>
+        <c:axId val="2086311936"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -18087,6 +18389,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18191,6 +18496,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>33.53</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>34.04</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18358,6 +18666,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18463,6 +18774,9 @@
                       <c:pt idx="12">
                         <c:v>35.43</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>36.03</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -18473,7 +18787,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691357072"/>
+        <c:axId val="2086299968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18507,7 +18821,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691365232"/>
+        <c:crossAx val="2086311936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18515,7 +18829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691365232"/>
+        <c:axId val="2086311936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18525,7 +18839,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691357072"/>
+        <c:crossAx val="2086299968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18789,6 +19103,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -18891,6 +19208,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>33.53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18928,8 +19248,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691360336"/>
-        <c:axId val="1691366320"/>
+        <c:axId val="2086310848"/>
+        <c:axId val="2086297792"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -19092,6 +19412,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19196,6 +19519,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>34.07</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>34.26</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19363,6 +19689,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19468,6 +19797,9 @@
                       <c:pt idx="12">
                         <c:v>35.43</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>36.03</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -19478,7 +19810,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691360336"/>
+        <c:axId val="2086310848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19512,7 +19844,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691366320"/>
+        <c:crossAx val="2086297792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19520,7 +19852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691366320"/>
+        <c:axId val="2086297792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19530,7 +19862,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691360336"/>
+        <c:crossAx val="2086310848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19796,6 +20128,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -19898,6 +20233,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>35.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19935,8 +20273,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691358160"/>
-        <c:axId val="1691366864"/>
+        <c:axId val="2086309216"/>
+        <c:axId val="2086305408"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -20099,6 +20437,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -20203,6 +20544,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>34.07</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>34.26</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20370,6 +20714,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -20475,6 +20822,9 @@
                       <c:pt idx="12">
                         <c:v>33.53</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>34.04</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -20485,7 +20835,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691358160"/>
+        <c:axId val="2086309216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20519,7 +20869,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691366864"/>
+        <c:crossAx val="2086305408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20527,7 +20877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691366864"/>
+        <c:axId val="2086305408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20537,7 +20887,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691358160"/>
+        <c:crossAx val="2086309216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20802,6 +21152,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -20904,6 +21257,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1181.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1201.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20941,8 +21297,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691363600"/>
-        <c:axId val="1691354896"/>
+        <c:axId val="2086305952"/>
+        <c:axId val="2086298880"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -21105,6 +21461,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -21209,6 +21568,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>851.81</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>856.69</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -21376,6 +21738,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -21481,6 +21846,9 @@
                       <c:pt idx="12">
                         <c:v>670.66</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>680.93</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -21491,7 +21859,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691363600"/>
+        <c:axId val="2086305952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21525,7 +21893,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691354896"/>
+        <c:crossAx val="2086298880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21533,7 +21901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691354896"/>
+        <c:axId val="2086298880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21543,7 +21911,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691363600"/>
+        <c:crossAx val="2086305952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21807,6 +22175,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -21909,6 +22280,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>670.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>680.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21946,8 +22320,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691365776"/>
-        <c:axId val="1691360880"/>
+        <c:axId val="2086307040"/>
+        <c:axId val="2086308672"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -22110,6 +22484,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -22214,6 +22591,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>851.81</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>856.69</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -22381,6 +22761,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -22486,6 +22869,9 @@
                       <c:pt idx="12">
                         <c:v>1181.04</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1201.08</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -22496,7 +22882,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691365776"/>
+        <c:axId val="2086307040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22530,7 +22916,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691360880"/>
+        <c:crossAx val="2086308672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22538,7 +22924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691360880"/>
+        <c:axId val="2086308672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22548,7 +22934,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691365776"/>
+        <c:crossAx val="2086307040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22812,6 +23198,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22914,6 +23303,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>54.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22951,11 +23343,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1500961504"/>
-        <c:axId val="1500964224"/>
+        <c:axId val="1954283184"/>
+        <c:axId val="1954284816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1500961504"/>
+        <c:axId val="1954283184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22989,7 +23381,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1500964224"/>
+        <c:crossAx val="1954284816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22997,7 +23389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1500964224"/>
+        <c:axId val="1954284816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23007,7 +23399,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1500961504"/>
+        <c:crossAx val="1954283184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23271,6 +23663,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23373,6 +23768,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>851.81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>856.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23410,8 +23808,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691361968"/>
-        <c:axId val="1691364144"/>
+        <c:axId val="2086300512"/>
+        <c:axId val="2086313024"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -23574,6 +23972,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -23678,6 +24079,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>670.66</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>680.93</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -23845,6 +24249,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -23950,6 +24357,9 @@
                       <c:pt idx="12">
                         <c:v>1181.04</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1201.08</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -23960,7 +24370,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691361968"/>
+        <c:axId val="2086300512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23994,7 +24404,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691364144"/>
+        <c:crossAx val="2086313024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24002,7 +24412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691364144"/>
+        <c:axId val="2086313024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24012,7 +24422,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691361968"/>
+        <c:crossAx val="2086300512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24286,6 +24696,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -24387,6 +24800,9 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
                   <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
@@ -24426,11 +24842,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1691353808"/>
-        <c:axId val="1691353264"/>
+        <c:axId val="2086299424"/>
+        <c:axId val="2086311392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691353808"/>
+        <c:axId val="2086299424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24464,7 +24880,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691353264"/>
+        <c:crossAx val="2086311392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24472,7 +24888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691353264"/>
+        <c:axId val="2086311392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24482,7 +24898,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691353808"/>
+        <c:crossAx val="2086299424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24718,6 +25134,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -24820,6 +25239,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>101.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24857,11 +25279,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691364688"/>
-        <c:axId val="1691351632"/>
+        <c:axId val="2086312480"/>
+        <c:axId val="2088809344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691364688"/>
+        <c:axId val="2086312480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24895,7 +25317,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691351632"/>
+        <c:crossAx val="2088809344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24903,7 +25325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691351632"/>
+        <c:axId val="2088809344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24913,7 +25335,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691364688"/>
+        <c:crossAx val="2086312480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25149,6 +25571,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -25251,6 +25676,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10160.129999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10162.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25288,11 +25716,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1691355440"/>
-        <c:axId val="1691352176"/>
+        <c:axId val="2088804992"/>
+        <c:axId val="2088810976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691355440"/>
+        <c:axId val="2088804992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25326,7 +25754,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691352176"/>
+        <c:crossAx val="2088810976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25334,7 +25762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691352176"/>
+        <c:axId val="2088810976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25344,7 +25772,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1691355440"/>
+        <c:crossAx val="2088804992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25580,6 +26008,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -25682,6 +26113,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>35.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25719,11 +26153,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1500966400"/>
-        <c:axId val="1400034272"/>
+        <c:axId val="2083185984"/>
+        <c:axId val="2083187072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1500966400"/>
+        <c:axId val="2083185984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25757,7 +26191,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400034272"/>
+        <c:crossAx val="2083187072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25765,7 +26199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1400034272"/>
+        <c:axId val="2083187072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25775,7 +26209,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1500966400"/>
+        <c:crossAx val="2083185984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26039,6 +26473,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -26141,6 +26578,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1763.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1796.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26178,11 +26618,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678280128"/>
-        <c:axId val="1678279584"/>
+        <c:axId val="2083184352"/>
+        <c:axId val="2083184896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678280128"/>
+        <c:axId val="2083184352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26216,7 +26656,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678279584"/>
+        <c:crossAx val="2083184896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26224,7 +26664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678279584"/>
+        <c:axId val="2083184896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26234,7 +26674,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678280128"/>
+        <c:crossAx val="2083184352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26498,6 +26938,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -26600,6 +27043,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1205.3900000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1242.0999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26637,11 +27083,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678275776"/>
-        <c:axId val="1678280672"/>
+        <c:axId val="2083183808"/>
+        <c:axId val="2083181088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678275776"/>
+        <c:axId val="2083183808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26675,7 +27121,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678280672"/>
+        <c:crossAx val="2083181088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26683,7 +27129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678280672"/>
+        <c:axId val="2083181088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26693,7 +27139,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678275776"/>
+        <c:crossAx val="2083183808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26957,6 +27403,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -27059,6 +27508,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2726.14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2746.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27096,8 +27548,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678285024"/>
-        <c:axId val="1678276864"/>
+        <c:axId val="2083186528"/>
+        <c:axId val="2083190880"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -27260,6 +27712,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -27364,6 +27819,9 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>1763.63</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1796.51</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -27531,6 +27989,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -27636,6 +28097,9 @@
                       <c:pt idx="12">
                         <c:v>1205.3900000000001</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1242.0999999999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -27646,7 +28110,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678285024"/>
+        <c:axId val="2083186528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27680,7 +28144,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678276864"/>
+        <c:crossAx val="2083190880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27688,7 +28152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678276864"/>
+        <c:axId val="2083190880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27698,7 +28162,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678285024"/>
+        <c:crossAx val="2083186528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27962,6 +28426,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -28064,6 +28531,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28101,8 +28571,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678277952"/>
-        <c:axId val="1678276320"/>
+        <c:axId val="2083182176"/>
+        <c:axId val="2083182720"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -28265,6 +28735,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -28369,6 +28842,9 @@
                       </c:pt>
                       <c:pt idx="12" formatCode="General">
                         <c:v>3.35</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3.2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -28536,6 +29012,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -28641,6 +29120,9 @@
                       <c:pt idx="12" formatCode="General">
                         <c:v>3.89</c:v>
                       </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3.77</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -28651,7 +29133,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678277952"/>
+        <c:axId val="2083182176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28685,7 +29167,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678276320"/>
+        <c:crossAx val="2083182720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28693,7 +29175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678276320"/>
+        <c:axId val="2083182720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28703,7 +29185,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678277952"/>
+        <c:crossAx val="2083182176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28967,6 +29449,9 @@
                   <c:pt idx="12">
                     <c:v>19/jun</c:v>
                   </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -29069,6 +29554,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29106,8 +29594,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1678274144"/>
-        <c:axId val="1678274688"/>
+        <c:axId val="2083181632"/>
+        <c:axId val="2083185440"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -29270,6 +29758,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -29374,6 +29865,9 @@
                       </c:pt>
                       <c:pt idx="12" formatCode="General">
                         <c:v>3.35</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3.2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -29541,6 +30035,9 @@
                         <c:pt idx="12">
                           <c:v>19/jun</c:v>
                         </c:pt>
+                        <c:pt idx="13">
+                          <c:v>21/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -29646,6 +30143,9 @@
                       <c:pt idx="12" formatCode="General">
                         <c:v>3.89</c:v>
                       </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3.77</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -29656,7 +30156,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1678274144"/>
+        <c:axId val="2083181632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29690,7 +30190,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678274688"/>
+        <c:crossAx val="2083185440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -29698,7 +30198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678274688"/>
+        <c:axId val="2083185440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29708,7 +30208,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1678274144"/>
+        <c:crossAx val="2083181632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -49360,10 +49860,10 @@
       <c r="A2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -49471,10 +49971,10 @@
       <c r="A9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -49531,10 +50031,10 @@
       <c r="A13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -49603,10 +50103,10 @@
       <c r="A2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -49714,10 +50214,10 @@
       <c r="A9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -49774,10 +50274,10 @@
       <c r="A13" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -49846,10 +50346,10 @@
       <c r="A2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -49957,10 +50457,10 @@
       <c r="A9" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -50017,10 +50517,10 @@
       <c r="A13" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -50089,10 +50589,10 @@
       <c r="A2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -50200,10 +50700,10 @@
       <c r="A9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -50260,10 +50760,10 @@
       <c r="A13" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -50294,6 +50794,249 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="57">
+        <v>45519</v>
+      </c>
+      <c r="C3" s="58">
+        <v>3.35</v>
+      </c>
+      <c r="D3" s="37">
+        <v>54.52</v>
+      </c>
+      <c r="E3" s="37">
+        <v>2726.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="57">
+        <v>49444</v>
+      </c>
+      <c r="C4" s="58">
+        <v>3.89</v>
+      </c>
+      <c r="D4" s="37">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1763.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="57">
+        <v>53097</v>
+      </c>
+      <c r="C5" s="58">
+        <v>3.89</v>
+      </c>
+      <c r="D5" s="37">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1205.3900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="57">
+        <v>46249</v>
+      </c>
+      <c r="C6" s="58">
+        <v>3.39</v>
+      </c>
+      <c r="D6" s="37">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="E6" s="37">
+        <v>3816.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="57">
+        <v>49444</v>
+      </c>
+      <c r="C7" s="58">
+        <v>3.78</v>
+      </c>
+      <c r="D7" s="37">
+        <v>40.85</v>
+      </c>
+      <c r="E7" s="37">
+        <v>4085.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="57">
+        <v>55015</v>
+      </c>
+      <c r="C8" s="58">
+        <v>3.94</v>
+      </c>
+      <c r="D8" s="37">
+        <v>44.67</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4467.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="57">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="58">
+        <v>6.54</v>
+      </c>
+      <c r="D10" s="37">
+        <v>34.07</v>
+      </c>
+      <c r="E10" s="37">
+        <v>851.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="57">
+        <v>45658</v>
+      </c>
+      <c r="C11" s="58">
+        <v>7.5</v>
+      </c>
+      <c r="D11" s="37">
+        <v>33.53</v>
+      </c>
+      <c r="E11" s="37">
+        <v>670.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="57">
+        <v>47119</v>
+      </c>
+      <c r="C12" s="58">
+        <v>7.9</v>
+      </c>
+      <c r="D12" s="37">
+        <v>35.43</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1181.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="57">
+        <v>45717</v>
+      </c>
+      <c r="C14" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="37">
+        <v>101.6</v>
+      </c>
+      <c r="E14" s="37">
+        <v>10160.129999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -50329,13 +51072,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -50345,13 +51088,13 @@
         <v>45519</v>
       </c>
       <c r="C3" s="58">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="D3" s="37">
-        <v>54.52</v>
+        <v>54.93</v>
       </c>
       <c r="E3" s="37">
-        <v>2726.14</v>
+        <v>2746.93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -50362,13 +51105,13 @@
         <v>49444</v>
       </c>
       <c r="C4" s="58">
-        <v>3.89</v>
+        <v>3.77</v>
       </c>
       <c r="D4" s="37">
-        <v>35.270000000000003</v>
+        <v>35.93</v>
       </c>
       <c r="E4" s="37">
-        <v>1763.63</v>
+        <v>1796.51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -50379,13 +51122,13 @@
         <v>53097</v>
       </c>
       <c r="C5" s="58">
-        <v>3.89</v>
+        <v>3.77</v>
       </c>
       <c r="D5" s="37">
-        <v>36.159999999999997</v>
+        <v>37.26</v>
       </c>
       <c r="E5" s="37">
-        <v>1205.3900000000001</v>
+        <v>1242.0999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -50396,13 +51139,13 @@
         <v>46249</v>
       </c>
       <c r="C6" s="58">
-        <v>3.39</v>
+        <v>3.26</v>
       </c>
       <c r="D6" s="37">
-        <v>38.159999999999997</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="E6" s="37">
-        <v>3816.08</v>
+        <v>3845.19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -50413,13 +51156,13 @@
         <v>49444</v>
       </c>
       <c r="C7" s="58">
-        <v>3.78</v>
+        <v>3.66</v>
       </c>
       <c r="D7" s="37">
-        <v>40.85</v>
+        <v>41.39</v>
       </c>
       <c r="E7" s="37">
-        <v>4085.84</v>
+        <v>4139.28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -50430,23 +51173,23 @@
         <v>55015</v>
       </c>
       <c r="C8" s="58">
-        <v>3.94</v>
+        <v>3.82</v>
       </c>
       <c r="D8" s="37">
-        <v>44.67</v>
+        <v>45.55</v>
       </c>
       <c r="E8" s="37">
-        <v>4467.92</v>
+        <v>4555.24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -50456,13 +51199,13 @@
         <v>44562</v>
       </c>
       <c r="C10" s="58">
-        <v>6.54</v>
+        <v>6.31</v>
       </c>
       <c r="D10" s="37">
-        <v>34.07</v>
+        <v>34.26</v>
       </c>
       <c r="E10" s="37">
-        <v>851.81</v>
+        <v>856.69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -50473,13 +51216,13 @@
         <v>45658</v>
       </c>
       <c r="C11" s="58">
-        <v>7.5</v>
+        <v>7.21</v>
       </c>
       <c r="D11" s="37">
-        <v>33.53</v>
+        <v>34.04</v>
       </c>
       <c r="E11" s="37">
-        <v>670.66</v>
+        <v>680.93</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -50490,23 +51233,23 @@
         <v>47119</v>
       </c>
       <c r="C12" s="58">
-        <v>7.9</v>
+        <v>7.62</v>
       </c>
       <c r="D12" s="37">
-        <v>35.43</v>
+        <v>36.03</v>
       </c>
       <c r="E12" s="37">
-        <v>1181.04</v>
+        <v>1201.08</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -50519,10 +51262,10 @@
         <v>0.02</v>
       </c>
       <c r="D14" s="37">
-        <v>101.6</v>
+        <v>101.62</v>
       </c>
       <c r="E14" s="37">
-        <v>10160.129999999999</v>
+        <v>10162.64</v>
       </c>
     </row>
   </sheetData>
@@ -50536,7 +51279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -50544,7 +51287,7 @@
   <dimension ref="A1:BM100"/>
   <sheetViews>
     <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AM12" sqref="AM12:AO15"/>
+      <selection activeCell="AP12" sqref="AP12:AR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -50617,73 +51360,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="80"/>
-      <c r="BM1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="81"/>
+      <c r="BD1" s="81"/>
+      <c r="BE1" s="81"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="81"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="81"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="81"/>
+      <c r="BM1" s="82"/>
     </row>
     <row r="2" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
@@ -51004,9 +51747,15 @@
       <c r="AO3" s="16">
         <v>43635</v>
       </c>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="17"/>
+      <c r="AP3" s="52">
+        <v>43637</v>
+      </c>
+      <c r="AQ3" s="16">
+        <v>43637</v>
+      </c>
+      <c r="AR3" s="17">
+        <v>43637</v>
+      </c>
       <c r="AS3" s="15"/>
       <c r="AT3" s="16"/>
       <c r="AU3" s="17"/>
@@ -51153,9 +51902,15 @@
       <c r="AO4" s="40">
         <v>2726.14</v>
       </c>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="40"/>
+      <c r="AP4" s="38">
+        <v>3.2</v>
+      </c>
+      <c r="AQ4" s="39">
+        <v>54.93</v>
+      </c>
+      <c r="AR4" s="40">
+        <v>2746.93</v>
+      </c>
       <c r="AS4" s="38"/>
       <c r="AT4" s="39"/>
       <c r="AU4" s="40"/>
@@ -51302,9 +52057,15 @@
       <c r="AO5" s="42">
         <v>1763.63</v>
       </c>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="42"/>
+      <c r="AP5" s="41">
+        <v>3.77</v>
+      </c>
+      <c r="AQ5" s="37">
+        <v>35.93</v>
+      </c>
+      <c r="AR5" s="42">
+        <v>1796.51</v>
+      </c>
       <c r="AS5" s="41"/>
       <c r="AT5" s="37"/>
       <c r="AU5" s="42"/>
@@ -51451,9 +52212,15 @@
       <c r="AO6" s="42">
         <v>1205.3900000000001</v>
       </c>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="42"/>
+      <c r="AP6" s="41">
+        <v>3.77</v>
+      </c>
+      <c r="AQ6" s="37">
+        <v>37.26</v>
+      </c>
+      <c r="AR6" s="42">
+        <v>1242.0999999999999</v>
+      </c>
       <c r="AS6" s="41"/>
       <c r="AT6" s="37"/>
       <c r="AU6" s="42"/>
@@ -51600,9 +52367,15 @@
       <c r="AO7" s="42">
         <v>3816.08</v>
       </c>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="42"/>
+      <c r="AP7" s="41">
+        <v>3.26</v>
+      </c>
+      <c r="AQ7" s="37">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="AR7" s="42">
+        <v>3845.19</v>
+      </c>
       <c r="AS7" s="41"/>
       <c r="AT7" s="37"/>
       <c r="AU7" s="42"/>
@@ -51749,9 +52522,15 @@
       <c r="AO8" s="42">
         <v>4085.84</v>
       </c>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="42"/>
+      <c r="AP8" s="41">
+        <v>3.66</v>
+      </c>
+      <c r="AQ8" s="37">
+        <v>41.39</v>
+      </c>
+      <c r="AR8" s="42">
+        <v>4139.28</v>
+      </c>
       <c r="AS8" s="41"/>
       <c r="AT8" s="37"/>
       <c r="AU8" s="42"/>
@@ -51898,9 +52677,15 @@
       <c r="AO9" s="45">
         <v>4467.92</v>
       </c>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="42"/>
+      <c r="AP9" s="43">
+        <v>3.82</v>
+      </c>
+      <c r="AQ9" s="44">
+        <v>45.55</v>
+      </c>
+      <c r="AR9" s="45">
+        <v>4555.24</v>
+      </c>
       <c r="AS9" s="41"/>
       <c r="AT9" s="37"/>
       <c r="AU9" s="42"/>
@@ -51924,73 +52709,73 @@
       <c r="BM9" s="45"/>
     </row>
     <row r="10" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="80"/>
-      <c r="AF10" s="80"/>
-      <c r="AG10" s="80"/>
-      <c r="AH10" s="80"/>
-      <c r="AI10" s="80"/>
-      <c r="AJ10" s="80"/>
-      <c r="AK10" s="80"/>
-      <c r="AL10" s="80"/>
-      <c r="AM10" s="80"/>
-      <c r="AN10" s="80"/>
-      <c r="AO10" s="80"/>
-      <c r="AP10" s="80"/>
-      <c r="AQ10" s="80"/>
-      <c r="AR10" s="80"/>
-      <c r="AS10" s="80"/>
-      <c r="AT10" s="80"/>
-      <c r="AU10" s="80"/>
-      <c r="AV10" s="80"/>
-      <c r="AW10" s="80"/>
-      <c r="AX10" s="80"/>
-      <c r="AY10" s="80"/>
-      <c r="AZ10" s="80"/>
-      <c r="BA10" s="80"/>
-      <c r="BB10" s="80"/>
-      <c r="BC10" s="80"/>
-      <c r="BD10" s="80"/>
-      <c r="BE10" s="80"/>
-      <c r="BF10" s="80"/>
-      <c r="BG10" s="80"/>
-      <c r="BH10" s="80"/>
-      <c r="BI10" s="80"/>
-      <c r="BJ10" s="80"/>
-      <c r="BK10" s="80"/>
-      <c r="BL10" s="80"/>
-      <c r="BM10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="81"/>
+      <c r="AJ10" s="81"/>
+      <c r="AK10" s="81"/>
+      <c r="AL10" s="81"/>
+      <c r="AM10" s="81"/>
+      <c r="AN10" s="81"/>
+      <c r="AO10" s="81"/>
+      <c r="AP10" s="81"/>
+      <c r="AQ10" s="81"/>
+      <c r="AR10" s="81"/>
+      <c r="AS10" s="81"/>
+      <c r="AT10" s="81"/>
+      <c r="AU10" s="81"/>
+      <c r="AV10" s="81"/>
+      <c r="AW10" s="81"/>
+      <c r="AX10" s="81"/>
+      <c r="AY10" s="81"/>
+      <c r="AZ10" s="81"/>
+      <c r="BA10" s="81"/>
+      <c r="BB10" s="81"/>
+      <c r="BC10" s="81"/>
+      <c r="BD10" s="81"/>
+      <c r="BE10" s="81"/>
+      <c r="BF10" s="81"/>
+      <c r="BG10" s="81"/>
+      <c r="BH10" s="81"/>
+      <c r="BI10" s="81"/>
+      <c r="BJ10" s="81"/>
+      <c r="BK10" s="81"/>
+      <c r="BL10" s="81"/>
+      <c r="BM10" s="82"/>
     </row>
     <row r="11" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
@@ -52311,9 +53096,15 @@
       <c r="AO12" s="16">
         <v>43635</v>
       </c>
-      <c r="AP12" s="52"/>
-      <c r="AQ12" s="16"/>
-      <c r="AR12" s="17"/>
+      <c r="AP12" s="52">
+        <v>43637</v>
+      </c>
+      <c r="AQ12" s="16">
+        <v>43637</v>
+      </c>
+      <c r="AR12" s="17">
+        <v>43637</v>
+      </c>
       <c r="AS12" s="15"/>
       <c r="AT12" s="16"/>
       <c r="AU12" s="17"/>
@@ -52460,9 +53251,15 @@
       <c r="AO13" s="40">
         <v>851.81</v>
       </c>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="40"/>
+      <c r="AP13" s="38">
+        <v>6.31</v>
+      </c>
+      <c r="AQ13" s="39">
+        <v>34.26</v>
+      </c>
+      <c r="AR13" s="40">
+        <v>856.69</v>
+      </c>
       <c r="AS13" s="38"/>
       <c r="AT13" s="39"/>
       <c r="AU13" s="40"/>
@@ -52609,9 +53406,15 @@
       <c r="AO14" s="42">
         <v>670.66</v>
       </c>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="42"/>
+      <c r="AP14" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="AQ14" s="37">
+        <v>34.04</v>
+      </c>
+      <c r="AR14" s="42">
+        <v>680.93</v>
+      </c>
       <c r="AS14" s="41"/>
       <c r="AT14" s="37"/>
       <c r="AU14" s="42"/>
@@ -52758,9 +53561,15 @@
       <c r="AO15" s="45">
         <v>1181.04</v>
       </c>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="42"/>
+      <c r="AP15" s="43">
+        <v>7.62</v>
+      </c>
+      <c r="AQ15" s="44">
+        <v>36.03</v>
+      </c>
+      <c r="AR15" s="45">
+        <v>1201.08</v>
+      </c>
       <c r="AS15" s="41"/>
       <c r="AT15" s="37"/>
       <c r="AU15" s="42"/>
@@ -52784,73 +53593,73 @@
       <c r="BM15" s="45"/>
     </row>
     <row r="16" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="80"/>
-      <c r="AK16" s="80"/>
-      <c r="AL16" s="80"/>
-      <c r="AM16" s="80"/>
-      <c r="AN16" s="80"/>
-      <c r="AO16" s="80"/>
-      <c r="AP16" s="80"/>
-      <c r="AQ16" s="80"/>
-      <c r="AR16" s="80"/>
-      <c r="AS16" s="80"/>
-      <c r="AT16" s="80"/>
-      <c r="AU16" s="80"/>
-      <c r="AV16" s="80"/>
-      <c r="AW16" s="80"/>
-      <c r="AX16" s="80"/>
-      <c r="AY16" s="80"/>
-      <c r="AZ16" s="80"/>
-      <c r="BA16" s="80"/>
-      <c r="BB16" s="80"/>
-      <c r="BC16" s="80"/>
-      <c r="BD16" s="80"/>
-      <c r="BE16" s="80"/>
-      <c r="BF16" s="80"/>
-      <c r="BG16" s="80"/>
-      <c r="BH16" s="80"/>
-      <c r="BI16" s="80"/>
-      <c r="BJ16" s="80"/>
-      <c r="BK16" s="80"/>
-      <c r="BL16" s="80"/>
-      <c r="BM16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="81"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="81"/>
+      <c r="AL16" s="81"/>
+      <c r="AM16" s="81"/>
+      <c r="AN16" s="81"/>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="81"/>
+      <c r="AQ16" s="81"/>
+      <c r="AR16" s="81"/>
+      <c r="AS16" s="81"/>
+      <c r="AT16" s="81"/>
+      <c r="AU16" s="81"/>
+      <c r="AV16" s="81"/>
+      <c r="AW16" s="81"/>
+      <c r="AX16" s="81"/>
+      <c r="AY16" s="81"/>
+      <c r="AZ16" s="81"/>
+      <c r="BA16" s="81"/>
+      <c r="BB16" s="81"/>
+      <c r="BC16" s="81"/>
+      <c r="BD16" s="81"/>
+      <c r="BE16" s="81"/>
+      <c r="BF16" s="81"/>
+      <c r="BG16" s="81"/>
+      <c r="BH16" s="81"/>
+      <c r="BI16" s="81"/>
+      <c r="BJ16" s="81"/>
+      <c r="BK16" s="81"/>
+      <c r="BL16" s="81"/>
+      <c r="BM16" s="82"/>
     </row>
     <row r="17" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
@@ -53171,9 +53980,15 @@
       <c r="AO18" s="16">
         <v>43635</v>
       </c>
-      <c r="AP18" s="52"/>
-      <c r="AQ18" s="16"/>
-      <c r="AR18" s="17"/>
+      <c r="AP18" s="52">
+        <v>43637</v>
+      </c>
+      <c r="AQ18" s="16">
+        <v>43637</v>
+      </c>
+      <c r="AR18" s="17">
+        <v>43637</v>
+      </c>
       <c r="AS18" s="52"/>
       <c r="AT18" s="16"/>
       <c r="AU18" s="17"/>
@@ -53320,9 +54135,15 @@
       <c r="AO19" s="48">
         <v>10160.129999999999</v>
       </c>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="48"/>
+      <c r="AP19" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="AQ19" s="47">
+        <v>101.62</v>
+      </c>
+      <c r="AR19" s="48">
+        <v>10162.64</v>
+      </c>
       <c r="AS19" s="46"/>
       <c r="AT19" s="47"/>
       <c r="AU19" s="48"/>
@@ -53438,12 +54259,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
     <sheetView topLeftCell="AM1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4:AO6"/>
+      <selection activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -53516,73 +54337,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="80"/>
-      <c r="BM1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="81"/>
+      <c r="BD1" s="81"/>
+      <c r="BE1" s="81"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="81"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="81"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="81"/>
+      <c r="BM1" s="82"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
@@ -53903,9 +54724,15 @@
       <c r="AO3" s="17">
         <v>43635</v>
       </c>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="17"/>
+      <c r="AP3" s="52">
+        <v>43637</v>
+      </c>
+      <c r="AQ3" s="16">
+        <v>43637</v>
+      </c>
+      <c r="AR3" s="17">
+        <v>43637</v>
+      </c>
       <c r="AS3" s="15"/>
       <c r="AT3" s="16"/>
       <c r="AU3" s="17"/>
@@ -54052,9 +54879,15 @@
       <c r="AO4" s="40">
         <v>2726.14</v>
       </c>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="40"/>
+      <c r="AP4" s="38">
+        <v>3.2</v>
+      </c>
+      <c r="AQ4" s="39">
+        <v>54.93</v>
+      </c>
+      <c r="AR4" s="40">
+        <v>2746.93</v>
+      </c>
       <c r="AS4" s="38"/>
       <c r="AT4" s="39"/>
       <c r="AU4" s="40"/>
@@ -54201,9 +55034,15 @@
       <c r="AO5" s="42">
         <v>1763.63</v>
       </c>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="42"/>
+      <c r="AP5" s="41">
+        <v>3.77</v>
+      </c>
+      <c r="AQ5" s="37">
+        <v>35.93</v>
+      </c>
+      <c r="AR5" s="42">
+        <v>1796.51</v>
+      </c>
       <c r="AS5" s="41"/>
       <c r="AT5" s="37"/>
       <c r="AU5" s="42"/>
@@ -54350,1041 +55189,15 @@
       <c r="AO6" s="45">
         <v>1205.3900000000001</v>
       </c>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="43"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="43"/>
-      <c r="BF6" s="44"/>
-      <c r="BG6" s="45"/>
-      <c r="BH6" s="43"/>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="45"/>
-      <c r="BK6" s="43"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="45"/>
-    </row>
-    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:BM1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM100"/>
-  <sheetViews>
-    <sheetView topLeftCell="AM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4:AO6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="80"/>
-      <c r="BM1" s="81"/>
-    </row>
-    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM2" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43619</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43620</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="I3" s="64">
-        <v>43621</v>
-      </c>
-      <c r="J3" s="12">
-        <v>43621</v>
-      </c>
-      <c r="K3" s="34">
-        <v>43621</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="M3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="N3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="O3" s="15">
-        <v>43623</v>
-      </c>
-      <c r="P3" s="16">
-        <v>43623</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>43623</v>
-      </c>
-      <c r="R3" s="15">
-        <v>43626</v>
-      </c>
-      <c r="S3" s="16">
-        <v>43626</v>
-      </c>
-      <c r="T3" s="17">
-        <v>43626</v>
-      </c>
-      <c r="U3" s="15">
-        <v>43627</v>
-      </c>
-      <c r="V3" s="16">
-        <v>43627</v>
-      </c>
-      <c r="W3" s="17">
-        <v>43627</v>
-      </c>
-      <c r="X3" s="15">
-        <v>43628</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>43628</v>
-      </c>
-      <c r="Z3" s="17">
-        <v>43628</v>
-      </c>
-      <c r="AA3" s="15">
-        <v>43629</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>43629</v>
-      </c>
-      <c r="AC3" s="17">
-        <v>43629</v>
-      </c>
-      <c r="AD3" s="15">
-        <v>43630</v>
-      </c>
-      <c r="AE3" s="16">
-        <v>43630</v>
-      </c>
-      <c r="AF3" s="17">
-        <v>43630</v>
-      </c>
-      <c r="AG3" s="15">
-        <v>43633</v>
-      </c>
-      <c r="AH3" s="16">
-        <v>43633</v>
-      </c>
-      <c r="AI3" s="17">
-        <v>43633</v>
-      </c>
-      <c r="AJ3" s="15">
-        <v>43634</v>
-      </c>
-      <c r="AK3" s="16">
-        <v>43634</v>
-      </c>
-      <c r="AL3" s="17">
-        <v>43634</v>
-      </c>
-      <c r="AM3" s="15">
-        <v>43635</v>
-      </c>
-      <c r="AN3" s="16">
-        <v>43635</v>
-      </c>
-      <c r="AO3" s="17">
-        <v>43635</v>
-      </c>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="17"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="16"/>
-      <c r="BJ3" s="17"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="16"/>
-      <c r="BM3" s="17"/>
-    </row>
-    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="49">
-        <v>46249</v>
-      </c>
-      <c r="C4" s="38">
-        <v>3.71</v>
-      </c>
-      <c r="D4" s="39">
-        <v>37.409999999999997</v>
-      </c>
-      <c r="E4" s="40">
-        <v>3741.25</v>
-      </c>
-      <c r="F4" s="38">
-        <v>3.65</v>
-      </c>
-      <c r="G4" s="39">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="H4" s="40">
-        <v>3755</v>
-      </c>
-      <c r="I4" s="41">
-        <v>3.67</v>
-      </c>
-      <c r="J4" s="37">
-        <v>37.51</v>
-      </c>
-      <c r="K4" s="42">
-        <v>3751.51</v>
-      </c>
-      <c r="L4" s="38">
-        <v>3.67</v>
-      </c>
-      <c r="M4" s="39">
-        <v>37.520000000000003</v>
-      </c>
-      <c r="N4" s="40">
-        <v>3752.34</v>
-      </c>
-      <c r="O4" s="38">
-        <v>3.54</v>
-      </c>
-      <c r="P4" s="39">
-        <v>37.78</v>
-      </c>
-      <c r="Q4" s="40">
-        <v>3778.4</v>
-      </c>
-      <c r="R4" s="38">
-        <v>3.52</v>
-      </c>
-      <c r="S4" s="39">
-        <v>37.83</v>
-      </c>
-      <c r="T4" s="40">
-        <v>3783.42</v>
-      </c>
-      <c r="U4" s="38">
-        <v>3.47</v>
-      </c>
-      <c r="V4" s="39">
-        <v>37.94</v>
-      </c>
-      <c r="W4" s="40">
-        <v>3794.99</v>
-      </c>
-      <c r="X4" s="38">
-        <v>3.44</v>
-      </c>
-      <c r="Y4" s="39">
-        <v>38.020000000000003</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>3802.21</v>
-      </c>
-      <c r="AA4" s="38">
-        <v>3.46</v>
-      </c>
-      <c r="AB4" s="39">
-        <v>37.979999999999997</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>3798.51</v>
-      </c>
-      <c r="AD4" s="38">
-        <v>3.45</v>
-      </c>
-      <c r="AE4" s="39">
-        <v>38.01</v>
-      </c>
-      <c r="AF4" s="40">
-        <v>3801.39</v>
-      </c>
-      <c r="AG4" s="38">
-        <v>3.41</v>
-      </c>
-      <c r="AH4" s="39">
-        <v>38.1</v>
-      </c>
-      <c r="AI4" s="40">
-        <v>3810.65</v>
-      </c>
-      <c r="AJ4" s="38">
-        <v>3.37</v>
-      </c>
-      <c r="AK4" s="39">
-        <v>38.19</v>
-      </c>
-      <c r="AL4" s="40">
-        <v>3819.93</v>
-      </c>
-      <c r="AM4" s="38">
-        <v>3.39</v>
-      </c>
-      <c r="AN4" s="39">
-        <v>38.159999999999997</v>
-      </c>
-      <c r="AO4" s="40">
-        <v>3816.08</v>
-      </c>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="38"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="40"/>
-    </row>
-    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="49">
-        <v>49444</v>
-      </c>
-      <c r="C5" s="41">
-        <v>3.9</v>
-      </c>
-      <c r="D5" s="37">
-        <v>40.270000000000003</v>
-      </c>
-      <c r="E5" s="42">
-        <v>4027.51</v>
-      </c>
-      <c r="F5" s="41">
-        <v>3.83</v>
-      </c>
-      <c r="G5" s="37">
-        <v>40.58</v>
-      </c>
-      <c r="H5" s="42">
-        <v>4058.68</v>
-      </c>
-      <c r="I5" s="41">
-        <v>3.86</v>
-      </c>
-      <c r="J5" s="37">
-        <v>40.46</v>
-      </c>
-      <c r="K5" s="42">
-        <v>4046.61</v>
-      </c>
-      <c r="L5" s="41">
-        <v>3.87</v>
-      </c>
-      <c r="M5" s="37">
-        <v>40.43</v>
-      </c>
-      <c r="N5" s="42">
-        <v>4043.21</v>
-      </c>
-      <c r="O5" s="41">
-        <v>3.84</v>
-      </c>
-      <c r="P5" s="37">
-        <v>40.54</v>
-      </c>
-      <c r="Q5" s="42">
-        <v>4054</v>
-      </c>
-      <c r="R5" s="41">
-        <v>3.83</v>
-      </c>
-      <c r="S5" s="37">
-        <v>40.590000000000003</v>
-      </c>
-      <c r="T5" s="42">
-        <v>4059.11</v>
-      </c>
-      <c r="U5" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="V5" s="37">
-        <v>40.72</v>
-      </c>
-      <c r="W5" s="42">
-        <v>4072.92</v>
-      </c>
-      <c r="X5" s="41">
-        <v>3.78</v>
-      </c>
-      <c r="Y5" s="37">
-        <v>40.82</v>
-      </c>
-      <c r="Z5" s="42">
-        <v>4082.41</v>
-      </c>
-      <c r="AA5" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="AB5" s="37">
-        <v>40.74</v>
-      </c>
-      <c r="AC5" s="42">
-        <v>4074.47</v>
-      </c>
-      <c r="AD5" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="AE5" s="37">
-        <v>40.75</v>
-      </c>
-      <c r="AF5" s="42">
-        <v>4075.27</v>
-      </c>
-      <c r="AG5" s="41">
-        <v>3.78</v>
-      </c>
-      <c r="AH5" s="37">
-        <v>40.840000000000003</v>
-      </c>
-      <c r="AI5" s="42">
-        <v>4084.6</v>
-      </c>
-      <c r="AJ5" s="41">
+      <c r="AP6" s="43">
         <v>3.77</v>
       </c>
-      <c r="AK5" s="37">
-        <v>40.89</v>
-      </c>
-      <c r="AL5" s="42">
-        <v>4089.58</v>
-      </c>
-      <c r="AM5" s="41">
-        <v>3.78</v>
-      </c>
-      <c r="AN5" s="37">
-        <v>40.85</v>
-      </c>
-      <c r="AO5" s="42">
-        <v>4085.84</v>
-      </c>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="42"/>
-    </row>
-    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="50">
-        <v>55015</v>
-      </c>
-      <c r="C6" s="43">
-        <v>4.09</v>
-      </c>
-      <c r="D6" s="44">
-        <v>43.55</v>
-      </c>
-      <c r="E6" s="45">
-        <v>4355.7700000000004</v>
-      </c>
-      <c r="F6" s="43">
-        <v>3.98</v>
-      </c>
-      <c r="G6" s="44">
-        <v>44.33</v>
-      </c>
-      <c r="H6" s="45">
-        <v>4433.3999999999996</v>
-      </c>
-      <c r="I6" s="43">
-        <v>4.01</v>
-      </c>
-      <c r="J6" s="44">
-        <v>44.13</v>
-      </c>
-      <c r="K6" s="45">
-        <v>4413.34</v>
-      </c>
-      <c r="L6" s="43">
-        <v>4.05</v>
-      </c>
-      <c r="M6" s="44">
-        <v>43.86</v>
-      </c>
-      <c r="N6" s="45">
-        <v>4386.4799999999996</v>
-      </c>
-      <c r="O6" s="43">
-        <v>4.03</v>
-      </c>
-      <c r="P6" s="44">
-        <v>43.98</v>
-      </c>
-      <c r="Q6" s="45">
-        <v>4398.05</v>
-      </c>
-      <c r="R6" s="43">
-        <v>4.03</v>
-      </c>
-      <c r="S6" s="44">
-        <v>43.98</v>
-      </c>
-      <c r="T6" s="45">
-        <v>4398.93</v>
-      </c>
-      <c r="U6" s="43">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="V6" s="44">
-        <v>44.06</v>
-      </c>
-      <c r="W6" s="45">
-        <v>4406.7700000000004</v>
-      </c>
-      <c r="X6" s="43">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="44">
-        <v>44.21</v>
-      </c>
-      <c r="Z6" s="45">
-        <v>4421.6499999999996</v>
-      </c>
-      <c r="AA6" s="43">
-        <v>3.99</v>
-      </c>
-      <c r="AB6" s="44">
-        <v>44.29</v>
-      </c>
-      <c r="AC6" s="45">
-        <v>4429.54</v>
-      </c>
-      <c r="AD6" s="43">
-        <v>3.98</v>
-      </c>
-      <c r="AE6" s="44">
-        <v>44.37</v>
-      </c>
-      <c r="AF6" s="45">
-        <v>4437.49</v>
-      </c>
-      <c r="AG6" s="43">
-        <v>3.96</v>
-      </c>
-      <c r="AH6" s="44">
-        <v>44.52</v>
-      </c>
-      <c r="AI6" s="45">
-        <v>4452.32</v>
-      </c>
-      <c r="AJ6" s="43">
-        <v>3.94</v>
-      </c>
-      <c r="AK6" s="44">
-        <v>44.67</v>
-      </c>
-      <c r="AL6" s="45">
-        <v>4467.21</v>
-      </c>
-      <c r="AM6" s="43">
-        <v>3.94</v>
-      </c>
-      <c r="AN6" s="44">
-        <v>44.67</v>
-      </c>
-      <c r="AO6" s="45">
-        <v>4467.92</v>
-      </c>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="45"/>
+      <c r="AQ6" s="44">
+        <v>37.26</v>
+      </c>
+      <c r="AR6" s="45">
+        <v>1242.0999999999999</v>
+      </c>
       <c r="AS6" s="43"/>
       <c r="AT6" s="44"/>
       <c r="AU6" s="45"/>
@@ -55515,8 +55328,1064 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
+    <sheetView topLeftCell="AM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR4" sqref="AR4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="81"/>
+      <c r="BD1" s="81"/>
+      <c r="BE1" s="81"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="81"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="81"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="81"/>
+      <c r="BM1" s="82"/>
+    </row>
+    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43619</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43620</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="I3" s="64">
+        <v>43621</v>
+      </c>
+      <c r="J3" s="12">
+        <v>43621</v>
+      </c>
+      <c r="K3" s="34">
+        <v>43621</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="O3" s="15">
+        <v>43623</v>
+      </c>
+      <c r="P3" s="16">
+        <v>43623</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>43623</v>
+      </c>
+      <c r="R3" s="15">
+        <v>43626</v>
+      </c>
+      <c r="S3" s="16">
+        <v>43626</v>
+      </c>
+      <c r="T3" s="17">
+        <v>43626</v>
+      </c>
+      <c r="U3" s="15">
+        <v>43627</v>
+      </c>
+      <c r="V3" s="16">
+        <v>43627</v>
+      </c>
+      <c r="W3" s="17">
+        <v>43627</v>
+      </c>
+      <c r="X3" s="15">
+        <v>43628</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>43628</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>43628</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>43629</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>43629</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>43629</v>
+      </c>
+      <c r="AD3" s="15">
+        <v>43630</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>43630</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>43630</v>
+      </c>
+      <c r="AG3" s="15">
+        <v>43633</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>43633</v>
+      </c>
+      <c r="AI3" s="17">
+        <v>43633</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>43634</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>43634</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>43634</v>
+      </c>
+      <c r="AM3" s="15">
+        <v>43635</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>43635</v>
+      </c>
+      <c r="AO3" s="17">
+        <v>43635</v>
+      </c>
+      <c r="AP3" s="29">
+        <v>43637</v>
+      </c>
+      <c r="AQ3" s="29">
+        <v>43637</v>
+      </c>
+      <c r="AR3" s="29">
+        <v>43637</v>
+      </c>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="17"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="17"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="17"/>
+    </row>
+    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="49">
+        <v>46249</v>
+      </c>
+      <c r="C4" s="38">
+        <v>3.71</v>
+      </c>
+      <c r="D4" s="39">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="E4" s="40">
+        <v>3741.25</v>
+      </c>
+      <c r="F4" s="38">
+        <v>3.65</v>
+      </c>
+      <c r="G4" s="39">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="H4" s="40">
+        <v>3755</v>
+      </c>
+      <c r="I4" s="41">
+        <v>3.67</v>
+      </c>
+      <c r="J4" s="37">
+        <v>37.51</v>
+      </c>
+      <c r="K4" s="42">
+        <v>3751.51</v>
+      </c>
+      <c r="L4" s="38">
+        <v>3.67</v>
+      </c>
+      <c r="M4" s="39">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="N4" s="40">
+        <v>3752.34</v>
+      </c>
+      <c r="O4" s="38">
+        <v>3.54</v>
+      </c>
+      <c r="P4" s="39">
+        <v>37.78</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>3778.4</v>
+      </c>
+      <c r="R4" s="38">
+        <v>3.52</v>
+      </c>
+      <c r="S4" s="39">
+        <v>37.83</v>
+      </c>
+      <c r="T4" s="40">
+        <v>3783.42</v>
+      </c>
+      <c r="U4" s="38">
+        <v>3.47</v>
+      </c>
+      <c r="V4" s="39">
+        <v>37.94</v>
+      </c>
+      <c r="W4" s="40">
+        <v>3794.99</v>
+      </c>
+      <c r="X4" s="38">
+        <v>3.44</v>
+      </c>
+      <c r="Y4" s="39">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="Z4" s="40">
+        <v>3802.21</v>
+      </c>
+      <c r="AA4" s="38">
+        <v>3.46</v>
+      </c>
+      <c r="AB4" s="39">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="AC4" s="40">
+        <v>3798.51</v>
+      </c>
+      <c r="AD4" s="38">
+        <v>3.45</v>
+      </c>
+      <c r="AE4" s="39">
+        <v>38.01</v>
+      </c>
+      <c r="AF4" s="40">
+        <v>3801.39</v>
+      </c>
+      <c r="AG4" s="38">
+        <v>3.41</v>
+      </c>
+      <c r="AH4" s="39">
+        <v>38.1</v>
+      </c>
+      <c r="AI4" s="40">
+        <v>3810.65</v>
+      </c>
+      <c r="AJ4" s="38">
+        <v>3.37</v>
+      </c>
+      <c r="AK4" s="39">
+        <v>38.19</v>
+      </c>
+      <c r="AL4" s="40">
+        <v>3819.93</v>
+      </c>
+      <c r="AM4" s="38">
+        <v>3.39</v>
+      </c>
+      <c r="AN4" s="39">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="AO4" s="40">
+        <v>3816.08</v>
+      </c>
+      <c r="AP4" s="38">
+        <v>3.26</v>
+      </c>
+      <c r="AQ4" s="39">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="AR4" s="40">
+        <v>3845.19</v>
+      </c>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="40"/>
+    </row>
+    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="49">
+        <v>49444</v>
+      </c>
+      <c r="C5" s="41">
+        <v>3.9</v>
+      </c>
+      <c r="D5" s="37">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="E5" s="42">
+        <v>4027.51</v>
+      </c>
+      <c r="F5" s="41">
+        <v>3.83</v>
+      </c>
+      <c r="G5" s="37">
+        <v>40.58</v>
+      </c>
+      <c r="H5" s="42">
+        <v>4058.68</v>
+      </c>
+      <c r="I5" s="41">
+        <v>3.86</v>
+      </c>
+      <c r="J5" s="37">
+        <v>40.46</v>
+      </c>
+      <c r="K5" s="42">
+        <v>4046.61</v>
+      </c>
+      <c r="L5" s="41">
+        <v>3.87</v>
+      </c>
+      <c r="M5" s="37">
+        <v>40.43</v>
+      </c>
+      <c r="N5" s="42">
+        <v>4043.21</v>
+      </c>
+      <c r="O5" s="41">
+        <v>3.84</v>
+      </c>
+      <c r="P5" s="37">
+        <v>40.54</v>
+      </c>
+      <c r="Q5" s="42">
+        <v>4054</v>
+      </c>
+      <c r="R5" s="41">
+        <v>3.83</v>
+      </c>
+      <c r="S5" s="37">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="T5" s="42">
+        <v>4059.11</v>
+      </c>
+      <c r="U5" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="V5" s="37">
+        <v>40.72</v>
+      </c>
+      <c r="W5" s="42">
+        <v>4072.92</v>
+      </c>
+      <c r="X5" s="41">
+        <v>3.78</v>
+      </c>
+      <c r="Y5" s="37">
+        <v>40.82</v>
+      </c>
+      <c r="Z5" s="42">
+        <v>4082.41</v>
+      </c>
+      <c r="AA5" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="AB5" s="37">
+        <v>40.74</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>4074.47</v>
+      </c>
+      <c r="AD5" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>40.75</v>
+      </c>
+      <c r="AF5" s="42">
+        <v>4075.27</v>
+      </c>
+      <c r="AG5" s="41">
+        <v>3.78</v>
+      </c>
+      <c r="AH5" s="37">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="AI5" s="42">
+        <v>4084.6</v>
+      </c>
+      <c r="AJ5" s="41">
+        <v>3.77</v>
+      </c>
+      <c r="AK5" s="37">
+        <v>40.89</v>
+      </c>
+      <c r="AL5" s="42">
+        <v>4089.58</v>
+      </c>
+      <c r="AM5" s="41">
+        <v>3.78</v>
+      </c>
+      <c r="AN5" s="37">
+        <v>40.85</v>
+      </c>
+      <c r="AO5" s="42">
+        <v>4085.84</v>
+      </c>
+      <c r="AP5" s="41">
+        <v>3.66</v>
+      </c>
+      <c r="AQ5" s="37">
+        <v>41.39</v>
+      </c>
+      <c r="AR5" s="42">
+        <v>4139.28</v>
+      </c>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="42"/>
+    </row>
+    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="50">
+        <v>55015</v>
+      </c>
+      <c r="C6" s="43">
+        <v>4.09</v>
+      </c>
+      <c r="D6" s="44">
+        <v>43.55</v>
+      </c>
+      <c r="E6" s="45">
+        <v>4355.7700000000004</v>
+      </c>
+      <c r="F6" s="43">
+        <v>3.98</v>
+      </c>
+      <c r="G6" s="44">
+        <v>44.33</v>
+      </c>
+      <c r="H6" s="45">
+        <v>4433.3999999999996</v>
+      </c>
+      <c r="I6" s="43">
+        <v>4.01</v>
+      </c>
+      <c r="J6" s="44">
+        <v>44.13</v>
+      </c>
+      <c r="K6" s="45">
+        <v>4413.34</v>
+      </c>
+      <c r="L6" s="43">
+        <v>4.05</v>
+      </c>
+      <c r="M6" s="44">
+        <v>43.86</v>
+      </c>
+      <c r="N6" s="45">
+        <v>4386.4799999999996</v>
+      </c>
+      <c r="O6" s="43">
+        <v>4.03</v>
+      </c>
+      <c r="P6" s="44">
+        <v>43.98</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>4398.05</v>
+      </c>
+      <c r="R6" s="43">
+        <v>4.03</v>
+      </c>
+      <c r="S6" s="44">
+        <v>43.98</v>
+      </c>
+      <c r="T6" s="45">
+        <v>4398.93</v>
+      </c>
+      <c r="U6" s="43">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="V6" s="44">
+        <v>44.06</v>
+      </c>
+      <c r="W6" s="45">
+        <v>4406.7700000000004</v>
+      </c>
+      <c r="X6" s="43">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="44">
+        <v>44.21</v>
+      </c>
+      <c r="Z6" s="45">
+        <v>4421.6499999999996</v>
+      </c>
+      <c r="AA6" s="43">
+        <v>3.99</v>
+      </c>
+      <c r="AB6" s="44">
+        <v>44.29</v>
+      </c>
+      <c r="AC6" s="45">
+        <v>4429.54</v>
+      </c>
+      <c r="AD6" s="43">
+        <v>3.98</v>
+      </c>
+      <c r="AE6" s="44">
+        <v>44.37</v>
+      </c>
+      <c r="AF6" s="45">
+        <v>4437.49</v>
+      </c>
+      <c r="AG6" s="43">
+        <v>3.96</v>
+      </c>
+      <c r="AH6" s="44">
+        <v>44.52</v>
+      </c>
+      <c r="AI6" s="45">
+        <v>4452.32</v>
+      </c>
+      <c r="AJ6" s="43">
+        <v>3.94</v>
+      </c>
+      <c r="AK6" s="44">
+        <v>44.67</v>
+      </c>
+      <c r="AL6" s="45">
+        <v>4467.21</v>
+      </c>
+      <c r="AM6" s="43">
+        <v>3.94</v>
+      </c>
+      <c r="AN6" s="44">
+        <v>44.67</v>
+      </c>
+      <c r="AO6" s="45">
+        <v>4467.92</v>
+      </c>
+      <c r="AP6" s="43">
+        <v>3.82</v>
+      </c>
+      <c r="AQ6" s="44">
+        <v>45.55</v>
+      </c>
+      <c r="AR6" s="45">
+        <v>4555.24</v>
+      </c>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="43"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="43"/>
+      <c r="BF6" s="44"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="43"/>
+      <c r="BI6" s="44"/>
+      <c r="BJ6" s="45"/>
+      <c r="BK6" s="43"/>
+      <c r="BL6" s="44"/>
+      <c r="BM6" s="45"/>
+    </row>
+    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:BM1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM100"/>
+  <sheetViews>
     <sheetView topLeftCell="AM1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3:AO6"/>
+      <selection activeCell="AP3" sqref="AP3:AR6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -55589,73 +56458,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="80"/>
-      <c r="BM1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="81"/>
+      <c r="BD1" s="81"/>
+      <c r="BE1" s="81"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="81"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="81"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="81"/>
+      <c r="BM1" s="82"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -55976,9 +56845,15 @@
       <c r="AO3" s="16">
         <v>43635</v>
       </c>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="17"/>
+      <c r="AP3" s="52">
+        <v>43637</v>
+      </c>
+      <c r="AQ3" s="16">
+        <v>43637</v>
+      </c>
+      <c r="AR3" s="17">
+        <v>43637</v>
+      </c>
       <c r="AS3" s="15"/>
       <c r="AT3" s="16"/>
       <c r="AU3" s="17"/>
@@ -56125,9 +57000,15 @@
       <c r="AO4" s="40">
         <v>851.81</v>
       </c>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="40"/>
+      <c r="AP4" s="38">
+        <v>6.31</v>
+      </c>
+      <c r="AQ4" s="39">
+        <v>34.26</v>
+      </c>
+      <c r="AR4" s="40">
+        <v>856.69</v>
+      </c>
       <c r="AS4" s="38"/>
       <c r="AT4" s="39"/>
       <c r="AU4" s="40"/>
@@ -56274,9 +57155,15 @@
       <c r="AO5" s="42">
         <v>670.66</v>
       </c>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="42"/>
+      <c r="AP5" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="AQ5" s="37">
+        <v>34.04</v>
+      </c>
+      <c r="AR5" s="42">
+        <v>680.93</v>
+      </c>
       <c r="AS5" s="41"/>
       <c r="AT5" s="37"/>
       <c r="AU5" s="42"/>
@@ -56423,9 +57310,15 @@
       <c r="AO6" s="45">
         <v>1181.04</v>
       </c>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="45"/>
+      <c r="AP6" s="43">
+        <v>7.62</v>
+      </c>
+      <c r="AQ6" s="44">
+        <v>36.03</v>
+      </c>
+      <c r="AR6" s="45">
+        <v>1201.08</v>
+      </c>
       <c r="AS6" s="43"/>
       <c r="AT6" s="44"/>
       <c r="AU6" s="45"/>
@@ -56552,12 +57445,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
     <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3:AO4"/>
+      <selection activeCell="AP3" sqref="AP3:AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -56630,73 +57523,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="80"/>
-      <c r="BM1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="81"/>
+      <c r="BD1" s="81"/>
+      <c r="BE1" s="81"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="81"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="81"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="81"/>
+      <c r="BM1" s="82"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -57017,9 +57910,15 @@
       <c r="AO3" s="16">
         <v>43635</v>
       </c>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="17"/>
+      <c r="AP3" s="52">
+        <v>43637</v>
+      </c>
+      <c r="AQ3" s="16">
+        <v>43637</v>
+      </c>
+      <c r="AR3" s="17">
+        <v>43637</v>
+      </c>
       <c r="AS3" s="52"/>
       <c r="AT3" s="16"/>
       <c r="AU3" s="17"/>
@@ -57166,9 +58065,15 @@
       <c r="AO4" s="48">
         <v>10160.129999999999</v>
       </c>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="48"/>
+      <c r="AP4" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="AQ4" s="47">
+        <v>101.62</v>
+      </c>
+      <c r="AR4" s="48">
+        <v>10162.64</v>
+      </c>
       <c r="AS4" s="46"/>
       <c r="AT4" s="47"/>
       <c r="AU4" s="48"/>
@@ -57336,10 +58241,10 @@
       <c r="A2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -57447,10 +58352,10 @@
       <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -57507,10 +58412,10 @@
       <c r="A13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -57579,10 +58484,10 @@
       <c r="A2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -57690,10 +58595,10 @@
       <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -57750,10 +58655,10 @@
       <c r="A13" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -57821,10 +58726,10 @@
       <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -57932,10 +58837,10 @@
       <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -57992,10 +58897,10 @@
       <c r="A13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -58064,10 +58969,10 @@
       <c r="A2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -58175,10 +59080,10 @@
       <c r="A9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -58235,10 +59140,10 @@
       <c r="A13" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -58307,10 +59212,10 @@
       <c r="A2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -58418,10 +59323,10 @@
       <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -58478,10 +59383,10 @@
       <c r="A13" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -58549,10 +59454,10 @@
       <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -58660,10 +59565,10 @@
       <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -58720,10 +59625,10 @@
       <c r="A13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -58792,10 +59697,10 @@
       <c r="A2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -58903,10 +59808,10 @@
       <c r="A9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -58963,10 +59868,10 @@
       <c r="A13" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -59035,10 +59940,10 @@
       <c r="A2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -59146,10 +60051,10 @@
       <c r="A9" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -59206,10 +60111,10 @@
       <c r="A13" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">

--- a/TESOURO DIRETO_0619 - Compra.xlsx
+++ b/TESOURO DIRETO_0619 - Compra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="030619" sheetId="9" r:id="rId1"/>
@@ -26,18 +26,19 @@
     <sheet name="180619" sheetId="20" r:id="rId12"/>
     <sheet name="190619" sheetId="21" r:id="rId13"/>
     <sheet name="210619" sheetId="22" r:id="rId14"/>
-    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId15"/>
-    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId16"/>
-    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId17"/>
-    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId18"/>
-    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId19"/>
+    <sheet name="240619" sheetId="23" r:id="rId15"/>
+    <sheet name="COMPARAÇÃO DIA A DIA" sheetId="4" r:id="rId16"/>
+    <sheet name="TESOURO IPCA" sheetId="5" r:id="rId17"/>
+    <sheet name="TESOURO IPCA JUROS SEMESTRAIS" sheetId="6" r:id="rId18"/>
+    <sheet name="TESOURO PREFIXADOS" sheetId="7" r:id="rId19"/>
+    <sheet name="TESOURO SELIC" sheetId="8" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="25">
   <si>
     <t>Vencimento</t>
   </si>
@@ -513,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,6 +751,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1034,6 +1038,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1139,6 +1146,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>3.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,6 +1321,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1415,6 +1428,9 @@
                   <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>3.77</c:v>
                 </c:pt>
               </c:numCache>
@@ -1588,6 +1604,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1692,6 +1711,9 @@
                   <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>3.77</c:v>
                 </c:pt>
               </c:numCache>
@@ -1865,6 +1887,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1970,6 +1995,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>3.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2142,6 +2170,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2247,6 +2278,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>3.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,6 +2453,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2525,6 +2562,9 @@
                 <c:pt idx="13" formatCode="General">
                   <c:v>3.82</c:v>
                 </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>3.82</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2540,11 +2580,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2032118800"/>
-        <c:axId val="2032119344"/>
+        <c:axId val="1915041472"/>
+        <c:axId val="1915050176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2032118800"/>
+        <c:axId val="1915041472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2626,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2032119344"/>
+        <c:crossAx val="1915050176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2594,7 +2634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2032119344"/>
+        <c:axId val="1915050176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2644,7 +2684,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2032118800"/>
+        <c:crossAx val="1915041472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2925,6 +2965,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3030,6 +3073,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>3.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3067,8 +3113,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083191424"/>
-        <c:axId val="2083187616"/>
+        <c:axId val="1926644624"/>
+        <c:axId val="1926638640"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3234,6 +3280,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3340,6 +3389,9 @@
                         <c:v>3.89</c:v>
                       </c:pt>
                       <c:pt idx="13" formatCode="General">
+                        <c:v>3.77</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
                         <c:v>3.77</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3511,6 +3563,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -3619,6 +3674,9 @@
                       <c:pt idx="13" formatCode="General">
                         <c:v>3.77</c:v>
                       </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>3.77</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3629,7 +3687,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083191424"/>
+        <c:axId val="1926644624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3663,7 +3721,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083187616"/>
+        <c:crossAx val="1926638640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3671,7 +3729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083187616"/>
+        <c:axId val="1926638640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3681,7 +3739,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083191424"/>
+        <c:crossAx val="1926644624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3948,6 +4006,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4052,6 +4113,9 @@
                   <c:v>36.159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>37.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>37.26</c:v>
                 </c:pt>
               </c:numCache>
@@ -4090,8 +4154,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083178912"/>
-        <c:axId val="2083183264"/>
+        <c:axId val="1926645712"/>
+        <c:axId val="1926635920"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4257,6 +4321,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -4364,6 +4431,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>54.93</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>55.16</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4534,6 +4604,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -4642,6 +4715,9 @@
                       <c:pt idx="13">
                         <c:v>35.93</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>35.93</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4652,7 +4728,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083178912"/>
+        <c:axId val="1926645712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4686,7 +4762,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083183264"/>
+        <c:crossAx val="1926635920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4694,7 +4770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083183264"/>
+        <c:axId val="1926635920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4704,7 +4780,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083178912"/>
+        <c:crossAx val="1926645712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5032,6 +5108,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5137,6 +5216,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>3.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5294,6 +5376,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5398,6 +5483,9 @@
                   <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>3.77</c:v>
                 </c:pt>
               </c:numCache>
@@ -5556,6 +5644,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5662,6 +5753,9 @@
                 <c:pt idx="13" formatCode="General">
                   <c:v>3.77</c:v>
                 </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>3.77</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5678,11 +5772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2083188160"/>
-        <c:axId val="2083177280"/>
+        <c:axId val="1926636464"/>
+        <c:axId val="1926645168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083188160"/>
+        <c:axId val="1926636464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5725,7 +5819,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083177280"/>
+        <c:crossAx val="1926645168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5733,7 +5827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083177280"/>
+        <c:axId val="1926645168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5743,7 +5837,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083188160"/>
+        <c:crossAx val="1926636464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6014,6 +6108,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -6119,6 +6216,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3845.19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3856.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6156,11 +6256,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083189792"/>
-        <c:axId val="2083188704"/>
+        <c:axId val="1926646256"/>
+        <c:axId val="1926637552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083189792"/>
+        <c:axId val="1926646256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6194,7 +6294,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083188704"/>
+        <c:crossAx val="1926637552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6202,7 +6302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083188704"/>
+        <c:axId val="1926637552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6212,7 +6312,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083189792"/>
+        <c:crossAx val="1926646256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6479,6 +6579,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -6584,6 +6687,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4139.28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4144.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6621,8 +6727,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083189248"/>
-        <c:axId val="2083190336"/>
+        <c:axId val="1926639728"/>
+        <c:axId val="1926640816"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6788,6 +6894,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -6895,6 +7004,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>3845.19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3856.74</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7065,6 +7177,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7173,6 +7288,9 @@
                       <c:pt idx="13">
                         <c:v>4555.24</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4555.93</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -7183,7 +7301,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083189248"/>
+        <c:axId val="1926639728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7217,7 +7335,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083190336"/>
+        <c:crossAx val="1926640816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7225,7 +7343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083190336"/>
+        <c:axId val="1926640816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7235,7 +7353,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083189248"/>
+        <c:crossAx val="1926639728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7502,6 +7620,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -7607,6 +7728,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4555.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4555.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7644,8 +7768,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083179456"/>
-        <c:axId val="2083180544"/>
+        <c:axId val="1926641360"/>
+        <c:axId val="1926641904"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7811,6 +7935,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -7918,6 +8045,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>3845.19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3856.74</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8088,6 +8218,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8196,6 +8329,9 @@
                       <c:pt idx="13">
                         <c:v>4139.28</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4144.32</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8206,7 +8342,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083179456"/>
+        <c:axId val="1926641360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8240,7 +8376,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083180544"/>
+        <c:crossAx val="1926641904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8248,7 +8384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083180544"/>
+        <c:axId val="1926641904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8258,7 +8394,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083179456"/>
+        <c:crossAx val="1926641360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8527,6 +8663,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -8631,6 +8770,9 @@
                   <c:v>44.67</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>45.55</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>45.55</c:v>
                 </c:pt>
               </c:numCache>
@@ -8669,8 +8811,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083191968"/>
-        <c:axId val="2083180000"/>
+        <c:axId val="1926642448"/>
+        <c:axId val="1926642992"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -8836,6 +8978,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -8943,6 +9088,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>38.450000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>38.56</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9113,6 +9261,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9221,6 +9372,9 @@
                       <c:pt idx="13">
                         <c:v>41.39</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>41.44</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -9231,7 +9385,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083191968"/>
+        <c:axId val="1926642448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9265,7 +9419,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083180000"/>
+        <c:crossAx val="1926642992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9273,7 +9427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083180000"/>
+        <c:axId val="1926642992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9283,7 +9437,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083191968"/>
+        <c:crossAx val="1926642448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9551,6 +9705,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9656,6 +9813,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>41.39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9693,8 +9853,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083176736"/>
-        <c:axId val="2083177824"/>
+        <c:axId val="1926643536"/>
+        <c:axId val="1929919488"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9860,6 +10020,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -9967,6 +10130,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>38.450000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>38.56</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10137,6 +10303,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -10245,6 +10414,9 @@
                       <c:pt idx="13">
                         <c:v>45.55</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>45.55</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -10255,7 +10427,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083176736"/>
+        <c:axId val="1926643536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10289,7 +10461,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083177824"/>
+        <c:crossAx val="1929919488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10297,7 +10469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083177824"/>
+        <c:axId val="1929919488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10307,7 +10479,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083176736"/>
+        <c:crossAx val="1926643536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10574,6 +10746,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10679,6 +10854,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>38.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10716,11 +10894,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086309760"/>
-        <c:axId val="2086307584"/>
+        <c:axId val="1929920032"/>
+        <c:axId val="1929926016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086309760"/>
+        <c:axId val="1929920032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10754,7 +10932,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086307584"/>
+        <c:crossAx val="1929926016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10762,7 +10940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086307584"/>
+        <c:axId val="1929926016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10772,7 +10950,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086309760"/>
+        <c:crossAx val="1929920032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11039,6 +11217,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11144,6 +11325,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>3.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11181,8 +11365,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086301056"/>
-        <c:axId val="2086301600"/>
+        <c:axId val="1929916224"/>
+        <c:axId val="1929918944"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -11348,6 +11532,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11455,6 +11642,9 @@
                       </c:pt>
                       <c:pt idx="13" formatCode="General">
                         <c:v>3.66</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>3.65</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11625,6 +11815,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -11733,6 +11926,9 @@
                       <c:pt idx="13" formatCode="General">
                         <c:v>3.82</c:v>
                       </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>3.82</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -11743,7 +11939,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086301056"/>
+        <c:axId val="1929916224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11777,7 +11973,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086301600"/>
+        <c:crossAx val="1929918944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11785,7 +11981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086301600"/>
+        <c:axId val="1929918944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11795,7 +11991,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086301056"/>
+        <c:crossAx val="1929916224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12035,6 +12231,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12140,6 +12339,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>6.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12235,6 +12437,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12340,6 +12545,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>7.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12435,6 +12643,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12541,6 +12752,9 @@
                 <c:pt idx="13" formatCode="General">
                   <c:v>7.62</c:v>
                 </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>7.62</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12555,11 +12769,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="2032129680"/>
-        <c:axId val="1954282640"/>
+        <c:axId val="1915045824"/>
+        <c:axId val="1719183600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2032129680"/>
+        <c:axId val="1915045824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12620,7 +12834,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1954282640"/>
+        <c:crossAx val="1719183600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12628,7 +12842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1954282640"/>
+        <c:axId val="1719183600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12689,7 +12903,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2032129680"/>
+        <c:crossAx val="1915045824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12962,6 +13176,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -13067,6 +13284,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>3.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13104,8 +13324,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086303232"/>
-        <c:axId val="2086304864"/>
+        <c:axId val="1929921664"/>
+        <c:axId val="1929920576"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13271,6 +13491,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13378,6 +13601,9 @@
                       </c:pt>
                       <c:pt idx="13" formatCode="General">
                         <c:v>3.26</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>3.21</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13548,6 +13774,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -13656,6 +13885,9 @@
                       <c:pt idx="13" formatCode="General">
                         <c:v>3.82</c:v>
                       </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>3.82</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -13666,7 +13898,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086303232"/>
+        <c:axId val="1929921664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13700,7 +13932,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086304864"/>
+        <c:crossAx val="1929920576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13708,7 +13940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086304864"/>
+        <c:axId val="1929920576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13718,7 +13950,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086303232"/>
+        <c:crossAx val="1929921664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13987,6 +14219,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -14091,6 +14326,9 @@
                   <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>3.82</c:v>
                 </c:pt>
               </c:numCache>
@@ -14129,8 +14367,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086298336"/>
-        <c:axId val="2086302144"/>
+        <c:axId val="1929915680"/>
+        <c:axId val="1929917856"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -14296,6 +14534,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14403,6 +14644,9 @@
                       </c:pt>
                       <c:pt idx="13" formatCode="General">
                         <c:v>3.26</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>3.21</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14573,6 +14817,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -14681,6 +14928,9 @@
                       <c:pt idx="13" formatCode="General">
                         <c:v>3.66</c:v>
                       </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>3.65</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -14691,7 +14941,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086298336"/>
+        <c:axId val="1929915680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14725,7 +14975,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086302144"/>
+        <c:crossAx val="1929917856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14733,7 +14983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086302144"/>
+        <c:axId val="1929917856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14743,7 +14993,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086298336"/>
+        <c:crossAx val="1929915680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15011,6 +15261,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -15116,6 +15369,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>6.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15153,8 +15409,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086306496"/>
-        <c:axId val="2086310304"/>
+        <c:axId val="1929927648"/>
+        <c:axId val="1929921120"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -15320,6 +15576,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15427,6 +15686,9 @@
                       </c:pt>
                       <c:pt idx="13" formatCode="General">
                         <c:v>7.21</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>7.22</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15597,6 +15859,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -15705,6 +15970,9 @@
                       <c:pt idx="13" formatCode="General">
                         <c:v>7.62</c:v>
                       </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>7.62</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -15715,7 +15983,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086306496"/>
+        <c:axId val="1929927648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15749,7 +16017,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086310304"/>
+        <c:crossAx val="1929921120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15757,7 +16025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086310304"/>
+        <c:axId val="1929921120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15767,7 +16035,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086306496"/>
+        <c:crossAx val="1929927648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16034,6 +16302,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -16139,6 +16410,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>7.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16176,8 +16450,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086302688"/>
-        <c:axId val="2086303776"/>
+        <c:axId val="1929912960"/>
+        <c:axId val="1929923296"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -16343,6 +16617,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16450,6 +16727,9 @@
                       </c:pt>
                       <c:pt idx="13" formatCode="General">
                         <c:v>6.31</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>6.28</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16620,6 +16900,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -16728,6 +17011,9 @@
                       <c:pt idx="13" formatCode="General">
                         <c:v>7.62</c:v>
                       </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>7.62</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -16738,7 +17024,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086302688"/>
+        <c:axId val="1929912960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16772,7 +17058,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086303776"/>
+        <c:crossAx val="1929923296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16780,7 +17066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086303776"/>
+        <c:axId val="1929923296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16790,7 +17076,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086302688"/>
+        <c:crossAx val="1929912960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17059,6 +17345,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -17163,6 +17452,9 @@
                   <c:v>7.9</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>7.62</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>7.62</c:v>
                 </c:pt>
               </c:numCache>
@@ -17201,8 +17493,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086304320"/>
-        <c:axId val="2086308128"/>
+        <c:axId val="1929915136"/>
+        <c:axId val="1929912416"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -17368,6 +17660,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17475,6 +17770,9 @@
                       </c:pt>
                       <c:pt idx="13" formatCode="General">
                         <c:v>6.31</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>6.28</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17645,6 +17943,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -17753,6 +18054,9 @@
                       <c:pt idx="13" formatCode="General">
                         <c:v>7.21</c:v>
                       </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>7.22</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -17763,7 +18067,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086304320"/>
+        <c:axId val="1929915136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17797,7 +18101,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086308128"/>
+        <c:crossAx val="1929912416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17805,7 +18109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086308128"/>
+        <c:axId val="1929912416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17815,7 +18119,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086304320"/>
+        <c:crossAx val="1929915136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18083,6 +18387,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -18188,6 +18495,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>34.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18225,8 +18535,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086299968"/>
-        <c:axId val="2086311936"/>
+        <c:axId val="1929922208"/>
+        <c:axId val="1929924384"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -18392,6 +18702,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18499,6 +18812,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>34.04</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>34.03</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18669,6 +18985,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -18777,6 +19096,9 @@
                       <c:pt idx="13">
                         <c:v>36.03</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>36.04</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -18787,7 +19109,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086299968"/>
+        <c:axId val="1929922208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18821,7 +19143,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086311936"/>
+        <c:crossAx val="1929924384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18829,7 +19151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086311936"/>
+        <c:axId val="1929924384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18839,7 +19161,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086299968"/>
+        <c:crossAx val="1929922208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19106,6 +19428,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -19211,6 +19536,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>34.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19248,8 +19576,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086310848"/>
-        <c:axId val="2086297792"/>
+        <c:axId val="1929922752"/>
+        <c:axId val="1929923840"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -19415,6 +19743,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19522,6 +19853,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>34.26</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>34.299999999999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19692,6 +20026,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -19800,6 +20137,9 @@
                       <c:pt idx="13">
                         <c:v>36.03</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>36.04</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -19810,7 +20150,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086310848"/>
+        <c:axId val="1929922752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19844,7 +20184,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086297792"/>
+        <c:crossAx val="1929923840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19852,7 +20192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086297792"/>
+        <c:axId val="1929923840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19862,7 +20202,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086310848"/>
+        <c:crossAx val="1929922752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20131,6 +20471,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -20236,6 +20579,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>36.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20273,8 +20619,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086309216"/>
-        <c:axId val="2086305408"/>
+        <c:axId val="1929916768"/>
+        <c:axId val="1929924928"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -20440,6 +20786,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -20547,6 +20896,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>34.26</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>34.299999999999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20717,6 +21069,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -20825,6 +21180,9 @@
                       <c:pt idx="13">
                         <c:v>34.04</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>34.03</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -20835,7 +21193,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086309216"/>
+        <c:axId val="1929916768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20869,7 +21227,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086305408"/>
+        <c:crossAx val="1929924928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20877,7 +21235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086305408"/>
+        <c:axId val="1929924928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20887,7 +21245,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086309216"/>
+        <c:crossAx val="1929916768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21155,6 +21513,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -21260,6 +21621,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1201.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1201.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21297,8 +21661,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086305952"/>
-        <c:axId val="2086298880"/>
+        <c:axId val="1929925472"/>
+        <c:axId val="1929926560"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -21464,6 +21828,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -21571,6 +21938,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>856.69</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>857.51</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -21741,6 +22111,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -21849,6 +22222,9 @@
                       <c:pt idx="13">
                         <c:v>680.93</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>680.77</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -21859,7 +22235,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086305952"/>
+        <c:axId val="1929925472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21893,7 +22269,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086298880"/>
+        <c:crossAx val="1929926560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21901,7 +22277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086298880"/>
+        <c:axId val="1929926560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21911,7 +22287,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086305952"/>
+        <c:crossAx val="1929925472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22178,6 +22554,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -22283,6 +22662,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>680.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>680.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22320,8 +22702,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086307040"/>
-        <c:axId val="2086308672"/>
+        <c:axId val="1929927104"/>
+        <c:axId val="1929913504"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -22487,6 +22869,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -22594,6 +22979,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>856.69</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>857.51</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -22764,6 +23152,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -22872,6 +23263,9 @@
                       <c:pt idx="13">
                         <c:v>1201.08</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1201.43</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -22882,7 +23276,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086307040"/>
+        <c:axId val="1929927104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22916,7 +23310,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086308672"/>
+        <c:crossAx val="1929913504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22924,7 +23318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086308672"/>
+        <c:axId val="1929913504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22934,7 +23328,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086307040"/>
+        <c:crossAx val="1929927104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23201,6 +23595,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23306,6 +23703,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>54.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23343,11 +23743,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1954283184"/>
-        <c:axId val="1954284816"/>
+        <c:axId val="1926637008"/>
+        <c:axId val="1926644080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1954283184"/>
+        <c:axId val="1926637008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23381,7 +23781,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1954284816"/>
+        <c:crossAx val="1926644080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23389,7 +23789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1954284816"/>
+        <c:axId val="1926644080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23399,7 +23799,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1954283184"/>
+        <c:crossAx val="1926637008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23666,6 +24066,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -23771,6 +24174,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>856.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>857.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23808,8 +24214,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086300512"/>
-        <c:axId val="2086313024"/>
+        <c:axId val="1929914048"/>
+        <c:axId val="1929914592"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -23975,6 +24381,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -24082,6 +24491,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>680.93</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>680.77</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -24252,6 +24664,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -24360,6 +24775,9 @@
                       <c:pt idx="13">
                         <c:v>1201.08</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1201.43</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -24370,7 +24788,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086300512"/>
+        <c:axId val="1929914048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24404,7 +24822,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086313024"/>
+        <c:crossAx val="1929914592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24412,7 +24830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086313024"/>
+        <c:axId val="1929914592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24422,7 +24840,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086300512"/>
+        <c:crossAx val="1929914048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24699,6 +25117,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -24803,6 +25224,9 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
@@ -24842,11 +25266,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2086299424"/>
-        <c:axId val="2086311392"/>
+        <c:axId val="1929917312"/>
+        <c:axId val="1929918400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086299424"/>
+        <c:axId val="1929917312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24880,7 +25304,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086311392"/>
+        <c:crossAx val="1929918400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24888,7 +25312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086311392"/>
+        <c:axId val="1929918400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24898,7 +25322,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086299424"/>
+        <c:crossAx val="1929917312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25137,6 +25561,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -25242,6 +25669,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>101.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25279,11 +25709,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2086312480"/>
-        <c:axId val="2088809344"/>
+        <c:axId val="1931541040"/>
+        <c:axId val="1931527440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086312480"/>
+        <c:axId val="1931541040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25317,7 +25747,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088809344"/>
+        <c:crossAx val="1931527440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25325,7 +25755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088809344"/>
+        <c:axId val="1931527440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25335,7 +25765,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086312480"/>
+        <c:crossAx val="1931541040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25574,6 +26004,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -25679,6 +26112,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>10162.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10165.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25716,11 +26152,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2088804992"/>
-        <c:axId val="2088810976"/>
+        <c:axId val="1931541584"/>
+        <c:axId val="1931526352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088804992"/>
+        <c:axId val="1931541584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25754,7 +26190,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088810976"/>
+        <c:crossAx val="1931526352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25762,7 +26198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088810976"/>
+        <c:axId val="1931526352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25772,7 +26208,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088804992"/>
+        <c:crossAx val="1931541584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26011,6 +26447,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -26115,6 +26554,9 @@
                   <c:v>35.270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>35.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>35.93</c:v>
                 </c:pt>
               </c:numCache>
@@ -26153,11 +26595,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083185984"/>
-        <c:axId val="2083187072"/>
+        <c:axId val="1926632112"/>
+        <c:axId val="1926646800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083185984"/>
+        <c:axId val="1926632112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26191,7 +26633,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083187072"/>
+        <c:crossAx val="1926646800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26199,7 +26641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083187072"/>
+        <c:axId val="1926646800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26209,7 +26651,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083185984"/>
+        <c:crossAx val="1926632112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26476,6 +26918,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -26581,6 +27026,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1796.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1796.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26618,11 +27066,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083184352"/>
-        <c:axId val="2083184896"/>
+        <c:axId val="1926634832"/>
+        <c:axId val="1926635376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083184352"/>
+        <c:axId val="1926634832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26656,7 +27104,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083184896"/>
+        <c:crossAx val="1926635376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26664,7 +27112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083184896"/>
+        <c:axId val="1926635376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26674,7 +27122,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083184352"/>
+        <c:crossAx val="1926634832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26941,6 +27389,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -27046,6 +27497,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1242.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1242.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27083,11 +27537,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083183808"/>
-        <c:axId val="2083181088"/>
+        <c:axId val="1926638096"/>
+        <c:axId val="1926631568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083183808"/>
+        <c:axId val="1926638096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27121,7 +27575,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083181088"/>
+        <c:crossAx val="1926631568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27129,7 +27583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083181088"/>
+        <c:axId val="1926631568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27139,7 +27593,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083183808"/>
+        <c:crossAx val="1926638096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27406,6 +27860,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -27511,6 +27968,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2746.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2758.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27548,8 +28008,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083186528"/>
-        <c:axId val="2083190880"/>
+        <c:axId val="1926633200"/>
+        <c:axId val="1926632656"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -27715,6 +28175,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -27822,6 +28285,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>1796.51</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1796.78</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -27992,6 +28458,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -28100,6 +28569,9 @@
                       <c:pt idx="13">
                         <c:v>1242.0999999999999</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1242.29</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -28110,7 +28582,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083186528"/>
+        <c:axId val="1926633200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28144,7 +28616,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083190880"/>
+        <c:crossAx val="1926632656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28152,7 +28624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083190880"/>
+        <c:axId val="1926632656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28162,7 +28634,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083186528"/>
+        <c:crossAx val="1926633200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28429,6 +28901,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -28533,6 +29008,9 @@
                   <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>3.77</c:v>
                 </c:pt>
               </c:numCache>
@@ -28571,8 +29049,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083182176"/>
-        <c:axId val="2083182720"/>
+        <c:axId val="1926633744"/>
+        <c:axId val="1926639184"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -28738,6 +29216,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -28845,6 +29326,9 @@
                       </c:pt>
                       <c:pt idx="13" formatCode="General">
                         <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>3.12</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -29015,6 +29499,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -29123,6 +29610,9 @@
                       <c:pt idx="13" formatCode="General">
                         <c:v>3.77</c:v>
                       </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>3.77</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -29133,7 +29623,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083182176"/>
+        <c:axId val="1926633744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29167,7 +29657,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083182720"/>
+        <c:crossAx val="1926639184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -29175,7 +29665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083182720"/>
+        <c:axId val="1926639184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29185,7 +29675,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083182176"/>
+        <c:crossAx val="1926633744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29452,6 +29942,9 @@
                   <c:pt idx="13">
                     <c:v>21/jun</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>24/jun</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -29556,6 +30049,9 @@
                   <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>3.77</c:v>
                 </c:pt>
               </c:numCache>
@@ -29594,8 +30090,8 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2083181632"/>
-        <c:axId val="2083185440"/>
+        <c:axId val="1926640272"/>
+        <c:axId val="1926634288"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -29761,6 +30257,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -29868,6 +30367,9 @@
                       </c:pt>
                       <c:pt idx="13" formatCode="General">
                         <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>3.12</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -30038,6 +30540,9 @@
                         <c:pt idx="13">
                           <c:v>21/jun</c:v>
                         </c:pt>
+                        <c:pt idx="14">
+                          <c:v>24/jun</c:v>
+                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -30146,6 +30651,9 @@
                       <c:pt idx="13" formatCode="General">
                         <c:v>3.77</c:v>
                       </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>3.77</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -30156,7 +30664,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083181632"/>
+        <c:axId val="1926640272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30190,7 +30698,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083185440"/>
+        <c:crossAx val="1926634288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -30198,7 +30706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083185440"/>
+        <c:axId val="1926634288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30208,7 +30716,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083181632"/>
+        <c:crossAx val="1926640272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -49860,10 +50368,10 @@
       <c r="A2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -49971,10 +50479,10 @@
       <c r="A9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -50031,10 +50539,10 @@
       <c r="A13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -50103,10 +50611,10 @@
       <c r="A2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -50214,10 +50722,10 @@
       <c r="A9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -50274,10 +50782,10 @@
       <c r="A13" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -50346,10 +50854,10 @@
       <c r="A2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -50457,10 +50965,10 @@
       <c r="A9" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -50517,10 +51025,10 @@
       <c r="A13" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -50589,10 +51097,10 @@
       <c r="A2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -50700,10 +51208,10 @@
       <c r="A9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -50760,10 +51268,10 @@
       <c r="A13" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -50832,10 +51340,10 @@
       <c r="A2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -50943,10 +51451,10 @@
       <c r="A9" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -51003,10 +51511,10 @@
       <c r="A13" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -51040,7 +51548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -51075,10 +51583,10 @@
       <c r="A2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -51186,10 +51694,10 @@
       <c r="A9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
@@ -51246,10 +51754,10 @@
       <c r="A13" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
@@ -51281,13 +51789,256 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="57">
+        <v>45519</v>
+      </c>
+      <c r="C3" s="58">
+        <v>3.12</v>
+      </c>
+      <c r="D3" s="37">
+        <v>55.16</v>
+      </c>
+      <c r="E3" s="37">
+        <v>2758.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="57">
+        <v>49444</v>
+      </c>
+      <c r="C4" s="58">
+        <v>3.77</v>
+      </c>
+      <c r="D4" s="37">
+        <v>35.93</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1796.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="57">
+        <v>53097</v>
+      </c>
+      <c r="C5" s="58">
+        <v>3.77</v>
+      </c>
+      <c r="D5" s="37">
+        <v>37.26</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1242.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="57">
+        <v>46249</v>
+      </c>
+      <c r="C6" s="58">
+        <v>3.21</v>
+      </c>
+      <c r="D6" s="37">
+        <v>38.56</v>
+      </c>
+      <c r="E6" s="37">
+        <v>3856.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="57">
+        <v>49444</v>
+      </c>
+      <c r="C7" s="58">
+        <v>3.65</v>
+      </c>
+      <c r="D7" s="37">
+        <v>41.44</v>
+      </c>
+      <c r="E7" s="37">
+        <v>4144.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="57">
+        <v>55015</v>
+      </c>
+      <c r="C8" s="58">
+        <v>3.82</v>
+      </c>
+      <c r="D8" s="37">
+        <v>45.55</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4555.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="57">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="58">
+        <v>6.28</v>
+      </c>
+      <c r="D10" s="37">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E10" s="37">
+        <v>857.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="57">
+        <v>45658</v>
+      </c>
+      <c r="C11" s="58">
+        <v>7.22</v>
+      </c>
+      <c r="D11" s="37">
+        <v>34.03</v>
+      </c>
+      <c r="E11" s="37">
+        <v>680.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="57">
+        <v>47119</v>
+      </c>
+      <c r="C12" s="58">
+        <v>7.62</v>
+      </c>
+      <c r="D12" s="37">
+        <v>36.04</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1201.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="57">
+        <v>45717</v>
+      </c>
+      <c r="C14" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="37">
+        <v>101.65</v>
+      </c>
+      <c r="E14" s="37">
+        <v>10165.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12:AR15"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AV4" sqref="AV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -51360,73 +52111,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="83"/>
     </row>
     <row r="2" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
@@ -51756,9 +52507,15 @@
       <c r="AR3" s="17">
         <v>43637</v>
       </c>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="17"/>
+      <c r="AS3" s="15">
+        <v>43640</v>
+      </c>
+      <c r="AT3" s="16">
+        <v>43640</v>
+      </c>
+      <c r="AU3" s="17">
+        <v>43640</v>
+      </c>
       <c r="AV3" s="15"/>
       <c r="AW3" s="16"/>
       <c r="AX3" s="17"/>
@@ -51911,9 +52668,15 @@
       <c r="AR4" s="40">
         <v>2746.93</v>
       </c>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="40"/>
+      <c r="AS4" s="38">
+        <v>3.12</v>
+      </c>
+      <c r="AT4" s="39">
+        <v>55.16</v>
+      </c>
+      <c r="AU4" s="40">
+        <v>2758.24</v>
+      </c>
       <c r="AV4" s="38"/>
       <c r="AW4" s="39"/>
       <c r="AX4" s="40"/>
@@ -52066,9 +52829,15 @@
       <c r="AR5" s="42">
         <v>1796.51</v>
       </c>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="42"/>
+      <c r="AS5" s="41">
+        <v>3.77</v>
+      </c>
+      <c r="AT5" s="37">
+        <v>35.93</v>
+      </c>
+      <c r="AU5" s="42">
+        <v>1796.78</v>
+      </c>
       <c r="AV5" s="41"/>
       <c r="AW5" s="37"/>
       <c r="AX5" s="42"/>
@@ -52221,9 +52990,15 @@
       <c r="AR6" s="42">
         <v>1242.0999999999999</v>
       </c>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="37"/>
-      <c r="AU6" s="42"/>
+      <c r="AS6" s="41">
+        <v>3.77</v>
+      </c>
+      <c r="AT6" s="37">
+        <v>37.26</v>
+      </c>
+      <c r="AU6" s="42">
+        <v>1242.29</v>
+      </c>
       <c r="AV6" s="41"/>
       <c r="AW6" s="37"/>
       <c r="AX6" s="42"/>
@@ -52376,9 +53151,15 @@
       <c r="AR7" s="42">
         <v>3845.19</v>
       </c>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="42"/>
+      <c r="AS7" s="41">
+        <v>3.21</v>
+      </c>
+      <c r="AT7" s="37">
+        <v>38.56</v>
+      </c>
+      <c r="AU7" s="42">
+        <v>3856.74</v>
+      </c>
       <c r="AV7" s="41"/>
       <c r="AW7" s="37"/>
       <c r="AX7" s="42"/>
@@ -52531,9 +53312,15 @@
       <c r="AR8" s="42">
         <v>4139.28</v>
       </c>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="42"/>
+      <c r="AS8" s="41">
+        <v>3.65</v>
+      </c>
+      <c r="AT8" s="37">
+        <v>41.44</v>
+      </c>
+      <c r="AU8" s="42">
+        <v>4144.32</v>
+      </c>
       <c r="AV8" s="41"/>
       <c r="AW8" s="37"/>
       <c r="AX8" s="42"/>
@@ -52686,9 +53473,15 @@
       <c r="AR9" s="45">
         <v>4555.24</v>
       </c>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="42"/>
+      <c r="AS9" s="43">
+        <v>3.82</v>
+      </c>
+      <c r="AT9" s="44">
+        <v>45.55</v>
+      </c>
+      <c r="AU9" s="45">
+        <v>4555.93</v>
+      </c>
       <c r="AV9" s="41"/>
       <c r="AW9" s="37"/>
       <c r="AX9" s="42"/>
@@ -52709,73 +53502,73 @@
       <c r="BM9" s="45"/>
     </row>
     <row r="10" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="81"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="81"/>
-      <c r="AI10" s="81"/>
-      <c r="AJ10" s="81"/>
-      <c r="AK10" s="81"/>
-      <c r="AL10" s="81"/>
-      <c r="AM10" s="81"/>
-      <c r="AN10" s="81"/>
-      <c r="AO10" s="81"/>
-      <c r="AP10" s="81"/>
-      <c r="AQ10" s="81"/>
-      <c r="AR10" s="81"/>
-      <c r="AS10" s="81"/>
-      <c r="AT10" s="81"/>
-      <c r="AU10" s="81"/>
-      <c r="AV10" s="81"/>
-      <c r="AW10" s="81"/>
-      <c r="AX10" s="81"/>
-      <c r="AY10" s="81"/>
-      <c r="AZ10" s="81"/>
-      <c r="BA10" s="81"/>
-      <c r="BB10" s="81"/>
-      <c r="BC10" s="81"/>
-      <c r="BD10" s="81"/>
-      <c r="BE10" s="81"/>
-      <c r="BF10" s="81"/>
-      <c r="BG10" s="81"/>
-      <c r="BH10" s="81"/>
-      <c r="BI10" s="81"/>
-      <c r="BJ10" s="81"/>
-      <c r="BK10" s="81"/>
-      <c r="BL10" s="81"/>
-      <c r="BM10" s="82"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="82"/>
+      <c r="AW10" s="82"/>
+      <c r="AX10" s="82"/>
+      <c r="AY10" s="82"/>
+      <c r="AZ10" s="82"/>
+      <c r="BA10" s="82"/>
+      <c r="BB10" s="82"/>
+      <c r="BC10" s="82"/>
+      <c r="BD10" s="82"/>
+      <c r="BE10" s="82"/>
+      <c r="BF10" s="82"/>
+      <c r="BG10" s="82"/>
+      <c r="BH10" s="82"/>
+      <c r="BI10" s="82"/>
+      <c r="BJ10" s="82"/>
+      <c r="BK10" s="82"/>
+      <c r="BL10" s="82"/>
+      <c r="BM10" s="83"/>
     </row>
     <row r="11" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
@@ -53105,9 +53898,15 @@
       <c r="AR12" s="17">
         <v>43637</v>
       </c>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="17"/>
+      <c r="AS12" s="15">
+        <v>43640</v>
+      </c>
+      <c r="AT12" s="16">
+        <v>43640</v>
+      </c>
+      <c r="AU12" s="17">
+        <v>43640</v>
+      </c>
       <c r="AV12" s="15"/>
       <c r="AW12" s="16"/>
       <c r="AX12" s="17"/>
@@ -53260,9 +54059,15 @@
       <c r="AR13" s="40">
         <v>856.69</v>
       </c>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="39"/>
-      <c r="AU13" s="40"/>
+      <c r="AS13" s="38">
+        <v>6.28</v>
+      </c>
+      <c r="AT13" s="39">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AU13" s="40">
+        <v>857.51</v>
+      </c>
       <c r="AV13" s="38"/>
       <c r="AW13" s="39"/>
       <c r="AX13" s="40"/>
@@ -53415,9 +54220,15 @@
       <c r="AR14" s="42">
         <v>680.93</v>
       </c>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="42"/>
+      <c r="AS14" s="41">
+        <v>7.22</v>
+      </c>
+      <c r="AT14" s="37">
+        <v>34.03</v>
+      </c>
+      <c r="AU14" s="42">
+        <v>680.77</v>
+      </c>
       <c r="AV14" s="41"/>
       <c r="AW14" s="37"/>
       <c r="AX14" s="42"/>
@@ -53570,9 +54381,15 @@
       <c r="AR15" s="45">
         <v>1201.08</v>
       </c>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="42"/>
+      <c r="AS15" s="43">
+        <v>7.62</v>
+      </c>
+      <c r="AT15" s="44">
+        <v>36.04</v>
+      </c>
+      <c r="AU15" s="45">
+        <v>1201.43</v>
+      </c>
       <c r="AV15" s="41"/>
       <c r="AW15" s="37"/>
       <c r="AX15" s="42"/>
@@ -53593,73 +54410,73 @@
       <c r="BM15" s="45"/>
     </row>
     <row r="16" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="81"/>
-      <c r="AF16" s="81"/>
-      <c r="AG16" s="81"/>
-      <c r="AH16" s="81"/>
-      <c r="AI16" s="81"/>
-      <c r="AJ16" s="81"/>
-      <c r="AK16" s="81"/>
-      <c r="AL16" s="81"/>
-      <c r="AM16" s="81"/>
-      <c r="AN16" s="81"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="81"/>
-      <c r="AQ16" s="81"/>
-      <c r="AR16" s="81"/>
-      <c r="AS16" s="81"/>
-      <c r="AT16" s="81"/>
-      <c r="AU16" s="81"/>
-      <c r="AV16" s="81"/>
-      <c r="AW16" s="81"/>
-      <c r="AX16" s="81"/>
-      <c r="AY16" s="81"/>
-      <c r="AZ16" s="81"/>
-      <c r="BA16" s="81"/>
-      <c r="BB16" s="81"/>
-      <c r="BC16" s="81"/>
-      <c r="BD16" s="81"/>
-      <c r="BE16" s="81"/>
-      <c r="BF16" s="81"/>
-      <c r="BG16" s="81"/>
-      <c r="BH16" s="81"/>
-      <c r="BI16" s="81"/>
-      <c r="BJ16" s="81"/>
-      <c r="BK16" s="81"/>
-      <c r="BL16" s="81"/>
-      <c r="BM16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="82"/>
+      <c r="AM16" s="82"/>
+      <c r="AN16" s="82"/>
+      <c r="AO16" s="82"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="82"/>
+      <c r="AR16" s="82"/>
+      <c r="AS16" s="82"/>
+      <c r="AT16" s="82"/>
+      <c r="AU16" s="82"/>
+      <c r="AV16" s="82"/>
+      <c r="AW16" s="82"/>
+      <c r="AX16" s="82"/>
+      <c r="AY16" s="82"/>
+      <c r="AZ16" s="82"/>
+      <c r="BA16" s="82"/>
+      <c r="BB16" s="82"/>
+      <c r="BC16" s="82"/>
+      <c r="BD16" s="82"/>
+      <c r="BE16" s="82"/>
+      <c r="BF16" s="82"/>
+      <c r="BG16" s="82"/>
+      <c r="BH16" s="82"/>
+      <c r="BI16" s="82"/>
+      <c r="BJ16" s="82"/>
+      <c r="BK16" s="82"/>
+      <c r="BL16" s="82"/>
+      <c r="BM16" s="83"/>
     </row>
     <row r="17" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
@@ -53989,9 +54806,15 @@
       <c r="AR18" s="17">
         <v>43637</v>
       </c>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="17"/>
+      <c r="AS18" s="15">
+        <v>43640</v>
+      </c>
+      <c r="AT18" s="16">
+        <v>43640</v>
+      </c>
+      <c r="AU18" s="17">
+        <v>43640</v>
+      </c>
       <c r="AV18" s="52"/>
       <c r="AW18" s="16"/>
       <c r="AX18" s="17"/>
@@ -54144,9 +54967,15 @@
       <c r="AR19" s="48">
         <v>10162.64</v>
       </c>
-      <c r="AS19" s="46"/>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="48"/>
+      <c r="AS19" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="AT19" s="47">
+        <v>101.65</v>
+      </c>
+      <c r="AU19" s="48">
+        <v>10165.15</v>
+      </c>
       <c r="AV19" s="46"/>
       <c r="AW19" s="47"/>
       <c r="AX19" s="48"/>
@@ -54259,12 +55088,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4"/>
+    <sheetView topLeftCell="AS1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -54337,73 +55166,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="83"/>
     </row>
     <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
@@ -54733,9 +55562,15 @@
       <c r="AR3" s="17">
         <v>43637</v>
       </c>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="17"/>
+      <c r="AS3" s="15">
+        <v>43640</v>
+      </c>
+      <c r="AT3" s="16">
+        <v>43640</v>
+      </c>
+      <c r="AU3" s="17">
+        <v>43640</v>
+      </c>
       <c r="AV3" s="15"/>
       <c r="AW3" s="16"/>
       <c r="AX3" s="17"/>
@@ -54888,9 +55723,15 @@
       <c r="AR4" s="40">
         <v>2746.93</v>
       </c>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="40"/>
+      <c r="AS4" s="38">
+        <v>3.12</v>
+      </c>
+      <c r="AT4" s="39">
+        <v>55.16</v>
+      </c>
+      <c r="AU4" s="40">
+        <v>2758.24</v>
+      </c>
       <c r="AV4" s="38"/>
       <c r="AW4" s="39"/>
       <c r="AX4" s="40"/>
@@ -55043,9 +55884,15 @@
       <c r="AR5" s="42">
         <v>1796.51</v>
       </c>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="42"/>
+      <c r="AS5" s="41">
+        <v>3.77</v>
+      </c>
+      <c r="AT5" s="37">
+        <v>35.93</v>
+      </c>
+      <c r="AU5" s="42">
+        <v>1796.78</v>
+      </c>
       <c r="AV5" s="41"/>
       <c r="AW5" s="37"/>
       <c r="AX5" s="42"/>
@@ -55198,1065 +56045,15 @@
       <c r="AR6" s="45">
         <v>1242.0999999999999</v>
       </c>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="43"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="43"/>
-      <c r="BF6" s="44"/>
-      <c r="BG6" s="45"/>
-      <c r="BH6" s="43"/>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="45"/>
-      <c r="BK6" s="43"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="45"/>
-    </row>
-    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:BM1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM100"/>
-  <sheetViews>
-    <sheetView topLeftCell="AM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="82"/>
-    </row>
-    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM2" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43619</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43619</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43620</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43620</v>
-      </c>
-      <c r="I3" s="64">
-        <v>43621</v>
-      </c>
-      <c r="J3" s="12">
-        <v>43621</v>
-      </c>
-      <c r="K3" s="34">
-        <v>43621</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="M3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="N3" s="2">
-        <v>43622</v>
-      </c>
-      <c r="O3" s="15">
-        <v>43623</v>
-      </c>
-      <c r="P3" s="16">
-        <v>43623</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>43623</v>
-      </c>
-      <c r="R3" s="15">
-        <v>43626</v>
-      </c>
-      <c r="S3" s="16">
-        <v>43626</v>
-      </c>
-      <c r="T3" s="17">
-        <v>43626</v>
-      </c>
-      <c r="U3" s="15">
-        <v>43627</v>
-      </c>
-      <c r="V3" s="16">
-        <v>43627</v>
-      </c>
-      <c r="W3" s="17">
-        <v>43627</v>
-      </c>
-      <c r="X3" s="15">
-        <v>43628</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>43628</v>
-      </c>
-      <c r="Z3" s="17">
-        <v>43628</v>
-      </c>
-      <c r="AA3" s="15">
-        <v>43629</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>43629</v>
-      </c>
-      <c r="AC3" s="17">
-        <v>43629</v>
-      </c>
-      <c r="AD3" s="15">
-        <v>43630</v>
-      </c>
-      <c r="AE3" s="16">
-        <v>43630</v>
-      </c>
-      <c r="AF3" s="17">
-        <v>43630</v>
-      </c>
-      <c r="AG3" s="15">
-        <v>43633</v>
-      </c>
-      <c r="AH3" s="16">
-        <v>43633</v>
-      </c>
-      <c r="AI3" s="17">
-        <v>43633</v>
-      </c>
-      <c r="AJ3" s="15">
-        <v>43634</v>
-      </c>
-      <c r="AK3" s="16">
-        <v>43634</v>
-      </c>
-      <c r="AL3" s="17">
-        <v>43634</v>
-      </c>
-      <c r="AM3" s="15">
-        <v>43635</v>
-      </c>
-      <c r="AN3" s="16">
-        <v>43635</v>
-      </c>
-      <c r="AO3" s="17">
-        <v>43635</v>
-      </c>
-      <c r="AP3" s="29">
-        <v>43637</v>
-      </c>
-      <c r="AQ3" s="29">
-        <v>43637</v>
-      </c>
-      <c r="AR3" s="29">
-        <v>43637</v>
-      </c>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="17"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="16"/>
-      <c r="BJ3" s="17"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="16"/>
-      <c r="BM3" s="17"/>
-    </row>
-    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="49">
-        <v>46249</v>
-      </c>
-      <c r="C4" s="38">
-        <v>3.71</v>
-      </c>
-      <c r="D4" s="39">
-        <v>37.409999999999997</v>
-      </c>
-      <c r="E4" s="40">
-        <v>3741.25</v>
-      </c>
-      <c r="F4" s="38">
-        <v>3.65</v>
-      </c>
-      <c r="G4" s="39">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="H4" s="40">
-        <v>3755</v>
-      </c>
-      <c r="I4" s="41">
-        <v>3.67</v>
-      </c>
-      <c r="J4" s="37">
-        <v>37.51</v>
-      </c>
-      <c r="K4" s="42">
-        <v>3751.51</v>
-      </c>
-      <c r="L4" s="38">
-        <v>3.67</v>
-      </c>
-      <c r="M4" s="39">
-        <v>37.520000000000003</v>
-      </c>
-      <c r="N4" s="40">
-        <v>3752.34</v>
-      </c>
-      <c r="O4" s="38">
-        <v>3.54</v>
-      </c>
-      <c r="P4" s="39">
-        <v>37.78</v>
-      </c>
-      <c r="Q4" s="40">
-        <v>3778.4</v>
-      </c>
-      <c r="R4" s="38">
-        <v>3.52</v>
-      </c>
-      <c r="S4" s="39">
-        <v>37.83</v>
-      </c>
-      <c r="T4" s="40">
-        <v>3783.42</v>
-      </c>
-      <c r="U4" s="38">
-        <v>3.47</v>
-      </c>
-      <c r="V4" s="39">
-        <v>37.94</v>
-      </c>
-      <c r="W4" s="40">
-        <v>3794.99</v>
-      </c>
-      <c r="X4" s="38">
-        <v>3.44</v>
-      </c>
-      <c r="Y4" s="39">
-        <v>38.020000000000003</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>3802.21</v>
-      </c>
-      <c r="AA4" s="38">
-        <v>3.46</v>
-      </c>
-      <c r="AB4" s="39">
-        <v>37.979999999999997</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>3798.51</v>
-      </c>
-      <c r="AD4" s="38">
-        <v>3.45</v>
-      </c>
-      <c r="AE4" s="39">
-        <v>38.01</v>
-      </c>
-      <c r="AF4" s="40">
-        <v>3801.39</v>
-      </c>
-      <c r="AG4" s="38">
-        <v>3.41</v>
-      </c>
-      <c r="AH4" s="39">
-        <v>38.1</v>
-      </c>
-      <c r="AI4" s="40">
-        <v>3810.65</v>
-      </c>
-      <c r="AJ4" s="38">
-        <v>3.37</v>
-      </c>
-      <c r="AK4" s="39">
-        <v>38.19</v>
-      </c>
-      <c r="AL4" s="40">
-        <v>3819.93</v>
-      </c>
-      <c r="AM4" s="38">
-        <v>3.39</v>
-      </c>
-      <c r="AN4" s="39">
-        <v>38.159999999999997</v>
-      </c>
-      <c r="AO4" s="40">
-        <v>3816.08</v>
-      </c>
-      <c r="AP4" s="38">
-        <v>3.26</v>
-      </c>
-      <c r="AQ4" s="39">
-        <v>38.450000000000003</v>
-      </c>
-      <c r="AR4" s="40">
-        <v>3845.19</v>
-      </c>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="38"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="40"/>
-    </row>
-    <row r="5" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="49">
-        <v>49444</v>
-      </c>
-      <c r="C5" s="41">
-        <v>3.9</v>
-      </c>
-      <c r="D5" s="37">
-        <v>40.270000000000003</v>
-      </c>
-      <c r="E5" s="42">
-        <v>4027.51</v>
-      </c>
-      <c r="F5" s="41">
-        <v>3.83</v>
-      </c>
-      <c r="G5" s="37">
-        <v>40.58</v>
-      </c>
-      <c r="H5" s="42">
-        <v>4058.68</v>
-      </c>
-      <c r="I5" s="41">
-        <v>3.86</v>
-      </c>
-      <c r="J5" s="37">
-        <v>40.46</v>
-      </c>
-      <c r="K5" s="42">
-        <v>4046.61</v>
-      </c>
-      <c r="L5" s="41">
-        <v>3.87</v>
-      </c>
-      <c r="M5" s="37">
-        <v>40.43</v>
-      </c>
-      <c r="N5" s="42">
-        <v>4043.21</v>
-      </c>
-      <c r="O5" s="41">
-        <v>3.84</v>
-      </c>
-      <c r="P5" s="37">
-        <v>40.54</v>
-      </c>
-      <c r="Q5" s="42">
-        <v>4054</v>
-      </c>
-      <c r="R5" s="41">
-        <v>3.83</v>
-      </c>
-      <c r="S5" s="37">
-        <v>40.590000000000003</v>
-      </c>
-      <c r="T5" s="42">
-        <v>4059.11</v>
-      </c>
-      <c r="U5" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="V5" s="37">
-        <v>40.72</v>
-      </c>
-      <c r="W5" s="42">
-        <v>4072.92</v>
-      </c>
-      <c r="X5" s="41">
-        <v>3.78</v>
-      </c>
-      <c r="Y5" s="37">
-        <v>40.82</v>
-      </c>
-      <c r="Z5" s="42">
-        <v>4082.41</v>
-      </c>
-      <c r="AA5" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="AB5" s="37">
-        <v>40.74</v>
-      </c>
-      <c r="AC5" s="42">
-        <v>4074.47</v>
-      </c>
-      <c r="AD5" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="AE5" s="37">
-        <v>40.75</v>
-      </c>
-      <c r="AF5" s="42">
-        <v>4075.27</v>
-      </c>
-      <c r="AG5" s="41">
-        <v>3.78</v>
-      </c>
-      <c r="AH5" s="37">
-        <v>40.840000000000003</v>
-      </c>
-      <c r="AI5" s="42">
-        <v>4084.6</v>
-      </c>
-      <c r="AJ5" s="41">
+      <c r="AS6" s="43">
         <v>3.77</v>
       </c>
-      <c r="AK5" s="37">
-        <v>40.89</v>
-      </c>
-      <c r="AL5" s="42">
-        <v>4089.58</v>
-      </c>
-      <c r="AM5" s="41">
-        <v>3.78</v>
-      </c>
-      <c r="AN5" s="37">
-        <v>40.85</v>
-      </c>
-      <c r="AO5" s="42">
-        <v>4085.84</v>
-      </c>
-      <c r="AP5" s="41">
-        <v>3.66</v>
-      </c>
-      <c r="AQ5" s="37">
-        <v>41.39</v>
-      </c>
-      <c r="AR5" s="42">
-        <v>4139.28</v>
-      </c>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="42"/>
-    </row>
-    <row r="6" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="50">
-        <v>55015</v>
-      </c>
-      <c r="C6" s="43">
-        <v>4.09</v>
-      </c>
-      <c r="D6" s="44">
-        <v>43.55</v>
-      </c>
-      <c r="E6" s="45">
-        <v>4355.7700000000004</v>
-      </c>
-      <c r="F6" s="43">
-        <v>3.98</v>
-      </c>
-      <c r="G6" s="44">
-        <v>44.33</v>
-      </c>
-      <c r="H6" s="45">
-        <v>4433.3999999999996</v>
-      </c>
-      <c r="I6" s="43">
-        <v>4.01</v>
-      </c>
-      <c r="J6" s="44">
-        <v>44.13</v>
-      </c>
-      <c r="K6" s="45">
-        <v>4413.34</v>
-      </c>
-      <c r="L6" s="43">
-        <v>4.05</v>
-      </c>
-      <c r="M6" s="44">
-        <v>43.86</v>
-      </c>
-      <c r="N6" s="45">
-        <v>4386.4799999999996</v>
-      </c>
-      <c r="O6" s="43">
-        <v>4.03</v>
-      </c>
-      <c r="P6" s="44">
-        <v>43.98</v>
-      </c>
-      <c r="Q6" s="45">
-        <v>4398.05</v>
-      </c>
-      <c r="R6" s="43">
-        <v>4.03</v>
-      </c>
-      <c r="S6" s="44">
-        <v>43.98</v>
-      </c>
-      <c r="T6" s="45">
-        <v>4398.93</v>
-      </c>
-      <c r="U6" s="43">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="V6" s="44">
-        <v>44.06</v>
-      </c>
-      <c r="W6" s="45">
-        <v>4406.7700000000004</v>
-      </c>
-      <c r="X6" s="43">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="44">
-        <v>44.21</v>
-      </c>
-      <c r="Z6" s="45">
-        <v>4421.6499999999996</v>
-      </c>
-      <c r="AA6" s="43">
-        <v>3.99</v>
-      </c>
-      <c r="AB6" s="44">
-        <v>44.29</v>
-      </c>
-      <c r="AC6" s="45">
-        <v>4429.54</v>
-      </c>
-      <c r="AD6" s="43">
-        <v>3.98</v>
-      </c>
-      <c r="AE6" s="44">
-        <v>44.37</v>
-      </c>
-      <c r="AF6" s="45">
-        <v>4437.49</v>
-      </c>
-      <c r="AG6" s="43">
-        <v>3.96</v>
-      </c>
-      <c r="AH6" s="44">
-        <v>44.52</v>
-      </c>
-      <c r="AI6" s="45">
-        <v>4452.32</v>
-      </c>
-      <c r="AJ6" s="43">
-        <v>3.94</v>
-      </c>
-      <c r="AK6" s="44">
-        <v>44.67</v>
-      </c>
-      <c r="AL6" s="45">
-        <v>4467.21</v>
-      </c>
-      <c r="AM6" s="43">
-        <v>3.94</v>
-      </c>
-      <c r="AN6" s="44">
-        <v>44.67</v>
-      </c>
-      <c r="AO6" s="45">
-        <v>4467.92</v>
-      </c>
-      <c r="AP6" s="43">
-        <v>3.82</v>
-      </c>
-      <c r="AQ6" s="44">
-        <v>45.55</v>
-      </c>
-      <c r="AR6" s="45">
-        <v>4555.24</v>
-      </c>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="45"/>
+      <c r="AT6" s="44">
+        <v>37.26</v>
+      </c>
+      <c r="AU6" s="45">
+        <v>1242.29</v>
+      </c>
       <c r="AV6" s="43"/>
       <c r="AW6" s="44"/>
       <c r="AX6" s="45"/>
@@ -56384,8 +56181,1088 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM100"/>
   <sheetViews>
+    <sheetView topLeftCell="AT1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU4" sqref="AU4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="83"/>
+    </row>
+    <row r="2" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43619</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43619</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43620</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43620</v>
+      </c>
+      <c r="I3" s="64">
+        <v>43621</v>
+      </c>
+      <c r="J3" s="12">
+        <v>43621</v>
+      </c>
+      <c r="K3" s="34">
+        <v>43621</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="O3" s="15">
+        <v>43623</v>
+      </c>
+      <c r="P3" s="16">
+        <v>43623</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>43623</v>
+      </c>
+      <c r="R3" s="15">
+        <v>43626</v>
+      </c>
+      <c r="S3" s="16">
+        <v>43626</v>
+      </c>
+      <c r="T3" s="17">
+        <v>43626</v>
+      </c>
+      <c r="U3" s="15">
+        <v>43627</v>
+      </c>
+      <c r="V3" s="16">
+        <v>43627</v>
+      </c>
+      <c r="W3" s="17">
+        <v>43627</v>
+      </c>
+      <c r="X3" s="15">
+        <v>43628</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>43628</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>43628</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>43629</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>43629</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>43629</v>
+      </c>
+      <c r="AD3" s="15">
+        <v>43630</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>43630</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>43630</v>
+      </c>
+      <c r="AG3" s="15">
+        <v>43633</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>43633</v>
+      </c>
+      <c r="AI3" s="17">
+        <v>43633</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>43634</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>43634</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>43634</v>
+      </c>
+      <c r="AM3" s="15">
+        <v>43635</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>43635</v>
+      </c>
+      <c r="AO3" s="17">
+   